--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5437E-DDB4-4BC9-A2F8-2F151B7A2CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1054BE-D94B-4385-9F2D-A5ACEFA938A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="283">
   <si>
     <t>Date</t>
   </si>
@@ -1066,61 +1066,6 @@
   </si>
   <si>
     <r>
-      <t>...</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nor the next. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The dull grey hours passed without event. …</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>...</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>As the third day of their voyage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wore on the lands changed slowly: the trees thinned and then failed altogether.</t>
-    </r>
-  </si>
-  <si>
-    <t>Frodo shivered, thinking of the lawns and fountains, the clear sun and gentle rains of Lothlórien. There was little speech and no laughter in any of the boats. Each member of the Company was busy with his own thoughts.</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">In this way the time passed without event </t>
     </r>
     <r>
@@ -1133,32 +1078,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>until the seventh day.</t>
-    </r>
-  </si>
-  <si>
-    <t>In the next day…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>...or two</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, as they went on, borne steadily southwards, this feeling of insecurity grew on all the Company. For a whole day they took to their paddles and hastened forward.</t>
     </r>
   </si>
   <si>
@@ -1187,6 +1106,94 @@
       <t xml:space="preserve"> night of their journey came.</t>
     </r>
   </si>
+  <si>
+    <t>post7</t>
+  </si>
+  <si>
+    <t>post8</t>
+  </si>
+  <si>
+    <t>post9</t>
+  </si>
+  <si>
+    <t>estimate?</t>
+  </si>
+  <si>
+    <t>The night passed without Gollum showing so much as a shadow again.</t>
+  </si>
+  <si>
+    <t>...As the third day of their voyage wore on the lands changed slowly: the trees thinned and then failed altogether.</t>
+  </si>
+  <si>
+    <t>... nor the next. The dull grey hours passed without event. …</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In the next day…or two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as they went on, borne steadily southwards, this feeling of insecurity grew on all the Company. For a whole day they took to their paddles and hastened forward.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When the day came t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he mood of the world about them had become soft and sad. Slowly the dawn grew to a pale light, diffused and shadowless.</t>
+    </r>
+  </si>
+  <si>
+    <t>17 Feb 3019: Aragorn let them drift with the stream as they wished, husbanding their strength against weariness to come. But he insisted that at least they should start early each day and journey on far into the evening; for he felt in his heart that time was pressing, and he feared that the Dark Lord had not been idle while they lingered in Lórien.</t>
+  </si>
+  <si>
+    <t>18 Feb 3019: Nonetheless they saw no sign of any enemy that day, nor the next.</t>
+  </si>
+  <si>
+    <t>19 Feb 3019: They had come to the Brown Lands that lay, vast and desolate, between Southern Mirkwood and the hills of the Emyn Muil. What pestilence or war or evil deed of the Enemy had so blasted all that region even Aragorn could not tell.</t>
+  </si>
+  <si>
+    <t>20 Feb 3019: Frodo shivered, thinking of the lawns and fountains, the clear sun and gentle rains of Lothlórien. There was little speech and no laughter in any of the boats. Each member of the Company was busy with his own thoughts.</t>
+  </si>
+  <si>
+    <t>22 Feb 3019: The next day the country on either side began to change rapidly. The banks began to rise and grow stony. Soon they were passing through a hilly rocky land, and on both shores there were steep slopes buried in deep brakes of thorn and sloe, tangled with brambles and creepers. Behind them stood low crumbling cliffs, and chimneys of grey weathered stone dark with ivy; and beyond these again there rose high ridges crowned with wind-writhen firs. They were drawing near to the grey hill-country of the Emyn Muil, the southern march of Wilderland.</t>
+  </si>
+  <si>
+    <t>23 Feb 3019: Legolas stirred in his boat. ‘Nay, time does not tarry ever,’ he said; ‘but change and growth is not in all things and places alike. For the Elves the world moves, and it moves both very swift and very slow. Swift, because they themselves change little, and all else fleets by: it is a grief to them. Slow, because they need not count the running years, not for themselves. The passing seasons are but ripples ever repeated in the long long stream. Yet beneath the Sun all things must wear to an end at last.’</t>
+  </si>
 </sst>
 </file>
 
@@ -1195,7 +1202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,8 +1261,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,6 +1293,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,7 +1340,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1326,9 +1351,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1340,6 +1362,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1627,22 +1659,20 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
+    <col min="8" max="16" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,7 +1694,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>187</v>
       </c>
       <c r="H1" t="s">
@@ -1685,8 +1715,14 @@
       <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>120</v>
+      <c r="N1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,7 +1902,7 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H12" t="s">
@@ -1971,7 +2007,7 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="14" t="s">
         <v>125</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1988,7 +2024,7 @@
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="13" t="s">
         <v>126</v>
       </c>
       <c r="H19" t="s">
@@ -2005,7 +2041,7 @@
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="14" t="s">
         <v>124</v>
       </c>
       <c r="H20" t="s">
@@ -2022,7 +2058,7 @@
       <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="14" t="s">
         <v>124</v>
       </c>
       <c r="H21" t="s">
@@ -2039,7 +2075,7 @@
       <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="14" t="s">
         <v>124</v>
       </c>
       <c r="H22" t="s">
@@ -2056,7 +2092,7 @@
       <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="14" t="s">
         <v>146</v>
       </c>
       <c r="H23" t="s">
@@ -2073,7 +2109,7 @@
       <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="13" t="s">
         <v>129</v>
       </c>
       <c r="H24" t="s">
@@ -2093,7 +2129,7 @@
       <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="14" t="s">
         <v>131</v>
       </c>
       <c r="H25" t="s">
@@ -2107,7 +2143,7 @@
       <c r="C26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H26" t="s">
@@ -2121,7 +2157,7 @@
       <c r="C27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="15" t="s">
         <v>137</v>
       </c>
       <c r="H27" t="s">
@@ -2135,10 +2171,10 @@
       <c r="C28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2149,10 +2185,10 @@
       <c r="C29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2169,7 +2205,7 @@
       <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="13" t="s">
         <v>139</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -2183,7 +2219,7 @@
       <c r="B31" s="1">
         <v>408634</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="13" t="s">
         <v>147</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -2203,7 +2239,7 @@
       <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="13" t="s">
         <v>141</v>
       </c>
       <c r="H32" t="s">
@@ -2255,7 +2291,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B37" s="1">
@@ -2630,7 +2666,7 @@
       <c r="E95" t="s">
         <v>22</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2641,7 +2677,7 @@
       <c r="E96" t="s">
         <v>22</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2652,7 +2688,7 @@
       <c r="E97" t="s">
         <v>22</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="13" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2663,7 +2699,7 @@
       <c r="E98" t="s">
         <v>22</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="13" t="s">
         <v>170</v>
       </c>
       <c r="H98" s="4" t="s">
@@ -2705,7 +2741,7 @@
       <c r="E104" t="s">
         <v>22</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="13" t="s">
         <v>172</v>
       </c>
       <c r="H104" t="s">
@@ -2727,7 +2763,7 @@
       <c r="E106" t="s">
         <v>22</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2758,13 +2794,13 @@
       <c r="C111" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="8" t="s">
         <v>177</v>
       </c>
       <c r="E111" t="s">
         <v>22</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="13" t="s">
         <v>174</v>
       </c>
       <c r="H111" s="4" t="s">
@@ -2778,7 +2814,7 @@
       <c r="B112" s="1">
         <v>408715</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="13" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2786,7 +2822,7 @@
       <c r="B113" s="1">
         <v>408716</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="13" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2794,7 +2830,7 @@
       <c r="B114" s="1">
         <v>408717</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2802,13 +2838,13 @@
       <c r="B115" s="1">
         <v>408718</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="H115" s="10" t="s">
+      <c r="H115" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="9" t="s">
         <v>194</v>
       </c>
       <c r="J115" t="s">
@@ -2825,7 +2861,7 @@
       <c r="B116" s="1">
         <v>408719</v>
       </c>
-      <c r="H116" s="10" t="s">
+      <c r="H116" s="9" t="s">
         <v>200</v>
       </c>
       <c r="I116" t="s">
@@ -2836,13 +2872,13 @@
       <c r="B117" s="1">
         <v>408720</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="H117" s="10" t="s">
+      <c r="H117" s="9" t="s">
         <v>204</v>
       </c>
       <c r="I117" t="s">
@@ -2856,10 +2892,10 @@
       <c r="B118" s="1">
         <v>408721</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G118" s="16" t="s">
         <v>203</v>
       </c>
       <c r="H118" t="s">
@@ -2870,13 +2906,13 @@
       <c r="B119" s="1">
         <v>408722</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H119" s="9" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2884,10 +2920,10 @@
       <c r="B120" s="1">
         <v>408723</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H120" s="10" t="s">
+      <c r="H120" s="9" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2898,19 +2934,19 @@
       <c r="C121" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="H121" s="10" t="s">
+      <c r="H121" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="I121" s="13" t="s">
+      <c r="I121" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="J121" s="13" t="s">
+      <c r="J121" s="12" t="s">
         <v>257</v>
       </c>
       <c r="N121" t="s">
@@ -2924,7 +2960,7 @@
       <c r="C122" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="I122" s="9" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2950,10 +2986,10 @@
       <c r="C126" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="H126" s="10" t="s">
+      <c r="H126" s="9" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2964,10 +3000,10 @@
       <c r="C127" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H127" s="10" t="s">
+      <c r="H127" s="9" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2983,10 +3019,10 @@
       <c r="C129" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H129" s="10" t="s">
+      <c r="H129" s="9" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3097,16 +3133,16 @@
       <c r="C150" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="8" t="s">
         <v>218</v>
       </c>
       <c r="E150" t="s">
-        <v>220</v>
-      </c>
-      <c r="H150" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H150" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="I150" s="10"/>
+      <c r="I150" s="9"/>
     </row>
     <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
@@ -3115,19 +3151,19 @@
       <c r="C151" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="8" t="s">
         <v>221</v>
       </c>
       <c r="E151" t="s">
-        <v>220</v>
-      </c>
-      <c r="G151" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="H151" s="13" t="s">
+      <c r="H151" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="I151" s="10" t="s">
+      <c r="I151" s="9" t="s">
         <v>219</v>
       </c>
       <c r="J151" t="s">
@@ -3135,21 +3171,21 @@
       </c>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="B152" s="1">
         <v>408755</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="9"/>
+      <c r="D152" s="8"/>
       <c r="E152" t="s">
-        <v>220</v>
-      </c>
-      <c r="G152" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" s="13" t="s">
         <v>264</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3159,12 +3195,15 @@
       <c r="C153" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D153" s="9"/>
+      <c r="D153" s="8"/>
       <c r="E153" t="s">
-        <v>220</v>
-      </c>
-      <c r="G153" t="s">
-        <v>265</v>
+        <v>28</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="H153" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,81 +3213,102 @@
       <c r="C154" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D154" s="9"/>
+      <c r="D154" s="8"/>
       <c r="E154" t="s">
-        <v>220</v>
-      </c>
-      <c r="G154" t="s">
-        <v>266</v>
+        <v>28</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H154" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
-      <c r="D155" s="9"/>
+      <c r="C155" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D155" s="8"/>
       <c r="E155" t="s">
-        <v>220</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>269</v>
+        <v>28</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
-      <c r="D156" s="9"/>
+      <c r="C156" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D156" s="8"/>
       <c r="E156" t="s">
-        <v>220</v>
-      </c>
-      <c r="G156" t="s">
-        <v>270</v>
-      </c>
-      <c r="H156" t="s">
-        <v>267</v>
+        <v>28</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
-      <c r="D157" s="9"/>
-      <c r="E157" t="s">
-        <v>220</v>
+      <c r="C157" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D157" s="8"/>
+      <c r="G157" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H157" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="C158" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D158" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E158" t="s">
-        <v>220</v>
-      </c>
-      <c r="G158" t="s">
-        <v>268</v>
+      <c r="G158" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="H158" s="18" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="B159" s="1">
         <v>408762</v>
       </c>
-      <c r="D159" s="9"/>
+      <c r="D159" s="8"/>
       <c r="E159" t="s">
         <v>220</v>
       </c>
-      <c r="G159" t="s">
-        <v>271</v>
+      <c r="G159" s="13" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="8" t="s">
         <v>223</v>
       </c>
       <c r="E160" t="s">
@@ -3259,18 +3319,18 @@
       <c r="B161" s="1">
         <v>408764</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E161" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="8" t="s">
         <v>225</v>
       </c>
       <c r="E162" t="s">
@@ -3281,7 +3341,7 @@
       <c r="B163" s="1">
         <v>408766</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="8" t="s">
         <v>226</v>
       </c>
       <c r="E163" t="s">
@@ -3289,13 +3349,13 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="8" t="s">
         <v>227</v>
       </c>
       <c r="E164" t="s">
@@ -3303,13 +3363,13 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="8" t="s">
         <v>228</v>
       </c>
       <c r="E165" t="s">
@@ -3320,7 +3380,7 @@
       <c r="B166" s="1">
         <v>408767</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="8" t="s">
         <v>232</v>
       </c>
       <c r="E166" t="s">
@@ -3331,7 +3391,7 @@
       <c r="B167" s="1">
         <v>408768</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="8" t="s">
         <v>233</v>
       </c>
       <c r="E167" t="s">
@@ -3342,7 +3402,7 @@
       <c r="B168" s="1">
         <v>408769</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="8" t="s">
         <v>234</v>
       </c>
       <c r="E168" t="s">
@@ -3353,7 +3413,7 @@
       <c r="B169" s="1">
         <v>408770</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="8" t="s">
         <v>235</v>
       </c>
       <c r="E169" t="s">
@@ -3364,7 +3424,7 @@
       <c r="B170" s="1">
         <v>408771</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="8" t="s">
         <v>236</v>
       </c>
       <c r="E170" t="s">
@@ -3375,7 +3435,7 @@
       <c r="B171" s="1">
         <v>408772</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="8" t="s">
         <v>237</v>
       </c>
       <c r="E171" t="s">
@@ -3386,7 +3446,7 @@
       <c r="B172" s="1">
         <v>408773</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="8" t="s">
         <v>238</v>
       </c>
       <c r="E172" t="s">
@@ -3397,7 +3457,7 @@
       <c r="B173" s="1">
         <v>408774</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="8" t="s">
         <v>239</v>
       </c>
       <c r="E173" t="s">
@@ -3408,7 +3468,7 @@
       <c r="B174" s="1">
         <v>408775</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="8" t="s">
         <v>240</v>
       </c>
       <c r="E174" t="s">
@@ -3419,7 +3479,7 @@
       <c r="B175" s="1">
         <v>408776</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="8" t="s">
         <v>241</v>
       </c>
       <c r="E175" t="s">
@@ -3430,7 +3490,7 @@
       <c r="B176" s="1">
         <v>408777</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="8" t="s">
         <v>242</v>
       </c>
       <c r="E176" t="s">
@@ -3441,7 +3501,7 @@
       <c r="B177" s="1">
         <v>408778</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E177" t="s">
@@ -3452,7 +3512,7 @@
       <c r="B178" s="1">
         <v>408779</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="8" t="s">
         <v>244</v>
       </c>
       <c r="E178" t="s">
@@ -3463,7 +3523,7 @@
       <c r="B179" s="1">
         <v>408780</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E179" t="s">
@@ -3474,7 +3534,7 @@
       <c r="B180" s="1">
         <v>408781</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E180" t="s">
@@ -3485,7 +3545,7 @@
       <c r="B181" s="1">
         <v>408782</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="8" t="s">
         <v>247</v>
       </c>
       <c r="E181" t="s">
@@ -3496,7 +3556,7 @@
       <c r="B182" s="1">
         <v>408783</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="8" t="s">
         <v>248</v>
       </c>
       <c r="E182" t="s">
@@ -3507,7 +3567,7 @@
       <c r="B183" s="1">
         <v>408784</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="8" t="s">
         <v>249</v>
       </c>
       <c r="E183" t="s">
@@ -3518,7 +3578,7 @@
       <c r="B184" s="1">
         <v>408785</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="8" t="s">
         <v>250</v>
       </c>
       <c r="E184" t="s">
@@ -3529,7 +3589,7 @@
       <c r="B185" s="1">
         <v>408786</v>
       </c>
-      <c r="D185" s="9"/>
+      <c r="D185" s="8"/>
       <c r="E185" t="s">
         <v>220</v>
       </c>
@@ -3538,7 +3598,7 @@
       <c r="B186" s="1">
         <v>408787</v>
       </c>
-      <c r="D186" s="9"/>
+      <c r="D186" s="8"/>
       <c r="E186" t="s">
         <v>220</v>
       </c>
@@ -3547,7 +3607,7 @@
       <c r="B187" s="1">
         <v>408788</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="8" t="s">
         <v>251</v>
       </c>
       <c r="E187" t="s">
@@ -3558,7 +3618,7 @@
       <c r="B188" s="1">
         <v>408789</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="8" t="s">
         <v>252</v>
       </c>
       <c r="E188" t="s">
@@ -3569,7 +3629,7 @@
       <c r="B189" s="1">
         <v>408790</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="8" t="s">
         <v>253</v>
       </c>
       <c r="E189" t="s">
@@ -3580,7 +3640,7 @@
       <c r="B190" s="1">
         <v>408791</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="8" t="s">
         <v>254</v>
       </c>
       <c r="E190" t="s">
@@ -3591,7 +3651,7 @@
       <c r="B191" s="1">
         <v>408792</v>
       </c>
-      <c r="D191" s="9"/>
+      <c r="D191" s="8"/>
       <c r="E191" t="s">
         <v>220</v>
       </c>
@@ -3600,153 +3660,312 @@
       <c r="B192" s="1">
         <v>408793</v>
       </c>
-      <c r="D192" s="9"/>
+      <c r="D192" s="8"/>
       <c r="E192" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
-      <c r="D193" s="9"/>
+      <c r="D193" s="8"/>
       <c r="E193" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
-      <c r="D194" s="9"/>
+      <c r="D194" s="8"/>
       <c r="E194" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
-      <c r="D195" s="9"/>
+      <c r="D195" s="8"/>
       <c r="E195" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="196" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F195" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
-      <c r="D196" s="9"/>
+      <c r="D196" s="8"/>
       <c r="F196" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I196" t="s">
+        <v>30</v>
+      </c>
+      <c r="M196" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
-      <c r="D197" s="9"/>
-    </row>
-    <row r="198" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D197" s="8"/>
+    </row>
+    <row r="198" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
-      <c r="D198" s="9"/>
+      <c r="D198" s="8"/>
       <c r="F198" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" t="s">
+        <v>31</v>
+      </c>
+      <c r="J198" t="s">
+        <v>43</v>
+      </c>
+      <c r="M198" t="s">
+        <v>55</v>
+      </c>
+      <c r="N198" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
-      <c r="D199" s="9"/>
+      <c r="D199" s="8"/>
       <c r="F199" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
-      <c r="D200" s="9"/>
+      <c r="D200" s="8"/>
       <c r="F200" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" t="s">
+        <v>32</v>
+      </c>
+      <c r="J200" t="s">
+        <v>44</v>
+      </c>
+      <c r="M200" t="s">
+        <v>56</v>
+      </c>
+      <c r="N200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
-      <c r="D201" s="9"/>
+      <c r="D201" s="8"/>
       <c r="F201" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="202" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>21</v>
+      </c>
+      <c r="I201" t="s">
+        <v>33</v>
+      </c>
+      <c r="J201" t="s">
+        <v>45</v>
+      </c>
+      <c r="M201" t="s">
+        <v>57</v>
+      </c>
+      <c r="N201" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
-      <c r="D202" s="9"/>
+      <c r="D202" s="8"/>
       <c r="F202" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>22</v>
+      </c>
+      <c r="I202" t="s">
+        <v>34</v>
+      </c>
+      <c r="J202" t="s">
+        <v>46</v>
+      </c>
+      <c r="M202" t="s">
+        <v>58</v>
+      </c>
+      <c r="N202" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
-      <c r="D203" s="9"/>
+      <c r="D203" s="8"/>
       <c r="F203" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="204" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>23</v>
+      </c>
+      <c r="I203" t="s">
+        <v>35</v>
+      </c>
+      <c r="J203" t="s">
+        <v>47</v>
+      </c>
+      <c r="M203" t="s">
+        <v>59</v>
+      </c>
+      <c r="N203" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
-      <c r="D204" s="9"/>
+      <c r="D204" s="8"/>
       <c r="F204" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="205" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>24</v>
+      </c>
+      <c r="I204" t="s">
+        <v>36</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="M204" t="s">
+        <v>60</v>
+      </c>
+      <c r="N204" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
-      <c r="D205" s="9"/>
+      <c r="D205" s="8"/>
       <c r="F205" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>25</v>
+      </c>
+      <c r="I205" t="s">
+        <v>37</v>
+      </c>
+      <c r="J205" t="s">
+        <v>49</v>
+      </c>
+      <c r="M205" t="s">
+        <v>61</v>
+      </c>
+      <c r="N205" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
-      <c r="D206" s="9"/>
+      <c r="D206" s="8"/>
       <c r="F206" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="207" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" t="s">
+        <v>38</v>
+      </c>
+      <c r="J206" t="s">
+        <v>50</v>
+      </c>
+      <c r="M206" t="s">
+        <v>62</v>
+      </c>
+      <c r="N206" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
-      <c r="D207" s="9"/>
+      <c r="D207" s="8"/>
       <c r="F207" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>27</v>
+      </c>
+      <c r="I207" t="s">
+        <v>39</v>
+      </c>
+      <c r="J207" t="s">
+        <v>51</v>
+      </c>
+      <c r="M207" t="s">
+        <v>63</v>
+      </c>
+      <c r="N207" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
-      <c r="D208" s="9"/>
+      <c r="D208" s="8"/>
       <c r="F208" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="209" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>28</v>
+      </c>
+      <c r="I208" t="s">
+        <v>40</v>
+      </c>
+      <c r="J208" t="s">
+        <v>52</v>
+      </c>
+      <c r="M208" t="s">
+        <v>64</v>
+      </c>
+      <c r="N208" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
@@ -3756,8 +3975,20 @@
       <c r="F209" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>29</v>
+      </c>
+      <c r="I209" t="s">
+        <v>41</v>
+      </c>
+      <c r="J209" t="s">
+        <v>53</v>
+      </c>
+      <c r="M209" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="210" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
@@ -3767,484 +3998,316 @@
       <c r="F210" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="211" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I210" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
-      <c r="F211" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
-      <c r="F213" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
-      <c r="F214" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
-      <c r="F215" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
-      <c r="F216" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
-      <c r="F217" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
-      <c r="F218" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
-      <c r="F219" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
-      <c r="F220" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
-      <c r="F221" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
-      <c r="F222" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>408828</v>
       </c>
-      <c r="E227" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
-      <c r="E229" t="s">
-        <v>31</v>
-      </c>
-      <c r="F229" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
     </row>
-    <row r="231" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
-      <c r="E231" t="s">
-        <v>32</v>
-      </c>
-      <c r="F231" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="232" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
-      <c r="E232" t="s">
-        <v>33</v>
-      </c>
-      <c r="F232" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="233" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
-      <c r="E233" t="s">
-        <v>34</v>
-      </c>
-      <c r="F233" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="234" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
-      <c r="E234" t="s">
-        <v>35</v>
-      </c>
-      <c r="F234" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="235" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
-      <c r="E235" t="s">
-        <v>36</v>
-      </c>
-      <c r="F235" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="236" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
-      <c r="E236" t="s">
-        <v>37</v>
-      </c>
-      <c r="F236" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
-      <c r="E237" t="s">
-        <v>38</v>
-      </c>
-      <c r="F237" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
-      <c r="E238" t="s">
-        <v>39</v>
-      </c>
-      <c r="F238" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
-      <c r="E239" t="s">
-        <v>40</v>
-      </c>
-      <c r="F239" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
-      <c r="E240" t="s">
-        <v>41</v>
-      </c>
-      <c r="F240" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="241" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
-      <c r="E241" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="242" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
-      <c r="E244" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="245" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
-      <c r="E246" t="s">
-        <v>55</v>
-      </c>
-      <c r="F246" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="247" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
-      <c r="E248" t="s">
-        <v>56</v>
-      </c>
-      <c r="F248" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="249" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
-      <c r="E249" t="s">
-        <v>57</v>
-      </c>
-      <c r="F249" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
-      <c r="E250" t="s">
-        <v>58</v>
-      </c>
-      <c r="F250" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
-      <c r="E251" t="s">
-        <v>59</v>
-      </c>
-      <c r="F251" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="252" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
-      <c r="E252" t="s">
-        <v>60</v>
-      </c>
-      <c r="F252" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="253" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
-      <c r="E253" t="s">
-        <v>61</v>
-      </c>
-      <c r="F253" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="254" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
-      <c r="E254" t="s">
-        <v>62</v>
-      </c>
-      <c r="F254" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="255" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
-      <c r="E255" t="s">
-        <v>63</v>
-      </c>
-      <c r="F255" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="256" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
-      <c r="E256" t="s">
-        <v>64</v>
-      </c>
-      <c r="F256" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
-      <c r="E257" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
     </row>
-    <row r="272" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
@@ -4305,9 +4368,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E210" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
-    <hyperlink ref="P1" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
+    <hyperlink ref="F195" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1054BE-D94B-4385-9F2D-A5ACEFA938A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90484A3-06F1-4EA2-B216-9C939A5911AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="295">
   <si>
     <t>Date</t>
   </si>
@@ -1193,6 +1193,42 @@
   </si>
   <si>
     <t>23 Feb 3019: Legolas stirred in his boat. ‘Nay, time does not tarry ever,’ he said; ‘but change and growth is not in all things and places alike. For the Elves the world moves, and it moves both very swift and very slow. Swift, because they themselves change little, and all else fleets by: it is a grief to them. Slow, because they need not count the running years, not for themselves. The passing seasons are but ripples ever repeated in the long long stream. Yet beneath the Sun all things must wear to an end at last.’</t>
+  </si>
+  <si>
+    <t>Nothing happened that night worse than a brief drizzle of rain an hour before dawn. As soon as it was fully light they started.</t>
+  </si>
+  <si>
+    <t>‘Fear not!’ said a strange voice behind him. Frodo turned and saw Strider, and yet not Strider; for the weatherworn Ranger was no longer there. In the stern sat Aragorn son of Arathorn, proud and erect, guiding the boat with skilful strokes; his hood was cast back, and his dark hair was blowing in the wind, a light was in his eyes: a king returning from exile to his own land. ‘Fear not!’ he said. ‘Long have I desired to look upon the likenesses of Isildur and Anárion, my sires of old. Under their shadow Elessar, the Elfstone son of Arathorn of the House of Valandil Isildur’s son, heir of Elendil, has naught to dread!’ Then the light of his eyes faded, and he spoke to himself: ‘Would that Gandalf were here! How my heart yearns for Minas Anor and the walls of my own city! But whither now shall I go?’</t>
+  </si>
+  <si>
+    <t>The day came like fire and smoke. Low in the East there were black bars of cloud like the fumes of a great burning. The rising sun lit them from beneath with flames of murky red; but soon it climbed above them into a clear sky.</t>
+  </si>
+  <si>
+    <t>All night the three companions scrambled in this bony land, climbing to the crest of the first and tallest ridge, and down again into the darkness of a deep winding valley on the other side. There in the still cool hour before dawn they rested for a brief space.</t>
+  </si>
+  <si>
+    <t>[F/S]</t>
+  </si>
+  <si>
+    <t>[G/P]</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn]</t>
+  </si>
+  <si>
+    <t>[A/L/G]</t>
+  </si>
+  <si>
+    <t>[M/P]</t>
+  </si>
+  <si>
+    <t>Boromir: "Where there are so many, all speech becomes a debate without end. But two together may perhaps find wisdom."</t>
+  </si>
+  <si>
+    <t>[F/S] ‘Whoa, Sam Gamgee!’ [Sam] said aloud. ‘Your legs are too short, so use your head!</t>
+  </si>
+  <si>
+    <t>[A/L/G] Aragorn: ‘O Boromir! The Tower of Guard shall ever northward gaze To Rauros, golden Rauros-falls, until the end of days.’</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3314,8 +3350,14 @@
       <c r="E160" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H160" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -3325,8 +3367,20 @@
       <c r="E161" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="H161" t="s">
+        <v>292</v>
+      </c>
+      <c r="I161" t="s">
+        <v>294</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
@@ -3336,8 +3390,11 @@
       <c r="E162" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
@@ -3348,7 +3405,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>231</v>
       </c>
@@ -3362,7 +3419,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>231</v>
       </c>
@@ -3376,7 +3433,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>408767</v>
       </c>
@@ -3387,7 +3444,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>408768</v>
       </c>
@@ -3398,7 +3455,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>408769</v>
       </c>
@@ -3409,7 +3466,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>408770</v>
       </c>
@@ -3419,8 +3476,17 @@
       <c r="E169" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>408771</v>
       </c>
@@ -3430,8 +3496,11 @@
       <c r="E170" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I170" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -3441,8 +3510,11 @@
       <c r="E171" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I171" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
@@ -3452,8 +3524,11 @@
       <c r="E172" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I172" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>408774</v>
       </c>
@@ -3464,7 +3539,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>408775</v>
       </c>
@@ -3475,7 +3550,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
@@ -3486,7 +3561,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>408777</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90484A3-06F1-4EA2-B216-9C939A5911AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEECDED-37D6-48C4-BFE3-79C9A1D7CD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -1154,29 +1154,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When the day came t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>he mood of the world about them had become soft and sad. Slowly the dawn grew to a pale light, diffused and shadowless.</t>
-    </r>
-  </si>
-  <si>
     <t>17 Feb 3019: Aragorn let them drift with the stream as they wished, husbanding their strength against weariness to come. But he insisted that at least they should start early each day and journey on far into the evening; for he felt in his heart that time was pressing, and he feared that the Dark Lord had not been idle while they lingered in Lórien.</t>
   </si>
   <si>
@@ -1198,9 +1175,6 @@
     <t>Nothing happened that night worse than a brief drizzle of rain an hour before dawn. As soon as it was fully light they started.</t>
   </si>
   <si>
-    <t>‘Fear not!’ said a strange voice behind him. Frodo turned and saw Strider, and yet not Strider; for the weatherworn Ranger was no longer there. In the stern sat Aragorn son of Arathorn, proud and erect, guiding the boat with skilful strokes; his hood was cast back, and his dark hair was blowing in the wind, a light was in his eyes: a king returning from exile to his own land. ‘Fear not!’ he said. ‘Long have I desired to look upon the likenesses of Isildur and Anárion, my sires of old. Under their shadow Elessar, the Elfstone son of Arathorn of the House of Valandil Isildur’s son, heir of Elendil, has naught to dread!’ Then the light of his eyes faded, and he spoke to himself: ‘Would that Gandalf were here! How my heart yearns for Minas Anor and the walls of my own city! But whither now shall I go?’</t>
-  </si>
-  <si>
     <t>The day came like fire and smoke. Low in the East there were black bars of cloud like the fumes of a great burning. The rising sun lit them from beneath with flames of murky red; but soon it climbed above them into a clear sky.</t>
   </si>
   <si>
@@ -1229,6 +1203,17 @@
   </si>
   <si>
     <t>[A/L/G] Aragorn: ‘O Boromir! The Tower of Guard shall ever northward gaze To Rauros, golden Rauros-falls, until the end of days.’</t>
+  </si>
+  <si>
+    <t>It was with a heavy heart that Frodo saw Aragorn and Legolas climb the steep bank and vanish into the mists; but his fears proved groundless. Only two or three hours had passed, and it was barely mid-day, when the shadowy shapes of the explorers appeared again.</t>
+  </si>
+  <si>
+    <t>When the day came the mood of the world about them had become soft and sad. Slowly the dawn grew to a pale light, diffused and shadowless.</t>
+  </si>
+  <si>
+    <t>Sheer rose the dreadful cliffs to unguessed heights on either side. Far off was the dim sky. The black waters roared and echoed, and a wind screamed over them. Frodo crouching over his knees heard Sam in front muttering and groaning: ‘What a place! What a horrible place! Just let me get out of this boat, and I’ll never wet my toes in a puddle again, let alone a river!’ 
+‘Fear not!’ said a strange voice behind him. Frodo turned and saw Strider, and yet not Strider; for the weatherworn Ranger was no longer there. In the stern sat Aragorn son of Arathorn, proud and erect, guiding the boat with skilful strokes; his hood was cast back, and his dark hair was blowing in the wind, a light was in his eyes: a king returning from exile to his own land. 
+‘Fear not!’ he said. ‘Long have I desired to look upon the likenesses of Isildur and Anárion, my sires of old. Under their shadow Elessar, the Elfstone son of Arathorn of the House of Valandil Isildur’s son, heir of Elendil, has naught to dread!’</t>
   </si>
 </sst>
 </file>
@@ -1695,20 +1680,22 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
-    <col min="8" max="16" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="10" width="38.140625" customWidth="1"/>
+    <col min="11" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,32 +3124,32 @@
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -3180,7 +3167,7 @@
       </c>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -3205,8 +3192,11 @@
       <c r="J151" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K151" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -3221,10 +3211,13 @@
         <v>264</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="I152" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -3239,10 +3232,13 @@
         <v>273</v>
       </c>
       <c r="H153" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="I153" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -3257,10 +3253,13 @@
         <v>272</v>
       </c>
       <c r="H154" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="I154" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -3275,10 +3274,13 @@
         <v>275</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="I155" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
@@ -3292,8 +3294,11 @@
       <c r="G156" s="13" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
@@ -3305,10 +3310,13 @@
         <v>265</v>
       </c>
       <c r="H157" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="I157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
@@ -3322,13 +3330,13 @@
         <v>266</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>164</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -3336,11 +3344,17 @@
       <c r="E159" t="s">
         <v>220</v>
       </c>
-      <c r="G159" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I159" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -3351,13 +3365,13 @@
         <v>220</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H160" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -3368,19 +3382,25 @@
         <v>29</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="H161" t="s">
+        <v>283</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="I161" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="I161" t="s">
-        <v>294</v>
-      </c>
       <c r="J161" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="B162" s="1">
         <v>408765</v>
       </c>
@@ -3391,10 +3411,19 @@
         <v>220</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="I162" t="s">
+        <v>220</v>
+      </c>
+      <c r="J162" t="s">
+        <v>220</v>
+      </c>
+      <c r="K162" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
@@ -3404,8 +3433,14 @@
       <c r="E163" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>220</v>
+      </c>
+      <c r="J163" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>231</v>
       </c>
@@ -3418,8 +3453,14 @@
       <c r="E164" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I164" t="s">
+        <v>220</v>
+      </c>
+      <c r="J164" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>231</v>
       </c>
@@ -3432,8 +3473,14 @@
       <c r="E165" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I165" t="s">
+        <v>220</v>
+      </c>
+      <c r="J165" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>408767</v>
       </c>
@@ -3443,8 +3490,14 @@
       <c r="E166" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>220</v>
+      </c>
+      <c r="J166" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>408768</v>
       </c>
@@ -3454,8 +3507,14 @@
       <c r="E167" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>220</v>
+      </c>
+      <c r="J167" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>408769</v>
       </c>
@@ -3465,8 +3524,14 @@
       <c r="E168" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>220</v>
+      </c>
+      <c r="J168" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>408770</v>
       </c>
@@ -3476,17 +3541,14 @@
       <c r="E169" t="s">
         <v>220</v>
       </c>
-      <c r="H169" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="J169" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
+        <v>220</v>
+      </c>
+      <c r="J169" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>408771</v>
       </c>
@@ -3497,10 +3559,13 @@
         <v>220</v>
       </c>
       <c r="I170" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="J170" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -3511,10 +3576,13 @@
         <v>220</v>
       </c>
       <c r="I171" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="J171" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
@@ -3525,10 +3593,13 @@
         <v>220</v>
       </c>
       <c r="I172" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="J172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>408774</v>
       </c>
@@ -3538,8 +3609,14 @@
       <c r="E173" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I173" t="s">
+        <v>220</v>
+      </c>
+      <c r="J173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>408775</v>
       </c>
@@ -3549,8 +3626,14 @@
       <c r="E174" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I174" t="s">
+        <v>220</v>
+      </c>
+      <c r="J174" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
@@ -3560,8 +3643,14 @@
       <c r="E175" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I175" t="s">
+        <v>220</v>
+      </c>
+      <c r="J175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>408777</v>
       </c>
@@ -3571,8 +3660,14 @@
       <c r="E176" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I176" t="s">
+        <v>220</v>
+      </c>
+      <c r="J176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -3582,8 +3677,14 @@
       <c r="E177" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I177" t="s">
+        <v>220</v>
+      </c>
+      <c r="J177" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -3593,8 +3694,14 @@
       <c r="E178" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I178" t="s">
+        <v>220</v>
+      </c>
+      <c r="J178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -3604,8 +3711,14 @@
       <c r="E179" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I179" t="s">
+        <v>220</v>
+      </c>
+      <c r="J179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
@@ -3615,8 +3728,14 @@
       <c r="E180" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I180" t="s">
+        <v>220</v>
+      </c>
+      <c r="J180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -3626,8 +3745,14 @@
       <c r="E181" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
+        <v>220</v>
+      </c>
+      <c r="J181" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -3637,8 +3762,14 @@
       <c r="E182" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
+        <v>220</v>
+      </c>
+      <c r="J182" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -3648,8 +3779,14 @@
       <c r="E183" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
+        <v>220</v>
+      </c>
+      <c r="J183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -3660,7 +3797,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -3668,8 +3805,17 @@
       <c r="E185" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H185" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -3677,8 +3823,11 @@
       <c r="E186" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I186" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -3688,8 +3837,11 @@
       <c r="E187" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I187" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -3699,8 +3851,11 @@
       <c r="E188" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -3711,7 +3866,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -3722,7 +3877,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -3731,7 +3886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408793</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEECDED-37D6-48C4-BFE3-79C9A1D7CD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF007271-58E8-4703-A185-F7DF8797F6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="313">
   <si>
     <t>Date</t>
   </si>
@@ -902,19 +902,7 @@
     <t xml:space="preserve">25 The Company pass the Argonath and camp at Parth Galen. First Battle of the Fords of Isen; Théodred son of Théoden slain. </t>
   </si>
   <si>
-    <t xml:space="preserve">26 Breaking of the Fellowship. Death of Boromir; his horn is heard in Minas Tirith. Meriadoc and Peregrin captured. Frodo and Samwise enter the eastern Emyn Muil. Aragorn sets out in pursuit of the Orcs at evening. Éomer hears of the descent of the Orc-band from Emyn Muil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 Aragorn reaches the west-cliff at sunrise. Éomer against Théoden’s orders sets out from Eastfold about midnight to pursue the Orcs. </t>
-  </si>
-  <si>
     <t xml:space="preserve">28 Éomer overtakes the Orcs just outside Fangorn Forest. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 Meriadoc and Pippin escape and meet Treebeard. The Rohirrim attack at sunrise and destroy the Orcs. Frodo descends from the Emyn Muil and meets Gollum. Faramir sees the funeral boat of Boromir. </t>
-  </si>
-  <si>
-    <t>30 Entmoot begins. Éomer returning to Edoras meets Aragorn.</t>
   </si>
   <si>
     <t>30 February 3019</t>
@@ -1181,9 +1169,6 @@
     <t>All night the three companions scrambled in this bony land, climbing to the crest of the first and tallest ridge, and down again into the darkness of a deep winding valley on the other side. There in the still cool hour before dawn they rested for a brief space.</t>
   </si>
   <si>
-    <t>[F/S]</t>
-  </si>
-  <si>
     <t>[G/P]</t>
   </si>
   <si>
@@ -1214,6 +1199,198 @@
     <t>Sheer rose the dreadful cliffs to unguessed heights on either side. Far off was the dim sky. The black waters roared and echoed, and a wind screamed over them. Frodo crouching over his knees heard Sam in front muttering and groaning: ‘What a place! What a horrible place! Just let me get out of this boat, and I’ll never wet my toes in a puddle again, let alone a river!’ 
 ‘Fear not!’ said a strange voice behind him. Frodo turned and saw Strider, and yet not Strider; for the weatherworn Ranger was no longer there. In the stern sat Aragorn son of Arathorn, proud and erect, guiding the boat with skilful strokes; his hood was cast back, and his dark hair was blowing in the wind, a light was in his eyes: a king returning from exile to his own land. 
 ‘Fear not!’ he said. ‘Long have I desired to look upon the likenesses of Isildur and Anárion, my sires of old. Under their shadow Elessar, the Elfstone son of Arathorn of the House of Valandil Isildur’s son, heir of Elendil, has naught to dread!’</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>[Fa/Eo] = [Faramir/Eowyn]</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26 Breaking of the Fellowship. Death of Boromir; his horn is heard in Minas Tirith. Meriadoc and Peregrin captured. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Frodo and Samwise </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">enter the eastern Emyn Muil. Aragorn sets out in pursuit of the Orcs at evening. Éomer hears of the descent of the Orc-band from Emyn Muil. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aragorn reaches the west-cliff at sunrise</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Éomer against Théoden’s orders sets out from Eastfold about midnight to pursue the Orcs. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">29 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meriadoc and Pippin escape and meet Treebeard.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The Rohirrim attack at sunrise and destroy the Orcs. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frodo descends from the Emyn Muil and meets Gollum.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Faramir sees the funeral boat of Boromir. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 Entmoot begins. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Éomer returning to Edoras meets Aragorn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[A] He cast himself on the ground and fell at once into sleep, for he had not slept since their night under the shadow of Tol Brandir. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Before dawn was in the sky he woke and rose.</t>
+    </r>
+  </si>
+  <si>
+    <t>[A/L/G] ‘I had forgotten that,’ said Éomer. ‘It is hard to be sure of anything among so many marvels. The world is all grown strange. Elf and Dwarf in company walk in our daily fields; and folk speak with the Lady of the Wood and yet live; and the Sword comes back to war that was broken in the long ages ere the fathers of our fathers rode into the Mark! How shall a man judge what to do in such times?’ 
+‘As he ever has judged,’ said Aragorn. ‘Good and ill have not changed since yesteryear; nor are they one thing among Elves and Dwarves and another among Men. It is a man’s part to discern them, as much in the Golden Wood as in his own house.’</t>
+  </si>
+  <si>
+    <t>[A/L/G] As before Legolas was first afoot, if indeed he had ever slept. ‘Awake! Awake!’ he cried. ‘It is a red dawn. Strange things await us by the eaves of the forest. Good or evil, I do not know; but we are called. Awake!’</t>
+  </si>
+  <si>
+    <t>[A/L/G] Turning back they saw across the River the far hills kindled. Day leaped into the sky. The red rim of the sun rose over the shoulders of the dark land. Before them in the West the world lay still, formless and grey; but even as they looked, the shadows of night melted, the colours of the waking earth returned: green flowed over the wide meads of Rohan; the white mists shimmered in the water-vales; and far off to the left, thirty leagues or more, blue and purple stood the White Mountains, rising into peaks of jet, tipped with glimmering snows, flushed with the rose of morning.</t>
+  </si>
+  <si>
+    <t>[A/L/G] Together they watched the dawn grow slowly in the sky, now bare and cloudless, until at last the sunrise came. It was pale and clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[M/P] When [Ugluk] had forced a drink from his flask down the hobbit’s throat, cut his leg-bonds, and dragged him to his feet, Merry stood up, looking pale but grim and defiant, and very much alive. The gash in his forehead gave him no more trouble, but he bore a brown scar to the end of his days. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ### [M/P] The Sun’s limb was lifted, an arc of fire, above the margin of the world.</t>
+  </si>
+  <si>
+    <t>[M/P] For I am not going to tell you my name, not yet at any rate.’ A queer half-knowing, half-humorous look came with a green flicker into [Treebeard's] eyes. ‘For one thing it would take a long while: my name is growing all the time, and I’ve lived a very long, long time; so my name is like a story. Real names tell you the story of the things they belong to in my language, in the Old Entish as you might say. It is a lovely language, but it takes a very long time to say anything in it, because we do not say anything in it, unless it is worth taking a long time to say, and to listen to.</t>
+  </si>
+  <si>
+    <t>[M/P] A second night came and still the Ents held conclave under hurrying clouds and fitful stars.</t>
+  </si>
+  <si>
+    <t>[M/P] The third day broke, bleak and windy. At sunrise the Ents’ voices rose to a great clamour and then died down again.</t>
+  </si>
+  <si>
+    <t>[M/P] And it may well be that that time is drawing near at last. For if Sauron of old destroyed the gardens, the Enemy today seems likely to wither all the woods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F/S/G] </t>
+  </si>
+  <si>
+    <t>26 Feb 3019, Breaking of the Fellowship. Key [F/S/G], [A/L/G], [M/P] = [Frodo/Sam/Gollum] [Aragorn/Legolas/Gimli] [Merry/Pippin]</t>
+  </si>
+  <si>
+    <t>[F/S/G] It was the third evening since they had fled from the Company, as far as they could tell: they had almost lost count of the hours during which they had climbed and laboured among the barren slopes and stones of the Emyn Muil, sometimes retracing their steps because they could find no way forward, sometimes discovering that they had wandered in a circle back to where they had been hours before.</t>
+  </si>
+  <si>
+    <t>[M/P] Neither Pippin nor Merry remembered much of the later part of the journey. Evil dreams and evil waking were blended into a long tunnel of misery, with hope growing ever fainter behind.</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,6 +1461,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1361,7 +1547,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1393,6 +1579,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1680,8 +1869,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J157" sqref="J157"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I158" sqref="I158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1739,13 +1928,13 @@
         <v>197</v>
       </c>
       <c r="N1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2967,10 +3156,10 @@
         <v>213</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N121" t="s">
         <v>212</v>
@@ -2984,7 +3173,7 @@
         <v>130</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3013,7 +3202,7 @@
         <v>214</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3027,7 +3216,7 @@
         <v>182</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3046,7 +3235,7 @@
         <v>183</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,32 +3313,35 @@
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -3163,11 +3355,11 @@
         <v>26</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -3184,19 +3376,19 @@
         <v>210</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>219</v>
       </c>
       <c r="J151" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K151" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -3208,16 +3400,16 @@
         <v>28</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I152" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -3229,16 +3421,16 @@
         <v>28</v>
       </c>
       <c r="G153" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="H153" t="s">
         <v>273</v>
-      </c>
-      <c r="H153" t="s">
-        <v>277</v>
       </c>
       <c r="I153" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -3250,16 +3442,16 @@
         <v>28</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H154" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I154" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -3271,72 +3463,72 @@
         <v>28</v>
       </c>
       <c r="G155" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H155" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="H155" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="I155" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" t="s">
         <v>28</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I156" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D157" s="8"/>
       <c r="G157" s="13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H157" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I157" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>222</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I158" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -3345,16 +3537,16 @@
         <v>220</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I159" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -3365,10 +3557,10 @@
         <v>220</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3376,108 +3568,126 @@
         <v>408764</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="E161" t="s">
         <v>29</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="H161" s="9" t="s">
-        <v>290</v>
+        <v>279</v>
+      </c>
+      <c r="H161" t="s">
+        <v>310</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="B162" s="1">
         <v>408765</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="E162" t="s">
         <v>220</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="I162" t="s">
-        <v>220</v>
-      </c>
-      <c r="J162" t="s">
-        <v>220</v>
+        <v>280</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="K162" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="B163" s="1">
         <v>408766</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E163" t="s">
         <v>220</v>
       </c>
-      <c r="I163" t="s">
-        <v>220</v>
-      </c>
-      <c r="J163" t="s">
-        <v>220</v>
+      <c r="G163" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="E164" t="s">
         <v>220</v>
       </c>
-      <c r="I164" t="s">
-        <v>220</v>
-      </c>
-      <c r="J164" t="s">
-        <v>220</v>
+      <c r="G164" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="E165" t="s">
         <v>220</v>
       </c>
-      <c r="I165" t="s">
-        <v>220</v>
-      </c>
-      <c r="J165" t="s">
-        <v>220</v>
+      <c r="H165" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I165" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3485,16 +3695,22 @@
         <v>408767</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E166" t="s">
         <v>220</v>
       </c>
-      <c r="I166" t="s">
-        <v>220</v>
-      </c>
-      <c r="J166" t="s">
-        <v>220</v>
+      <c r="G166" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3502,16 +3718,22 @@
         <v>408768</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E167" t="s">
         <v>220</v>
       </c>
-      <c r="I167" t="s">
-        <v>220</v>
-      </c>
-      <c r="J167" t="s">
-        <v>220</v>
+      <c r="G167" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3519,16 +3741,19 @@
         <v>408769</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E168" t="s">
         <v>220</v>
       </c>
-      <c r="I168" t="s">
-        <v>220</v>
-      </c>
-      <c r="J168" t="s">
-        <v>220</v>
+      <c r="H168" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3536,16 +3761,19 @@
         <v>408770</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E169" t="s">
         <v>220</v>
       </c>
-      <c r="I169" t="s">
-        <v>220</v>
-      </c>
-      <c r="J169" t="s">
-        <v>220</v>
+      <c r="H169" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3553,16 +3781,19 @@
         <v>408771</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E170" t="s">
         <v>220</v>
       </c>
-      <c r="I170" t="s">
-        <v>220</v>
-      </c>
-      <c r="J170" t="s">
-        <v>220</v>
+      <c r="H170" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3570,16 +3801,19 @@
         <v>408772</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E171" t="s">
         <v>220</v>
       </c>
-      <c r="I171" t="s">
-        <v>220</v>
-      </c>
-      <c r="J171" t="s">
-        <v>220</v>
+      <c r="H171" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,16 +3821,19 @@
         <v>408773</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E172" t="s">
         <v>220</v>
       </c>
-      <c r="I172" t="s">
-        <v>220</v>
-      </c>
-      <c r="J172" t="s">
-        <v>220</v>
+      <c r="H172" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3604,16 +3841,19 @@
         <v>408774</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E173" t="s">
         <v>220</v>
       </c>
-      <c r="I173" t="s">
-        <v>220</v>
-      </c>
-      <c r="J173" t="s">
-        <v>220</v>
+      <c r="H173" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3621,16 +3861,19 @@
         <v>408775</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E174" t="s">
         <v>220</v>
       </c>
-      <c r="I174" t="s">
-        <v>220</v>
-      </c>
-      <c r="J174" t="s">
-        <v>220</v>
+      <c r="H174" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,16 +3881,19 @@
         <v>408776</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E175" t="s">
         <v>220</v>
       </c>
-      <c r="I175" t="s">
-        <v>220</v>
-      </c>
-      <c r="J175" t="s">
-        <v>220</v>
+      <c r="H175" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3655,16 +3901,19 @@
         <v>408777</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E176" t="s">
         <v>220</v>
       </c>
-      <c r="I176" t="s">
-        <v>220</v>
-      </c>
-      <c r="J176" t="s">
-        <v>220</v>
+      <c r="H176" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="177" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3672,16 +3921,19 @@
         <v>408778</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E177" t="s">
         <v>220</v>
       </c>
-      <c r="I177" t="s">
-        <v>220</v>
-      </c>
-      <c r="J177" t="s">
-        <v>220</v>
+      <c r="H177" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="178" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3689,16 +3941,19 @@
         <v>408779</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E178" t="s">
         <v>220</v>
       </c>
-      <c r="I178" t="s">
-        <v>220</v>
-      </c>
-      <c r="J178" t="s">
-        <v>220</v>
+      <c r="H178" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="179" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3706,16 +3961,19 @@
         <v>408780</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E179" t="s">
         <v>220</v>
       </c>
-      <c r="I179" t="s">
-        <v>220</v>
-      </c>
-      <c r="J179" t="s">
-        <v>220</v>
+      <c r="H179" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="180" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3723,16 +3981,19 @@
         <v>408781</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E180" t="s">
         <v>220</v>
       </c>
-      <c r="I180" t="s">
-        <v>220</v>
-      </c>
-      <c r="J180" t="s">
-        <v>220</v>
+      <c r="H180" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="181" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,16 +4001,19 @@
         <v>408782</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E181" t="s">
         <v>220</v>
       </c>
-      <c r="I181" t="s">
-        <v>220</v>
-      </c>
-      <c r="J181" t="s">
-        <v>220</v>
+      <c r="H181" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3757,16 +4021,19 @@
         <v>408783</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E182" t="s">
         <v>220</v>
       </c>
-      <c r="I182" t="s">
-        <v>220</v>
-      </c>
-      <c r="J182" t="s">
-        <v>220</v>
+      <c r="H182" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="183" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3774,7 +4041,7 @@
         <v>408784</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E183" t="s">
         <v>220</v>
@@ -3791,7 +4058,7 @@
         <v>408785</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E184" t="s">
         <v>220</v>
@@ -3805,14 +4072,17 @@
       <c r="E185" t="s">
         <v>220</v>
       </c>
+      <c r="G185" s="13" t="s">
+        <v>293</v>
+      </c>
       <c r="H185" s="9" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3824,7 +4094,7 @@
         <v>220</v>
       </c>
       <c r="I186" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="187" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3832,13 +4102,13 @@
         <v>408788</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E187" t="s">
         <v>220</v>
       </c>
       <c r="I187" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3846,13 +4116,13 @@
         <v>408789</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E188" t="s">
         <v>220</v>
       </c>
       <c r="I188" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3860,7 +4130,7 @@
         <v>408790</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E189" t="s">
         <v>220</v>
@@ -3871,10 +4141,13 @@
         <v>408791</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E190" t="s">
         <v>220</v>
+      </c>
+      <c r="I190" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="191" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF007271-58E8-4703-A185-F7DF8797F6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BA897-A17F-405F-8A28-1A374E44657F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="345">
   <si>
     <t>Date</t>
   </si>
@@ -694,9 +694,6 @@
     <t>Rough</t>
   </si>
   <si>
-    <t>WORKING</t>
-  </si>
-  <si>
     <t>POSTED</t>
   </si>
   <si>
@@ -1169,16 +1166,10 @@
     <t>All night the three companions scrambled in this bony land, climbing to the crest of the first and tallest ridge, and down again into the darkness of a deep winding valley on the other side. There in the still cool hour before dawn they rested for a brief space.</t>
   </si>
   <si>
-    <t>[G/P]</t>
-  </si>
-  <si>
     <t>[M/Theoden/Eowyn]</t>
   </si>
   <si>
     <t>[A/L/G]</t>
-  </si>
-  <si>
-    <t>[M/P]</t>
   </si>
   <si>
     <t>Boromir: "Where there are so many, all speech becomes a debate without end. But two together may perhaps find wisdom."</t>
@@ -1366,18 +1357,9 @@
     <t xml:space="preserve">[M/P] When [Ugluk] had forced a drink from his flask down the hobbit’s throat, cut his leg-bonds, and dragged him to his feet, Merry stood up, looking pale but grim and defiant, and very much alive. The gash in his forehead gave him no more trouble, but he bore a brown scar to the end of his days. </t>
   </si>
   <si>
-    <t xml:space="preserve"> ### [M/P] The Sun’s limb was lifted, an arc of fire, above the margin of the world.</t>
-  </si>
-  <si>
     <t>[M/P] For I am not going to tell you my name, not yet at any rate.’ A queer half-knowing, half-humorous look came with a green flicker into [Treebeard's] eyes. ‘For one thing it would take a long while: my name is growing all the time, and I’ve lived a very long, long time; so my name is like a story. Real names tell you the story of the things they belong to in my language, in the Old Entish as you might say. It is a lovely language, but it takes a very long time to say anything in it, because we do not say anything in it, unless it is worth taking a long time to say, and to listen to.</t>
   </si>
   <si>
-    <t>[M/P] A second night came and still the Ents held conclave under hurrying clouds and fitful stars.</t>
-  </si>
-  <si>
-    <t>[M/P] The third day broke, bleak and windy. At sunrise the Ents’ voices rose to a great clamour and then died down again.</t>
-  </si>
-  <si>
     <t>[M/P] And it may well be that that time is drawing near at last. For if Sauron of old destroyed the gardens, the Enemy today seems likely to wither all the woods.</t>
   </si>
   <si>
@@ -1391,6 +1373,122 @@
   </si>
   <si>
     <t>[M/P] Neither Pippin nor Merry remembered much of the later part of the journey. Evil dreams and evil waking were blended into a long tunnel of misery, with hope growing ever fainter behind.</t>
+  </si>
+  <si>
+    <t>[F/S/G] ‘No, sweet one. See, my precious: if we has it, then we can escape, even from Him, eh? Perhaps we grows very strong, stronger than Wraiths. Lord Sméagol? Gollum the Great? The Gollum! Eat fish every day, three times a day, fresh from the sea. Most Precious Gollum! Must have it. We wants it, we wants it, we wants it!’</t>
+  </si>
+  <si>
+    <t>[F/S/G] Dropping the leaf, [Gollum] took a corner of the lembas and nibbled it. He spat, and a fit of coughing shook him. ‘Ach! No!’ he spluttered. ‘You try to choke poor Sméagol. Dust and ashes, he can’t eat that. He must starve. But Sméagol doesn’t mind. Nice hobbits! Sméagol has promised. He will starve. He can’t eat hobbits’ food. He will starve. Poor thin Sméagol!’ ‘I’m sorry,’ said Frodo; ‘but I can’t help you, I’m afraid. I think this food would do you good, if you would try. But perhaps you can’t even try, not yet anyway.’</t>
+  </si>
+  <si>
+    <t>[Gand/P]</t>
+  </si>
+  <si>
+    <t>[M/P] -</t>
+  </si>
+  <si>
+    <t>[A/L/G][G] ‘In one thing you have not changed, dear friend,’ said Aragorn: ‘you still speak in riddles.’ ‘What? In riddles?’ said Gandalf. ‘No! For I was talking aloud to myself. A habit of the old: they choose the wisest person present to speak to; the long explanations needed by the young are wearying.’ He laughed, but the sound now seemed warm and kindly as a gleam of sunshine.</t>
+  </si>
+  <si>
+    <t>[F/S/G] Its name was Cirith Ungol, a name of dreadful rumour. Aragorn could perhaps have told them that name and its significance; Gandalf would have warned them. But they were alone, and Aragorn was far away, and Gandalf stood amid the ruin of Isengard and strove with Saruman, delayed by treason. Yet even as he spoke his last words to Saruman, and the palantír crashed in fire upon the steps of Orthanc, his thought was ever upon Frodo and Samwise, over the long leagues his mind sought for them in hope and pity.</t>
+  </si>
+  <si>
+    <t>[F/S/G] All about them were small woods of resinous trees, fir and cedar and cypress, and other kinds unknown in the Shire, with wide glades among them; and everywhere there was a wealth of sweet-smelling herbs and shrubs. The long journey from Rivendell had brought them far south of their own land, but not until now in this more sheltered region had the hobbits felt the change of clime. Here Spring was already busy about them: fronds pierced moss and mould, larches were green-fingered, small flowers were opening in the turf, birds were singing. Ithilien, the garden of Gondor now desolate kept still a dishevelled dryad loveliness.</t>
+  </si>
+  <si>
+    <t>[F/S/G] ‘I did not mean the danger that we all share,’ said Frodo. ‘I mean a danger to yourself alone. You swore a promise by what you call the Precious. Remember that! It will hold you to it; but it will seek a way to twist it to your own undoing. Already you are being twisted. You revealed yourself to me just now, foolishly. Give it back to Sméagol you said. Do not say that again! Do not let that thought grow in you! You will never get it back. But the desire of it may betray you to a bitter end. You will never get it back. In the last need, Sméagol, I should put on the Precious; and the Precious mastered you long ago. If I, wearing it, were to command you, you would obey, even if it were to leap from a precipice or to cast yourself into the fire. And such would be my command. So have a care, Sméagol!’
+Sam looked at his master with approval, but also with surprise: there was a look in his face and a tone in his voice that he had not known before. It had always been a notion of his that the kindness of dear Mr. Frodo was of such a high degree that it must imply a fair measure of blindness. Of course, he also firmly held the incompatible belief that Mr. Frodo was the wisest person in the world (with the possible exception of Old Mr. Bilbo and of Gandalf). Gollum in his own way, and with much more excuse as his acquaintance was much briefer, may have made a similar mistake, confusing kindness and blindness. At any rate this speech abashed and terrified him. He grovelled on the ground and could speak no clear words but nice master.</t>
+  </si>
+  <si>
+    <t>[F/S/G] But into Mordor, to the Mountain of Fire and to Barad-dûr, since the Dark Lord rose in power again, had he ever journeyed there? Frodo did not think so. And here he was a little halfling from the Shire, a simple hobbit of the quiet countryside, expected to find a way where the great ones could not go, or dared not go. It was an evil fate. But he had taken it on himself in his own sitting-room in the far-off spring of another year, so remote now that it was like a chapter in a story of the world’s youth, when the Trees of Silver and Gold were still in bloom. This was an evil choice. Which way should he choose? And if both led to terror and death, what good lay in choice?</t>
+  </si>
+  <si>
+    <t>[F/S/G] ~</t>
+  </si>
+  <si>
+    <t>[F/S/G] [Faramir:] 'Go now to rest — but first tell me only, if you will, whither you wish to go, and what to do. For I must watch, and wait, and think. Time passes. In the morning we must each go swiftly on the ways appointed to us.’ Frodo had felt himself trembling as the first shock of fear passed. Now a great weariness came down on him like a cloud. He could dissemble and resist no longer. ‘I was going to find a way into Mordor,’ he said faintly. ‘I was going to Gorgoroth. I must find the Mountain of Fire and cast the thing into the gulf of Doom. Gandalf said so. I do not think I shall ever get there.’</t>
+  </si>
+  <si>
+    <t>[A/L/G] ‘You are held wise, my friend Wormtongue, and are doubtless a great support to your master,’ answered Gandalf in a soft voice. ‘Yet in two ways may a man come with evil tidings. He may be a worker of evil; or he may be such as leaves well alone, and comes only to bring aid in time of need.’</t>
+  </si>
+  <si>
+    <t>[A/L/G] ~</t>
+  </si>
+  <si>
+    <t>[A/L/G] ‘I looked out to see the dawn,’ said Aragorn. ‘What of the dawn?’ they jeered. ‘We are the Uruk-hai: we do not stop the fight for night or day, for fair weather or for storm. We come to kill, by sun or moon. What of the dawn?’ ‘None knows what the new day shall bring him,’ said Aragorn. ‘Get you gone, ere it turn to your evil.’</t>
+  </si>
+  <si>
+    <t>[A/L/G],[M/P] ‘I know,’ said Pippin. ‘It was a wrench to let it go; but what else could I do?’ ‘Nothing else,’ answered Aragorn. ‘One who cannot cast away a treasure at need is in fetters. You did rightly.’</t>
+  </si>
+  <si>
+    <t>[A/L/G],[M/P],[G] The window closed. They waited. Suddenly another voice spoke, low and melodious, its very sound an enchantment. Those who listened unwarily to that voice could seldom report the words that they heard; and if they did, they wondered, for little power remained in them. Mostly they remembered only that it was a delight to hear the voice speaking, all that it said seemed wise and reasonable, and desire awoke in them by swift agreement to seem wise themselves. When others spoke they seemed harsh and uncouth by contrast; and if they gainsaid the voice, anger was kindled in the hearts of those under the spell. For some the spell lasted only while the voice spoke to them, and when it spoke to another they smiled, as men do who see through a juggler’s trick while others gape at it. For many the sound of the voice alone was enough to hold them enthralled; but for those whom it conquered the spell endured when they were far away, and ever they heard that soft voice whispering and urging them. But none were unmoved; none rejected its pleas and its commands without an effort of mind and will, so long as its master had control of it.</t>
+  </si>
+  <si>
+    <t>[Gand/P] ‘I wish I had known all this before,’ said Pippin. ‘I had no notion of what I was doing.’ ‘Oh yes, you had,’ said Gandalf. ‘You knew you were behaving wrongly and foolishly; and you told yourself so, though you did not listen. I did not tell you all this before, because it is only by musing on all that has happened that I have at last understood, even as we ride together. But if I had spoken sooner, it would not have lessened your desire, or made it easier to resist. On the contrary! No, the burned hand teaches best. After that advice about fire goes to the heart.’ ‘It does,’ said Pippin. ‘If all the seven stones were laid out before me now, I should shut my eyes and put my hands in my pockets.’
+‘Good!’ said Gandalf. ‘That is what I hoped.’</t>
+  </si>
+  <si>
+    <t>[Gand/P] [Pippin] wondered where Frodo was, and if he was already in Mordor, or if he was dead; and he did not know that Frodo from far away looked on that same moon as it set beyond Gondor ere the coming of the day.</t>
+  </si>
+  <si>
+    <t>[Gand/P] ‘Yes, the shadow of doom,’ said Beregond. ‘I fear that Minas Tirith shall fall. Night comes. The very warmth of my blood seems stolen away.’ For a time they sat together with bowed heads and did not speak. Then suddenly Pippin looked up and saw that the sun was still shining and the banners still streaming in the breeze. He shook himself. ‘It is passed,’ he said. ‘No, my heart will not yet despair. Gandalf fell and has returned and is with us. We may stand, if only on one leg, or at least be left still upon our knees.’ ‘Rightly said!’ cried Beregond, rising and striding to and fro. ‘Nay, though all things must come utterly to an end in time, Gondor shall not perish yet. Not though the walls be taken by a reckless foe that will build a hill of carrion before them. There are still other fastnesses, and secret ways of escape into the mountains. Hope and memory shall live still in some hidden valley where the grass is green.’</t>
+  </si>
+  <si>
+    <t>[A/L/G/P] Aragorn rode to the Dike and watched till the king’s men were far down the Coomb. Then he turned to Halbarad. ‘There go three that I love, and the smallest not the least,’ he said. ‘He knows not to what end he rides; yet if he knew, he still would go on.’ ‘A little people, but of great worth are the Shire-folk,’ said Halbarad. ‘Little do they know of our long labour for the safekeeping of their borders, and yet I grudge it not.’ ‘And now our fates are woven together,’ said Aragorn. ‘And yet, alas! here we must part.</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn] ‘I won’t be left behind, to be called for on return!’ said Merry. And repeating this over and over again to himself he fell asleep at last in his tent.</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn] Now all roads were running together to the East to meet the coming of war and the onset of the Shadow.</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn] ~</t>
+  </si>
+  <si>
+    <t>[Gand/P] Sleepily [Pippin] tried to reckon the times and stages of their journey, but his memory was drowsy and uncertain. There had been the first ride at terrible speed without a halt, and then in the dawn he had seen a pale gleam of gold, and they had come to the silent town and the great empty house on the hill. And hardly had they reached its shelter when the winged shadow had passed over once again, and men wilted with fear. But Gandalf had spoken soft words to him, and he had slept in a corner, tired but uneasy, dimly aware of comings and goings and of men talking and Gandalf giving orders. And then again riding, riding in the night. This was the second, no, the third night since he had looked in the Stone. And with that hideous memory he woke fully, and shivered, and the noise of the wind became filled with menacing voices.</t>
+  </si>
+  <si>
+    <t>[Gand/P/Faramir] ‘Much must be risked in war,’ said Denethor. ‘Cair Andros is manned, and no more can be sent so far. But I will not yield the River and the Pelennor unfought – not if there is a captain here who has still the courage to do his lord’s will.’ Then all were silent. But at length Faramir said: ‘I do not oppose your will, sire. Since you are robbed of Boromir, I will go and do what I can in his stead – if you command it.’ ‘I do so,’ said Denethor. ‘Then farewell!’ said Faramir. ‘But if I should return, think better of me!’ ‘That depends on the manner of your return,’ said Denethor.</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn] Right through the charge Merry had been borne unharmed behind him, until the Shadow came; and then Windfola had thrown them in his terror, and now ran wild upon the plain. Merry crawled on all fours like a dazed beast, and such a horror was on him that he was blind and sick. ‘King’s man! King’s man!’ his heart cried within him. ‘You must stay by him. As a father you shall be to me, you said.’ But his will made no answer, and his body shook. He dared not open his eyes or look up.</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn] ~~ ‘Alas!’ said Théoden. ‘Then Denethor has heard no news of our riding and will despair of our coming.’ ‘Need brooks no delay, yet late is better than never,’ said Éomer. ‘And mayhap in this time shall the old saw be proved truer than ever before since men spoke with mouth.’</t>
+  </si>
+  <si>
+    <t>[A/L/G] And there stood Gimli the Dwarf left all alone. His knees shook, and he was wroth with himself. ‘Here is a thing unheard of!’ he said. ‘An Elf will go underground and a Dwarf dare not!’ With that he plunged in. But it seemed to him that he dragged his feet like lead over the threshold; and at once a blindness came upon him, even upon Gimli Glóin’s son who had walked unafraid in many deep places of the world.</t>
+  </si>
+  <si>
+    <t>[A/L/G] But the next day there came no dawn, and the Grey Company passed on into the darkness of the Storm of Mordor and were lost to mortal sight; but the Dead followed them.</t>
+  </si>
+  <si>
+    <t>[F/S/G] ‘There are locked doors and closed windows in your mind [, Gollum], and dark rooms behind them,’ said Faramir. ‘But in this I judge that you speak the truth. It is well for you. What oath will you swear never to return; and never to lead any living creature hither by word or sign?’</t>
+  </si>
+  <si>
+    <t>[F/S/G] ‘Sleep!’ said Frodo and sighed, as if out of a desert he had seen a mirage of cool green. ‘Yes, even here I could sleep.’ ‘Sleep then, master! Lay your head in my lap.’ And so Gollum found them hours later, when he returned, crawling and creeping down the path out of the gloom ahead. Sam sat propped against the stone, his head dropping sideways and his breathing heavy. In his lap lay Frodo’s head, drowned deep in sleep; upon his white forehead lay one of Sam’s brown hands, and the other lay softly upon his master’s breast. Peace was in both their faces. Gollum looked at them. A strange expression passed over his lean hungry face. The gleam faded from his eyes, and they went dim and grey, old and tired. A spasm of pain seemed to twist him, and he turned away, peering back up towards the pass, shaking his head, as if engaged in some interior debate. Then he came back, and slowly putting out a trembling hand, very cautiously he touched Frodo’s knee – but almost the touch was a caress. For a fleeting moment, could one of the sleepers have seen him, they would have thought that they beheld an old weary hobbit, shrunken by the years that had carried him far beyond his time, beyond friends and kin, and the fields and streams of youth, an old starved pitiable thing. But at that touch Frodo stirred and cried out softly in his sleep, and immediately Sam was wide awake. The first thing he saw was Gollum – ‘pawing at master,’ as he thought. ‘Hey you!’ he said roughly. ‘What are you up to?’ ‘Nothing, nothing,’ said Gollum softly. ‘Nice Master!’</t>
+  </si>
+  <si>
+    <t>[F/S/G] Frodo stirred. And suddenly his heart went out to Faramir. ‘The storm has burst at last,’ he thought. ‘This great array of spears and swords is going to Osgiliath. Will Faramir get across in time? He guessed it, but did he know the hour? And who can now hold the fords when the King of the Nine Riders comes? And other armies will come. I am too late. All is lost. I tarried on the way. All is lost. Even if my errand is performed, no one will ever know. There will be no one I can tell. It will be in vain.’ Overcome with weakness he wept. And still the host of Morgul crossed the bridge. Then at a great distance, as if it came out of memories of the Shire, some sunlit early morning, when the day called and doors were opening, he heard Sam’s voice speaking. ‘Wake up, Mr. Frodo! Wake up!’ Had the voice added: ‘Your breakfast is ready,’ he would hardly have been surprised. Certainly Sam was urgent. ‘Wake up, Mr. Frodo! They’re gone,’ he said.</t>
+  </si>
+  <si>
+    <t>[A/L/G] [10 The Dawnless Day.]</t>
+  </si>
+  <si>
+    <t>[F/S/G] [10 The Dawnless Day.] ‘I don’t like anything here at all,’ said Frodo, ‘step or stone, breath or bone. Earth, air and water all seem accursed. But so our path is laid.’</t>
+  </si>
+  <si>
+    <t>[Gand/P] [10 The Dawnless Day.] For a moment the eyes of Denethor glowed again as he faced Gandalf, and Pippin felt once more the strain between their wills; but now almost it seemed as if their glances were like blades from eye to eye, flickering as they fenced. Pippin trembled fearing some dreadful stroke. But suddenly Denethor relaxed and grew cold again. He shrugged his shoulders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[M/Theoden/Eowyn] [10 The Dawnless Day.] ‘But the Sun has not risen, yet,’ said Merry. ‘No, and will not rise today, Master Holbytla. Nor ever again, one would think under this cloud. But time does not stand still, though the Sun be lost. Make haste!’ </t>
+  </si>
+  <si>
+    <t>[F/S/G] ‘The star-glass?’ muttered Frodo, as one answering out of sleep, hardly comprehending. ‘Why yes! Why had I forgotten it? A light when all other lights go out! And now indeed light alone can help us.’ Slowly his hand went to his bosom, and slowly he held aloft the Phial of Galadriel. For a moment it glimmered, faint as a rising star struggling in heavy earthward mists, and then as its power waxed, and hope grew in Frodo’s mind, it began to burn, and kindled to a silver flame, a minute heart of dazzling light, as though Eärendil had himself come down from the high sunset paths with the last Silmaril upon his brow. The darkness receded from it, until it seemed to shine in the centre of a globe of airy crystal, and the hand that held it sparkled with white fire.</t>
+  </si>
+  <si>
+    <t>WORKING HERE FRODO SAM</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1645,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1582,6 +1680,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1869,8 +1969,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I158" sqref="I158"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1907,34 +2007,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
-        <v>186</v>
-      </c>
       <c r="K1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" t="s">
         <v>195</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>196</v>
       </c>
-      <c r="M1" t="s">
-        <v>197</v>
-      </c>
       <c r="N1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" t="s">
         <v>263</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>264</v>
-      </c>
-      <c r="P1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2604,7 @@
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="1">
         <v>408640</v>
@@ -2516,7 +2616,7 @@
         <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>154</v>
@@ -2868,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2879,7 +2979,7 @@
         <v>22</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,7 +2990,7 @@
         <v>22</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2901,7 +3001,7 @@
         <v>22</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2912,10 +3012,10 @@
         <v>22</v>
       </c>
       <c r="G98" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2954,10 +3054,10 @@
         <v>22</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -2976,7 +3076,7 @@
         <v>22</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,19 +3107,19 @@
         <v>130</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E111" t="s">
         <v>22</v>
       </c>
       <c r="G111" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="I111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3027,7 +3127,7 @@
         <v>408715</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,7 +3135,7 @@
         <v>408716</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3043,7 +3143,7 @@
         <v>408717</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,22 +3151,22 @@
         <v>408718</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H115" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I115" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I115" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="J115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K115" t="s">
+        <v>197</v>
+      </c>
+      <c r="L115" t="s">
         <v>198</v>
-      </c>
-      <c r="L115" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3074,10 +3174,10 @@
         <v>408719</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3085,19 +3185,19 @@
         <v>408720</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H117" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I117" t="s">
         <v>204</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>205</v>
-      </c>
-      <c r="J117" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,13 +3205,13 @@
         <v>408721</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H118" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,13 +3219,13 @@
         <v>408722</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,10 +3233,10 @@
         <v>408723</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3147,22 +3247,22 @@
         <v>91</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3173,7 +3273,7 @@
         <v>130</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3199,10 +3299,10 @@
         <v>163</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3213,10 +3313,10 @@
         <v>91</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,10 +3332,10 @@
         <v>91</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3324,9 +3424,6 @@
       </c>
     </row>
     <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="B147" s="1">
         <v>408750</v>
       </c>
@@ -3349,17 +3446,20 @@
         <v>91</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E150" t="s">
         <v>26</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -3367,25 +3467,25 @@
         <v>91</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E151" t="s">
         <v>27</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H151" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J151" t="s">
         <v>258</v>
       </c>
-      <c r="I151" s="9" t="s">
+      <c r="K151" t="s">
         <v>219</v>
-      </c>
-      <c r="J151" t="s">
-        <v>259</v>
-      </c>
-      <c r="K151" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,13 +3500,13 @@
         <v>28</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3421,13 +3521,13 @@
         <v>28</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H153" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3442,13 +3542,13 @@
         <v>28</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I154" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3463,13 +3563,13 @@
         <v>28</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3477,17 +3577,17 @@
         <v>408759</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" t="s">
         <v>28</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I156" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,17 +3595,17 @@
         <v>408760</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D157" s="8"/>
       <c r="G157" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3513,19 +3613,19 @@
         <v>408761</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I158" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3534,16 +3634,16 @@
       </c>
       <c r="D159" s="8"/>
       <c r="E159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,16 +3651,16 @@
         <v>408763</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3568,25 +3668,25 @@
         <v>408764</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E161" t="s">
         <v>29</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="H161" t="s">
-        <v>310</v>
+        <v>278</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3594,100 +3694,94 @@
         <v>408765</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="H162" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="J162" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H162" s="9" t="s">
         <v>303</v>
       </c>
+      <c r="I162" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="K162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="B163" s="1">
         <v>408766</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J163" s="6" t="s">
-        <v>312</v>
+        <v>295</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E164" t="s">
-        <v>220</v>
-      </c>
-      <c r="G164" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="I164" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="J164" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H164" s="9" t="s">
         <v>305</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E165" t="s">
-        <v>220</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I165" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="J165" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165" s="9" t="s">
         <v>308</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3695,22 +3789,19 @@
         <v>408767</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E166" t="s">
-        <v>220</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J166" s="6" t="s">
-        <v>284</v>
+        <v>227</v>
+      </c>
+      <c r="E166" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,22 +3809,19 @@
         <v>408768</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E167" t="s">
-        <v>220</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>284</v>
+        <v>228</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H167" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3741,19 +3829,19 @@
         <v>408769</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E168" t="s">
-        <v>220</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J168" s="6" t="s">
-        <v>284</v>
+        <v>229</v>
+      </c>
+      <c r="E168" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,19 +3849,19 @@
         <v>408770</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E169" t="s">
-        <v>220</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I169" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J169" s="6" t="s">
-        <v>284</v>
+        <v>230</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,19 +3869,17 @@
         <v>408771</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E170" t="s">
-        <v>220</v>
-      </c>
-      <c r="H170" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I170" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J170" s="6" t="s">
-        <v>284</v>
+        <v>231</v>
+      </c>
+      <c r="E170" s="20"/>
+      <c r="H170" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J170" s="12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,39 +3887,43 @@
         <v>408772</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E171" t="s">
-        <v>220</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I171" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J171" s="6" t="s">
-        <v>284</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J171" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="K171" s="6"/>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E172" t="s">
-        <v>220</v>
-      </c>
-      <c r="H172" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I172" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J172" s="6" t="s">
-        <v>284</v>
+        <v>233</v>
+      </c>
+      <c r="E172" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="I172" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="J172" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K172" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,19 +3931,22 @@
         <v>408774</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E173" t="s">
-        <v>220</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I173" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>284</v>
+        <v>219</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J173" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3861,39 +3954,45 @@
         <v>408775</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E174" t="s">
-        <v>220</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I174" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J174" s="6" t="s">
-        <v>284</v>
+        <v>235</v>
+      </c>
+      <c r="F174" t="s">
+        <v>56</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="I174" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J174" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
-      <c r="D175" s="8" t="s">
-        <v>237</v>
+      <c r="D175" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="E175" t="s">
-        <v>220</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>309</v>
+        <v>219</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J175" s="6" t="s">
-        <v>284</v>
+        <v>339</v>
+      </c>
+      <c r="J175" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,676 +4000,763 @@
         <v>408777</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E176" t="s">
-        <v>220</v>
-      </c>
-      <c r="H176" s="6" t="s">
-        <v>309</v>
+        <v>219</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J176" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="J176" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K176" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E177" t="s">
-        <v>220</v>
-      </c>
-      <c r="H177" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J177" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="I177" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J177" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="178" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K177" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="B178" s="1">
         <v>408779</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E178" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H178" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J178" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="I178" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J178" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="179" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K178" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E179" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H179" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J179" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="I179" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J179" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="180" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K179" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
-      <c r="D180" s="8" t="s">
-        <v>242</v>
+      <c r="D180" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="E180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H180" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J180" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="I180" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J180" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="181" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K180" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E181" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H181" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J181" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="I181" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="182" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K181" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E182" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H182" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J182" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="I182" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="J182" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="183" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K182" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E183" t="s">
-        <v>220</v>
-      </c>
-      <c r="I183" t="s">
-        <v>220</v>
-      </c>
-      <c r="J183" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="184" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J183" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="L183" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E184" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="185" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J184" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
       <c r="D185" s="8"/>
       <c r="E185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="H185" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J185" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="I185" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="J185" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
       <c r="D186" s="8"/>
       <c r="E186" t="s">
-        <v>220</v>
-      </c>
-      <c r="I186" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="187" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J186" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E187" t="s">
-        <v>220</v>
-      </c>
-      <c r="I187" t="s">
+        <v>219</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I187" s="6" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="188" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J187" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E188" t="s">
-        <v>220</v>
-      </c>
-      <c r="I188" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="189" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J188" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E189" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J189" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E190" t="s">
-        <v>220</v>
-      </c>
-      <c r="I190" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="191" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J190" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
       <c r="D191" s="8"/>
       <c r="E191" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
       <c r="D192" s="8"/>
       <c r="E192" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
       <c r="D193" s="8"/>
       <c r="E193" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
       <c r="D194" s="8"/>
       <c r="E194" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
       <c r="D195" s="8"/>
-      <c r="E195" t="s">
-        <v>220</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
       <c r="D196" s="8"/>
-      <c r="F196" t="s">
-        <v>6</v>
-      </c>
-      <c r="I196" t="s">
-        <v>30</v>
-      </c>
-      <c r="M196" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I196" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
       <c r="D197" s="8"/>
-    </row>
-    <row r="198" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I197" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
-      <c r="F198" t="s">
-        <v>7</v>
-      </c>
-      <c r="H198" t="s">
-        <v>19</v>
-      </c>
       <c r="I198" t="s">
-        <v>31</v>
-      </c>
-      <c r="J198" t="s">
-        <v>43</v>
-      </c>
-      <c r="M198" t="s">
-        <v>55</v>
-      </c>
-      <c r="N198" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
       <c r="D199" s="8"/>
-      <c r="F199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I199" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
-      <c r="F200" t="s">
-        <v>9</v>
-      </c>
-      <c r="H200" t="s">
-        <v>20</v>
-      </c>
-      <c r="I200" t="s">
-        <v>32</v>
-      </c>
-      <c r="J200" t="s">
-        <v>44</v>
-      </c>
-      <c r="M200" t="s">
-        <v>56</v>
-      </c>
-      <c r="N200" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="201" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
-      <c r="F201" t="s">
-        <v>10</v>
-      </c>
-      <c r="H201" t="s">
-        <v>21</v>
-      </c>
       <c r="I201" t="s">
-        <v>33</v>
-      </c>
-      <c r="J201" t="s">
-        <v>45</v>
-      </c>
-      <c r="M201" t="s">
-        <v>57</v>
-      </c>
-      <c r="N201" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="202" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
       <c r="D202" s="8"/>
-      <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="H202" t="s">
-        <v>22</v>
-      </c>
-      <c r="I202" t="s">
-        <v>34</v>
-      </c>
-      <c r="J202" t="s">
-        <v>46</v>
-      </c>
-      <c r="M202" t="s">
-        <v>58</v>
-      </c>
-      <c r="N202" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
-      <c r="F203" t="s">
-        <v>12</v>
-      </c>
-      <c r="H203" t="s">
-        <v>23</v>
-      </c>
-      <c r="I203" t="s">
-        <v>35</v>
-      </c>
-      <c r="J203" t="s">
-        <v>47</v>
-      </c>
-      <c r="M203" t="s">
-        <v>59</v>
-      </c>
-      <c r="N203" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="204" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>219</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
       <c r="D204" s="8"/>
       <c r="F204" t="s">
-        <v>13</v>
-      </c>
-      <c r="H204" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I204" t="s">
-        <v>36</v>
-      </c>
-      <c r="J204" t="s">
-        <v>48</v>
-      </c>
-      <c r="M204" t="s">
-        <v>60</v>
-      </c>
-      <c r="N204" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="205" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K204" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
       <c r="D205" s="8"/>
-      <c r="F205" t="s">
-        <v>14</v>
-      </c>
-      <c r="H205" t="s">
-        <v>25</v>
-      </c>
-      <c r="I205" t="s">
-        <v>37</v>
-      </c>
-      <c r="J205" t="s">
-        <v>49</v>
-      </c>
-      <c r="M205" t="s">
-        <v>61</v>
-      </c>
-      <c r="N205" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
       <c r="F206" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H206" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I206" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
-      </c>
-      <c r="M206" t="s">
-        <v>62</v>
-      </c>
-      <c r="N206" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K206" t="s">
+        <v>55</v>
+      </c>
+      <c r="L206" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
       <c r="F207" t="s">
-        <v>16</v>
-      </c>
-      <c r="H207" t="s">
-        <v>27</v>
-      </c>
-      <c r="I207" t="s">
-        <v>39</v>
-      </c>
-      <c r="J207" t="s">
-        <v>51</v>
-      </c>
-      <c r="M207" t="s">
-        <v>63</v>
-      </c>
-      <c r="N207" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="8"/>
       <c r="F208" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H208" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I208" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J208" t="s">
-        <v>52</v>
-      </c>
-      <c r="M208" t="s">
-        <v>64</v>
-      </c>
-      <c r="N208" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="209" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="K208" t="s">
+        <v>56</v>
+      </c>
+      <c r="L208" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
-      <c r="E209" t="s">
-        <v>80</v>
-      </c>
       <c r="F209" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I209" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
-      </c>
-      <c r="M209" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="210" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="K209" t="s">
+        <v>57</v>
+      </c>
+      <c r="L209" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F210" t="s">
-        <v>77</v>
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>22</v>
       </c>
       <c r="I210" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="211" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="J210" t="s">
+        <v>46</v>
+      </c>
+      <c r="K210" t="s">
+        <v>58</v>
+      </c>
+      <c r="L210" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
-    </row>
-    <row r="212" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F211" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" t="s">
+        <v>23</v>
+      </c>
+      <c r="I211" t="s">
+        <v>35</v>
+      </c>
+      <c r="J211" t="s">
+        <v>47</v>
+      </c>
+      <c r="K211" t="s">
+        <v>59</v>
+      </c>
+      <c r="L211" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
-    </row>
-    <row r="213" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>24</v>
+      </c>
+      <c r="I212" t="s">
+        <v>36</v>
+      </c>
+      <c r="J212" t="s">
+        <v>48</v>
+      </c>
+      <c r="K212" t="s">
+        <v>60</v>
+      </c>
+      <c r="L212" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
-    </row>
-    <row r="214" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" t="s">
+        <v>25</v>
+      </c>
+      <c r="I213" t="s">
+        <v>37</v>
+      </c>
+      <c r="J213" t="s">
+        <v>49</v>
+      </c>
+      <c r="K213" t="s">
+        <v>61</v>
+      </c>
+      <c r="L213" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
-    </row>
-    <row r="215" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" t="s">
+        <v>38</v>
+      </c>
+      <c r="J214" t="s">
+        <v>50</v>
+      </c>
+      <c r="K214" t="s">
+        <v>62</v>
+      </c>
+      <c r="L214" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
-    </row>
-    <row r="216" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>16</v>
+      </c>
+      <c r="H215" t="s">
+        <v>27</v>
+      </c>
+      <c r="I215" t="s">
+        <v>39</v>
+      </c>
+      <c r="J215" t="s">
+        <v>51</v>
+      </c>
+      <c r="K215" t="s">
+        <v>63</v>
+      </c>
+      <c r="L215" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
-    </row>
-    <row r="217" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>17</v>
+      </c>
+      <c r="H216" t="s">
+        <v>28</v>
+      </c>
+      <c r="I216" t="s">
+        <v>40</v>
+      </c>
+      <c r="J216" t="s">
+        <v>52</v>
+      </c>
+      <c r="K216" t="s">
+        <v>64</v>
+      </c>
+      <c r="L216" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
-    </row>
-    <row r="218" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>80</v>
+      </c>
+      <c r="F217" t="s">
+        <v>18</v>
+      </c>
+      <c r="H217" t="s">
+        <v>29</v>
+      </c>
+      <c r="I217" t="s">
+        <v>41</v>
+      </c>
+      <c r="J217" t="s">
+        <v>53</v>
+      </c>
+      <c r="K217" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
-    </row>
-    <row r="219" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E218" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F218" t="s">
+        <v>77</v>
+      </c>
+      <c r="I218" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
     </row>
-    <row r="222" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
@@ -4873,8 +5059,8 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E210" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
-    <hyperlink ref="F195" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
+    <hyperlink ref="E218" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="F203" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BA897-A17F-405F-8A28-1A374E44657F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB88E6D-7479-478F-A65F-943742ECCAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="374">
   <si>
     <t>Date</t>
   </si>
@@ -1196,9 +1196,6 @@
   </si>
   <si>
     <t>[Fa/Eo] = [Faramir/Eowyn]</t>
-  </si>
-  <si>
-    <t>Key</t>
   </si>
   <si>
     <r>
@@ -1452,12 +1449,6 @@
     <t>[Gand/P/Faramir] ‘Much must be risked in war,’ said Denethor. ‘Cair Andros is manned, and no more can be sent so far. But I will not yield the River and the Pelennor unfought – not if there is a captain here who has still the courage to do his lord’s will.’ Then all were silent. But at length Faramir said: ‘I do not oppose your will, sire. Since you are robbed of Boromir, I will go and do what I can in his stead – if you command it.’ ‘I do so,’ said Denethor. ‘Then farewell!’ said Faramir. ‘But if I should return, think better of me!’ ‘That depends on the manner of your return,’ said Denethor.</t>
   </si>
   <si>
-    <t>[M/Theoden/Eowyn] Right through the charge Merry had been borne unharmed behind him, until the Shadow came; and then Windfola had thrown them in his terror, and now ran wild upon the plain. Merry crawled on all fours like a dazed beast, and such a horror was on him that he was blind and sick. ‘King’s man! King’s man!’ his heart cried within him. ‘You must stay by him. As a father you shall be to me, you said.’ But his will made no answer, and his body shook. He dared not open his eyes or look up.</t>
-  </si>
-  <si>
-    <t>[M/Theoden/Eowyn] ~~ ‘Alas!’ said Théoden. ‘Then Denethor has heard no news of our riding and will despair of our coming.’ ‘Need brooks no delay, yet late is better than never,’ said Éomer. ‘And mayhap in this time shall the old saw be proved truer than ever before since men spoke with mouth.’</t>
-  </si>
-  <si>
     <t>[A/L/G] And there stood Gimli the Dwarf left all alone. His knees shook, and he was wroth with himself. ‘Here is a thing unheard of!’ he said. ‘An Elf will go underground and a Dwarf dare not!’ With that he plunged in. But it seemed to him that he dragged his feet like lead over the threshold; and at once a blindness came upon him, even upon Gimli Glóin’s son who had walked unafraid in many deep places of the world.</t>
   </si>
   <si>
@@ -1473,9 +1464,6 @@
     <t>[F/S/G] Frodo stirred. And suddenly his heart went out to Faramir. ‘The storm has burst at last,’ he thought. ‘This great array of spears and swords is going to Osgiliath. Will Faramir get across in time? He guessed it, but did he know the hour? And who can now hold the fords when the King of the Nine Riders comes? And other armies will come. I am too late. All is lost. I tarried on the way. All is lost. Even if my errand is performed, no one will ever know. There will be no one I can tell. It will be in vain.’ Overcome with weakness he wept. And still the host of Morgul crossed the bridge. Then at a great distance, as if it came out of memories of the Shire, some sunlit early morning, when the day called and doors were opening, he heard Sam’s voice speaking. ‘Wake up, Mr. Frodo! Wake up!’ Had the voice added: ‘Your breakfast is ready,’ he would hardly have been surprised. Certainly Sam was urgent. ‘Wake up, Mr. Frodo! They’re gone,’ he said.</t>
   </si>
   <si>
-    <t>[A/L/G] [10 The Dawnless Day.]</t>
-  </si>
-  <si>
     <t>[F/S/G] [10 The Dawnless Day.] ‘I don’t like anything here at all,’ said Frodo, ‘step or stone, breath or bone. Earth, air and water all seem accursed. But so our path is laid.’</t>
   </si>
   <si>
@@ -1489,6 +1477,118 @@
   </si>
   <si>
     <t>WORKING HERE FRODO SAM</t>
+  </si>
+  <si>
+    <t>[A/L/G] And then wonder took [Éomer], and a great joy; and he cast his sword up in the sunlight and sang as he caught it. And all eyes followed his gaze, and behold! upon the foremost ship a great standard broke, and the wind displayed it as she turned towards the Harlond. There flowered a White Tree, and that was for Gondor; but Seven Stars were about it, and a high crown above it, the signs of Elendil that no lord had borne for years beyond count. And the stars flamed in the sunlight, for they were wrought of gems by Arwen daughter of Elrond; and the crown was bright in the morning, for it was wrought of mithril and gold. // Thus came Aragorn son of Arathorn, Elessar, Isildur’s heir, out of the Paths of the Dead, borne upon a wind from the Sea to the kingdom of Gondor; and the mirth of the Rohirrim was a torrent of laughter and a flashing of swords, and the joy and wonder of the City was a music of trumpets and a ringing of bells. But the hosts of Mordor were seized with bewilderment, and a great wizardry it seemed to them that their own ships should be filled with their foes; and a black dread fell on them, knowing that the tides of fate had turned against them and their doom was at hand.</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn] ‘Alas!’ said Théoden. ‘Then Denethor has heard no news of our riding and will despair of our coming.’ ‘Need brooks no delay, yet late is better than never,’ said Éomer. ‘And mayhap in this time shall the old saw be proved truer than ever before since men spoke with mouth.’</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn] [Ghân-buri-Ghân]’s flat face and dark eyes showed nothing, but his voice was sullen with displeasure. ‘Wild Men are wild, free, but not children,’ he answered. ‘I am great headman, Ghân-buri-Ghân. I count many things: stars in sky, leaves on trees, men in the dark. You have a score of scores counted ten times and five. They have more. Big fight, and who will win? And many more walk round walls of Stone-houses.’</t>
+  </si>
+  <si>
+    <t>[M/Theoden/Eowyn] Right through the charge Merry had been borne unharmed behind [Theoden], until the Shadow came; and then Windfola had thrown them in his terror, and now ran wild upon the plain. Merry crawled on all fours like a dazed beast, and such a horror was on him that he was blind and sick. ‘King’s man! King’s man!’ his heart cried within him. ‘You must stay by him. As a father you shall be to me, you said.’ But his will made no answer, and his body shook. He dared not open his eyes or look up.</t>
+  </si>
+  <si>
+    <t>[Gand/P] At the door he turned to one of the servants who had remained on guard there. ‘Your master is not himself,’ he said. ‘Go slow! Bring no fire to this place while Faramir lives! Do nothing until Gandalf comes!’ ‘Who is the master of Minas Tirith?’ the man answered. ‘The Lord Denethor or the Grey Wanderer?’ ‘The Grey Wanderer or no one, it would seem,’ said Pippin,</t>
+  </si>
+  <si>
+    <t>[Gand/P] At first men laughed and did not greatly fear such devices. For the main wall of the City was of great height and marvellous thickness, built ere the power and craft of Númenor waned in exile; and its outward face was like to the Tower of Orthanc, hard and dark and smooth, unconquerable by steel or fire, unbreakable except by some convulsion that would rend the very earth on which it stood. 
+‘Nay,’ they said, ‘not if the Nameless One himself should come, not even he could enter here while we yet live.’ But some answered: ‘While we yet live? How long? He has a weapon that has brought low many strong places since the world began. Hunger. The roads are cut. Rohan will not come.’</t>
+  </si>
+  <si>
+    <t>[Gand/P] The next day, though the darkness had reached its full and grew no deeper, it weighed heavier on men’s hearts, and a great dread was on them. Ill news came soon again. The passage of Anduin was won by the Enemy. Faramir was retreating to the wall of the Pelennor, rallying his men to the Causeway Forts; but he was ten times outnumbered.</t>
+  </si>
+  <si>
+    <t>[Gand/P] ~</t>
+  </si>
+  <si>
+    <t>[A/G/L/Gand/P/M/] Merry smiled. ‘Well then,’ he said, ‘if Strider will provide what is needed, I will smoke and think. I had some of Saruman’s best in my pack, but what became of it in the battle, I am sure I don’t know.’ ‘Master Meriadoc,’ said Aragorn, ‘if you think that I have passed through the mountains and the realm of Gondor with fire and sword to bring herbs to a careless soldier who throws away his gear, you are mistaken. If your pack has not been found, then you must send for the herb-master of this House. And he will tell you that he did not know that the herb you desire had any virtues, but that it is called westmansweed by the vulgar, and galenas by the noble, and other names in other tongues more learned, and after adding a few half-forgotten rhymes that he does not understand, he will regretfully inform you that there is none in the House, and he will leave you to reflect on the history of tongues. And so now must I. For I have not slept in such a bed as this, since I rode from Dunharrow, nor eaten since the dark before dawn.’ Merry seized his hand and kissed it. ‘I am frightfully sorry,’ he said. ‘Go at once! Ever since that night at Bree we have been a nuisance to you. But it is the way of my people to use light words at such times and say less than they mean. We fear to say too much. It robs us of the right words when a jest is out of place.’ ‘I know that well, or I would not deal with you in the same way,’ said Aragorn. ‘May the Shire live for ever unwithered!’ And kissing Merry he went out, and Gandalf went with him.</t>
+  </si>
+  <si>
+    <t>[Faramir/Eowyn]</t>
+  </si>
+  <si>
+    <t>Pippin remained behind. ‘Was there ever anyone like him?’ he said. ‘Except Gandalf, of course. I think they must be related. My dear ass, your pack is lying by your bed, and you had it on your back when I met you. He saw it all the time, of course. And anyway I have some stuff of my own. Come on now!</t>
+  </si>
+  <si>
+    <t>The Houses of Healing, The Last Debate</t>
+  </si>
+  <si>
+    <t>[F/S/G] Even as Sam himself crouched, looking at her, seeing his death in her eyes, a thought came to him, as if some remote voice had spoken, and he fumbled in his breast with his left hand, and found what he sought: cold and hard and solid it seemed to his touch in a phantom world of horror, the Phial of Galadriel. ‘Galadriel!’ he said faintly, and then he heard voices far off but clear: the crying of the Elves as they walked under the stars in the beloved shadows of the Shire, and the music of the Elves as it came through his sleep in the Hall of Fire in the house of Elrond. Gilthoniel A Elbereth! And then his tongue was loosed and his voice cried in a language which he did not know: A Elbereth Gilthoniel o menel palan-diriel, le nallon sí di’nguruthos! A tiro nin, Fanuilos! And with that he staggered to his feet and was Samwise the hobbit, Hamfast’s son, again. ... Sam yelled and brandished Sting, but his little voice was drowned in the tumult. No one heeded him. The great doors slammed to. Boom. The bars of iron fell into place inside. Clang. The gate was shut. Sam hurled himself against the bolted brazen plates and fell senseless to the ground. He was out in the darkness. Frodo was alive but taken by the Enemy.</t>
+  </si>
+  <si>
+    <t>[F/S/G] ‘Well, there’s no more to be said,’ said Sam. ‘We’ve got enough to start on. But the water’s going to be a bad business. But come, Mr. Frodo! Off we go, or a whole lake of it won’t do us any good!’ ‘Not till you’ve had a mouthful, Sam,’ said Frodo. ‘I won’t budge. Here, take this elven-cake, and drink that last drop in your bottle! The whole thing is quite hopeless, so it’s no good worrying about tomorrow. It probably won’t come.’ // It was the morning of the fifteenth of March, and over the Vale of Anduin the Sun was rising above the eastern shadow, and the south-west wind was blowing. Théoden lay dying on the Pelennor Fields.</t>
+  </si>
+  <si>
+    <t>[F/S/G] ‘I wonder if they think of us at all,’ [Sam] said, ‘and what is happening to them all away there.’ He waved his hand vaguely in the air before him; but he was in fact now facing southwards, as he came back to Shelob’s tunnel, not west. Out westward in the world it was drawing to noon upon the fourteenth day of March in the Shire-reckoning, and even now Aragorn was leading the black fleet from Pelargir, and Merry was riding with the Rohirrim down the Stonewain Valley, while in Minas Tirith flames were rising and Pippin watched the madness growing in the eyes of Denethor. Yet amid all their cares and fear the thoughts of their friends turned constantly to Frodo and Sam. They were not forgotten. But they were far beyond aid, and no thought could yet bring any help to Samwise Hamfast’s son; he was utterly alone. // 
+    Though here at journey’s end I lie 
+    in darkness buried deep, 
+    beyond all towers strong and high, 
+    beyond all mountains steep, 
+    above all shadows rides the Sun 
+    and Stars for ever dwell: 
+    I will not say the Day is done, 
+    nor bid the Stars farewell.</t>
+  </si>
+  <si>
+    <t>[F/S/G] Sam did likewise, and put aside his orc-gear; and he took out all the things in his pack. Somehow each of them had become dear to him, if only because he had borne them so far with so much toil. Hardest of all it was to part with his cooking-gear. Tears welled in his eyes at the thought of casting it away. ‘Do you remember that bit of rabbit, Mr. Frodo?’ he said. ‘And our place under the warm bank in Captain Faramir’s country, the day I saw an oliphaunt?’ ‘No, I am afraid not, Sam,’ said Frodo. ‘At least, I know that such things happened, but I cannot see them. No taste of food, no feel of water, no sound of wind, no memory of tree or grass or flower, no image of moon or star are left to me. I am naked in the dark, Sam, and there is no veil between me and the wheel of fire. I begin to see it even with my waking eyes, and all else fades.’ .... ‘There you are!’ came the answer [to Sam]. ‘It’s all quite useless. He said so himself. You are the fool, going on hoping and toiling. You could have lain down and gone to sleep together days ago, if you hadn’t been so dogged. But you’ll die just the same, or worse. You might just as well lie down now and give it up. You’ll never get to the top anyway.’</t>
+  </si>
+  <si>
+    <t>[F/S/G]With a gasp Frodo cast himself on the ground. Sam sat by him. To his surprise he felt tired but lighter, and his head seemed clear again. No more debates disturbed his mind. He knew all the arguments of despair and would not listen to them. His will was set, and only death would break it. He felt no longer either desire or need of sleep, but rather of watchfulness. He knew that all the hazards and perils were now drawing together to a point: the next day would be a day of doom, the day of final effort or disaster, the last gasp.</t>
+  </si>
+  <si>
+    <t>[F/S/G] And far away, as Frodo put on the Ring and claimed it for his own, even in Sammath Naur the very heart of his realm, the Power in Barad-dûr was shaken, and the Tower trembled from its foundations to its proud and bitter crown. The Dark Lord was suddenly aware of him, and his Eye piercing all shadows looked across the plain to the door that he had made; and the magnitude of his own folly was revealed to him in a blinding flash, and all the devices of his enemies were at last laid bare. Then his wrath blazed in consuming flame, but his fear rose like a vast black smoke to choke him. For he knew his deadly peril and the thread upon which his doom now hung.</t>
+  </si>
+  <si>
+    <t>[F/S/G] As for himself, though weary and under a shadow of fear, he still had some strength left. The lembas had a virtue without which they would long ago have lain down to die. It did not satisfy desire, and at times Sam’s mind was filled with the memories of food, and the longing for simple bread and meats. And yet this waybread of the Elves had a potency that increased as travellers relied on it alone and did not mingle it with other foods. It fed the will, and it gave strength to endure, and to master sinew and limb beyond the measure of mortal kind.</t>
+  </si>
+  <si>
+    <t>[F/S/G] Anxiously Sam had noted how his master’s left hand would often be raised as if to ward off a blow, or to screen his shrinking eyes from a dreadful Eye that sought to look in them. And sometimes his right hand would creep to his breast, clutching, and then slowly, as the will recovered mastery, it would be withdrawn.</t>
+  </si>
+  <si>
+    <t>[F/S/G] They slept a little in uneasy fits; for their sweat grew chill on them, and the hard stones bit them, and they shivered. Out of the north from the Black Gate through Cirith Gorgor there flowed whispering along the ground a thin cold air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F/S/G] So the desperate journey went on, as the Ring went south and the banners of the kings rode north. For the hobbits each day, each mile, was more bitter than the one before, as their strength lessened and the land became more evil. They met no enemies by day. At times by night, as they cowered or drowsed uneasily in some hiding beside the road, they heard cries and the noise of many feet or the swift passing of some cruelly ridden steed. But far worse than all such perils was the ever-approaching threat that beat upon them as they went: the dreadful menace of the Power that waited, brooding in deep thought and sleepless malice behind the dark veil about its Throne. Nearer and nearer it drew, looming blacker, like the oncoming of a wall of night at the last end of the world. </t>
+  </si>
+  <si>
+    <t>[F/S/G] ‘There now!’ he laughed, flicking at their legs. ‘Where there’s a whip there’s a will, my slugs. Hold up! I’d give you a nice freshener now, only you’ll get as much lash as your skins will carry when you come in late to your camp. Do you good. Don’t you know we’re at war?’ They had gone some miles, and the road was at last running down a long slope into the plain, when Frodo’s strength began to give out and his will wavered.</t>
+  </si>
+  <si>
+    <t>[F/S/G] Still far away, forty miles at least, they saw Mount Doom, its feet founded in ashen ruin, its huge cone rising to a great height, where its reeking head was swathed in cloud. Its fires were now dimmed, and it stood in smouldering slumber, as threatening and dangerous as a sleeping beast. Behind it there hung a vast shadow, ominous as a thunder-cloud, the veils of Barad-dûr that was reared far away upon a long spur of the Ashen Mountains thrust down from the North. The Dark Power was deep in thought, and the Eye turned inward, pondering tidings of doubt and danger: a bright sword, and a stern and kingly face it saw, and for a while it gave little thought to other things; and all its great stronghold, gate on gate, and tower on tower, was wrapped in a brooding gloom.</t>
+  </si>
+  <si>
+    <t>[F/S/G] At last when Frodo roused himself and spoke of eating and making ready for yet another effort, he asked the question that was troubling him most. 
+‘Begging your pardon, Mr. Frodo,’ he said, ‘but have you any notion how far there is still to go?’ 
+‘No, not any clear notion, Sam,’ Frodo answered. ‘In Rivendell before I set out I was shown a map of Mordor that was made before the Enemy came back here; but I only remember it vaguely.</t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand/P] Blackness and stench and crushing pain came upon Pippin, and his mind fell away into a great darkness. ‘So it ends as I guessed it would,’ his thought said, even as it fluttered away; and it laughed a little within him ere it fled, almost gay it seemed to be casting off at last all doubt and care and fear. And then even as it winged away into forgetfulness it heard voices, and they seemed to be crying in some forgotten world far above: ‘The Eagles are coming! The Eagles are coming!’ For one moment more Pippin’s thought hovered. ‘Bilbo!’ it said. ‘But no! That came in his tale, long long ago. This is my tale, and it is ended now. Good-bye!’ And his thought fled far away and his eyes saw no more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A/L/G/Gand/P] </t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand/P] Aragorn said naught in answer, but he took the other’s eye and held it, and for a moment they strove thus; but soon, though Aragorn did not stir nor move hand to weapon, the other quailed and gave back as if menaced with a blow. ‘I am a herald and ambassador, and may not be assailed!’ he cried.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A/L/G/Gand/P] Aragorn looked at them, and there was pity in his eyes rather than wrath; for these were young men from Rohan, from Westfold far away, or husbandmen from Lossarnach, and to them Mordor had been from childhood a name of evil, and yet unreal, a legend that had no part in their simple life; and now they walked like men in a hideous dream made true, and they understood not this war nor why fate should lead them to such a pass. 
+‘Go!’ said Aragorn. ‘But keep what honour you may, and do not run! And there is a task which you may attempt and so be not wholly shamed. Take your way south-west till you come to Cair Andros, and if that is still held by enemies, as I think, then re-take it, if you can; and hold it to the last in defence of Gondor and Rohan!’ 
+Then some being shamed by his mercy overcame their fear and went on, and the others took new hope, hearing of a manful deed within their measure that they could turn to, and they departed. </t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand/P] So time and the hopeless journey wore away.</t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand/P] Ever and anon Gandalf let blow the trumpets, and the heralds would cry: ‘The Lords of Gondor are come! Let all leave this land or yield them up!’ But Imrahil said: ‘Say not The Lords of Gondor. Say The King Elessar. For that is true, even though he has not yet sat upon the throne; and it will give the Enemy more thought, if the heralds use that name.’ And thereafter thrice a day the heralds proclaimed the coming of the King Elessar. But none answered the challenge.</t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand/P] ~16 March 3019 ‘Then you would have us retreat to Minas Tirith, or Dol Amroth, or to Dunharrow, and there sit like children on sand-castles when the tide is flowing?’ said [Prince] Imrahil.</t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand/P] ~16 March 3019 ‘Other evils there are that may come; for Sauron is himself but a servant or emissary. Yet it is not our part to master all the tides of the world, but to do what is in us for the succour of those years wherein we are set, uprooting the evil in the fields that we know, so that those who live after may have clean earth to till. What weather they shall have is not ours to rule.</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,8 +1672,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1613,6 +1720,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1638,14 +1750,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1682,11 +1795,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
@@ -1969,8 +2084,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3457,9 +3572,6 @@
       <c r="I150" s="9"/>
     </row>
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -3510,6 +3622,9 @@
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -3668,7 +3783,7 @@
         <v>408764</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E161" t="s">
         <v>29</v>
@@ -3676,16 +3791,16 @@
       <c r="G161" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="H161" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="I161" s="9" t="s">
+      <c r="H161" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I161" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="J161" s="9" t="s">
+      <c r="J161" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="K161" s="9" t="s">
+      <c r="K161" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3694,7 +3809,7 @@
         <v>408765</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E162" t="s">
         <v>219</v>
@@ -3703,13 +3818,13 @@
         <v>279</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="I162" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="K162" t="s">
         <v>219</v>
@@ -3726,16 +3841,16 @@
         <v>219</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3746,19 +3861,19 @@
         <v>225</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E164" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H164" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="I164" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="J164" s="9" t="s">
-        <v>301</v>
+      <c r="H164" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,19 +3884,19 @@
         <v>224</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H165" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>302</v>
+      <c r="H165" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I165" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3795,13 +3910,13 @@
         <v>45</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3815,13 +3930,13 @@
         <v>46</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3835,13 +3950,13 @@
         <v>46</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3855,13 +3970,13 @@
         <v>46</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,13 +3988,13 @@
       </c>
       <c r="E170" s="20"/>
       <c r="H170" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I170" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="J170" s="12" t="s">
         <v>321</v>
-      </c>
-      <c r="J170" s="12" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3893,13 +4008,13 @@
         <v>47</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K171" s="6"/>
     </row>
@@ -3914,16 +4029,16 @@
         <v>47</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3937,16 +4052,16 @@
         <v>219</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3960,16 +4075,16 @@
         <v>56</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,16 +4098,16 @@
         <v>219</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4006,16 +4121,16 @@
         <v>219</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="I176" s="6" t="s">
-        <v>281</v>
+        <v>334</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K176" t="s">
-        <v>280</v>
+        <v>330</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,22 +4144,19 @@
         <v>219</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="I177" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J177" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K177" t="s">
-        <v>280</v>
+        <v>339</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J177" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4054,17 +4166,17 @@
       <c r="E178" t="s">
         <v>219</v>
       </c>
-      <c r="H178" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J178" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K178" t="s">
-        <v>333</v>
+      <c r="H178" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I178" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J178" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4077,17 +4189,17 @@
       <c r="E179" t="s">
         <v>219</v>
       </c>
-      <c r="H179" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I179" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J179" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K179" t="s">
-        <v>280</v>
+      <c r="H179" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J179" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4098,22 +4210,25 @@
         <v>241</v>
       </c>
       <c r="E180" t="s">
-        <v>219</v>
-      </c>
-      <c r="H180" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I180" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J180" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K180" t="s">
-        <v>332</v>
+        <v>61</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="I180" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="J180" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="K180" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4121,19 +4236,19 @@
         <v>242</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I181" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H181" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J181" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K181" t="s">
-        <v>280</v>
+      <c r="J181" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="K181" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4146,17 +4261,17 @@
       <c r="E182" t="s">
         <v>219</v>
       </c>
-      <c r="H182" s="6" t="s">
-        <v>303</v>
+      <c r="H182" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="J182" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K182" t="s">
-        <v>280</v>
+        <v>372</v>
+      </c>
+      <c r="L182" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4169,17 +4284,17 @@
       <c r="E183" t="s">
         <v>219</v>
       </c>
-      <c r="H183" s="6" t="s">
-        <v>303</v>
+      <c r="H183" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="J183" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="L183" t="s">
-        <v>219</v>
+        <v>373</v>
+      </c>
+      <c r="L183" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4192,14 +4307,15 @@
       <c r="E184" t="s">
         <v>219</v>
       </c>
-      <c r="H184" s="6" t="s">
-        <v>303</v>
+      <c r="H184" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J184" s="19" t="s">
-        <v>309</v>
+        <v>219</v>
+      </c>
+      <c r="J184" s="19"/>
+      <c r="L184" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4210,17 +4326,17 @@
       <c r="E185" t="s">
         <v>219</v>
       </c>
-      <c r="G185" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>303</v>
+      <c r="H185" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="J185" s="19" t="s">
-        <v>309</v>
+        <v>371</v>
+      </c>
+      <c r="L185" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4231,14 +4347,17 @@
       <c r="E186" t="s">
         <v>219</v>
       </c>
-      <c r="H186" s="6" t="s">
-        <v>303</v>
+      <c r="H186" s="9" t="s">
+        <v>360</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="J186" s="19" t="s">
-        <v>309</v>
+        <v>370</v>
+      </c>
+      <c r="L186" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4251,14 +4370,17 @@
       <c r="E187" t="s">
         <v>219</v>
       </c>
-      <c r="H187" s="6" t="s">
-        <v>303</v>
+      <c r="H187" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="J187" s="19" t="s">
-        <v>309</v>
+        <v>367</v>
+      </c>
+      <c r="L187" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,14 +4393,17 @@
       <c r="E188" t="s">
         <v>219</v>
       </c>
-      <c r="H188" s="6" t="s">
-        <v>303</v>
+      <c r="H188" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="J188" s="19" t="s">
-        <v>309</v>
+        <v>369</v>
+      </c>
+      <c r="L188" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,14 +4416,17 @@
       <c r="E189" t="s">
         <v>219</v>
       </c>
-      <c r="H189" s="6" t="s">
-        <v>303</v>
+      <c r="H189" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="J189" s="19" t="s">
-        <v>309</v>
+        <v>367</v>
+      </c>
+      <c r="L189" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4311,14 +4439,17 @@
       <c r="E190" t="s">
         <v>219</v>
       </c>
-      <c r="H190" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I190" s="6" t="s">
-        <v>281</v>
+      <c r="H190" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="I190" s="19" t="s">
+        <v>368</v>
       </c>
       <c r="J190" s="19" t="s">
-        <v>309</v>
+        <v>366</v>
+      </c>
+      <c r="L190" s="22" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4387,7 +4518,7 @@
       </c>
       <c r="D198" s="8"/>
       <c r="I198" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB88E6D-7479-478F-A65F-943742ECCAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AE176D-E371-4A7A-A72A-A99473E5BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="384">
   <si>
     <t>Date</t>
   </si>
@@ -1507,9 +1507,6 @@
     <t>[A/G/L/Gand/P/M/] Merry smiled. ‘Well then,’ he said, ‘if Strider will provide what is needed, I will smoke and think. I had some of Saruman’s best in my pack, but what became of it in the battle, I am sure I don’t know.’ ‘Master Meriadoc,’ said Aragorn, ‘if you think that I have passed through the mountains and the realm of Gondor with fire and sword to bring herbs to a careless soldier who throws away his gear, you are mistaken. If your pack has not been found, then you must send for the herb-master of this House. And he will tell you that he did not know that the herb you desire had any virtues, but that it is called westmansweed by the vulgar, and galenas by the noble, and other names in other tongues more learned, and after adding a few half-forgotten rhymes that he does not understand, he will regretfully inform you that there is none in the House, and he will leave you to reflect on the history of tongues. And so now must I. For I have not slept in such a bed as this, since I rode from Dunharrow, nor eaten since the dark before dawn.’ Merry seized his hand and kissed it. ‘I am frightfully sorry,’ he said. ‘Go at once! Ever since that night at Bree we have been a nuisance to you. But it is the way of my people to use light words at such times and say less than they mean. We fear to say too much. It robs us of the right words when a jest is out of place.’ ‘I know that well, or I would not deal with you in the same way,’ said Aragorn. ‘May the Shire live for ever unwithered!’ And kissing Merry he went out, and Gandalf went with him.</t>
   </si>
   <si>
-    <t>[Faramir/Eowyn]</t>
-  </si>
-  <si>
     <t>Pippin remained behind. ‘Was there ever anyone like him?’ he said. ‘Except Gandalf, of course. I think they must be related. My dear ass, your pack is lying by your bed, and you had it on your back when I met you. He saw it all the time, of course. And anyway I have some stuff of my own. Come on now!</t>
   </si>
   <si>
@@ -1589,6 +1586,40 @@
   </si>
   <si>
     <t>[A/L/G/Gand/P] ~16 March 3019 ‘Other evils there are that may come; for Sauron is himself but a servant or emissary. Yet it is not our part to master all the tides of the world, but to do what is in us for the succour of those years wherein we are set, uprooting the evil in the fields that we know, so that those who live after may have clean earth to till. What weather they shall have is not ours to rule.</t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand/P]  Then Aragorn set trumpeters at each of the four roads that ran into the ring of trees, and they blew a great fanfare, and the heralds cried aloud: ‘The Lords of Gondor have returned and all this land that is theirs they take back.’ The hideous orc-head that was set upon the carven figure was cast down and broken in pieces, and the old king’s head was raised and set in its place once more, still crowned with white and golden flowers; and men laboured to wash and pare away all the foul scrawls that orcs had put upon the stone.</t>
+  </si>
+  <si>
+    <t>[A/L/G] ‘“Hear now the words of the Heir of Isildur! Your oath is fulfilled. Go back and trouble not the valleys ever again! Depart and be at rest!”</t>
+  </si>
+  <si>
+    <t>March 3019 [Faramir/Eowyn]:
+And each day after they did likewise.</t>
+  </si>
+  <si>
+    <t>~18 March 3019 [Faramir/Eowyn]: Over the city of Gondor doubt and great dread had hung. Fair weather and clear sun had seemed but a mockery to men whose days held little hope, and who looked each morning for news of doom. Their lord was dead and burned, dead lay the King of Rohan in their citadel, and the new king that had come to them in the night was gone again to a war with powers too dark and terrible for any might or valour to conquer. And no news came. After the host left Morgul Vale and took the northward road beneath the shadow of the mountains no messenger had returned nor any rumour of what was passing in the brooding East.</t>
+  </si>
+  <si>
+    <t>~19 March 3019 [Faramir/Eowyn]: ‘It needs but one foe to breed a war, not two, Master Warden,’ answered Éowyn. ‘And those who have not swords can still die upon them. Would you have the folk of Gondor gather you herbs only, when the Dark Lord gathers armies? And it is not always good to be healed in body. Nor is it always evil to die in battle, even in bitter pain. Were I permitted, in this dark hour I would choose the latter.’</t>
+  </si>
+  <si>
+    <t>~20 March 3019 [Faramir/Eowyn]: At a sign from Faramir, the Warden bowed and departed. ‘What would you have me do, lady?’ said Faramir. ‘I also am a prisoner of the healers.’ He looked at her, and being a man whom pity deeply stirred, it seemed to him that her loveliness amid her grief would pierce his heart. And she looked at him and saw the grave tenderness in his eyes, and yet knew, for she was bred among men of war, that here was one whom no Rider of the Mark would outmatch in battle. ‘What do you wish?’ he said again. ‘If it lies in my power, I will do it.’</t>
+  </si>
+  <si>
+    <t>~21 March 3019 [Faramir/Eowyn]: ‘I would have you command this Warden, and bid him let me go,’ she said; but though her words were still proud, her heart faltered, and for the first time she doubted herself. She guessed that this tall man, both stern and gentle, might think her merely wayward, like a child that has not the firmness of mind to go on with a dull task to the end.</t>
+  </si>
+  <si>
+    <t>~22 March 3019 [Faramir/Eowyn]: You and I, we must endure with patience the hours of waiting.’</t>
+  </si>
+  <si>
+    <t>~23 March 3019 [Faramir/Eowyn]: She did not answer, but as he looked at her it seemed to him that something in her softened, as though a bitter frost were yielding at the first faint presage of spring. A tear sprang in her eye and fell down her cheek, like a glistening rain-drop. Her proud head drooped a little. Then quietly, more as if speaking to herself than to him: ‘But the healers would have me lie abed seven days yet,’ she said. ‘And my window does not look eastward.’ Her voice was now that of a maiden young and sad. Faramir smiled, though his heart was filled with pity. ‘Your window does not look eastward?’ he said. ‘That can be amended. In this I will command the Warden. If you will stay in this house in our care, lady, and take your rest, then you shall walk in this garden in the sun, as you will; and you shall look east, whither all our hopes have gone. And here you will find me, walking and waiting, and also looking east. It would ease my care, if you would speak to me, or walk at whiles with me.’ Then she raised her head and looked him in the eyes again; and a colour came in her pale face. ‘How should I ease your care, my lord?’ she said. ‘And I do not desire the speech of living men.’ ‘Would you have my plain answer?’ he said. ‘I would.’ ‘Then, Éowyn of Rohan, I say to you that you are beautiful. In the valleys of our hills there are flowers fair and bright, and maidens fairer still; but neither flower nor lady have I seen till now in Gondor so lovely, and so sorrowful. It may be that only a few days are left ere darkness falls upon our world, and when it comes I hope to face it steadily; but it would ease my heart, if while the Sun yet shines, I could see you still. For you and I have both passed under the wings of the Shadow, and the same hand drew us back.’</t>
+  </si>
+  <si>
+    <t>[Faramir/Eowyn] below</t>
+  </si>
+  <si>
+    <t>25 March 3019 [Faramir/Eowyn]:</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1789,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1796,6 +1827,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2085,7 +2119,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D180" sqref="D180"/>
+      <selection pane="bottomLeft" activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3622,9 +3656,6 @@
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -3667,6 +3698,9 @@
       </c>
     </row>
     <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -3909,13 +3943,13 @@
       <c r="E166" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H166" s="9" t="s">
+      <c r="H166" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="I166" s="9" t="s">
+      <c r="I166" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="J166" s="9" t="s">
+      <c r="J166" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3929,13 +3963,13 @@
       <c r="E167" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H167" s="12" t="s">
+      <c r="H167" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="I167" s="9" t="s">
+      <c r="I167" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="J167" s="9" t="s">
+      <c r="J167" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3952,10 +3986,10 @@
       <c r="H168" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="I168" s="9" t="s">
+      <c r="I168" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="J168" s="9" t="s">
+      <c r="J168" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3975,7 +4009,7 @@
       <c r="I169" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="J169" s="9" t="s">
+      <c r="J169" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4167,10 +4201,10 @@
         <v>219</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="J178" s="12" t="s">
         <v>347</v>
@@ -4190,7 +4224,7 @@
         <v>219</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I179" s="9" t="s">
         <v>318</v>
@@ -4213,7 +4247,7 @@
         <v>61</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I180" s="9" t="s">
         <v>341</v>
@@ -4226,9 +4260,6 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4236,10 +4267,10 @@
         <v>242</v>
       </c>
       <c r="E181" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I181" s="6" t="s">
         <v>219</v>
@@ -4248,10 +4279,13 @@
         <v>349</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4262,16 +4296,16 @@
         <v>219</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J182" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="L182" s="22" t="s">
-        <v>350</v>
+      <c r="J182" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="L182" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,16 +4319,16 @@
         <v>219</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J183" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="L183" s="22" t="s">
-        <v>350</v>
+      <c r="J183" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="L183" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,14 +4342,16 @@
         <v>219</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J184" s="19"/>
-      <c r="L184" s="22" t="s">
-        <v>350</v>
+      <c r="J184" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="L184" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,16 +4363,16 @@
         <v>219</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>219</v>
       </c>
       <c r="J185" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="L185" s="22" t="s">
-        <v>350</v>
+        <v>370</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,16 +4384,16 @@
         <v>219</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I186" s="6" t="s">
         <v>219</v>
       </c>
       <c r="J186" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="L186" s="22" t="s">
-        <v>350</v>
+        <v>369</v>
+      </c>
+      <c r="L186" s="9" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4371,16 +4407,16 @@
         <v>219</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I187" s="6" t="s">
         <v>219</v>
       </c>
       <c r="J187" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="L187" s="22" t="s">
-        <v>350</v>
+        <v>366</v>
+      </c>
+      <c r="L187" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4394,16 +4430,16 @@
         <v>219</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I188" s="6" t="s">
         <v>219</v>
       </c>
       <c r="J188" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="L188" s="22" t="s">
-        <v>350</v>
+        <v>368</v>
+      </c>
+      <c r="L188" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,16 +4453,16 @@
         <v>219</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I189" s="6" t="s">
         <v>219</v>
       </c>
       <c r="J189" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="L189" s="22" t="s">
-        <v>350</v>
+        <v>366</v>
+      </c>
+      <c r="L189" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,16 +4476,16 @@
         <v>219</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I190" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J190" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L190" s="22" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AE176D-E371-4A7A-A72A-A99473E5BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FEF53F-5DD4-4495-8E56-F66CBCDBF212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="391">
   <si>
     <t>Date</t>
   </si>
@@ -951,9 +951,6 @@
   </si>
   <si>
     <t xml:space="preserve">14 Samwise finds Frodo in the Tower. Minas Tirith is besieged. The Rohirrim led by the Wild Men come to the Grey Wood. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 In the early hours the Witch-king breaks the Gates of the City. Denethor burns himself on a pyre. The horns of the Rohirrim are heard at cockcrow. Battle of the Pelennor. Théoden is slain. Aragorn raises the standard of Arwen. Frodo and Samwise escape and begin their journey north along the Morgai. Battle under the trees in Mirkwood; Thranduil repels the forces of Dol Guldur. Second assault on Lórien. </t>
   </si>
   <si>
     <t xml:space="preserve">16 Debate of the commanders. Frodo from the Morgai looks out over the camp to Mount Doom. </t>
@@ -1384,9 +1381,6 @@
     <t>[M/P] -</t>
   </si>
   <si>
-    <t>[A/L/G][G] ‘In one thing you have not changed, dear friend,’ said Aragorn: ‘you still speak in riddles.’ ‘What? In riddles?’ said Gandalf. ‘No! For I was talking aloud to myself. A habit of the old: they choose the wisest person present to speak to; the long explanations needed by the young are wearying.’ He laughed, but the sound now seemed warm and kindly as a gleam of sunshine.</t>
-  </si>
-  <si>
     <t>[F/S/G] Its name was Cirith Ungol, a name of dreadful rumour. Aragorn could perhaps have told them that name and its significance; Gandalf would have warned them. But they were alone, and Aragorn was far away, and Gandalf stood amid the ruin of Isengard and strove with Saruman, delayed by treason. Yet even as he spoke his last words to Saruman, and the palantír crashed in fire upon the steps of Orthanc, his thought was ever upon Frodo and Samwise, over the long leagues his mind sought for them in hope and pity.</t>
   </si>
   <si>
@@ -1415,12 +1409,6 @@
     <t>[A/L/G] ‘I looked out to see the dawn,’ said Aragorn. ‘What of the dawn?’ they jeered. ‘We are the Uruk-hai: we do not stop the fight for night or day, for fair weather or for storm. We come to kill, by sun or moon. What of the dawn?’ ‘None knows what the new day shall bring him,’ said Aragorn. ‘Get you gone, ere it turn to your evil.’</t>
   </si>
   <si>
-    <t>[A/L/G],[M/P] ‘I know,’ said Pippin. ‘It was a wrench to let it go; but what else could I do?’ ‘Nothing else,’ answered Aragorn. ‘One who cannot cast away a treasure at need is in fetters. You did rightly.’</t>
-  </si>
-  <si>
-    <t>[A/L/G],[M/P],[G] The window closed. They waited. Suddenly another voice spoke, low and melodious, its very sound an enchantment. Those who listened unwarily to that voice could seldom report the words that they heard; and if they did, they wondered, for little power remained in them. Mostly they remembered only that it was a delight to hear the voice speaking, all that it said seemed wise and reasonable, and desire awoke in them by swift agreement to seem wise themselves. When others spoke they seemed harsh and uncouth by contrast; and if they gainsaid the voice, anger was kindled in the hearts of those under the spell. For some the spell lasted only while the voice spoke to them, and when it spoke to another they smiled, as men do who see through a juggler’s trick while others gape at it. For many the sound of the voice alone was enough to hold them enthralled; but for those whom it conquered the spell endured when they were far away, and ever they heard that soft voice whispering and urging them. But none were unmoved; none rejected its pleas and its commands without an effort of mind and will, so long as its master had control of it.</t>
-  </si>
-  <si>
     <t>[Gand/P] ‘I wish I had known all this before,’ said Pippin. ‘I had no notion of what I was doing.’ ‘Oh yes, you had,’ said Gandalf. ‘You knew you were behaving wrongly and foolishly; and you told yourself so, though you did not listen. I did not tell you all this before, because it is only by musing on all that has happened that I have at last understood, even as we ride together. But if I had spoken sooner, it would not have lessened your desire, or made it easier to resist. On the contrary! No, the burned hand teaches best. After that advice about fire goes to the heart.’ ‘It does,’ said Pippin. ‘If all the seven stones were laid out before me now, I should shut my eyes and put my hands in my pockets.’
 ‘Good!’ said Gandalf. ‘That is what I hoped.’</t>
   </si>
@@ -1491,9 +1479,6 @@
     <t>[M/Theoden/Eowyn] Right through the charge Merry had been borne unharmed behind [Theoden], until the Shadow came; and then Windfola had thrown them in his terror, and now ran wild upon the plain. Merry crawled on all fours like a dazed beast, and such a horror was on him that he was blind and sick. ‘King’s man! King’s man!’ his heart cried within him. ‘You must stay by him. As a father you shall be to me, you said.’ But his will made no answer, and his body shook. He dared not open his eyes or look up.</t>
   </si>
   <si>
-    <t>[Gand/P] At the door he turned to one of the servants who had remained on guard there. ‘Your master is not himself,’ he said. ‘Go slow! Bring no fire to this place while Faramir lives! Do nothing until Gandalf comes!’ ‘Who is the master of Minas Tirith?’ the man answered. ‘The Lord Denethor or the Grey Wanderer?’ ‘The Grey Wanderer or no one, it would seem,’ said Pippin,</t>
-  </si>
-  <si>
     <t>[Gand/P] At first men laughed and did not greatly fear such devices. For the main wall of the City was of great height and marvellous thickness, built ere the power and craft of Númenor waned in exile; and its outward face was like to the Tower of Orthanc, hard and dark and smooth, unconquerable by steel or fire, unbreakable except by some convulsion that would rend the very earth on which it stood. 
 ‘Nay,’ they said, ‘not if the Nameless One himself should come, not even he could enter here while we yet live.’ But some answered: ‘While we yet live? How long? He has a weapon that has brought low many strong places since the world began. Hunger. The roads are cut. Rohan will not come.’</t>
   </si>
@@ -1502,12 +1487,6 @@
   </si>
   <si>
     <t>[Gand/P] ~</t>
-  </si>
-  <si>
-    <t>[A/G/L/Gand/P/M/] Merry smiled. ‘Well then,’ he said, ‘if Strider will provide what is needed, I will smoke and think. I had some of Saruman’s best in my pack, but what became of it in the battle, I am sure I don’t know.’ ‘Master Meriadoc,’ said Aragorn, ‘if you think that I have passed through the mountains and the realm of Gondor with fire and sword to bring herbs to a careless soldier who throws away his gear, you are mistaken. If your pack has not been found, then you must send for the herb-master of this House. And he will tell you that he did not know that the herb you desire had any virtues, but that it is called westmansweed by the vulgar, and galenas by the noble, and other names in other tongues more learned, and after adding a few half-forgotten rhymes that he does not understand, he will regretfully inform you that there is none in the House, and he will leave you to reflect on the history of tongues. And so now must I. For I have not slept in such a bed as this, since I rode from Dunharrow, nor eaten since the dark before dawn.’ Merry seized his hand and kissed it. ‘I am frightfully sorry,’ he said. ‘Go at once! Ever since that night at Bree we have been a nuisance to you. But it is the way of my people to use light words at such times and say less than they mean. We fear to say too much. It robs us of the right words when a jest is out of place.’ ‘I know that well, or I would not deal with you in the same way,’ said Aragorn. ‘May the Shire live for ever unwithered!’ And kissing Merry he went out, and Gandalf went with him.</t>
-  </si>
-  <si>
-    <t>Pippin remained behind. ‘Was there ever anyone like him?’ he said. ‘Except Gandalf, of course. I think they must be related. My dear ass, your pack is lying by your bed, and you had it on your back when I met you. He saw it all the time, of course. And anyway I have some stuff of my own. Come on now!</t>
   </si>
   <si>
     <t>The Houses of Healing, The Last Debate</t>
@@ -1565,9 +1544,6 @@
     <t>[A/L/G/Gand/P] Blackness and stench and crushing pain came upon Pippin, and his mind fell away into a great darkness. ‘So it ends as I guessed it would,’ his thought said, even as it fluttered away; and it laughed a little within him ere it fled, almost gay it seemed to be casting off at last all doubt and care and fear. And then even as it winged away into forgetfulness it heard voices, and they seemed to be crying in some forgotten world far above: ‘The Eagles are coming! The Eagles are coming!’ For one moment more Pippin’s thought hovered. ‘Bilbo!’ it said. ‘But no! That came in his tale, long long ago. This is my tale, and it is ended now. Good-bye!’ And his thought fled far away and his eyes saw no more.</t>
   </si>
   <si>
-    <t xml:space="preserve">[A/L/G/Gand/P] </t>
-  </si>
-  <si>
     <t>[A/L/G/Gand/P] Aragorn said naught in answer, but he took the other’s eye and held it, and for a moment they strove thus; but soon, though Aragorn did not stir nor move hand to weapon, the other quailed and gave back as if menaced with a blow. ‘I am a herald and ambassador, and may not be assailed!’ he cried.</t>
   </si>
   <si>
@@ -1582,44 +1558,97 @@
     <t>[A/L/G/Gand/P] Ever and anon Gandalf let blow the trumpets, and the heralds would cry: ‘The Lords of Gondor are come! Let all leave this land or yield them up!’ But Imrahil said: ‘Say not The Lords of Gondor. Say The King Elessar. For that is true, even though he has not yet sat upon the throne; and it will give the Enemy more thought, if the heralds use that name.’ And thereafter thrice a day the heralds proclaimed the coming of the King Elessar. But none answered the challenge.</t>
   </si>
   <si>
-    <t>[A/L/G/Gand/P] ~16 March 3019 ‘Then you would have us retreat to Minas Tirith, or Dol Amroth, or to Dunharrow, and there sit like children on sand-castles when the tide is flowing?’ said [Prince] Imrahil.</t>
-  </si>
-  <si>
-    <t>[A/L/G/Gand/P] ~16 March 3019 ‘Other evils there are that may come; for Sauron is himself but a servant or emissary. Yet it is not our part to master all the tides of the world, but to do what is in us for the succour of those years wherein we are set, uprooting the evil in the fields that we know, so that those who live after may have clean earth to till. What weather they shall have is not ours to rule.</t>
-  </si>
-  <si>
-    <t>[A/L/G/Gand/P]  Then Aragorn set trumpeters at each of the four roads that ran into the ring of trees, and they blew a great fanfare, and the heralds cried aloud: ‘The Lords of Gondor have returned and all this land that is theirs they take back.’ The hideous orc-head that was set upon the carven figure was cast down and broken in pieces, and the old king’s head was raised and set in its place once more, still crowned with white and golden flowers; and men laboured to wash and pare away all the foul scrawls that orcs had put upon the stone.</t>
-  </si>
-  <si>
     <t>[A/L/G] ‘“Hear now the words of the Heir of Isildur! Your oath is fulfilled. Go back and trouble not the valleys ever again! Depart and be at rest!”</t>
   </si>
   <si>
-    <t>March 3019 [Faramir/Eowyn]:
+    <t>20-25 March 3019 [Faramir/Eowyn]: She did not answer, but as he looked at her it seemed to him that something in her softened, as though a bitter frost were yielding at the first faint presage of spring. A tear sprang in her eye and fell down her cheek, like a glistening rain-drop. Her proud head drooped a little. Then quietly, more as if speaking to herself than to him: ‘But the healers would have me lie abed seven days yet,’ she said. ‘And my window does not look eastward.’ Her voice was now that of a maiden young and sad. Faramir smiled, though his heart was filled with pity. ‘Your window does not look eastward?’ he said. ‘That can be amended. In this I will command the Warden. If you will stay in this house in our care, lady, and take your rest, then you shall walk in this garden in the sun, as you will; and you shall look east, whither all our hopes have gone. And here you will find me, walking and waiting, and also looking east. It would ease my care, if you would speak to me, or walk at whiles with me.’ Then she raised her head and looked him in the eyes again; and a colour came in her pale face. ‘How should I ease your care, my lord?’ she said. ‘And I do not desire the speech of living men.’ ‘Would you have my plain answer?’ he said. ‘I would.’ ‘Then, Éowyn of Rohan, I say to you that you are beautiful. In the valleys of our hills there are flowers fair and bright, and maidens fairer still; but neither flower nor lady have I seen till now in Gondor so lovely, and so sorrowful. It may be that only a few days are left ere darkness falls upon our world, and when it comes I hope to face it steadily; but it would ease my heart, if while the Sun yet shines, I could see you still. For you and I have both passed under the wings of the Shadow, and the same hand drew us back.’</t>
+  </si>
+  <si>
+    <t>20-25 March 3019 [Faramir/Eowyn]: You and I, we must endure with patience the hours of waiting.’</t>
+  </si>
+  <si>
+    <t>20-25 March 3019 [Faramir/Eowyn]: ‘I would have you command this Warden, and bid him let me go,’ she said; but though her words were still proud, her heart faltered, and for the first time she doubted herself. She guessed that this tall man, both stern and gentle, might think her merely wayward, like a child that has not the firmness of mind to go on with a dull task to the end.</t>
+  </si>
+  <si>
+    <t>20-25 March 3019 [Faramir/Eowyn]: At a sign from Faramir, the Warden bowed and departed. ‘What would you have me do, lady?’ said Faramir. ‘I also am a prisoner of the healers.’ He looked at her, and being a man whom pity deeply stirred, it seemed to him that her loveliness amid her grief would pierce his heart. And she looked at him and saw the grave tenderness in his eyes, and yet knew, for she was bred among men of war, that here was one whom no Rider of the Mark would outmatch in battle. ‘What do you wish?’ he said again. ‘If it lies in my power, I will do it.’</t>
+  </si>
+  <si>
+    <t>20-25 March 3019 [Faramir/Eowyn]: ‘It needs but one foe to breed a war, not two, Master Warden,’ answered Éowyn. ‘And those who have not swords can still die upon them. Would you have the folk of Gondor gather you herbs only, when the Dark Lord gathers armies? And it is not always good to be healed in body. Nor is it always evil to die in battle, even in bitter pain. Were I permitted, in this dark hour I would choose the latter.’</t>
+  </si>
+  <si>
+    <t>20-25 March 3019 [Faramir/Eowyn]: Over the city of Gondor doubt and great dread had hung. Fair weather and clear sun had seemed but a mockery to men whose days held little hope, and who looked each morning for news of doom. Their lord was dead and burned, dead lay the King of Rohan in their citadel, and the new king that had come to them in the night was gone again to a war with powers too dark and terrible for any might or valour to conquer. And no news came. After the host left Morgul Vale and took the northward road beneath the shadow of the mountains no messenger had returned nor any rumour of what was passing in the brooding East.</t>
+  </si>
+  <si>
+    <t>20-25 March 3019 [Faramir/Eowyn]:
 And each day after they did likewise.</t>
   </si>
   <si>
-    <t>~18 March 3019 [Faramir/Eowyn]: Over the city of Gondor doubt and great dread had hung. Fair weather and clear sun had seemed but a mockery to men whose days held little hope, and who looked each morning for news of doom. Their lord was dead and burned, dead lay the King of Rohan in their citadel, and the new king that had come to them in the night was gone again to a war with powers too dark and terrible for any might or valour to conquer. And no news came. After the host left Morgul Vale and took the northward road beneath the shadow of the mountains no messenger had returned nor any rumour of what was passing in the brooding East.</t>
-  </si>
-  <si>
-    <t>~19 March 3019 [Faramir/Eowyn]: ‘It needs but one foe to breed a war, not two, Master Warden,’ answered Éowyn. ‘And those who have not swords can still die upon them. Would you have the folk of Gondor gather you herbs only, when the Dark Lord gathers armies? And it is not always good to be healed in body. Nor is it always evil to die in battle, even in bitter pain. Were I permitted, in this dark hour I would choose the latter.’</t>
-  </si>
-  <si>
-    <t>~20 March 3019 [Faramir/Eowyn]: At a sign from Faramir, the Warden bowed and departed. ‘What would you have me do, lady?’ said Faramir. ‘I also am a prisoner of the healers.’ He looked at her, and being a man whom pity deeply stirred, it seemed to him that her loveliness amid her grief would pierce his heart. And she looked at him and saw the grave tenderness in his eyes, and yet knew, for she was bred among men of war, that here was one whom no Rider of the Mark would outmatch in battle. ‘What do you wish?’ he said again. ‘If it lies in my power, I will do it.’</t>
-  </si>
-  <si>
-    <t>~21 March 3019 [Faramir/Eowyn]: ‘I would have you command this Warden, and bid him let me go,’ she said; but though her words were still proud, her heart faltered, and for the first time she doubted herself. She guessed that this tall man, both stern and gentle, might think her merely wayward, like a child that has not the firmness of mind to go on with a dull task to the end.</t>
-  </si>
-  <si>
-    <t>~22 March 3019 [Faramir/Eowyn]: You and I, we must endure with patience the hours of waiting.’</t>
-  </si>
-  <si>
-    <t>~23 March 3019 [Faramir/Eowyn]: She did not answer, but as he looked at her it seemed to him that something in her softened, as though a bitter frost were yielding at the first faint presage of spring. A tear sprang in her eye and fell down her cheek, like a glistening rain-drop. Her proud head drooped a little. Then quietly, more as if speaking to herself than to him: ‘But the healers would have me lie abed seven days yet,’ she said. ‘And my window does not look eastward.’ Her voice was now that of a maiden young and sad. Faramir smiled, though his heart was filled with pity. ‘Your window does not look eastward?’ he said. ‘That can be amended. In this I will command the Warden. If you will stay in this house in our care, lady, and take your rest, then you shall walk in this garden in the sun, as you will; and you shall look east, whither all our hopes have gone. And here you will find me, walking and waiting, and also looking east. It would ease my care, if you would speak to me, or walk at whiles with me.’ Then she raised her head and looked him in the eyes again; and a colour came in her pale face. ‘How should I ease your care, my lord?’ she said. ‘And I do not desire the speech of living men.’ ‘Would you have my plain answer?’ he said. ‘I would.’ ‘Then, Éowyn of Rohan, I say to you that you are beautiful. In the valleys of our hills there are flowers fair and bright, and maidens fairer still; but neither flower nor lady have I seen till now in Gondor so lovely, and so sorrowful. It may be that only a few days are left ere darkness falls upon our world, and when it comes I hope to face it steadily; but it would ease my heart, if while the Sun yet shines, I could see you still. For you and I have both passed under the wings of the Shadow, and the same hand drew us back.’</t>
-  </si>
-  <si>
-    <t>[Faramir/Eowyn] below</t>
-  </si>
-  <si>
-    <t>25 March 3019 [Faramir/Eowyn]:</t>
+    <t xml:space="preserve">•	27. Bard II and Thorin III Stonehelm drive the enemy from Dale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	28. Celeborn crosses Anduin; destruction of Dol Guldur begun. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	6. Meeting of Celeborn and Thranduil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	8. The Ring-bearers are honoured on the Field of Cormallen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	1. Crowning of King Elessar; Elrond and Arwen set out from Rivendell. </t>
+  </si>
+  <si>
+    <t>25 March 3019 [Faramir/Eowyn]: ~April 3019: Éowyn, do you not love me, or will you not?’ 
+‘I wished to be loved by another,’ she answered. ‘But I desire no man’s pity.’ 
+‘That I know,’ he said. ‘You desired to have the love of the Lord Aragorn. Because he was high and puissant, and you wished to have renown and glory and to be lifted far above the mean things that crawl on the earth. And as a great captain may to a young soldier he seemed to you admirable. For so he is, a lord among men, the greatest that now is. But when he gave you only understanding and pity, then you desired to have nothing, unless a brave death in battle. Look at me, Éowyn!’ 
+And Éowyn looked at Faramir long and steadily; and Faramir said: ‘Do not scorn pity that is the gift of a gentle heart, Éowyn! But I do not offer you my pity. For you are a lady high and valiant and have yourself won renown that shall not be forgotten; and you are a lady beautiful, I deem, beyond even the words of the elven-tongue to tell. And I love you. Once I pitied your sorrow. But now, were you sorrowless, without fear or any lack, were you the blissful Queen of Gondor, still I would love you. Éowyn, do you not love me?’ 
+Then the heart of Éowyn changed, or else at last she understood it. And suddenly her winter passed, and the sun shone on her. 
+‘I stand in Minas Anor, the Tower of the Sun,’ she said; ‘and behold! the Shadow has departed! I will be a shieldmaiden no longer, nor vie with the great Riders, nor take joy only in the songs of slaying. I will be a healer, and love all things that grow and are not barren.’ And again she looked at Faramir. ‘No longer do I desire to be a queen,’ she said. 
+Then Faramir laughed merrily. ‘That is well,’ he said; ‘for I am not a king. Yet I will wed with the White Lady of Rohan, if it be her will. And if she will, then let us cross the River and in happier days let us dwell in fair Ithilien and there make a garden. All things will grow with joy there, if the White Lady comes.’</t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand/P] Then Aragorn set trumpeters at each of the four roads that ran into the ring of trees, and they blew a great fanfare, and the heralds cried aloud: ‘The Lords of Gondor have returned and all this land that is theirs they take back.’ The hideous orc-head that was set upon the carven figure was cast down and broken in pieces, and the old king’s head was raised and set in its place once more, still crowned with white and golden flowers; and men laboured to wash and pare away all the foul scrawls that orcs had put upon the stone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A/L/G/Gand/P] And from that evening onward the Nazgûl came and followed every move of the army. They still flew high and out of sight of all save Legolas, and yet their presence could be felt, as a deepening of shadow and a dimming of the sun; and though the Ringwraiths did not yet stoop low upon their foes and were silent, uttering no cry, the dread of them could not be shaken off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[A/L/G/Gand/P] At nightfall of the fifth day of the march from Morgul Vale they made their last camp, and set fires about it of such dead wood and heath as they could find. They passed the hours of night in wakefulness and they were aware of many things half-seen that walked and prowled all about them, and they heard the howling of wolves. The wind had died and all the air seemed still. They could see little, for though it was cloudless and the waxing moon was four nights old, there were smokes and fumes that rose out of the earth and the white crescent was shrouded in the mists of Mordor. </t>
+  </si>
+  <si>
+    <t>[Gand/P] ‘He will not wake again,’ said Denethor. ‘Battle is vain. Why should we wish to live longer? Why should we not go to death side by side?’ // ‘Authority is not given to you, Steward of Gondor, to order the hour of your death,’ answered Gandalf. ‘And only the heathen kings, under the domination of the Dark Power, did thus, slaying themselves in pride and despair, murdering their kin to ease their own death.’</t>
+  </si>
+  <si>
+    <t>15 In the early hours the Witch-king breaks the Gates of the City. Denethor burns himself on a pyre. The horns of the Rohirrim are heard at cockcrow. Battle of the Pelennor. Théoden is slain. Aragorn raises the standard of Arwen. Frodo and Samwise escape and begin their journey north along the Morgai. Battle under the trees in Mirkwood; Thranduil repels the forces of Dol Guldur. Second assault on Lórien.  (Also: The Houses of Healing)</t>
+  </si>
+  <si>
+    <t>(15 March) [A/G/L/Gand/P/M/] Merry smiled. ‘Well then,’ he said, ‘if Strider will provide what is needed, I will smoke and think. I had some of Saruman’s best in my pack, but what became of it in the battle, I am sure I don’t know.’ ‘Master Meriadoc,’ said Aragorn, ‘if you think that I have passed through the mountains and the realm of Gondor with fire and sword to bring herbs to a careless soldier who throws away his gear, you are mistaken. If your pack has not been found, then you must send for the herb-master of this House. And he will tell you that he did not know that the herb you desire had any virtues, but that it is called westmansweed by the vulgar, and galenas by the noble, and other names in other tongues more learned, and after adding a few half-forgotten rhymes that he does not understand, he will regretfully inform you that there is none in the House, and he will leave you to reflect on the history of tongues. And so now must I. For I have not slept in such a bed as this, since I rode from Dunharrow, nor eaten since the dark before dawn.’ Merry seized his hand and kissed it. ‘I am frightfully sorry,’ he said. ‘Go at once! Ever since that night at Bree we have been a nuisance to you. But it is the way of my people to use light words at such times and say less than they mean. We fear to say too much. It robs us of the right words when a jest is out of place.’ ‘I know that well, or I would not deal with you in the same way,’ said Aragorn. ‘May the Shire live for ever unwithered!’ And kissing Merry he went out, and Gandalf went with him.</t>
+  </si>
+  <si>
+    <t>16 March "The Last Debate," Gandalf: "Other evils there are that may come; for Sauron is himself but a servant or emissary. Yet it is not our part to master all the tides of the world, but to do what is in us for the succour of those years wherein we are set, uprooting the evil in the fields that we know, so that those who live after may have clean earth to till. What weather they shall have is not ours to rule."</t>
+  </si>
+  <si>
+    <t>16 March "The Last Debate," Prince Imrahil: ‘Then you would have us retreat to Minas Tirith, or Dol Amroth, or to Dunharrow, and there sit like children on sand-castles when the tide is flowing?’ said Imrahil. … ‘Surely,’ he cried, ‘this is the greatest jest in all the history of Gondor: that we should ride with seven thousands, scarce as many as the vanguard of its army in the days of its power, to assail the mountains and the impenetrable gate of the Black Land! So might a child threaten a mail-clad knight with a bow of string and green willow! If the Dark Lord knows so much as you say, Mithrandir, will he not rather smile than fear, and with his little finger crush us like a fly that tries to sting him?’</t>
+  </si>
+  <si>
+    <t>16 March "The Last Debate," Legolas: And now Legolas fell silent, while the others talked, and he looked out against the sun, and as he gazed he saw white sea-birds beating up the River. ‘Look!’ he cried. ‘Gulls! They are flying far inland. A wonder they are to me and a trouble to my heart. Never in all my life had I met them, until we came to Pelargir, and there I heard them crying in the air as we rode to the battle of the ships. Then I stood still, forgetting war in Middle-earth; for their wailing voices spoke to me of the Sea. The Sea! Alas! I have not yet beheld it. But deep in the hearts of all my kindred lies the sea-longing, which it is perilous to stir. Alas! for the gulls. No peace shall I have again under beech or under elm.’ 
+‘Say not so!’ said Gimli. ‘There are countless things still to see in Middle-earth, and great works to do. But if all the fair folk take to the Havens, it will be a duller world for those who are doomed to stay.’ ...  ‘Follow what may, great deeds are not lessened in worth,’ said Legolas. ‘Great deed was the riding of the Paths of the Dead, and great it shall remain, though none be left in Gondor to sing of it in the days that are to come.’</t>
+  </si>
+  <si>
+    <t>16 March "The Last Debate,"  Aragorn: 'But men are better than gates, and no gate will endure against our Enemy if men desert it.’</t>
+  </si>
+  <si>
+    <t>COPYING/FORMATTING</t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand] ‘In one thing you have not changed, dear friend,’ said Aragorn: ‘you still speak in riddles.’ ‘What? In riddles?’ said Gandalf. ‘No! For I was talking aloud to myself. A habit of the old: they choose the wisest person present to speak to; the long explanations needed by the young are wearying.’ He laughed, but the sound now seemed warm and kindly as a gleam of sunshine.</t>
+  </si>
+  <si>
+    <t>[A/L/G/M/P/Gand] The window closed. They waited. Suddenly another voice spoke, low and melodious, its very sound an enchantment. Those who listened unwarily to that voice could seldom report the words that they heard; and if they did, they wondered, for little power remained in them. Mostly they remembered only that it was a delight to hear the voice speaking, all that it said seemed wise and reasonable, and desire awoke in them by swift agreement to seem wise themselves. When others spoke they seemed harsh and uncouth by contrast; and if they gainsaid the voice, anger was kindled in the hearts of those under the spell. For some the spell lasted only while the voice spoke to them, and when it spoke to another they smiled, as men do who see through a juggler’s trick while others gape at it. For many the sound of the voice alone was enough to hold them enthralled; but for those whom it conquered the spell endured when they were far away, and ever they heard that soft voice whispering and urging them. But none were unmoved; none rejected its pleas and its commands without an effort of mind and will, so long as its master had control of it.</t>
+  </si>
+  <si>
+    <t>[A/L/G/M/P/Gand] ‘I know,’ said Pippin. ‘It was a wrench to let it go; but what else could I do?’ ‘Nothing else,’ answered Aragorn. ‘One who cannot cast away a treasure at need is in fetters. You did rightly.’</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1658,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1703,15 +1732,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1751,11 +1773,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1781,15 +1798,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1826,16 +1842,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
@@ -2118,8 +2129,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J186" sqref="J186"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2177,13 +2188,13 @@
         <v>196</v>
       </c>
       <c r="N1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O1" t="s">
         <v>262</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>263</v>
-      </c>
-      <c r="P1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3405,10 +3416,10 @@
         <v>212</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N121" t="s">
         <v>211</v>
@@ -3422,7 +3433,7 @@
         <v>130</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3451,7 +3462,7 @@
         <v>213</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3465,7 +3476,7 @@
         <v>181</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3484,7 +3495,7 @@
         <v>182</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3562,32 +3573,32 @@
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -3601,11 +3612,11 @@
         <v>26</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -3622,19 +3633,19 @@
         <v>209</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>218</v>
       </c>
       <c r="J151" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K151" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -3646,16 +3657,16 @@
         <v>28</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I152" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -3667,16 +3678,16 @@
         <v>28</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I153" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -3688,19 +3699,16 @@
         <v>28</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H154" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I154" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
-        <v>288</v>
-      </c>
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -3712,72 +3720,72 @@
         <v>28</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I155" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" t="s">
         <v>28</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I156" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D157" s="8"/>
       <c r="G157" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H157" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I157" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>221</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I158" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -3786,16 +3794,16 @@
         <v>219</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I159" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -3806,36 +3814,39 @@
         <v>219</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H160" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E161" t="s">
         <v>29</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I161" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K161" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="J161" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K161" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3843,22 +3854,22 @@
         <v>408765</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E162" t="s">
         <v>219</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>302</v>
+        <v>278</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K162" t="s">
         <v>219</v>
@@ -3875,16 +3886,16 @@
         <v>219</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="H163" s="9" t="s">
-        <v>302</v>
+        <v>293</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,19 +3906,19 @@
         <v>225</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E164" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,19 +3929,19 @@
         <v>224</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I165" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3944,13 +3955,13 @@
         <v>45</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3964,13 +3975,13 @@
         <v>46</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,14 +3994,14 @@
       <c r="E168" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H168" s="9" t="s">
-        <v>311</v>
+      <c r="H168" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4003,14 +4014,14 @@
       <c r="E169" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H169" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>319</v>
+      <c r="H169" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4021,17 +4032,20 @@
         <v>231</v>
       </c>
       <c r="E170" s="20"/>
-      <c r="H170" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="I170" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="J170" s="12" t="s">
-        <v>321</v>
+      <c r="H170" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="J170" s="19" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -4042,13 +4056,13 @@
         <v>47</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K171" s="6"/>
     </row>
@@ -4063,16 +4077,16 @@
         <v>47</v>
       </c>
       <c r="H172" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I172" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="I172" s="9" t="s">
-        <v>318</v>
-      </c>
       <c r="J172" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4086,16 +4100,16 @@
         <v>219</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4109,16 +4123,16 @@
         <v>56</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4132,16 +4146,16 @@
         <v>219</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4155,19 +4169,19 @@
         <v>219</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4178,19 +4192,19 @@
         <v>219</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4201,19 +4215,19 @@
         <v>219</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4224,137 +4238,126 @@
         <v>219</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="E180" t="s">
         <v>61</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J181" s="12" t="s">
-        <v>349</v>
+        <v>356</v>
+      </c>
+      <c r="I181" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
-        <v>340</v>
-      </c>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E182" t="s">
         <v>219</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J182" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="L182" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E183" t="s">
         <v>219</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J183" s="23" t="s">
-        <v>372</v>
+        <v>355</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="L183" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E184" t="s">
         <v>219</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="I184" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I184" t="s">
         <v>219</v>
       </c>
-      <c r="J184" s="19" t="s">
-        <v>373</v>
-      </c>
       <c r="L184" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -4363,19 +4366,16 @@
         <v>219</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="I185" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J185" s="19" t="s">
-        <v>370</v>
+        <v>354</v>
+      </c>
+      <c r="I185" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -4384,111 +4384,96 @@
         <v>219</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="I186" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J186" s="19" t="s">
-        <v>369</v>
+        <v>352</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="L186" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E187" t="s">
         <v>219</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="I187" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J187" s="19" t="s">
-        <v>366</v>
+        <v>351</v>
+      </c>
+      <c r="I187" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="L187" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E188" t="s">
         <v>219</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="I188" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J188" s="19" t="s">
-        <v>368</v>
+        <v>348</v>
+      </c>
+      <c r="I188" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="L188" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E189" t="s">
         <v>219</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="I189" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J189" s="19" t="s">
-        <v>366</v>
+        <v>349</v>
+      </c>
+      <c r="I189" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="L189" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E190" t="s">
         <v>219</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="I190" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="J190" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="L190" s="22" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="I190" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L190" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -4496,12 +4481,17 @@
       <c r="E191" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I191" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
-      <c r="D192" s="8"/>
+      <c r="D192" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="E192" t="s">
         <v>219</v>
       </c>
@@ -4510,7 +4500,9 @@
       <c r="B193" s="1">
         <v>408794</v>
       </c>
-      <c r="D193" s="8"/>
+      <c r="D193" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="E193" t="s">
         <v>219</v>
       </c>
@@ -4536,7 +4528,7 @@
       </c>
       <c r="D196" s="8"/>
       <c r="I196" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4545,7 +4537,7 @@
       </c>
       <c r="D197" s="8"/>
       <c r="I197" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4554,7 +4546,7 @@
       </c>
       <c r="D198" s="8"/>
       <c r="I198" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4563,7 +4555,7 @@
       </c>
       <c r="D199" s="8"/>
       <c r="I199" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4578,14 +4570,16 @@
       </c>
       <c r="D201" s="8"/>
       <c r="I201" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
-      <c r="D202" s="8"/>
+      <c r="D202" s="8" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
@@ -4603,7 +4597,9 @@
       <c r="B204" s="1">
         <v>408805</v>
       </c>
-      <c r="D204" s="8"/>
+      <c r="D204" s="8" t="s">
+        <v>374</v>
+      </c>
       <c r="F204" t="s">
         <v>6</v>
       </c>
@@ -4928,82 +4924,88 @@
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="B227" s="1">
         <v>408828</v>
       </c>
-    </row>
-    <row r="228" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
     </row>
-    <row r="236" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>408841</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FEF53F-5DD4-4495-8E56-F66CBCDBF212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D999EB1-61ED-45F3-8707-BFCBE05EABFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1397,9 +1397,6 @@
     <t>[F/S/G] ~</t>
   </si>
   <si>
-    <t>[F/S/G] [Faramir:] 'Go now to rest — but first tell me only, if you will, whither you wish to go, and what to do. For I must watch, and wait, and think. Time passes. In the morning we must each go swiftly on the ways appointed to us.’ Frodo had felt himself trembling as the first shock of fear passed. Now a great weariness came down on him like a cloud. He could dissemble and resist no longer. ‘I was going to find a way into Mordor,’ he said faintly. ‘I was going to Gorgoroth. I must find the Mountain of Fire and cast the thing into the gulf of Doom. Gandalf said so. I do not think I shall ever get there.’</t>
-  </si>
-  <si>
     <t>[A/L/G] ‘You are held wise, my friend Wormtongue, and are doubtless a great support to your master,’ answered Gandalf in a soft voice. ‘Yet in two ways may a man come with evil tidings. He may be a worker of evil; or he may be such as leaves well alone, and comes only to bring aid in time of need.’</t>
   </si>
   <si>
@@ -1413,57 +1410,12 @@
 ‘Good!’ said Gandalf. ‘That is what I hoped.’</t>
   </si>
   <si>
-    <t>[Gand/P] [Pippin] wondered where Frodo was, and if he was already in Mordor, or if he was dead; and he did not know that Frodo from far away looked on that same moon as it set beyond Gondor ere the coming of the day.</t>
-  </si>
-  <si>
-    <t>[Gand/P] ‘Yes, the shadow of doom,’ said Beregond. ‘I fear that Minas Tirith shall fall. Night comes. The very warmth of my blood seems stolen away.’ For a time they sat together with bowed heads and did not speak. Then suddenly Pippin looked up and saw that the sun was still shining and the banners still streaming in the breeze. He shook himself. ‘It is passed,’ he said. ‘No, my heart will not yet despair. Gandalf fell and has returned and is with us. We may stand, if only on one leg, or at least be left still upon our knees.’ ‘Rightly said!’ cried Beregond, rising and striding to and fro. ‘Nay, though all things must come utterly to an end in time, Gondor shall not perish yet. Not though the walls be taken by a reckless foe that will build a hill of carrion before them. There are still other fastnesses, and secret ways of escape into the mountains. Hope and memory shall live still in some hidden valley where the grass is green.’</t>
-  </si>
-  <si>
     <t>[A/L/G/P] Aragorn rode to the Dike and watched till the king’s men were far down the Coomb. Then he turned to Halbarad. ‘There go three that I love, and the smallest not the least,’ he said. ‘He knows not to what end he rides; yet if he knew, he still would go on.’ ‘A little people, but of great worth are the Shire-folk,’ said Halbarad. ‘Little do they know of our long labour for the safekeeping of their borders, and yet I grudge it not.’ ‘And now our fates are woven together,’ said Aragorn. ‘And yet, alas! here we must part.</t>
   </si>
   <si>
-    <t>[M/Theoden/Eowyn] ‘I won’t be left behind, to be called for on return!’ said Merry. And repeating this over and over again to himself he fell asleep at last in his tent.</t>
-  </si>
-  <si>
-    <t>[M/Theoden/Eowyn] Now all roads were running together to the East to meet the coming of war and the onset of the Shadow.</t>
-  </si>
-  <si>
     <t>[M/Theoden/Eowyn] ~</t>
   </si>
   <si>
-    <t>[Gand/P] Sleepily [Pippin] tried to reckon the times and stages of their journey, but his memory was drowsy and uncertain. There had been the first ride at terrible speed without a halt, and then in the dawn he had seen a pale gleam of gold, and they had come to the silent town and the great empty house on the hill. And hardly had they reached its shelter when the winged shadow had passed over once again, and men wilted with fear. But Gandalf had spoken soft words to him, and he had slept in a corner, tired but uneasy, dimly aware of comings and goings and of men talking and Gandalf giving orders. And then again riding, riding in the night. This was the second, no, the third night since he had looked in the Stone. And with that hideous memory he woke fully, and shivered, and the noise of the wind became filled with menacing voices.</t>
-  </si>
-  <si>
-    <t>[Gand/P/Faramir] ‘Much must be risked in war,’ said Denethor. ‘Cair Andros is manned, and no more can be sent so far. But I will not yield the River and the Pelennor unfought – not if there is a captain here who has still the courage to do his lord’s will.’ Then all were silent. But at length Faramir said: ‘I do not oppose your will, sire. Since you are robbed of Boromir, I will go and do what I can in his stead – if you command it.’ ‘I do so,’ said Denethor. ‘Then farewell!’ said Faramir. ‘But if I should return, think better of me!’ ‘That depends on the manner of your return,’ said Denethor.</t>
-  </si>
-  <si>
-    <t>[A/L/G] And there stood Gimli the Dwarf left all alone. His knees shook, and he was wroth with himself. ‘Here is a thing unheard of!’ he said. ‘An Elf will go underground and a Dwarf dare not!’ With that he plunged in. But it seemed to him that he dragged his feet like lead over the threshold; and at once a blindness came upon him, even upon Gimli Glóin’s son who had walked unafraid in many deep places of the world.</t>
-  </si>
-  <si>
-    <t>[A/L/G] But the next day there came no dawn, and the Grey Company passed on into the darkness of the Storm of Mordor and were lost to mortal sight; but the Dead followed them.</t>
-  </si>
-  <si>
-    <t>[F/S/G] ‘There are locked doors and closed windows in your mind [, Gollum], and dark rooms behind them,’ said Faramir. ‘But in this I judge that you speak the truth. It is well for you. What oath will you swear never to return; and never to lead any living creature hither by word or sign?’</t>
-  </si>
-  <si>
-    <t>[F/S/G] ‘Sleep!’ said Frodo and sighed, as if out of a desert he had seen a mirage of cool green. ‘Yes, even here I could sleep.’ ‘Sleep then, master! Lay your head in my lap.’ And so Gollum found them hours later, when he returned, crawling and creeping down the path out of the gloom ahead. Sam sat propped against the stone, his head dropping sideways and his breathing heavy. In his lap lay Frodo’s head, drowned deep in sleep; upon his white forehead lay one of Sam’s brown hands, and the other lay softly upon his master’s breast. Peace was in both their faces. Gollum looked at them. A strange expression passed over his lean hungry face. The gleam faded from his eyes, and they went dim and grey, old and tired. A spasm of pain seemed to twist him, and he turned away, peering back up towards the pass, shaking his head, as if engaged in some interior debate. Then he came back, and slowly putting out a trembling hand, very cautiously he touched Frodo’s knee – but almost the touch was a caress. For a fleeting moment, could one of the sleepers have seen him, they would have thought that they beheld an old weary hobbit, shrunken by the years that had carried him far beyond his time, beyond friends and kin, and the fields and streams of youth, an old starved pitiable thing. But at that touch Frodo stirred and cried out softly in his sleep, and immediately Sam was wide awake. The first thing he saw was Gollum – ‘pawing at master,’ as he thought. ‘Hey you!’ he said roughly. ‘What are you up to?’ ‘Nothing, nothing,’ said Gollum softly. ‘Nice Master!’</t>
-  </si>
-  <si>
-    <t>[F/S/G] Frodo stirred. And suddenly his heart went out to Faramir. ‘The storm has burst at last,’ he thought. ‘This great array of spears and swords is going to Osgiliath. Will Faramir get across in time? He guessed it, but did he know the hour? And who can now hold the fords when the King of the Nine Riders comes? And other armies will come. I am too late. All is lost. I tarried on the way. All is lost. Even if my errand is performed, no one will ever know. There will be no one I can tell. It will be in vain.’ Overcome with weakness he wept. And still the host of Morgul crossed the bridge. Then at a great distance, as if it came out of memories of the Shire, some sunlit early morning, when the day called and doors were opening, he heard Sam’s voice speaking. ‘Wake up, Mr. Frodo! Wake up!’ Had the voice added: ‘Your breakfast is ready,’ he would hardly have been surprised. Certainly Sam was urgent. ‘Wake up, Mr. Frodo! They’re gone,’ he said.</t>
-  </si>
-  <si>
-    <t>[F/S/G] [10 The Dawnless Day.] ‘I don’t like anything here at all,’ said Frodo, ‘step or stone, breath or bone. Earth, air and water all seem accursed. But so our path is laid.’</t>
-  </si>
-  <si>
-    <t>[Gand/P] [10 The Dawnless Day.] For a moment the eyes of Denethor glowed again as he faced Gandalf, and Pippin felt once more the strain between their wills; but now almost it seemed as if their glances were like blades from eye to eye, flickering as they fenced. Pippin trembled fearing some dreadful stroke. But suddenly Denethor relaxed and grew cold again. He shrugged his shoulders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[M/Theoden/Eowyn] [10 The Dawnless Day.] ‘But the Sun has not risen, yet,’ said Merry. ‘No, and will not rise today, Master Holbytla. Nor ever again, one would think under this cloud. But time does not stand still, though the Sun be lost. Make haste!’ </t>
-  </si>
-  <si>
-    <t>[F/S/G] ‘The star-glass?’ muttered Frodo, as one answering out of sleep, hardly comprehending. ‘Why yes! Why had I forgotten it? A light when all other lights go out! And now indeed light alone can help us.’ Slowly his hand went to his bosom, and slowly he held aloft the Phial of Galadriel. For a moment it glimmered, faint as a rising star struggling in heavy earthward mists, and then as its power waxed, and hope grew in Frodo’s mind, it began to burn, and kindled to a silver flame, a minute heart of dazzling light, as though Eärendil had himself come down from the high sunset paths with the last Silmaril upon his brow. The darkness receded from it, until it seemed to shine in the centre of a globe of airy crystal, and the hand that held it sparkled with white fire.</t>
-  </si>
-  <si>
     <t>WORKING HERE FRODO SAM</t>
   </si>
   <si>
@@ -1471,9 +1423,6 @@
   </si>
   <si>
     <t>[M/Theoden/Eowyn] ‘Alas!’ said Théoden. ‘Then Denethor has heard no news of our riding and will despair of our coming.’ ‘Need brooks no delay, yet late is better than never,’ said Éomer. ‘And mayhap in this time shall the old saw be proved truer than ever before since men spoke with mouth.’</t>
-  </si>
-  <si>
-    <t>[M/Theoden/Eowyn] [Ghân-buri-Ghân]’s flat face and dark eyes showed nothing, but his voice was sullen with displeasure. ‘Wild Men are wild, free, but not children,’ he answered. ‘I am great headman, Ghân-buri-Ghân. I count many things: stars in sky, leaves on trees, men in the dark. You have a score of scores counted ten times and five. They have more. Big fight, and who will win? And many more walk round walls of Stone-houses.’</t>
   </si>
   <si>
     <t>[M/Theoden/Eowyn] Right through the charge Merry had been borne unharmed behind [Theoden], until the Shadow came; and then Windfola had thrown them in his terror, and now ran wild upon the plain. Merry crawled on all fours like a dazed beast, and such a horror was on him that he was blind and sick. ‘King’s man! King’s man!’ his heart cried within him. ‘You must stay by him. As a father you shall be to me, you said.’ But his will made no answer, and his body shook. He dared not open his eyes or look up.</t>
@@ -1483,16 +1432,10 @@
 ‘Nay,’ they said, ‘not if the Nameless One himself should come, not even he could enter here while we yet live.’ But some answered: ‘While we yet live? How long? He has a weapon that has brought low many strong places since the world began. Hunger. The roads are cut. Rohan will not come.’</t>
   </si>
   <si>
-    <t>[Gand/P] The next day, though the darkness had reached its full and grew no deeper, it weighed heavier on men’s hearts, and a great dread was on them. Ill news came soon again. The passage of Anduin was won by the Enemy. Faramir was retreating to the wall of the Pelennor, rallying his men to the Causeway Forts; but he was ten times outnumbered.</t>
-  </si>
-  <si>
     <t>[Gand/P] ~</t>
   </si>
   <si>
     <t>The Houses of Healing, The Last Debate</t>
-  </si>
-  <si>
-    <t>[F/S/G] Even as Sam himself crouched, looking at her, seeing his death in her eyes, a thought came to him, as if some remote voice had spoken, and he fumbled in his breast with his left hand, and found what he sought: cold and hard and solid it seemed to his touch in a phantom world of horror, the Phial of Galadriel. ‘Galadriel!’ he said faintly, and then he heard voices far off but clear: the crying of the Elves as they walked under the stars in the beloved shadows of the Shire, and the music of the Elves as it came through his sleep in the Hall of Fire in the house of Elrond. Gilthoniel A Elbereth! And then his tongue was loosed and his voice cried in a language which he did not know: A Elbereth Gilthoniel o menel palan-diriel, le nallon sí di’nguruthos! A tiro nin, Fanuilos! And with that he staggered to his feet and was Samwise the hobbit, Hamfast’s son, again. ... Sam yelled and brandished Sting, but his little voice was drowned in the tumult. No one heeded him. The great doors slammed to. Boom. The bars of iron fell into place inside. Clang. The gate was shut. Sam hurled himself against the bolted brazen plates and fell senseless to the ground. He was out in the darkness. Frodo was alive but taken by the Enemy.</t>
   </si>
   <si>
     <t>[F/S/G] ‘Well, there’s no more to be said,’ said Sam. ‘We’ve got enough to start on. But the water’s going to be a bad business. But come, Mr. Frodo! Off we go, or a whole lake of it won’t do us any good!’ ‘Not till you’ve had a mouthful, Sam,’ said Frodo. ‘I won’t budge. Here, take this elven-cake, and drink that last drop in your bottle! The whole thing is quite hopeless, so it’s no good worrying about tomorrow. It probably won’t come.’ // It was the morning of the fifteenth of March, and over the Vale of Anduin the Sun was rising above the eastern shadow, and the south-west wind was blowing. Théoden lay dying on the Pelennor Fields.</t>
@@ -1558,9 +1501,6 @@
     <t>[A/L/G/Gand/P] Ever and anon Gandalf let blow the trumpets, and the heralds would cry: ‘The Lords of Gondor are come! Let all leave this land or yield them up!’ But Imrahil said: ‘Say not The Lords of Gondor. Say The King Elessar. For that is true, even though he has not yet sat upon the throne; and it will give the Enemy more thought, if the heralds use that name.’ And thereafter thrice a day the heralds proclaimed the coming of the King Elessar. But none answered the challenge.</t>
   </si>
   <si>
-    <t>[A/L/G] ‘“Hear now the words of the Heir of Isildur! Your oath is fulfilled. Go back and trouble not the valleys ever again! Depart and be at rest!”</t>
-  </si>
-  <si>
     <t>20-25 March 3019 [Faramir/Eowyn]: She did not answer, but as he looked at her it seemed to him that something in her softened, as though a bitter frost were yielding at the first faint presage of spring. A tear sprang in her eye and fell down her cheek, like a glistening rain-drop. Her proud head drooped a little. Then quietly, more as if speaking to herself than to him: ‘But the healers would have me lie abed seven days yet,’ she said. ‘And my window does not look eastward.’ Her voice was now that of a maiden young and sad. Faramir smiled, though his heart was filled with pity. ‘Your window does not look eastward?’ he said. ‘That can be amended. In this I will command the Warden. If you will stay in this house in our care, lady, and take your rest, then you shall walk in this garden in the sun, as you will; and you shall look east, whither all our hopes have gone. And here you will find me, walking and waiting, and also looking east. It would ease my care, if you would speak to me, or walk at whiles with me.’ Then she raised her head and looked him in the eyes again; and a colour came in her pale face. ‘How should I ease your care, my lord?’ she said. ‘And I do not desire the speech of living men.’ ‘Would you have my plain answer?’ he said. ‘I would.’ ‘Then, Éowyn of Rohan, I say to you that you are beautiful. In the valleys of our hills there are flowers fair and bright, and maidens fairer still; but neither flower nor lady have I seen till now in Gondor so lovely, and so sorrowful. It may be that only a few days are left ere darkness falls upon our world, and when it comes I hope to face it steadily; but it would ease my heart, if while the Sun yet shines, I could see you still. For you and I have both passed under the wings of the Shadow, and the same hand drew us back.’</t>
   </si>
   <si>
@@ -1649,6 +1589,66 @@
   </si>
   <si>
     <t>[A/L/G/M/P/Gand] ‘I know,’ said Pippin. ‘It was a wrench to let it go; but what else could I do?’ ‘Nothing else,’ answered Aragorn. ‘One who cannot cast away a treasure at need is in fetters. You did rightly.’</t>
+  </si>
+  <si>
+    <t>7 Mar 3019 [F/S/G] [Faramir:] 'Go now to rest — but first tell me only, if you will, whither you wish to go, and what to do. For I must watch, and wait, and think. Time passes. In the morning we must each go swiftly on the ways appointed to us.’ Frodo had felt himself trembling as the first shock of fear passed. Now a great weariness came down on him like a cloud. He could dissemble and resist no longer. ‘I was going to find a way into Mordor,’ he said faintly. ‘I was going to Gorgoroth. I must find the Mountain of Fire and cast the thing into the gulf of Doom. Gandalf said so. I do not think I shall ever get there.’</t>
+  </si>
+  <si>
+    <t>7 Mar 3019 [Gand/P] Sleepily [Pippin] tried to reckon the times and stages of their journey, but his memory was drowsy and uncertain. There had been the first ride at terrible speed without a halt, and then in the dawn he had seen a pale gleam of gold, and they had come to the silent town and the great empty house on the hill. And hardly had they reached its shelter when the winged shadow had passed over once again, and men wilted with fear. But Gandalf had spoken soft words to him, and he had slept in a corner, tired but uneasy, dimly aware of comings and goings and of men talking and Gandalf giving orders. And then again riding, riding in the night. This was the second, no, the third night since he had looked in the Stone. And with that hideous memory he woke fully, and shivered, and the noise of the wind became filled with menacing voices.</t>
+  </si>
+  <si>
+    <t>7 Mar 3019 [M/Theoden/Eowyn] Now all roads were running together to the East to meet the coming of war and the onset of the Shadow.</t>
+  </si>
+  <si>
+    <t>8 Mar 3019 [F/S/G] ‘There are locked doors and closed windows in your mind [, Gollum], and dark rooms behind them,’ said Faramir. ‘But in this I judge that you speak the truth. It is well for you. What oath will you swear never to return; and never to lead any living creature hither by word or sign?’</t>
+  </si>
+  <si>
+    <t>8 Mar 3019[A/L/G] And there stood Gimli the Dwarf left all alone. His knees shook, and he was wroth with himself. ‘Here is a thing unheard of!’ he said. ‘An Elf will go underground and a Dwarf dare not!’ With that he plunged in. But it seemed to him that he dragged his feet like lead over the threshold; and at once a blindness came upon him, even upon Gimli Glóin’s son who had walked unafraid in many deep places of the world.</t>
+  </si>
+  <si>
+    <t>8 Mar 3019 [Gand/P] [Pippin] wondered where Frodo was, and if he was already in Mordor, or if he was dead; and he did not know that Frodo from far away looked on that same moon as it set beyond Gondor ere the coming of the day.</t>
+  </si>
+  <si>
+    <t>9 Mar 3019 [M/Theoden/Eowyn] ‘I won’t be left behind, to be called for on return!’ said Merry. And repeating this over and over again to himself he fell asleep at last in his tent.</t>
+  </si>
+  <si>
+    <t>9 Mar 3019 [Gand/P] ‘Yes, the shadow of doom,’ said Beregond. ‘I fear that Minas Tirith shall fall. Night comes. The very warmth of my blood seems stolen away.’ For a time they sat together with bowed heads and did not speak. Then suddenly Pippin looked up and saw that the sun was still shining and the banners still streaming in the breeze. He shook himself. ‘It is passed,’ he said. ‘No, my heart will not yet despair. Gandalf fell and has returned and is with us. We may stand, if only on one leg, or at least be left still upon our knees.’ ‘Rightly said!’ cried Beregond, rising and striding to and fro. ‘Nay, though all things must come utterly to an end in time, Gondor shall not perish yet. Not though the walls be taken by a reckless foe that will build a hill of carrion before them. There are still other fastnesses, and secret ways of escape into the mountains. Hope and memory shall live still in some hidden valley where the grass is green.’</t>
+  </si>
+  <si>
+    <t>9 Mar 3019 [A/L/G] But the next day there came no dawn, and the Grey Company passed on into the darkness of the Storm of Mordor and were lost to mortal sight; but the Dead followed them.</t>
+  </si>
+  <si>
+    <t>9 Mar 3019 [F/S/G] Frodo stirred. And suddenly his heart went out to Faramir. ‘The storm has burst at last,’ he thought. ‘This great array of spears and swords is going to Osgiliath. Will Faramir get across in time? He guessed it, but did he know the hour? And who can now hold the fords when the King of the Nine Riders comes? And other armies will come. I am too late. All is lost. I tarried on the way. All is lost. Even if my errand is performed, no one will ever know. There will be no one I can tell. It will be in vain.’ Overcome with weakness he wept. And still the host of Morgul crossed the bridge. Then at a great distance, as if it came out of memories of the Shire, some sunlit early morning, when the day called and doors were opening, he heard Sam’s voice speaking. ‘Wake up, Mr. Frodo! Wake up!’ Had the voice added: ‘Your breakfast is ready,’ he would hardly have been surprised. Certainly Sam was urgent. ‘Wake up, Mr. Frodo! They’re gone,’ he said.</t>
+  </si>
+  <si>
+    <t>10 Mar 3019 [F/S/G] [10 The Dawnless Day.] ‘I don’t like anything here at all,’ said Frodo, ‘step or stone, breath or bone. Earth, air and water all seem accursed. But so our path is laid.’</t>
+  </si>
+  <si>
+    <t>10 Mar 3019 [Gand/P] [10 The Dawnless Day.] For a moment the eyes of Denethor glowed again as he faced Gandalf, and Pippin felt once more the strain between their wills; but now almost it seemed as if their glances were like blades from eye to eye, flickering as they fenced. Pippin trembled fearing some dreadful stroke. But suddenly Denethor relaxed and grew cold again. He shrugged his shoulders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Mar 3019 [M/Theoden/Eowyn] [10 The Dawnless Day.] ‘But the Sun has not risen, yet,’ said Merry. ‘No, and will not rise today, Master Holbytla. Nor ever again, one would think under this cloud. But time does not stand still, though the Sun be lost. Make haste!’ </t>
+  </si>
+  <si>
+    <t>11 Mar 3019 [Gand/P/Faramir] ‘Much must be risked in war,’ said Denethor. ‘Cair Andros is manned, and no more can be sent so far. But I will not yield the River and the Pelennor unfought – not if there is a captain here who has still the courage to do his lord’s will.’ Then all were silent. But at length Faramir said: ‘I do not oppose your will, sire. Since you are robbed of Boromir, I will go and do what I can in his stead – if you command it.’ ‘I do so,’ said Denethor. ‘Then farewell!’ said Faramir. ‘But if I should return, think better of me!’ ‘That depends on the manner of your return,’ said Denethor.</t>
+  </si>
+  <si>
+    <t>11 Mar 3019 [F/S/G] ‘Sleep!’ said Frodo and sighed, as if out of a desert he had seen a mirage of cool green. ‘Yes, even here I could sleep.’ ‘Sleep then, master! Lay your head in my lap.’ And so Gollum found them hours later, when he returned, crawling and creeping down the path out of the gloom ahead. Sam sat propped against the stone, his head dropping sideways and his breathing heavy. In his lap lay Frodo’s head, drowned deep in sleep; upon his white forehead lay one of Sam’s brown hands, and the other lay softly upon his master’s breast. Peace was in both their faces. Gollum looked at them. A strange expression passed over his lean hungry face. The gleam faded from his eyes, and they went dim and grey, old and tired. A spasm of pain seemed to twist him, and he turned away, peering back up towards the pass, shaking his head, as if engaged in some interior debate. Then he came back, and slowly putting out a trembling hand, very cautiously he touched Frodo’s knee – but almost the touch was a caress. For a fleeting moment, could one of the sleepers have seen him, they would have thought that they beheld an old weary hobbit, shrunken by the years that had carried him far beyond his time, beyond friends and kin, and the fields and streams of youth, an old starved pitiable thing. But at that touch Frodo stirred and cried out softly in his sleep, and immediately Sam was wide awake. The first thing he saw was Gollum – ‘pawing at master,’ as he thought. ‘Hey you!’ he said roughly. ‘What are you up to?’ ‘Nothing, nothing,’ said Gollum softly. ‘Nice Master!’</t>
+  </si>
+  <si>
+    <t>12 Mar 3019 [F/S/G] ‘The star-glass?’ muttered Frodo, as one answering out of sleep, hardly comprehending. ‘Why yes! Why had I forgotten it? A light when all other lights go out! And now indeed light alone can help us.’ Slowly his hand went to his bosom, and slowly he held aloft the Phial of Galadriel. For a moment it glimmered, faint as a rising star struggling in heavy earthward mists, and then as its power waxed, and hope grew in Frodo’s mind, it began to burn, and kindled to a silver flame, a minute heart of dazzling light, as though Eärendil had himself come down from the high sunset paths with the last Silmaril upon his brow. The darkness receded from it, until it seemed to shine in the centre of a globe of airy crystal, and the hand that held it sparkled with white fire.</t>
+  </si>
+  <si>
+    <t>13 Mar 3019 [F/S/G] Even as Sam himself crouched, looking at her, seeing his death in her eyes, a thought came to him, as if some remote voice had spoken, and he fumbled in his breast with his left hand, and found what he sought: cold and hard and solid it seemed to his touch in a phantom world of horror, the Phial of Galadriel. ‘Galadriel!’ he said faintly, and then he heard voices far off but clear: the crying of the Elves as they walked under the stars in the beloved shadows of the Shire, and the music of the Elves as it came through his sleep in the Hall of Fire in the house of Elrond. Gilthoniel A Elbereth! And then his tongue was loosed and his voice cried in a language which he did not know: A Elbereth Gilthoniel o menel palan-diriel, le nallon sí di’nguruthos! A tiro nin, Fanuilos! And with that he staggered to his feet and was Samwise the hobbit, Hamfast’s son, again. ... Sam yelled and brandished Sting, but his little voice was drowned in the tumult. No one heeded him. The great doors slammed to. Boom. The bars of iron fell into place inside. Clang. The gate was shut. Sam hurled himself against the bolted brazen plates and fell senseless to the ground. He was out in the darkness. Frodo was alive but taken by the Enemy.</t>
+  </si>
+  <si>
+    <t>13 Mar 3019 [A/L/G] ‘“Hear now the words of the Heir of Isildur! Your oath is fulfilled. Go back and trouble not the valleys ever again! Depart and be at rest!”</t>
+  </si>
+  <si>
+    <t>13 Mar 3019 [Gand/P] The next day, though the darkness had reached its full and grew no deeper, it weighed heavier on men’s hearts, and a great dread was on them. Ill news came soon again. The passage of Anduin was won by the Enemy. Faramir was retreating to the wall of the Pelennor, rallying his men to the Causeway Forts; but he was ten times outnumbered.</t>
+  </si>
+  <si>
+    <t>13 Mar 3019  [M/Theoden/Eowyn] [Ghân-buri-Ghân]’s flat face and dark eyes showed nothing, but his voice was sullen with displeasure. ‘Wild Men are wild, free, but not children,’ he answered. ‘I am great headman, Ghân-buri-Ghân. I count many things: stars in sky, leaves on trees, men in the dark. You have a score of scores counted ten times and five. They have more. Big fight, and who will win? And many more walk round walls of Stone-houses.’</t>
   </si>
 </sst>
 </file>
@@ -2129,8 +2129,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3958,7 +3958,7 @@
         <v>305</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>308</v>
@@ -3978,7 +3978,7 @@
         <v>311</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>308</v>
@@ -3998,7 +3998,7 @@
         <v>309</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J168" s="6" t="s">
         <v>308</v>
@@ -4018,7 +4018,7 @@
         <v>312</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>308</v>
@@ -4036,16 +4036,13 @@
         <v>313</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="J170" s="19" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -4055,14 +4052,14 @@
       <c r="E171" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H171" s="9" t="s">
+      <c r="H171" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="I171" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="J171" s="12" t="s">
+      <c r="I171" s="6" t="s">
         <v>318</v>
+      </c>
+      <c r="J171" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="K171" s="6"/>
     </row>
@@ -4076,17 +4073,17 @@
       <c r="E172" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H172" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="I172" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="K172" s="9" t="s">
-        <v>323</v>
+      <c r="H172" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J172" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4099,17 +4096,17 @@
       <c r="E173" t="s">
         <v>219</v>
       </c>
-      <c r="H173" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="J173" s="12" t="s">
+      <c r="H173" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="J173" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="K173" s="9" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4122,17 +4119,17 @@
       <c r="F174" t="s">
         <v>56</v>
       </c>
-      <c r="H174" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="I174" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="J174" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="K174" s="9" t="s">
-        <v>322</v>
+      <c r="H174" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J174" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="K174" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4145,17 +4142,17 @@
       <c r="E175" t="s">
         <v>219</v>
       </c>
-      <c r="H175" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="I175" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="J175" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="K175" s="9" t="s">
-        <v>334</v>
+      <c r="H175" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J175" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,20 +4165,20 @@
       <c r="E176" t="s">
         <v>219</v>
       </c>
-      <c r="H176" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="I176" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="J176" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="K176" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J176" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4191,20 +4188,20 @@
       <c r="E177" t="s">
         <v>219</v>
       </c>
-      <c r="H177" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="I177" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="J177" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="K177" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H177" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J177" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4214,20 +4211,23 @@
       <c r="E178" t="s">
         <v>219</v>
       </c>
-      <c r="H178" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I178" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="J178" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="K178" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H178" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J178" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4238,42 +4238,42 @@
         <v>219</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E180" t="s">
         <v>61</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4281,22 +4281,22 @@
         <v>241</v>
       </c>
       <c r="E181" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4307,17 +4307,17 @@
         <v>219</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4328,16 +4328,16 @@
         <v>219</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="L183" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -4348,16 +4348,16 @@
         <v>219</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="I184" t="s">
         <v>219</v>
       </c>
       <c r="L184" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -4366,16 +4366,16 @@
         <v>219</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -4384,16 +4384,16 @@
         <v>219</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="L186" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -4404,16 +4404,16 @@
         <v>219</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="L187" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -4424,16 +4424,16 @@
         <v>219</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="L188" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -4444,16 +4444,16 @@
         <v>219</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="L189" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -4464,16 +4464,16 @@
         <v>219</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="L190" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -4482,15 +4482,15 @@
         <v>219</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="E192" t="s">
         <v>219</v>
@@ -4501,7 +4501,7 @@
         <v>408794</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E193" t="s">
         <v>219</v>
@@ -4578,7 +4578,7 @@
         <v>408803</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>408805</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -4936,13 +4936,13 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B227" s="1">
         <v>408828</v>
       </c>
       <c r="D227" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D999EB1-61ED-45F3-8707-BFCBE05EABFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6E9C4-71C6-45D5-B154-6CA133917FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1452,53 +1452,12 @@
     nor bid the Stars farewell.</t>
   </si>
   <si>
-    <t>[F/S/G] Sam did likewise, and put aside his orc-gear; and he took out all the things in his pack. Somehow each of them had become dear to him, if only because he had borne them so far with so much toil. Hardest of all it was to part with his cooking-gear. Tears welled in his eyes at the thought of casting it away. ‘Do you remember that bit of rabbit, Mr. Frodo?’ he said. ‘And our place under the warm bank in Captain Faramir’s country, the day I saw an oliphaunt?’ ‘No, I am afraid not, Sam,’ said Frodo. ‘At least, I know that such things happened, but I cannot see them. No taste of food, no feel of water, no sound of wind, no memory of tree or grass or flower, no image of moon or star are left to me. I am naked in the dark, Sam, and there is no veil between me and the wheel of fire. I begin to see it even with my waking eyes, and all else fades.’ .... ‘There you are!’ came the answer [to Sam]. ‘It’s all quite useless. He said so himself. You are the fool, going on hoping and toiling. You could have lain down and gone to sleep together days ago, if you hadn’t been so dogged. But you’ll die just the same, or worse. You might just as well lie down now and give it up. You’ll never get to the top anyway.’</t>
-  </si>
-  <si>
-    <t>[F/S/G]With a gasp Frodo cast himself on the ground. Sam sat by him. To his surprise he felt tired but lighter, and his head seemed clear again. No more debates disturbed his mind. He knew all the arguments of despair and would not listen to them. His will was set, and only death would break it. He felt no longer either desire or need of sleep, but rather of watchfulness. He knew that all the hazards and perils were now drawing together to a point: the next day would be a day of doom, the day of final effort or disaster, the last gasp.</t>
-  </si>
-  <si>
-    <t>[F/S/G] And far away, as Frodo put on the Ring and claimed it for his own, even in Sammath Naur the very heart of his realm, the Power in Barad-dûr was shaken, and the Tower trembled from its foundations to its proud and bitter crown. The Dark Lord was suddenly aware of him, and his Eye piercing all shadows looked across the plain to the door that he had made; and the magnitude of his own folly was revealed to him in a blinding flash, and all the devices of his enemies were at last laid bare. Then his wrath blazed in consuming flame, but his fear rose like a vast black smoke to choke him. For he knew his deadly peril and the thread upon which his doom now hung.</t>
-  </si>
-  <si>
-    <t>[F/S/G] As for himself, though weary and under a shadow of fear, he still had some strength left. The lembas had a virtue without which they would long ago have lain down to die. It did not satisfy desire, and at times Sam’s mind was filled with the memories of food, and the longing for simple bread and meats. And yet this waybread of the Elves had a potency that increased as travellers relied on it alone and did not mingle it with other foods. It fed the will, and it gave strength to endure, and to master sinew and limb beyond the measure of mortal kind.</t>
-  </si>
-  <si>
-    <t>[F/S/G] Anxiously Sam had noted how his master’s left hand would often be raised as if to ward off a blow, or to screen his shrinking eyes from a dreadful Eye that sought to look in them. And sometimes his right hand would creep to his breast, clutching, and then slowly, as the will recovered mastery, it would be withdrawn.</t>
-  </si>
-  <si>
-    <t>[F/S/G] They slept a little in uneasy fits; for their sweat grew chill on them, and the hard stones bit them, and they shivered. Out of the north from the Black Gate through Cirith Gorgor there flowed whispering along the ground a thin cold air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[F/S/G] So the desperate journey went on, as the Ring went south and the banners of the kings rode north. For the hobbits each day, each mile, was more bitter than the one before, as their strength lessened and the land became more evil. They met no enemies by day. At times by night, as they cowered or drowsed uneasily in some hiding beside the road, they heard cries and the noise of many feet or the swift passing of some cruelly ridden steed. But far worse than all such perils was the ever-approaching threat that beat upon them as they went: the dreadful menace of the Power that waited, brooding in deep thought and sleepless malice behind the dark veil about its Throne. Nearer and nearer it drew, looming blacker, like the oncoming of a wall of night at the last end of the world. </t>
-  </si>
-  <si>
-    <t>[F/S/G] ‘There now!’ he laughed, flicking at their legs. ‘Where there’s a whip there’s a will, my slugs. Hold up! I’d give you a nice freshener now, only you’ll get as much lash as your skins will carry when you come in late to your camp. Do you good. Don’t you know we’re at war?’ They had gone some miles, and the road was at last running down a long slope into the plain, when Frodo’s strength began to give out and his will wavered.</t>
-  </si>
-  <si>
     <t>[F/S/G] Still far away, forty miles at least, they saw Mount Doom, its feet founded in ashen ruin, its huge cone rising to a great height, where its reeking head was swathed in cloud. Its fires were now dimmed, and it stood in smouldering slumber, as threatening and dangerous as a sleeping beast. Behind it there hung a vast shadow, ominous as a thunder-cloud, the veils of Barad-dûr that was reared far away upon a long spur of the Ashen Mountains thrust down from the North. The Dark Power was deep in thought, and the Eye turned inward, pondering tidings of doubt and danger: a bright sword, and a stern and kingly face it saw, and for a while it gave little thought to other things; and all its great stronghold, gate on gate, and tower on tower, was wrapped in a brooding gloom.</t>
   </si>
   <si>
     <t>[F/S/G] At last when Frodo roused himself and spoke of eating and making ready for yet another effort, he asked the question that was troubling him most. 
 ‘Begging your pardon, Mr. Frodo,’ he said, ‘but have you any notion how far there is still to go?’ 
 ‘No, not any clear notion, Sam,’ Frodo answered. ‘In Rivendell before I set out I was shown a map of Mordor that was made before the Enemy came back here; but I only remember it vaguely.</t>
-  </si>
-  <si>
-    <t>[A/L/G/Gand/P] Blackness and stench and crushing pain came upon Pippin, and his mind fell away into a great darkness. ‘So it ends as I guessed it would,’ his thought said, even as it fluttered away; and it laughed a little within him ere it fled, almost gay it seemed to be casting off at last all doubt and care and fear. And then even as it winged away into forgetfulness it heard voices, and they seemed to be crying in some forgotten world far above: ‘The Eagles are coming! The Eagles are coming!’ For one moment more Pippin’s thought hovered. ‘Bilbo!’ it said. ‘But no! That came in his tale, long long ago. This is my tale, and it is ended now. Good-bye!’ And his thought fled far away and his eyes saw no more.</t>
-  </si>
-  <si>
-    <t>[A/L/G/Gand/P] Aragorn said naught in answer, but he took the other’s eye and held it, and for a moment they strove thus; but soon, though Aragorn did not stir nor move hand to weapon, the other quailed and gave back as if menaced with a blow. ‘I am a herald and ambassador, and may not be assailed!’ he cried.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[A/L/G/Gand/P] Aragorn looked at them, and there was pity in his eyes rather than wrath; for these were young men from Rohan, from Westfold far away, or husbandmen from Lossarnach, and to them Mordor had been from childhood a name of evil, and yet unreal, a legend that had no part in their simple life; and now they walked like men in a hideous dream made true, and they understood not this war nor why fate should lead them to such a pass. 
-‘Go!’ said Aragorn. ‘But keep what honour you may, and do not run! And there is a task which you may attempt and so be not wholly shamed. Take your way south-west till you come to Cair Andros, and if that is still held by enemies, as I think, then re-take it, if you can; and hold it to the last in defence of Gondor and Rohan!’ 
-Then some being shamed by his mercy overcame their fear and went on, and the others took new hope, hearing of a manful deed within their measure that they could turn to, and they departed. </t>
-  </si>
-  <si>
-    <t>[A/L/G/Gand/P] So time and the hopeless journey wore away.</t>
-  </si>
-  <si>
-    <t>[A/L/G/Gand/P] Ever and anon Gandalf let blow the trumpets, and the heralds would cry: ‘The Lords of Gondor are come! Let all leave this land or yield them up!’ But Imrahil said: ‘Say not The Lords of Gondor. Say The King Elessar. For that is true, even though he has not yet sat upon the throne; and it will give the Enemy more thought, if the heralds use that name.’ And thereafter thrice a day the heralds proclaimed the coming of the King Elessar. But none answered the challenge.</t>
   </si>
   <si>
     <t>20-25 March 3019 [Faramir/Eowyn]: She did not answer, but as he looked at her it seemed to him that something in her softened, as though a bitter frost were yielding at the first faint presage of spring. A tear sprang in her eye and fell down her cheek, like a glistening rain-drop. Her proud head drooped a little. Then quietly, more as if speaking to herself than to him: ‘But the healers would have me lie abed seven days yet,’ she said. ‘And my window does not look eastward.’ Her voice was now that of a maiden young and sad. Faramir smiled, though his heart was filled with pity. ‘Your window does not look eastward?’ he said. ‘That can be amended. In this I will command the Warden. If you will stay in this house in our care, lady, and take your rest, then you shall walk in this garden in the sun, as you will; and you shall look east, whither all our hopes have gone. And here you will find me, walking and waiting, and also looking east. It would ease my care, if you would speak to me, or walk at whiles with me.’ Then she raised her head and looked him in the eyes again; and a colour came in her pale face. ‘How should I ease your care, my lord?’ she said. ‘And I do not desire the speech of living men.’ ‘Would you have my plain answer?’ he said. ‘I would.’ ‘Then, Éowyn of Rohan, I say to you that you are beautiful. In the valleys of our hills there are flowers fair and bright, and maidens fairer still; but neither flower nor lady have I seen till now in Gondor so lovely, and so sorrowful. It may be that only a few days are left ere darkness falls upon our world, and when it comes I hope to face it steadily; but it would ease my heart, if while the Sun yet shines, I could see you still. For you and I have both passed under the wings of the Shadow, and the same hand drew us back.’</t>
@@ -1547,16 +1506,6 @@
 Then Faramir laughed merrily. ‘That is well,’ he said; ‘for I am not a king. Yet I will wed with the White Lady of Rohan, if it be her will. And if she will, then let us cross the River and in happier days let us dwell in fair Ithilien and there make a garden. All things will grow with joy there, if the White Lady comes.’</t>
   </si>
   <si>
-    <t>[A/L/G/Gand/P] Then Aragorn set trumpeters at each of the four roads that ran into the ring of trees, and they blew a great fanfare, and the heralds cried aloud: ‘The Lords of Gondor have returned and all this land that is theirs they take back.’ The hideous orc-head that was set upon the carven figure was cast down and broken in pieces, and the old king’s head was raised and set in its place once more, still crowned with white and golden flowers; and men laboured to wash and pare away all the foul scrawls that orcs had put upon the stone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[A/L/G/Gand/P] And from that evening onward the Nazgûl came and followed every move of the army. They still flew high and out of sight of all save Legolas, and yet their presence could be felt, as a deepening of shadow and a dimming of the sun; and though the Ringwraiths did not yet stoop low upon their foes and were silent, uttering no cry, the dread of them could not be shaken off.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[A/L/G/Gand/P] At nightfall of the fifth day of the march from Morgul Vale they made their last camp, and set fires about it of such dead wood and heath as they could find. They passed the hours of night in wakefulness and they were aware of many things half-seen that walked and prowled all about them, and they heard the howling of wolves. The wind had died and all the air seemed still. They could see little, for though it was cloudless and the waxing moon was four nights old, there were smokes and fumes that rose out of the earth and the white crescent was shrouded in the mists of Mordor. </t>
-  </si>
-  <si>
     <t>[Gand/P] ‘He will not wake again,’ said Denethor. ‘Battle is vain. Why should we wish to live longer? Why should we not go to death side by side?’ // ‘Authority is not given to you, Steward of Gondor, to order the hour of your death,’ answered Gandalf. ‘And only the heathen kings, under the domination of the Dark Power, did thus, slaying themselves in pride and despair, murdering their kin to ease their own death.’</t>
   </si>
   <si>
@@ -1649,6 +1598,57 @@
   </si>
   <si>
     <t>13 Mar 3019  [M/Theoden/Eowyn] [Ghân-buri-Ghân]’s flat face and dark eyes showed nothing, but his voice was sullen with displeasure. ‘Wild Men are wild, free, but not children,’ he answered. ‘I am great headman, Ghân-buri-Ghân. I count many things: stars in sky, leaves on trees, men in the dark. You have a score of scores counted ten times and five. They have more. Big fight, and who will win? And many more walk round walls of Stone-houses.’</t>
+  </si>
+  <si>
+    <t>18 Mar 3019 [F/S/G] ‘There now!’ he laughed, flicking at their legs. ‘Where there’s a whip there’s a will, my slugs. Hold up! I’d give you a nice freshener now, only you’ll get as much lash as your skins will carry when you come in late to your camp. Do you good. Don’t you know we’re at war?’ They had gone some miles, and the road was at last running down a long slope into the plain, when Frodo’s strength began to give out and his will wavered.</t>
+  </si>
+  <si>
+    <t>18 Mar 3019 [A/L/G/Gand/P] Then Aragorn set trumpeters at each of the four roads that ran into the ring of trees, and they blew a great fanfare, and the heralds cried aloud: ‘The Lords of Gondor have returned and all this land that is theirs they take back.’ The hideous orc-head that was set upon the carven figure was cast down and broken in pieces, and the old king’s head was raised and set in its place once more, still crowned with white and golden flowers; and men laboured to wash and pare away all the foul scrawls that orcs had put upon the stone.</t>
+  </si>
+  <si>
+    <t>19 Mar 3019 [F/S/G] They slept a little in uneasy fits; for their sweat grew chill on them, and the hard stones bit them, and they shivered. Out of the north from the Black Gate through Cirith Gorgor there flowed whispering along the ground a thin cold air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Mar 3019 [F/S/G] So the desperate journey went on, as the Ring went south and the banners of the kings rode north. For the hobbits each day, each mile, was more bitter than the one before, as their strength lessened and the land became more evil. They met no enemies by day. At times by night, as they cowered or drowsed uneasily in some hiding beside the road, they heard cries and the noise of many feet or the swift passing of some cruelly ridden steed. But far worse than all such perils was the ever-approaching threat that beat upon them as they went: the dreadful menace of the Power that waited, brooding in deep thought and sleepless malice behind the dark veil about its Throne. Nearer and nearer it drew, looming blacker, like the oncoming of a wall of night at the last end of the world. </t>
+  </si>
+  <si>
+    <t>20 Mar 3019 [A/L/G/Gand/P] Ever and anon Gandalf let blow the trumpets, and the heralds would cry: ‘The Lords of Gondor are come! Let all leave this land or yield them up!’ But Imrahil said: ‘Say not The Lords of Gondor. Say The King Elessar. For that is true, even though he has not yet sat upon the throne; and it will give the Enemy more thought, if the heralds use that name.’ And thereafter thrice a day the heralds proclaimed the coming of the King Elessar. But none answered the challenge.</t>
+  </si>
+  <si>
+    <t>21 Mar 3019 [F/S/G] Anxiously Sam had noted how his master’s left hand would often be raised as if to ward off a blow, or to screen his shrinking eyes from a dreadful Eye that sought to look in them. And sometimes his right hand would creep to his breast, clutching, and then slowly, as the will recovered mastery, it would be withdrawn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Mar 3019 [A/L/G/Gand/P] And from that evening onward the Nazgûl came and followed every move of the army. They still flew high and out of sight of all save Legolas, and yet their presence could be felt, as a deepening of shadow and a dimming of the sun; and though the Ringwraiths did not yet stoop low upon their foes and were silent, uttering no cry, the dread of them could not be shaken off.
+</t>
+  </si>
+  <si>
+    <t>22 Mar 3019 [F/S/G] As for himself, though weary and under a shadow of fear, he still had some strength left. The lembas had a virtue without which they would long ago have lain down to die. It did not satisfy desire, and at times Sam’s mind was filled with the memories of food, and the longing for simple bread and meats. And yet this waybread of the Elves had a potency that increased as travellers relied on it alone and did not mingle it with other foods. It fed the will, and it gave strength to endure, and to master sinew and limb beyond the measure of mortal kind.</t>
+  </si>
+  <si>
+    <t>22 Mar 3019 [A/L/G/Gand/P] So time and the hopeless journey wore away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Mar 3019 [A/L/G/Gand/P] Aragorn looked at them, and there was pity in his eyes rather than wrath; for these were young men from Rohan, from Westfold far away, or husbandmen from Lossarnach, and to them Mordor had been from childhood a name of evil, and yet unreal, a legend that had no part in their simple life; and now they walked like men in a hideous dream made true, and they understood not this war nor why fate should lead them to such a pass. 
+‘Go!’ said Aragorn. ‘But keep what honour you may, and do not run! And there is a task which you may attempt and so be not wholly shamed. Take your way south-west till you come to Cair Andros, and if that is still held by enemies, as I think, then re-take it, if you can; and hold it to the last in defence of Gondor and Rohan!’ 
+Then some being shamed by his mercy overcame their fear and went on, and the others took new hope, hearing of a manful deed within their measure that they could turn to, and they departed. </t>
+  </si>
+  <si>
+    <t>23 Mar 3019 [F/S/G] Sam did likewise, and put aside his orc-gear; and he took out all the things in his pack. Somehow each of them had become dear to him, if only because he had borne them so far with so much toil. Hardest of all it was to part with his cooking-gear. Tears welled in his eyes at the thought of casting it away. ‘Do you remember that bit of rabbit, Mr. Frodo?’ he said. ‘And our place under the warm bank in Captain Faramir’s country, the day I saw an oliphaunt?’ ‘No, I am afraid not, Sam,’ said Frodo. ‘At least, I know that such things happened, but I cannot see them. No taste of food, no feel of water, no sound of wind, no memory of tree or grass or flower, no image of moon or star are left to me. I am naked in the dark, Sam, and there is no veil between me and the wheel of fire. I begin to see it even with my waking eyes, and all else fades.’ .... ‘There you are!’ came the answer [to Sam]. ‘It’s all quite useless. He said so himself. You are the fool, going on hoping and toiling. You could have lain down and gone to sleep together days ago, if you hadn’t been so dogged. But you’ll die just the same, or worse. You might just as well lie down now and give it up. You’ll never get to the top anyway.’</t>
+  </si>
+  <si>
+    <t>24 Mar 3019 [F/S/G]With a gasp Frodo cast himself on the ground. Sam sat by him. To his surprise he felt tired but lighter, and his head seemed clear again. No more debates disturbed his mind. He knew all the arguments of despair and would not listen to them. His will was set, and only death would break it. He felt no longer either desire or need of sleep, but rather of watchfulness. He knew that all the hazards and perils were now drawing together to a point: the next day would be a day of doom, the day of final effort or disaster, the last gasp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Mar 3019 [A/L/G/Gand/P] At nightfall of the fifth day of the march from Morgul Vale they made their last camp, and set fires about it of such dead wood and heath as they could find. They passed the hours of night in wakefulness and they were aware of many things half-seen that walked and prowled all about them, and they heard the howling of wolves. The wind had died and all the air seemed still. They could see little, for though it was cloudless and the waxing moon was four nights old, there were smokes and fumes that rose out of the earth and the white crescent was shrouded in the mists of Mordor. </t>
+  </si>
+  <si>
+    <t>25 Mar 3019 [A/L/G/Gand/P] Aragorn said naught in answer, but he took the other’s eye and held it, and for a moment they strove thus; but soon, though Aragorn did not stir nor move hand to weapon, the other quailed and gave back as if menaced with a blow. ‘I am a herald and ambassador, and may not be assailed!’ he cried.</t>
+  </si>
+  <si>
+    <t>25 Mar 3019 [F/S/G] And far away, as Frodo put on the Ring and claimed it for his own, even in Sammath Naur the very heart of his realm, the Power in Barad-dûr was shaken, and the Tower trembled from its foundations to its proud and bitter crown. The Dark Lord was suddenly aware of him, and his Eye piercing all shadows looked across the plain to the door that he had made; and the magnitude of his own folly was revealed to him in a blinding flash, and all the devices of his enemies were at last laid bare. Then his wrath blazed in consuming flame, but his fear rose like a vast black smoke to choke him. For he knew his deadly peril and the thread upon which his doom now hung.</t>
+  </si>
+  <si>
+    <t>25 Mar 3019 [A/L/G/Gand/P] Blackness and stench and crushing pain came upon Pippin, and his mind fell away into a great darkness. ‘So it ends as I guessed it would,’ his thought said, even as it fluttered away; and it laughed a little within him ere it fled, almost gay it seemed to be casting off at last all doubt and care and fear. And then even as it winged away into forgetfulness it heard voices, and they seemed to be crying in some forgotten world far above: ‘The Eagles are coming! The Eagles are coming!’ For one moment more Pippin’s thought hovered. ‘Bilbo!’ it said. ‘But no! That came in his tale, long long ago. This is my tale, and it is ended now. Good-bye!’ And his thought fled far away and his eyes saw no more.</t>
   </si>
 </sst>
 </file>
@@ -2129,8 +2129,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3821,9 +3821,6 @@
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -3958,7 +3955,7 @@
         <v>305</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>308</v>
@@ -4036,10 +4033,10 @@
         <v>313</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="J170" s="19" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4074,16 +4071,16 @@
         <v>47</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J172" s="19" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4097,13 +4094,13 @@
         <v>219</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="J173" s="19" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="K173" s="6" t="s">
         <v>319</v>
@@ -4120,16 +4117,16 @@
         <v>56</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="J174" s="19" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,16 +4140,16 @@
         <v>219</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="I175" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J175" s="19" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4166,13 +4163,13 @@
         <v>219</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J176" s="19" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="K176" s="6" t="s">
         <v>319</v>
@@ -4189,7 +4186,7 @@
         <v>219</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="I177" s="6" t="s">
         <v>315</v>
@@ -4212,21 +4209,21 @@
         <v>219</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="J178" s="19" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="B179" s="1">
         <v>408780</v>
@@ -4255,23 +4252,24 @@
         <v>408781</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E180" t="s">
         <v>61</v>
       </c>
-      <c r="H180" s="9" t="s">
+      <c r="H180" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="I180" s="9" t="s">
+      <c r="I180" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="J180" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="K180" s="9" t="s">
+      <c r="J180" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="K180" s="6" t="s">
         <v>323</v>
       </c>
+      <c r="L180" s="6"/>
     </row>
     <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
@@ -4283,17 +4281,17 @@
       <c r="E181" t="s">
         <v>326</v>
       </c>
-      <c r="H181" s="9" t="s">
-        <v>337</v>
+      <c r="H181" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="K181" s="9" t="s">
-        <v>362</v>
+        <v>348</v>
+      </c>
+      <c r="K181" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4306,15 +4304,16 @@
       <c r="E182" t="s">
         <v>219</v>
       </c>
-      <c r="H182" s="12" t="s">
-        <v>338</v>
+      <c r="H182" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,14 +4326,16 @@
       <c r="E183" t="s">
         <v>219</v>
       </c>
-      <c r="H183" s="9" t="s">
+      <c r="H183" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I183" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="I183" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="L183" s="9" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4347,14 +4348,16 @@
       <c r="E184" t="s">
         <v>219</v>
       </c>
-      <c r="H184" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="H184" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I184" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="L184" s="9" t="s">
-        <v>348</v>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4365,14 +4368,16 @@
       <c r="E185" t="s">
         <v>219</v>
       </c>
-      <c r="H185" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="I185" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="L185" s="9" t="s">
-        <v>347</v>
+      <c r="H185" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I185" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4383,14 +4388,16 @@
       <c r="E186" t="s">
         <v>219</v>
       </c>
-      <c r="H186" s="9" t="s">
+      <c r="H186" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I186" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="I186" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="L186" s="9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4403,14 +4410,16 @@
       <c r="E187" t="s">
         <v>219</v>
       </c>
-      <c r="H187" s="9" t="s">
+      <c r="H187" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I187" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="I187" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="L187" s="9" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4423,14 +4432,16 @@
       <c r="E188" t="s">
         <v>219</v>
       </c>
-      <c r="H188" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="I188" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="L188" s="9" t="s">
-        <v>344</v>
+      <c r="H188" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I188" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4443,14 +4454,16 @@
       <c r="E189" t="s">
         <v>219</v>
       </c>
-      <c r="H189" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="I189" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="L189" s="12" t="s">
-        <v>350</v>
+      <c r="H189" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I189" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="19" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4463,14 +4476,16 @@
       <c r="E190" t="s">
         <v>219</v>
       </c>
-      <c r="H190" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="I190" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="L190" s="9" t="s">
-        <v>356</v>
+      <c r="H190" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I190" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4481,33 +4496,36 @@
       <c r="E191" t="s">
         <v>219</v>
       </c>
-      <c r="I191" s="12" t="s">
-        <v>339</v>
+      <c r="I191" s="19" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="B192" s="1">
         <v>408793</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E192" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E193" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -4516,576 +4534,576 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
       <c r="D195" s="8"/>
     </row>
-    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
       <c r="D196" s="8"/>
-      <c r="I196" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
       <c r="D197" s="8"/>
-      <c r="I197" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
-      <c r="I198" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
       <c r="D199" s="8"/>
-      <c r="I199" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
-      <c r="I201" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
-      <c r="E203" t="s">
-        <v>219</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="B204" s="1">
         <v>408805</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F204" t="s">
-        <v>6</v>
-      </c>
-      <c r="I204" t="s">
-        <v>30</v>
-      </c>
-      <c r="K204" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
       <c r="D205" s="8"/>
     </row>
-    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
-      <c r="F206" t="s">
-        <v>7</v>
-      </c>
-      <c r="H206" t="s">
-        <v>19</v>
-      </c>
-      <c r="I206" t="s">
-        <v>31</v>
-      </c>
-      <c r="J206" t="s">
-        <v>43</v>
-      </c>
-      <c r="K206" t="s">
-        <v>55</v>
-      </c>
-      <c r="L206" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
-      <c r="F207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="8"/>
-      <c r="F208" t="s">
-        <v>9</v>
-      </c>
-      <c r="H208" t="s">
-        <v>20</v>
-      </c>
-      <c r="I208" t="s">
-        <v>32</v>
-      </c>
-      <c r="J208" t="s">
-        <v>44</v>
-      </c>
-      <c r="K208" t="s">
-        <v>56</v>
-      </c>
-      <c r="L208" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="209" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
-      <c r="F209" t="s">
-        <v>10</v>
-      </c>
-      <c r="H209" t="s">
-        <v>21</v>
-      </c>
-      <c r="I209" t="s">
-        <v>33</v>
-      </c>
-      <c r="J209" t="s">
-        <v>45</v>
-      </c>
-      <c r="K209" t="s">
-        <v>57</v>
-      </c>
-      <c r="L209" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="210" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
-      <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="H210" t="s">
-        <v>22</v>
-      </c>
-      <c r="I210" t="s">
-        <v>34</v>
-      </c>
-      <c r="J210" t="s">
-        <v>46</v>
-      </c>
-      <c r="K210" t="s">
-        <v>58</v>
-      </c>
-      <c r="L210" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="211" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
-      <c r="F211" t="s">
-        <v>12</v>
-      </c>
-      <c r="H211" t="s">
-        <v>23</v>
-      </c>
-      <c r="I211" t="s">
-        <v>35</v>
-      </c>
-      <c r="J211" t="s">
-        <v>47</v>
-      </c>
-      <c r="K211" t="s">
-        <v>59</v>
-      </c>
-      <c r="L211" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="212" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
-      <c r="F212" t="s">
-        <v>13</v>
-      </c>
-      <c r="H212" t="s">
-        <v>24</v>
-      </c>
-      <c r="I212" t="s">
-        <v>36</v>
-      </c>
-      <c r="J212" t="s">
-        <v>48</v>
-      </c>
-      <c r="K212" t="s">
-        <v>60</v>
-      </c>
-      <c r="L212" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="213" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
-      <c r="F213" t="s">
-        <v>14</v>
-      </c>
-      <c r="H213" t="s">
-        <v>25</v>
-      </c>
-      <c r="I213" t="s">
-        <v>37</v>
-      </c>
-      <c r="J213" t="s">
-        <v>49</v>
-      </c>
-      <c r="K213" t="s">
-        <v>61</v>
-      </c>
-      <c r="L213" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="214" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
-      <c r="F214" t="s">
-        <v>15</v>
-      </c>
-      <c r="H214" t="s">
-        <v>26</v>
-      </c>
-      <c r="I214" t="s">
-        <v>38</v>
-      </c>
-      <c r="J214" t="s">
-        <v>50</v>
-      </c>
-      <c r="K214" t="s">
-        <v>62</v>
-      </c>
-      <c r="L214" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="215" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
-      <c r="F215" t="s">
-        <v>16</v>
-      </c>
-      <c r="H215" t="s">
-        <v>27</v>
-      </c>
-      <c r="I215" t="s">
-        <v>39</v>
-      </c>
-      <c r="J215" t="s">
-        <v>51</v>
-      </c>
-      <c r="K215" t="s">
-        <v>63</v>
-      </c>
-      <c r="L215" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="216" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
-      <c r="F216" t="s">
-        <v>17</v>
-      </c>
-      <c r="H216" t="s">
-        <v>28</v>
-      </c>
-      <c r="I216" t="s">
-        <v>40</v>
-      </c>
-      <c r="J216" t="s">
-        <v>52</v>
-      </c>
-      <c r="K216" t="s">
-        <v>64</v>
-      </c>
-      <c r="L216" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="217" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
-      <c r="E217" t="s">
-        <v>80</v>
-      </c>
-      <c r="F217" t="s">
-        <v>18</v>
-      </c>
-      <c r="H217" t="s">
-        <v>29</v>
-      </c>
-      <c r="I217" t="s">
-        <v>41</v>
-      </c>
-      <c r="J217" t="s">
-        <v>53</v>
-      </c>
-      <c r="K217" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="218" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F218" t="s">
-        <v>77</v>
-      </c>
-      <c r="I218" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="219" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
     </row>
-    <row r="222" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="7" t="s">
-        <v>320</v>
-      </c>
+    <row r="227" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>408828</v>
       </c>
       <c r="D227" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I230" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I231" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I232" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I233" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I235" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>219</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F238" t="s">
+        <v>6</v>
+      </c>
+      <c r="I238" t="s">
+        <v>30</v>
+      </c>
+      <c r="K238" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
-    </row>
-    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F240" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" t="s">
+        <v>31</v>
+      </c>
+      <c r="J240" t="s">
+        <v>43</v>
+      </c>
+      <c r="K240" t="s">
+        <v>55</v>
+      </c>
+      <c r="L240" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
-    </row>
-    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
-    </row>
-    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>9</v>
+      </c>
+      <c r="H242" t="s">
+        <v>20</v>
+      </c>
+      <c r="I242" t="s">
+        <v>32</v>
+      </c>
+      <c r="J242" t="s">
+        <v>44</v>
+      </c>
+      <c r="K242" t="s">
+        <v>56</v>
+      </c>
+      <c r="L242" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
-    </row>
-    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="H243" t="s">
+        <v>21</v>
+      </c>
+      <c r="I243" t="s">
+        <v>33</v>
+      </c>
+      <c r="J243" t="s">
+        <v>45</v>
+      </c>
+      <c r="K243" t="s">
+        <v>57</v>
+      </c>
+      <c r="L243" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
-    </row>
-    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" t="s">
+        <v>22</v>
+      </c>
+      <c r="I244" t="s">
+        <v>34</v>
+      </c>
+      <c r="J244" t="s">
+        <v>46</v>
+      </c>
+      <c r="K244" t="s">
+        <v>58</v>
+      </c>
+      <c r="L244" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
-    </row>
-    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>12</v>
+      </c>
+      <c r="H245" t="s">
+        <v>23</v>
+      </c>
+      <c r="I245" t="s">
+        <v>35</v>
+      </c>
+      <c r="J245" t="s">
+        <v>47</v>
+      </c>
+      <c r="K245" t="s">
+        <v>59</v>
+      </c>
+      <c r="L245" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
-    </row>
-    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>24</v>
+      </c>
+      <c r="I246" t="s">
+        <v>36</v>
+      </c>
+      <c r="J246" t="s">
+        <v>48</v>
+      </c>
+      <c r="K246" t="s">
+        <v>60</v>
+      </c>
+      <c r="L246" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
-    </row>
-    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F247" t="s">
+        <v>14</v>
+      </c>
+      <c r="H247" t="s">
+        <v>25</v>
+      </c>
+      <c r="I247" t="s">
+        <v>37</v>
+      </c>
+      <c r="J247" t="s">
+        <v>49</v>
+      </c>
+      <c r="K247" t="s">
+        <v>61</v>
+      </c>
+      <c r="L247" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
-    </row>
-    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" t="s">
+        <v>26</v>
+      </c>
+      <c r="I248" t="s">
+        <v>38</v>
+      </c>
+      <c r="J248" t="s">
+        <v>50</v>
+      </c>
+      <c r="K248" t="s">
+        <v>62</v>
+      </c>
+      <c r="L248" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
-    </row>
-    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F249" t="s">
+        <v>16</v>
+      </c>
+      <c r="H249" t="s">
+        <v>27</v>
+      </c>
+      <c r="I249" t="s">
+        <v>39</v>
+      </c>
+      <c r="J249" t="s">
+        <v>51</v>
+      </c>
+      <c r="K249" t="s">
+        <v>63</v>
+      </c>
+      <c r="L249" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
-    </row>
-    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F250" t="s">
+        <v>17</v>
+      </c>
+      <c r="H250" t="s">
+        <v>28</v>
+      </c>
+      <c r="I250" t="s">
+        <v>40</v>
+      </c>
+      <c r="J250" t="s">
+        <v>52</v>
+      </c>
+      <c r="K250" t="s">
+        <v>64</v>
+      </c>
+      <c r="L250" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
-    </row>
-    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>80</v>
+      </c>
+      <c r="F251" t="s">
+        <v>18</v>
+      </c>
+      <c r="H251" t="s">
+        <v>29</v>
+      </c>
+      <c r="I251" t="s">
+        <v>41</v>
+      </c>
+      <c r="J251" t="s">
+        <v>53</v>
+      </c>
+      <c r="K251" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
-    </row>
-    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E252" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F252" t="s">
+        <v>77</v>
+      </c>
+      <c r="I252" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
     </row>
-    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
@@ -5228,8 +5246,8 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E218" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
-    <hyperlink ref="F203" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
+    <hyperlink ref="E252" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="F237" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6E9C4-71C6-45D5-B154-6CA133917FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1303684-1E4A-49D6-A534-815133B65051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="398">
   <si>
     <t>Date</t>
   </si>
@@ -1649,6 +1649,34 @@
   </si>
   <si>
     <t>25 Mar 3019 [A/L/G/Gand/P] Blackness and stench and crushing pain came upon Pippin, and his mind fell away into a great darkness. ‘So it ends as I guessed it would,’ his thought said, even as it fluttered away; and it laughed a little within him ere it fled, almost gay it seemed to be casting off at last all doubt and care and fear. And then even as it winged away into forgetfulness it heard voices, and they seemed to be crying in some forgotten world far above: ‘The Eagles are coming! The Eagles are coming!’ For one moment more Pippin’s thought hovered. ‘Bilbo!’ it said. ‘But no! That came in his tale, long long ago. This is my tale, and it is ended now. Good-bye!’ And his thought fled far away and his eyes saw no more.</t>
+  </si>
+  <si>
+    <t>1 May 3019 [TOY] [All] Faramir met Aragorn in the midst of those there assembled, and he knelt, and said: ‘The last Steward of Gondor begs leave to surrender his office.’ And he held out a white rod; but Aragorn took the rod and gave it back, saying: ‘That office is not ended, and it shall be thine and thy heirs’ as long as my line shall last. Do now thy office!’ Then Faramir stood up and spoke in a clear voice: ‘Men of Gondor, hear now the Steward of this Realm! Behold! one has come to claim the kingship again at last. Here is Aragorn son of Arathorn, chieftain of the Dúnedain of Arnor, Captain of the Host of the West, bearer of the Star of the North, wielder of the Sword Reforged, victorious in battle, whose hands bring healing, the Elfstone, Elessar of the line of Valandil, Isildur’s son, Elendil’s son of Númenor. Shall he be king and enter into the City and dwell there?’ And all the host and all the people cried yea with one voice.</t>
+  </si>
+  <si>
+    <t>1 May 3019 [TOY] [All] Then Aragorn took the crown and held it up and said: Et Eärello Endorenna utúlien. Sinome maruvan ar Hildinyar tenn’ Ambar-metta! And those were the words that Elendil spoke when he came up out of the Sea on the wings of the wind: ‘Out of the Great Sea to Middle-earth I am come. In this place will I abide, and my heirs, unto the ending of the world.’</t>
+  </si>
+  <si>
+    <t>8 Apr 3019 [A/G/L/F/S/M/P/Gand, day]: At last he gasped: ‘Gandalf! I thought you were dead! But then I thought I was dead myself. Is everything sad going to come untrue? What’s happened to the world?’ 
+‘A great Shadow has departed,’ said Gandalf, and then he laughed, and the sound was like music, or like water in a parched land; and as he listened the thought came to Sam that he had not heard laughter, the pure sound of merriment, for days upon days without count. 
+It fell upon his ears like the echo of all the joys he had ever known. But he himself burst into tears. Then, as a sweet rain will pass down a wind of spring and the sun will shine out the clearer, his tears ceased, and his laughter welled up, and laughing he sprang from his bed.
+. . .
+And all the host laughed and wept, and in the midst of their merriment and tears the clear voice of the minstrel rose like silver and gold, and all men were hushed. And he sang to them, now in the elven-tongue, now in the speech of the West, until their hearts, wounded with sweet words, overflowed, and their joy was like swords, and they passed in thought out to regions where pain and delight flow together and tears are the very wine of blessedness.</t>
+  </si>
+  <si>
+    <t>8 Apr 3019 [A/G/L/F/S/M/P/Gand, night]: [The Hobbits and Gimli to sleep...]
+‘And I,’ said Legolas, ‘shall walk in the woods of this fair land, which is rest enough. In days to come, if my Elven-lord allows, some of our folk shall remove hither; and when we come it shall be blessed, for a while. For a while: a month, a life, a hundred years of Men. But Anduin is near, and Anduin leads down to the Sea. To the Sea! To the Sea, to the Sea! The white gulls are crying, The wind is blowing, and the white foam is flying. West, west away, the round sun is falling. Grey ship, grey ship, do you hear them calling, The voices of my people that have gone before me? I will leave, I will leave the woods that bore me; For our days are ending and our years failing. I will pass the wide waters lonely sailing. Long are the waves on the Last Shore falling, Sweet are the voices in the Lost Isle calling, In Eressëa, in Elvenhome that no man can discover, Where the leaves fall not: land of my people for ever!’ And so singing Legolas went away down the hill.</t>
+  </si>
+  <si>
+    <t>~9 April 3019 [TOY]
+Then the others also departed, and Frodo and Sam went to their beds and slept. And in the morning they rose again in hope and peace; and they spent many days in Ithilien.</t>
+  </si>
+  <si>
+    <t>~ April 3019 [TOY]
+The hobbits wandered here and there visiting again the places that they had passed before; and Sam hoped always in some shadow of the woods or secret glade to catch, maybe, a glimpse of the great Oliphaunt.</t>
+  </si>
+  <si>
+    <t>~25 April 3019 [TOY] But at the last when the month of May was drawing near the Captains of the West set out again; and they went aboard ship with all their men, and they sailed from Cair Andros down Anduin to Osgiliath; and there they remained for one day; and the day after they came to the green fields of the Pelennor and saw again the white towers under tall Mindolluin, the City of the Men of Gondor, last memory of Westernesse, that had passed through the darkness and fire to a new day.</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
+      <selection pane="bottomLeft" activeCell="H186" sqref="H186:I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4222,9 +4250,6 @@
       </c>
     </row>
     <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4317,6 +4342,9 @@
       <c r="L182" s="6"/>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4484,7 +4512,7 @@
       </c>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
-      <c r="L190" s="6" t="s">
+      <c r="L190" s="19" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4514,7 +4542,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -4525,7 +4553,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -4534,49 +4562,49 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
       <c r="D195" s="8"/>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
       <c r="D196" s="8"/>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
       <c r="D197" s="8"/>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
       <c r="D199" s="8"/>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -4584,13 +4612,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>320</v>
       </c>
@@ -4600,107 +4628,122 @@
       <c r="D204" s="8" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H204" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
       <c r="D205" s="8"/>
-    </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H205" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="8"/>
     </row>
-    <row r="209" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
-    </row>
-    <row r="212" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H211" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
-    </row>
-    <row r="222" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
@@ -4721,6 +4764,12 @@
       </c>
       <c r="D227" t="s">
         <v>342</v>
+      </c>
+      <c r="H227" t="s">
+        <v>391</v>
+      </c>
+      <c r="I227" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="228" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1303684-1E4A-49D6-A534-815133B65051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75E7E2-BF75-4426-8438-7B66BFA8E0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1497,186 +1497,186 @@
     <t xml:space="preserve">•	1. Crowning of King Elessar; Elrond and Arwen set out from Rivendell. </t>
   </si>
   <si>
-    <t>25 March 3019 [Faramir/Eowyn]: ~April 3019: Éowyn, do you not love me, or will you not?’ 
+    <t>[Gand/P] ‘He will not wake again,’ said Denethor. ‘Battle is vain. Why should we wish to live longer? Why should we not go to death side by side?’ // ‘Authority is not given to you, Steward of Gondor, to order the hour of your death,’ answered Gandalf. ‘And only the heathen kings, under the domination of the Dark Power, did thus, slaying themselves in pride and despair, murdering their kin to ease their own death.’</t>
+  </si>
+  <si>
+    <t>15 In the early hours the Witch-king breaks the Gates of the City. Denethor burns himself on a pyre. The horns of the Rohirrim are heard at cockcrow. Battle of the Pelennor. Théoden is slain. Aragorn raises the standard of Arwen. Frodo and Samwise escape and begin their journey north along the Morgai. Battle under the trees in Mirkwood; Thranduil repels the forces of Dol Guldur. Second assault on Lórien.  (Also: The Houses of Healing)</t>
+  </si>
+  <si>
+    <t>(15 March) [A/G/L/Gand/P/M/] Merry smiled. ‘Well then,’ he said, ‘if Strider will provide what is needed, I will smoke and think. I had some of Saruman’s best in my pack, but what became of it in the battle, I am sure I don’t know.’ ‘Master Meriadoc,’ said Aragorn, ‘if you think that I have passed through the mountains and the realm of Gondor with fire and sword to bring herbs to a careless soldier who throws away his gear, you are mistaken. If your pack has not been found, then you must send for the herb-master of this House. And he will tell you that he did not know that the herb you desire had any virtues, but that it is called westmansweed by the vulgar, and galenas by the noble, and other names in other tongues more learned, and after adding a few half-forgotten rhymes that he does not understand, he will regretfully inform you that there is none in the House, and he will leave you to reflect on the history of tongues. And so now must I. For I have not slept in such a bed as this, since I rode from Dunharrow, nor eaten since the dark before dawn.’ Merry seized his hand and kissed it. ‘I am frightfully sorry,’ he said. ‘Go at once! Ever since that night at Bree we have been a nuisance to you. But it is the way of my people to use light words at such times and say less than they mean. We fear to say too much. It robs us of the right words when a jest is out of place.’ ‘I know that well, or I would not deal with you in the same way,’ said Aragorn. ‘May the Shire live for ever unwithered!’ And kissing Merry he went out, and Gandalf went with him.</t>
+  </si>
+  <si>
+    <t>16 March "The Last Debate," Gandalf: "Other evils there are that may come; for Sauron is himself but a servant or emissary. Yet it is not our part to master all the tides of the world, but to do what is in us for the succour of those years wherein we are set, uprooting the evil in the fields that we know, so that those who live after may have clean earth to till. What weather they shall have is not ours to rule."</t>
+  </si>
+  <si>
+    <t>16 March "The Last Debate," Prince Imrahil: ‘Then you would have us retreat to Minas Tirith, or Dol Amroth, or to Dunharrow, and there sit like children on sand-castles when the tide is flowing?’ said Imrahil. … ‘Surely,’ he cried, ‘this is the greatest jest in all the history of Gondor: that we should ride with seven thousands, scarce as many as the vanguard of its army in the days of its power, to assail the mountains and the impenetrable gate of the Black Land! So might a child threaten a mail-clad knight with a bow of string and green willow! If the Dark Lord knows so much as you say, Mithrandir, will he not rather smile than fear, and with his little finger crush us like a fly that tries to sting him?’</t>
+  </si>
+  <si>
+    <t>16 March "The Last Debate," Legolas: And now Legolas fell silent, while the others talked, and he looked out against the sun, and as he gazed he saw white sea-birds beating up the River. ‘Look!’ he cried. ‘Gulls! They are flying far inland. A wonder they are to me and a trouble to my heart. Never in all my life had I met them, until we came to Pelargir, and there I heard them crying in the air as we rode to the battle of the ships. Then I stood still, forgetting war in Middle-earth; for their wailing voices spoke to me of the Sea. The Sea! Alas! I have not yet beheld it. But deep in the hearts of all my kindred lies the sea-longing, which it is perilous to stir. Alas! for the gulls. No peace shall I have again under beech or under elm.’ 
+‘Say not so!’ said Gimli. ‘There are countless things still to see in Middle-earth, and great works to do. But if all the fair folk take to the Havens, it will be a duller world for those who are doomed to stay.’ ...  ‘Follow what may, great deeds are not lessened in worth,’ said Legolas. ‘Great deed was the riding of the Paths of the Dead, and great it shall remain, though none be left in Gondor to sing of it in the days that are to come.’</t>
+  </si>
+  <si>
+    <t>16 March "The Last Debate,"  Aragorn: 'But men are better than gates, and no gate will endure against our Enemy if men desert it.’</t>
+  </si>
+  <si>
+    <t>COPYING/FORMATTING</t>
+  </si>
+  <si>
+    <t>[A/L/G/Gand] ‘In one thing you have not changed, dear friend,’ said Aragorn: ‘you still speak in riddles.’ ‘What? In riddles?’ said Gandalf. ‘No! For I was talking aloud to myself. A habit of the old: they choose the wisest person present to speak to; the long explanations needed by the young are wearying.’ He laughed, but the sound now seemed warm and kindly as a gleam of sunshine.</t>
+  </si>
+  <si>
+    <t>[A/L/G/M/P/Gand] The window closed. They waited. Suddenly another voice spoke, low and melodious, its very sound an enchantment. Those who listened unwarily to that voice could seldom report the words that they heard; and if they did, they wondered, for little power remained in them. Mostly they remembered only that it was a delight to hear the voice speaking, all that it said seemed wise and reasonable, and desire awoke in them by swift agreement to seem wise themselves. When others spoke they seemed harsh and uncouth by contrast; and if they gainsaid the voice, anger was kindled in the hearts of those under the spell. For some the spell lasted only while the voice spoke to them, and when it spoke to another they smiled, as men do who see through a juggler’s trick while others gape at it. For many the sound of the voice alone was enough to hold them enthralled; but for those whom it conquered the spell endured when they were far away, and ever they heard that soft voice whispering and urging them. But none were unmoved; none rejected its pleas and its commands without an effort of mind and will, so long as its master had control of it.</t>
+  </si>
+  <si>
+    <t>[A/L/G/M/P/Gand] ‘I know,’ said Pippin. ‘It was a wrench to let it go; but what else could I do?’ ‘Nothing else,’ answered Aragorn. ‘One who cannot cast away a treasure at need is in fetters. You did rightly.’</t>
+  </si>
+  <si>
+    <t>7 Mar 3019 [F/S/G] [Faramir:] 'Go now to rest — but first tell me only, if you will, whither you wish to go, and what to do. For I must watch, and wait, and think. Time passes. In the morning we must each go swiftly on the ways appointed to us.’ Frodo had felt himself trembling as the first shock of fear passed. Now a great weariness came down on him like a cloud. He could dissemble and resist no longer. ‘I was going to find a way into Mordor,’ he said faintly. ‘I was going to Gorgoroth. I must find the Mountain of Fire and cast the thing into the gulf of Doom. Gandalf said so. I do not think I shall ever get there.’</t>
+  </si>
+  <si>
+    <t>7 Mar 3019 [Gand/P] Sleepily [Pippin] tried to reckon the times and stages of their journey, but his memory was drowsy and uncertain. There had been the first ride at terrible speed without a halt, and then in the dawn he had seen a pale gleam of gold, and they had come to the silent town and the great empty house on the hill. And hardly had they reached its shelter when the winged shadow had passed over once again, and men wilted with fear. But Gandalf had spoken soft words to him, and he had slept in a corner, tired but uneasy, dimly aware of comings and goings and of men talking and Gandalf giving orders. And then again riding, riding in the night. This was the second, no, the third night since he had looked in the Stone. And with that hideous memory he woke fully, and shivered, and the noise of the wind became filled with menacing voices.</t>
+  </si>
+  <si>
+    <t>7 Mar 3019 [M/Theoden/Eowyn] Now all roads were running together to the East to meet the coming of war and the onset of the Shadow.</t>
+  </si>
+  <si>
+    <t>8 Mar 3019 [F/S/G] ‘There are locked doors and closed windows in your mind [, Gollum], and dark rooms behind them,’ said Faramir. ‘But in this I judge that you speak the truth. It is well for you. What oath will you swear never to return; and never to lead any living creature hither by word or sign?’</t>
+  </si>
+  <si>
+    <t>8 Mar 3019[A/L/G] And there stood Gimli the Dwarf left all alone. His knees shook, and he was wroth with himself. ‘Here is a thing unheard of!’ he said. ‘An Elf will go underground and a Dwarf dare not!’ With that he plunged in. But it seemed to him that he dragged his feet like lead over the threshold; and at once a blindness came upon him, even upon Gimli Glóin’s son who had walked unafraid in many deep places of the world.</t>
+  </si>
+  <si>
+    <t>8 Mar 3019 [Gand/P] [Pippin] wondered where Frodo was, and if he was already in Mordor, or if he was dead; and he did not know that Frodo from far away looked on that same moon as it set beyond Gondor ere the coming of the day.</t>
+  </si>
+  <si>
+    <t>9 Mar 3019 [M/Theoden/Eowyn] ‘I won’t be left behind, to be called for on return!’ said Merry. And repeating this over and over again to himself he fell asleep at last in his tent.</t>
+  </si>
+  <si>
+    <t>9 Mar 3019 [Gand/P] ‘Yes, the shadow of doom,’ said Beregond. ‘I fear that Minas Tirith shall fall. Night comes. The very warmth of my blood seems stolen away.’ For a time they sat together with bowed heads and did not speak. Then suddenly Pippin looked up and saw that the sun was still shining and the banners still streaming in the breeze. He shook himself. ‘It is passed,’ he said. ‘No, my heart will not yet despair. Gandalf fell and has returned and is with us. We may stand, if only on one leg, or at least be left still upon our knees.’ ‘Rightly said!’ cried Beregond, rising and striding to and fro. ‘Nay, though all things must come utterly to an end in time, Gondor shall not perish yet. Not though the walls be taken by a reckless foe that will build a hill of carrion before them. There are still other fastnesses, and secret ways of escape into the mountains. Hope and memory shall live still in some hidden valley where the grass is green.’</t>
+  </si>
+  <si>
+    <t>9 Mar 3019 [A/L/G] But the next day there came no dawn, and the Grey Company passed on into the darkness of the Storm of Mordor and were lost to mortal sight; but the Dead followed them.</t>
+  </si>
+  <si>
+    <t>9 Mar 3019 [F/S/G] Frodo stirred. And suddenly his heart went out to Faramir. ‘The storm has burst at last,’ he thought. ‘This great array of spears and swords is going to Osgiliath. Will Faramir get across in time? He guessed it, but did he know the hour? And who can now hold the fords when the King of the Nine Riders comes? And other armies will come. I am too late. All is lost. I tarried on the way. All is lost. Even if my errand is performed, no one will ever know. There will be no one I can tell. It will be in vain.’ Overcome with weakness he wept. And still the host of Morgul crossed the bridge. Then at a great distance, as if it came out of memories of the Shire, some sunlit early morning, when the day called and doors were opening, he heard Sam’s voice speaking. ‘Wake up, Mr. Frodo! Wake up!’ Had the voice added: ‘Your breakfast is ready,’ he would hardly have been surprised. Certainly Sam was urgent. ‘Wake up, Mr. Frodo! They’re gone,’ he said.</t>
+  </si>
+  <si>
+    <t>10 Mar 3019 [F/S/G] [10 The Dawnless Day.] ‘I don’t like anything here at all,’ said Frodo, ‘step or stone, breath or bone. Earth, air and water all seem accursed. But so our path is laid.’</t>
+  </si>
+  <si>
+    <t>10 Mar 3019 [Gand/P] [10 The Dawnless Day.] For a moment the eyes of Denethor glowed again as he faced Gandalf, and Pippin felt once more the strain between their wills; but now almost it seemed as if their glances were like blades from eye to eye, flickering as they fenced. Pippin trembled fearing some dreadful stroke. But suddenly Denethor relaxed and grew cold again. He shrugged his shoulders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Mar 3019 [M/Theoden/Eowyn] [10 The Dawnless Day.] ‘But the Sun has not risen, yet,’ said Merry. ‘No, and will not rise today, Master Holbytla. Nor ever again, one would think under this cloud. But time does not stand still, though the Sun be lost. Make haste!’ </t>
+  </si>
+  <si>
+    <t>11 Mar 3019 [Gand/P/Faramir] ‘Much must be risked in war,’ said Denethor. ‘Cair Andros is manned, and no more can be sent so far. But I will not yield the River and the Pelennor unfought – not if there is a captain here who has still the courage to do his lord’s will.’ Then all were silent. But at length Faramir said: ‘I do not oppose your will, sire. Since you are robbed of Boromir, I will go and do what I can in his stead – if you command it.’ ‘I do so,’ said Denethor. ‘Then farewell!’ said Faramir. ‘But if I should return, think better of me!’ ‘That depends on the manner of your return,’ said Denethor.</t>
+  </si>
+  <si>
+    <t>11 Mar 3019 [F/S/G] ‘Sleep!’ said Frodo and sighed, as if out of a desert he had seen a mirage of cool green. ‘Yes, even here I could sleep.’ ‘Sleep then, master! Lay your head in my lap.’ And so Gollum found them hours later, when he returned, crawling and creeping down the path out of the gloom ahead. Sam sat propped against the stone, his head dropping sideways and his breathing heavy. In his lap lay Frodo’s head, drowned deep in sleep; upon his white forehead lay one of Sam’s brown hands, and the other lay softly upon his master’s breast. Peace was in both their faces. Gollum looked at them. A strange expression passed over his lean hungry face. The gleam faded from his eyes, and they went dim and grey, old and tired. A spasm of pain seemed to twist him, and he turned away, peering back up towards the pass, shaking his head, as if engaged in some interior debate. Then he came back, and slowly putting out a trembling hand, very cautiously he touched Frodo’s knee – but almost the touch was a caress. For a fleeting moment, could one of the sleepers have seen him, they would have thought that they beheld an old weary hobbit, shrunken by the years that had carried him far beyond his time, beyond friends and kin, and the fields and streams of youth, an old starved pitiable thing. But at that touch Frodo stirred and cried out softly in his sleep, and immediately Sam was wide awake. The first thing he saw was Gollum – ‘pawing at master,’ as he thought. ‘Hey you!’ he said roughly. ‘What are you up to?’ ‘Nothing, nothing,’ said Gollum softly. ‘Nice Master!’</t>
+  </si>
+  <si>
+    <t>12 Mar 3019 [F/S/G] ‘The star-glass?’ muttered Frodo, as one answering out of sleep, hardly comprehending. ‘Why yes! Why had I forgotten it? A light when all other lights go out! And now indeed light alone can help us.’ Slowly his hand went to his bosom, and slowly he held aloft the Phial of Galadriel. For a moment it glimmered, faint as a rising star struggling in heavy earthward mists, and then as its power waxed, and hope grew in Frodo’s mind, it began to burn, and kindled to a silver flame, a minute heart of dazzling light, as though Eärendil had himself come down from the high sunset paths with the last Silmaril upon his brow. The darkness receded from it, until it seemed to shine in the centre of a globe of airy crystal, and the hand that held it sparkled with white fire.</t>
+  </si>
+  <si>
+    <t>13 Mar 3019 [F/S/G] Even as Sam himself crouched, looking at her, seeing his death in her eyes, a thought came to him, as if some remote voice had spoken, and he fumbled in his breast with his left hand, and found what he sought: cold and hard and solid it seemed to his touch in a phantom world of horror, the Phial of Galadriel. ‘Galadriel!’ he said faintly, and then he heard voices far off but clear: the crying of the Elves as they walked under the stars in the beloved shadows of the Shire, and the music of the Elves as it came through his sleep in the Hall of Fire in the house of Elrond. Gilthoniel A Elbereth! And then his tongue was loosed and his voice cried in a language which he did not know: A Elbereth Gilthoniel o menel palan-diriel, le nallon sí di’nguruthos! A tiro nin, Fanuilos! And with that he staggered to his feet and was Samwise the hobbit, Hamfast’s son, again. ... Sam yelled and brandished Sting, but his little voice was drowned in the tumult. No one heeded him. The great doors slammed to. Boom. The bars of iron fell into place inside. Clang. The gate was shut. Sam hurled himself against the bolted brazen plates and fell senseless to the ground. He was out in the darkness. Frodo was alive but taken by the Enemy.</t>
+  </si>
+  <si>
+    <t>13 Mar 3019 [A/L/G] ‘“Hear now the words of the Heir of Isildur! Your oath is fulfilled. Go back and trouble not the valleys ever again! Depart and be at rest!”</t>
+  </si>
+  <si>
+    <t>13 Mar 3019 [Gand/P] The next day, though the darkness had reached its full and grew no deeper, it weighed heavier on men’s hearts, and a great dread was on them. Ill news came soon again. The passage of Anduin was won by the Enemy. Faramir was retreating to the wall of the Pelennor, rallying his men to the Causeway Forts; but he was ten times outnumbered.</t>
+  </si>
+  <si>
+    <t>13 Mar 3019  [M/Theoden/Eowyn] [Ghân-buri-Ghân]’s flat face and dark eyes showed nothing, but his voice was sullen with displeasure. ‘Wild Men are wild, free, but not children,’ he answered. ‘I am great headman, Ghân-buri-Ghân. I count many things: stars in sky, leaves on trees, men in the dark. You have a score of scores counted ten times and five. They have more. Big fight, and who will win? And many more walk round walls of Stone-houses.’</t>
+  </si>
+  <si>
+    <t>18 Mar 3019 [F/S/G] ‘There now!’ he laughed, flicking at their legs. ‘Where there’s a whip there’s a will, my slugs. Hold up! I’d give you a nice freshener now, only you’ll get as much lash as your skins will carry when you come in late to your camp. Do you good. Don’t you know we’re at war?’ They had gone some miles, and the road was at last running down a long slope into the plain, when Frodo’s strength began to give out and his will wavered.</t>
+  </si>
+  <si>
+    <t>18 Mar 3019 [A/L/G/Gand/P] Then Aragorn set trumpeters at each of the four roads that ran into the ring of trees, and they blew a great fanfare, and the heralds cried aloud: ‘The Lords of Gondor have returned and all this land that is theirs they take back.’ The hideous orc-head that was set upon the carven figure was cast down and broken in pieces, and the old king’s head was raised and set in its place once more, still crowned with white and golden flowers; and men laboured to wash and pare away all the foul scrawls that orcs had put upon the stone.</t>
+  </si>
+  <si>
+    <t>19 Mar 3019 [F/S/G] They slept a little in uneasy fits; for their sweat grew chill on them, and the hard stones bit them, and they shivered. Out of the north from the Black Gate through Cirith Gorgor there flowed whispering along the ground a thin cold air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Mar 3019 [F/S/G] So the desperate journey went on, as the Ring went south and the banners of the kings rode north. For the hobbits each day, each mile, was more bitter than the one before, as their strength lessened and the land became more evil. They met no enemies by day. At times by night, as they cowered or drowsed uneasily in some hiding beside the road, they heard cries and the noise of many feet or the swift passing of some cruelly ridden steed. But far worse than all such perils was the ever-approaching threat that beat upon them as they went: the dreadful menace of the Power that waited, brooding in deep thought and sleepless malice behind the dark veil about its Throne. Nearer and nearer it drew, looming blacker, like the oncoming of a wall of night at the last end of the world. </t>
+  </si>
+  <si>
+    <t>20 Mar 3019 [A/L/G/Gand/P] Ever and anon Gandalf let blow the trumpets, and the heralds would cry: ‘The Lords of Gondor are come! Let all leave this land or yield them up!’ But Imrahil said: ‘Say not The Lords of Gondor. Say The King Elessar. For that is true, even though he has not yet sat upon the throne; and it will give the Enemy more thought, if the heralds use that name.’ And thereafter thrice a day the heralds proclaimed the coming of the King Elessar. But none answered the challenge.</t>
+  </si>
+  <si>
+    <t>21 Mar 3019 [F/S/G] Anxiously Sam had noted how his master’s left hand would often be raised as if to ward off a blow, or to screen his shrinking eyes from a dreadful Eye that sought to look in them. And sometimes his right hand would creep to his breast, clutching, and then slowly, as the will recovered mastery, it would be withdrawn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Mar 3019 [A/L/G/Gand/P] And from that evening onward the Nazgûl came and followed every move of the army. They still flew high and out of sight of all save Legolas, and yet their presence could be felt, as a deepening of shadow and a dimming of the sun; and though the Ringwraiths did not yet stoop low upon their foes and were silent, uttering no cry, the dread of them could not be shaken off.
+</t>
+  </si>
+  <si>
+    <t>22 Mar 3019 [F/S/G] As for himself, though weary and under a shadow of fear, he still had some strength left. The lembas had a virtue without which they would long ago have lain down to die. It did not satisfy desire, and at times Sam’s mind was filled with the memories of food, and the longing for simple bread and meats. And yet this waybread of the Elves had a potency that increased as travellers relied on it alone and did not mingle it with other foods. It fed the will, and it gave strength to endure, and to master sinew and limb beyond the measure of mortal kind.</t>
+  </si>
+  <si>
+    <t>22 Mar 3019 [A/L/G/Gand/P] So time and the hopeless journey wore away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Mar 3019 [A/L/G/Gand/P] Aragorn looked at them, and there was pity in his eyes rather than wrath; for these were young men from Rohan, from Westfold far away, or husbandmen from Lossarnach, and to them Mordor had been from childhood a name of evil, and yet unreal, a legend that had no part in their simple life; and now they walked like men in a hideous dream made true, and they understood not this war nor why fate should lead them to such a pass. 
+‘Go!’ said Aragorn. ‘But keep what honour you may, and do not run! And there is a task which you may attempt and so be not wholly shamed. Take your way south-west till you come to Cair Andros, and if that is still held by enemies, as I think, then re-take it, if you can; and hold it to the last in defence of Gondor and Rohan!’ 
+Then some being shamed by his mercy overcame their fear and went on, and the others took new hope, hearing of a manful deed within their measure that they could turn to, and they departed. </t>
+  </si>
+  <si>
+    <t>23 Mar 3019 [F/S/G] Sam did likewise, and put aside his orc-gear; and he took out all the things in his pack. Somehow each of them had become dear to him, if only because he had borne them so far with so much toil. Hardest of all it was to part with his cooking-gear. Tears welled in his eyes at the thought of casting it away. ‘Do you remember that bit of rabbit, Mr. Frodo?’ he said. ‘And our place under the warm bank in Captain Faramir’s country, the day I saw an oliphaunt?’ ‘No, I am afraid not, Sam,’ said Frodo. ‘At least, I know that such things happened, but I cannot see them. No taste of food, no feel of water, no sound of wind, no memory of tree or grass or flower, no image of moon or star are left to me. I am naked in the dark, Sam, and there is no veil between me and the wheel of fire. I begin to see it even with my waking eyes, and all else fades.’ .... ‘There you are!’ came the answer [to Sam]. ‘It’s all quite useless. He said so himself. You are the fool, going on hoping and toiling. You could have lain down and gone to sleep together days ago, if you hadn’t been so dogged. But you’ll die just the same, or worse. You might just as well lie down now and give it up. You’ll never get to the top anyway.’</t>
+  </si>
+  <si>
+    <t>24 Mar 3019 [F/S/G]With a gasp Frodo cast himself on the ground. Sam sat by him. To his surprise he felt tired but lighter, and his head seemed clear again. No more debates disturbed his mind. He knew all the arguments of despair and would not listen to them. His will was set, and only death would break it. He felt no longer either desire or need of sleep, but rather of watchfulness. He knew that all the hazards and perils were now drawing together to a point: the next day would be a day of doom, the day of final effort or disaster, the last gasp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Mar 3019 [A/L/G/Gand/P] At nightfall of the fifth day of the march from Morgul Vale they made their last camp, and set fires about it of such dead wood and heath as they could find. They passed the hours of night in wakefulness and they were aware of many things half-seen that walked and prowled all about them, and they heard the howling of wolves. The wind had died and all the air seemed still. They could see little, for though it was cloudless and the waxing moon was four nights old, there were smokes and fumes that rose out of the earth and the white crescent was shrouded in the mists of Mordor. </t>
+  </si>
+  <si>
+    <t>25 Mar 3019 [A/L/G/Gand/P] Aragorn said naught in answer, but he took the other’s eye and held it, and for a moment they strove thus; but soon, though Aragorn did not stir nor move hand to weapon, the other quailed and gave back as if menaced with a blow. ‘I am a herald and ambassador, and may not be assailed!’ he cried.</t>
+  </si>
+  <si>
+    <t>25 Mar 3019 [F/S/G] And far away, as Frodo put on the Ring and claimed it for his own, even in Sammath Naur the very heart of his realm, the Power in Barad-dûr was shaken, and the Tower trembled from its foundations to its proud and bitter crown. The Dark Lord was suddenly aware of him, and his Eye piercing all shadows looked across the plain to the door that he had made; and the magnitude of his own folly was revealed to him in a blinding flash, and all the devices of his enemies were at last laid bare. Then his wrath blazed in consuming flame, but his fear rose like a vast black smoke to choke him. For he knew his deadly peril and the thread upon which his doom now hung.</t>
+  </si>
+  <si>
+    <t>25 Mar 3019 [A/L/G/Gand/P] Blackness and stench and crushing pain came upon Pippin, and his mind fell away into a great darkness. ‘So it ends as I guessed it would,’ his thought said, even as it fluttered away; and it laughed a little within him ere it fled, almost gay it seemed to be casting off at last all doubt and care and fear. And then even as it winged away into forgetfulness it heard voices, and they seemed to be crying in some forgotten world far above: ‘The Eagles are coming! The Eagles are coming!’ For one moment more Pippin’s thought hovered. ‘Bilbo!’ it said. ‘But no! That came in his tale, long long ago. This is my tale, and it is ended now. Good-bye!’ And his thought fled far away and his eyes saw no more.</t>
+  </si>
+  <si>
+    <t>1 May 3019 [TOY] [All] Faramir met Aragorn in the midst of those there assembled, and he knelt, and said: ‘The last Steward of Gondor begs leave to surrender his office.’ And he held out a white rod; but Aragorn took the rod and gave it back, saying: ‘That office is not ended, and it shall be thine and thy heirs’ as long as my line shall last. Do now thy office!’ Then Faramir stood up and spoke in a clear voice: ‘Men of Gondor, hear now the Steward of this Realm! Behold! one has come to claim the kingship again at last. Here is Aragorn son of Arathorn, chieftain of the Dúnedain of Arnor, Captain of the Host of the West, bearer of the Star of the North, wielder of the Sword Reforged, victorious in battle, whose hands bring healing, the Elfstone, Elessar of the line of Valandil, Isildur’s son, Elendil’s son of Númenor. Shall he be king and enter into the City and dwell there?’ And all the host and all the people cried yea with one voice.</t>
+  </si>
+  <si>
+    <t>1 May 3019 [TOY] [All] Then Aragorn took the crown and held it up and said: Et Eärello Endorenna utúlien. Sinome maruvan ar Hildinyar tenn’ Ambar-metta! And those were the words that Elendil spoke when he came up out of the Sea on the wings of the wind: ‘Out of the Great Sea to Middle-earth I am come. In this place will I abide, and my heirs, unto the ending of the world.’</t>
+  </si>
+  <si>
+    <t>8 Apr 3019 [A/G/L/F/S/M/P/Gand, day]: At last he gasped: ‘Gandalf! I thought you were dead! But then I thought I was dead myself. Is everything sad going to come untrue? What’s happened to the world?’ 
+‘A great Shadow has departed,’ said Gandalf, and then he laughed, and the sound was like music, or like water in a parched land; and as he listened the thought came to Sam that he had not heard laughter, the pure sound of merriment, for days upon days without count. 
+It fell upon his ears like the echo of all the joys he had ever known. But he himself burst into tears. Then, as a sweet rain will pass down a wind of spring and the sun will shine out the clearer, his tears ceased, and his laughter welled up, and laughing he sprang from his bed.
+. . .
+And all the host laughed and wept, and in the midst of their merriment and tears the clear voice of the minstrel rose like silver and gold, and all men were hushed. And he sang to them, now in the elven-tongue, now in the speech of the West, until their hearts, wounded with sweet words, overflowed, and their joy was like swords, and they passed in thought out to regions where pain and delight flow together and tears are the very wine of blessedness.</t>
+  </si>
+  <si>
+    <t>8 Apr 3019 [A/G/L/F/S/M/P/Gand, night]: [The Hobbits and Gimli to sleep...]
+‘And I,’ said Legolas, ‘shall walk in the woods of this fair land, which is rest enough. In days to come, if my Elven-lord allows, some of our folk shall remove hither; and when we come it shall be blessed, for a while. For a while: a month, a life, a hundred years of Men. But Anduin is near, and Anduin leads down to the Sea. To the Sea! To the Sea, to the Sea! The white gulls are crying, The wind is blowing, and the white foam is flying. West, west away, the round sun is falling. Grey ship, grey ship, do you hear them calling, The voices of my people that have gone before me? I will leave, I will leave the woods that bore me; For our days are ending and our years failing. I will pass the wide waters lonely sailing. Long are the waves on the Last Shore falling, Sweet are the voices in the Lost Isle calling, In Eressëa, in Elvenhome that no man can discover, Where the leaves fall not: land of my people for ever!’ And so singing Legolas went away down the hill.</t>
+  </si>
+  <si>
+    <t>~9 April 3019 [TOY]
+Then the others also departed, and Frodo and Sam went to their beds and slept. And in the morning they rose again in hope and peace; and they spent many days in Ithilien.</t>
+  </si>
+  <si>
+    <t>~ April 3019 [TOY]
+The hobbits wandered here and there visiting again the places that they had passed before; and Sam hoped always in some shadow of the woods or secret glade to catch, maybe, a glimpse of the great Oliphaunt.</t>
+  </si>
+  <si>
+    <t>~25 April 3019 [TOY] But at the last when the month of May was drawing near the Captains of the West set out again; and they went aboard ship with all their men, and they sailed from Cair Andros down Anduin to Osgiliath; and there they remained for one day; and the day after they came to the green fields of the Pelennor and saw again the white towers under tall Mindolluin, the City of the Men of Gondor, last memory of Westernesse, that had passed through the darkness and fire to a new day.</t>
+  </si>
+  <si>
+    <t>[Faramir/Eowyn]: ~April 3019: Éowyn, do you not love me, or will you not?’ 
 ‘I wished to be loved by another,’ she answered. ‘But I desire no man’s pity.’ 
 ‘That I know,’ he said. ‘You desired to have the love of the Lord Aragorn. Because he was high and puissant, and you wished to have renown and glory and to be lifted far above the mean things that crawl on the earth. And as a great captain may to a young soldier he seemed to you admirable. For so he is, a lord among men, the greatest that now is. But when he gave you only understanding and pity, then you desired to have nothing, unless a brave death in battle. Look at me, Éowyn!’ 
 And Éowyn looked at Faramir long and steadily; and Faramir said: ‘Do not scorn pity that is the gift of a gentle heart, Éowyn! But I do not offer you my pity. For you are a lady high and valiant and have yourself won renown that shall not be forgotten; and you are a lady beautiful, I deem, beyond even the words of the elven-tongue to tell. And I love you. Once I pitied your sorrow. But now, were you sorrowless, without fear or any lack, were you the blissful Queen of Gondor, still I would love you. Éowyn, do you not love me?’ 
 Then the heart of Éowyn changed, or else at last she understood it. And suddenly her winter passed, and the sun shone on her. 
 ‘I stand in Minas Anor, the Tower of the Sun,’ she said; ‘and behold! the Shadow has departed! I will be a shieldmaiden no longer, nor vie with the great Riders, nor take joy only in the songs of slaying. I will be a healer, and love all things that grow and are not barren.’ And again she looked at Faramir. ‘No longer do I desire to be a queen,’ she said. 
 Then Faramir laughed merrily. ‘That is well,’ he said; ‘for I am not a king. Yet I will wed with the White Lady of Rohan, if it be her will. And if she will, then let us cross the River and in happier days let us dwell in fair Ithilien and there make a garden. All things will grow with joy there, if the White Lady comes.’</t>
-  </si>
-  <si>
-    <t>[Gand/P] ‘He will not wake again,’ said Denethor. ‘Battle is vain. Why should we wish to live longer? Why should we not go to death side by side?’ // ‘Authority is not given to you, Steward of Gondor, to order the hour of your death,’ answered Gandalf. ‘And only the heathen kings, under the domination of the Dark Power, did thus, slaying themselves in pride and despair, murdering their kin to ease their own death.’</t>
-  </si>
-  <si>
-    <t>15 In the early hours the Witch-king breaks the Gates of the City. Denethor burns himself on a pyre. The horns of the Rohirrim are heard at cockcrow. Battle of the Pelennor. Théoden is slain. Aragorn raises the standard of Arwen. Frodo and Samwise escape and begin their journey north along the Morgai. Battle under the trees in Mirkwood; Thranduil repels the forces of Dol Guldur. Second assault on Lórien.  (Also: The Houses of Healing)</t>
-  </si>
-  <si>
-    <t>(15 March) [A/G/L/Gand/P/M/] Merry smiled. ‘Well then,’ he said, ‘if Strider will provide what is needed, I will smoke and think. I had some of Saruman’s best in my pack, but what became of it in the battle, I am sure I don’t know.’ ‘Master Meriadoc,’ said Aragorn, ‘if you think that I have passed through the mountains and the realm of Gondor with fire and sword to bring herbs to a careless soldier who throws away his gear, you are mistaken. If your pack has not been found, then you must send for the herb-master of this House. And he will tell you that he did not know that the herb you desire had any virtues, but that it is called westmansweed by the vulgar, and galenas by the noble, and other names in other tongues more learned, and after adding a few half-forgotten rhymes that he does not understand, he will regretfully inform you that there is none in the House, and he will leave you to reflect on the history of tongues. And so now must I. For I have not slept in such a bed as this, since I rode from Dunharrow, nor eaten since the dark before dawn.’ Merry seized his hand and kissed it. ‘I am frightfully sorry,’ he said. ‘Go at once! Ever since that night at Bree we have been a nuisance to you. But it is the way of my people to use light words at such times and say less than they mean. We fear to say too much. It robs us of the right words when a jest is out of place.’ ‘I know that well, or I would not deal with you in the same way,’ said Aragorn. ‘May the Shire live for ever unwithered!’ And kissing Merry he went out, and Gandalf went with him.</t>
-  </si>
-  <si>
-    <t>16 March "The Last Debate," Gandalf: "Other evils there are that may come; for Sauron is himself but a servant or emissary. Yet it is not our part to master all the tides of the world, but to do what is in us for the succour of those years wherein we are set, uprooting the evil in the fields that we know, so that those who live after may have clean earth to till. What weather they shall have is not ours to rule."</t>
-  </si>
-  <si>
-    <t>16 March "The Last Debate," Prince Imrahil: ‘Then you would have us retreat to Minas Tirith, or Dol Amroth, or to Dunharrow, and there sit like children on sand-castles when the tide is flowing?’ said Imrahil. … ‘Surely,’ he cried, ‘this is the greatest jest in all the history of Gondor: that we should ride with seven thousands, scarce as many as the vanguard of its army in the days of its power, to assail the mountains and the impenetrable gate of the Black Land! So might a child threaten a mail-clad knight with a bow of string and green willow! If the Dark Lord knows so much as you say, Mithrandir, will he not rather smile than fear, and with his little finger crush us like a fly that tries to sting him?’</t>
-  </si>
-  <si>
-    <t>16 March "The Last Debate," Legolas: And now Legolas fell silent, while the others talked, and he looked out against the sun, and as he gazed he saw white sea-birds beating up the River. ‘Look!’ he cried. ‘Gulls! They are flying far inland. A wonder they are to me and a trouble to my heart. Never in all my life had I met them, until we came to Pelargir, and there I heard them crying in the air as we rode to the battle of the ships. Then I stood still, forgetting war in Middle-earth; for their wailing voices spoke to me of the Sea. The Sea! Alas! I have not yet beheld it. But deep in the hearts of all my kindred lies the sea-longing, which it is perilous to stir. Alas! for the gulls. No peace shall I have again under beech or under elm.’ 
-‘Say not so!’ said Gimli. ‘There are countless things still to see in Middle-earth, and great works to do. But if all the fair folk take to the Havens, it will be a duller world for those who are doomed to stay.’ ...  ‘Follow what may, great deeds are not lessened in worth,’ said Legolas. ‘Great deed was the riding of the Paths of the Dead, and great it shall remain, though none be left in Gondor to sing of it in the days that are to come.’</t>
-  </si>
-  <si>
-    <t>16 March "The Last Debate,"  Aragorn: 'But men are better than gates, and no gate will endure against our Enemy if men desert it.’</t>
-  </si>
-  <si>
-    <t>COPYING/FORMATTING</t>
-  </si>
-  <si>
-    <t>[A/L/G/Gand] ‘In one thing you have not changed, dear friend,’ said Aragorn: ‘you still speak in riddles.’ ‘What? In riddles?’ said Gandalf. ‘No! For I was talking aloud to myself. A habit of the old: they choose the wisest person present to speak to; the long explanations needed by the young are wearying.’ He laughed, but the sound now seemed warm and kindly as a gleam of sunshine.</t>
-  </si>
-  <si>
-    <t>[A/L/G/M/P/Gand] The window closed. They waited. Suddenly another voice spoke, low and melodious, its very sound an enchantment. Those who listened unwarily to that voice could seldom report the words that they heard; and if they did, they wondered, for little power remained in them. Mostly they remembered only that it was a delight to hear the voice speaking, all that it said seemed wise and reasonable, and desire awoke in them by swift agreement to seem wise themselves. When others spoke they seemed harsh and uncouth by contrast; and if they gainsaid the voice, anger was kindled in the hearts of those under the spell. For some the spell lasted only while the voice spoke to them, and when it spoke to another they smiled, as men do who see through a juggler’s trick while others gape at it. For many the sound of the voice alone was enough to hold them enthralled; but for those whom it conquered the spell endured when they were far away, and ever they heard that soft voice whispering and urging them. But none were unmoved; none rejected its pleas and its commands without an effort of mind and will, so long as its master had control of it.</t>
-  </si>
-  <si>
-    <t>[A/L/G/M/P/Gand] ‘I know,’ said Pippin. ‘It was a wrench to let it go; but what else could I do?’ ‘Nothing else,’ answered Aragorn. ‘One who cannot cast away a treasure at need is in fetters. You did rightly.’</t>
-  </si>
-  <si>
-    <t>7 Mar 3019 [F/S/G] [Faramir:] 'Go now to rest — but first tell me only, if you will, whither you wish to go, and what to do. For I must watch, and wait, and think. Time passes. In the morning we must each go swiftly on the ways appointed to us.’ Frodo had felt himself trembling as the first shock of fear passed. Now a great weariness came down on him like a cloud. He could dissemble and resist no longer. ‘I was going to find a way into Mordor,’ he said faintly. ‘I was going to Gorgoroth. I must find the Mountain of Fire and cast the thing into the gulf of Doom. Gandalf said so. I do not think I shall ever get there.’</t>
-  </si>
-  <si>
-    <t>7 Mar 3019 [Gand/P] Sleepily [Pippin] tried to reckon the times and stages of their journey, but his memory was drowsy and uncertain. There had been the first ride at terrible speed without a halt, and then in the dawn he had seen a pale gleam of gold, and they had come to the silent town and the great empty house on the hill. And hardly had they reached its shelter when the winged shadow had passed over once again, and men wilted with fear. But Gandalf had spoken soft words to him, and he had slept in a corner, tired but uneasy, dimly aware of comings and goings and of men talking and Gandalf giving orders. And then again riding, riding in the night. This was the second, no, the third night since he had looked in the Stone. And with that hideous memory he woke fully, and shivered, and the noise of the wind became filled with menacing voices.</t>
-  </si>
-  <si>
-    <t>7 Mar 3019 [M/Theoden/Eowyn] Now all roads were running together to the East to meet the coming of war and the onset of the Shadow.</t>
-  </si>
-  <si>
-    <t>8 Mar 3019 [F/S/G] ‘There are locked doors and closed windows in your mind [, Gollum], and dark rooms behind them,’ said Faramir. ‘But in this I judge that you speak the truth. It is well for you. What oath will you swear never to return; and never to lead any living creature hither by word or sign?’</t>
-  </si>
-  <si>
-    <t>8 Mar 3019[A/L/G] And there stood Gimli the Dwarf left all alone. His knees shook, and he was wroth with himself. ‘Here is a thing unheard of!’ he said. ‘An Elf will go underground and a Dwarf dare not!’ With that he plunged in. But it seemed to him that he dragged his feet like lead over the threshold; and at once a blindness came upon him, even upon Gimli Glóin’s son who had walked unafraid in many deep places of the world.</t>
-  </si>
-  <si>
-    <t>8 Mar 3019 [Gand/P] [Pippin] wondered where Frodo was, and if he was already in Mordor, or if he was dead; and he did not know that Frodo from far away looked on that same moon as it set beyond Gondor ere the coming of the day.</t>
-  </si>
-  <si>
-    <t>9 Mar 3019 [M/Theoden/Eowyn] ‘I won’t be left behind, to be called for on return!’ said Merry. And repeating this over and over again to himself he fell asleep at last in his tent.</t>
-  </si>
-  <si>
-    <t>9 Mar 3019 [Gand/P] ‘Yes, the shadow of doom,’ said Beregond. ‘I fear that Minas Tirith shall fall. Night comes. The very warmth of my blood seems stolen away.’ For a time they sat together with bowed heads and did not speak. Then suddenly Pippin looked up and saw that the sun was still shining and the banners still streaming in the breeze. He shook himself. ‘It is passed,’ he said. ‘No, my heart will not yet despair. Gandalf fell and has returned and is with us. We may stand, if only on one leg, or at least be left still upon our knees.’ ‘Rightly said!’ cried Beregond, rising and striding to and fro. ‘Nay, though all things must come utterly to an end in time, Gondor shall not perish yet. Not though the walls be taken by a reckless foe that will build a hill of carrion before them. There are still other fastnesses, and secret ways of escape into the mountains. Hope and memory shall live still in some hidden valley where the grass is green.’</t>
-  </si>
-  <si>
-    <t>9 Mar 3019 [A/L/G] But the next day there came no dawn, and the Grey Company passed on into the darkness of the Storm of Mordor and were lost to mortal sight; but the Dead followed them.</t>
-  </si>
-  <si>
-    <t>9 Mar 3019 [F/S/G] Frodo stirred. And suddenly his heart went out to Faramir. ‘The storm has burst at last,’ he thought. ‘This great array of spears and swords is going to Osgiliath. Will Faramir get across in time? He guessed it, but did he know the hour? And who can now hold the fords when the King of the Nine Riders comes? And other armies will come. I am too late. All is lost. I tarried on the way. All is lost. Even if my errand is performed, no one will ever know. There will be no one I can tell. It will be in vain.’ Overcome with weakness he wept. And still the host of Morgul crossed the bridge. Then at a great distance, as if it came out of memories of the Shire, some sunlit early morning, when the day called and doors were opening, he heard Sam’s voice speaking. ‘Wake up, Mr. Frodo! Wake up!’ Had the voice added: ‘Your breakfast is ready,’ he would hardly have been surprised. Certainly Sam was urgent. ‘Wake up, Mr. Frodo! They’re gone,’ he said.</t>
-  </si>
-  <si>
-    <t>10 Mar 3019 [F/S/G] [10 The Dawnless Day.] ‘I don’t like anything here at all,’ said Frodo, ‘step or stone, breath or bone. Earth, air and water all seem accursed. But so our path is laid.’</t>
-  </si>
-  <si>
-    <t>10 Mar 3019 [Gand/P] [10 The Dawnless Day.] For a moment the eyes of Denethor glowed again as he faced Gandalf, and Pippin felt once more the strain between their wills; but now almost it seemed as if their glances were like blades from eye to eye, flickering as they fenced. Pippin trembled fearing some dreadful stroke. But suddenly Denethor relaxed and grew cold again. He shrugged his shoulders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Mar 3019 [M/Theoden/Eowyn] [10 The Dawnless Day.] ‘But the Sun has not risen, yet,’ said Merry. ‘No, and will not rise today, Master Holbytla. Nor ever again, one would think under this cloud. But time does not stand still, though the Sun be lost. Make haste!’ </t>
-  </si>
-  <si>
-    <t>11 Mar 3019 [Gand/P/Faramir] ‘Much must be risked in war,’ said Denethor. ‘Cair Andros is manned, and no more can be sent so far. But I will not yield the River and the Pelennor unfought – not if there is a captain here who has still the courage to do his lord’s will.’ Then all were silent. But at length Faramir said: ‘I do not oppose your will, sire. Since you are robbed of Boromir, I will go and do what I can in his stead – if you command it.’ ‘I do so,’ said Denethor. ‘Then farewell!’ said Faramir. ‘But if I should return, think better of me!’ ‘That depends on the manner of your return,’ said Denethor.</t>
-  </si>
-  <si>
-    <t>11 Mar 3019 [F/S/G] ‘Sleep!’ said Frodo and sighed, as if out of a desert he had seen a mirage of cool green. ‘Yes, even here I could sleep.’ ‘Sleep then, master! Lay your head in my lap.’ And so Gollum found them hours later, when he returned, crawling and creeping down the path out of the gloom ahead. Sam sat propped against the stone, his head dropping sideways and his breathing heavy. In his lap lay Frodo’s head, drowned deep in sleep; upon his white forehead lay one of Sam’s brown hands, and the other lay softly upon his master’s breast. Peace was in both their faces. Gollum looked at them. A strange expression passed over his lean hungry face. The gleam faded from his eyes, and they went dim and grey, old and tired. A spasm of pain seemed to twist him, and he turned away, peering back up towards the pass, shaking his head, as if engaged in some interior debate. Then he came back, and slowly putting out a trembling hand, very cautiously he touched Frodo’s knee – but almost the touch was a caress. For a fleeting moment, could one of the sleepers have seen him, they would have thought that they beheld an old weary hobbit, shrunken by the years that had carried him far beyond his time, beyond friends and kin, and the fields and streams of youth, an old starved pitiable thing. But at that touch Frodo stirred and cried out softly in his sleep, and immediately Sam was wide awake. The first thing he saw was Gollum – ‘pawing at master,’ as he thought. ‘Hey you!’ he said roughly. ‘What are you up to?’ ‘Nothing, nothing,’ said Gollum softly. ‘Nice Master!’</t>
-  </si>
-  <si>
-    <t>12 Mar 3019 [F/S/G] ‘The star-glass?’ muttered Frodo, as one answering out of sleep, hardly comprehending. ‘Why yes! Why had I forgotten it? A light when all other lights go out! And now indeed light alone can help us.’ Slowly his hand went to his bosom, and slowly he held aloft the Phial of Galadriel. For a moment it glimmered, faint as a rising star struggling in heavy earthward mists, and then as its power waxed, and hope grew in Frodo’s mind, it began to burn, and kindled to a silver flame, a minute heart of dazzling light, as though Eärendil had himself come down from the high sunset paths with the last Silmaril upon his brow. The darkness receded from it, until it seemed to shine in the centre of a globe of airy crystal, and the hand that held it sparkled with white fire.</t>
-  </si>
-  <si>
-    <t>13 Mar 3019 [F/S/G] Even as Sam himself crouched, looking at her, seeing his death in her eyes, a thought came to him, as if some remote voice had spoken, and he fumbled in his breast with his left hand, and found what he sought: cold and hard and solid it seemed to his touch in a phantom world of horror, the Phial of Galadriel. ‘Galadriel!’ he said faintly, and then he heard voices far off but clear: the crying of the Elves as they walked under the stars in the beloved shadows of the Shire, and the music of the Elves as it came through his sleep in the Hall of Fire in the house of Elrond. Gilthoniel A Elbereth! And then his tongue was loosed and his voice cried in a language which he did not know: A Elbereth Gilthoniel o menel palan-diriel, le nallon sí di’nguruthos! A tiro nin, Fanuilos! And with that he staggered to his feet and was Samwise the hobbit, Hamfast’s son, again. ... Sam yelled and brandished Sting, but his little voice was drowned in the tumult. No one heeded him. The great doors slammed to. Boom. The bars of iron fell into place inside. Clang. The gate was shut. Sam hurled himself against the bolted brazen plates and fell senseless to the ground. He was out in the darkness. Frodo was alive but taken by the Enemy.</t>
-  </si>
-  <si>
-    <t>13 Mar 3019 [A/L/G] ‘“Hear now the words of the Heir of Isildur! Your oath is fulfilled. Go back and trouble not the valleys ever again! Depart and be at rest!”</t>
-  </si>
-  <si>
-    <t>13 Mar 3019 [Gand/P] The next day, though the darkness had reached its full and grew no deeper, it weighed heavier on men’s hearts, and a great dread was on them. Ill news came soon again. The passage of Anduin was won by the Enemy. Faramir was retreating to the wall of the Pelennor, rallying his men to the Causeway Forts; but he was ten times outnumbered.</t>
-  </si>
-  <si>
-    <t>13 Mar 3019  [M/Theoden/Eowyn] [Ghân-buri-Ghân]’s flat face and dark eyes showed nothing, but his voice was sullen with displeasure. ‘Wild Men are wild, free, but not children,’ he answered. ‘I am great headman, Ghân-buri-Ghân. I count many things: stars in sky, leaves on trees, men in the dark. You have a score of scores counted ten times and five. They have more. Big fight, and who will win? And many more walk round walls of Stone-houses.’</t>
-  </si>
-  <si>
-    <t>18 Mar 3019 [F/S/G] ‘There now!’ he laughed, flicking at their legs. ‘Where there’s a whip there’s a will, my slugs. Hold up! I’d give you a nice freshener now, only you’ll get as much lash as your skins will carry when you come in late to your camp. Do you good. Don’t you know we’re at war?’ They had gone some miles, and the road was at last running down a long slope into the plain, when Frodo’s strength began to give out and his will wavered.</t>
-  </si>
-  <si>
-    <t>18 Mar 3019 [A/L/G/Gand/P] Then Aragorn set trumpeters at each of the four roads that ran into the ring of trees, and they blew a great fanfare, and the heralds cried aloud: ‘The Lords of Gondor have returned and all this land that is theirs they take back.’ The hideous orc-head that was set upon the carven figure was cast down and broken in pieces, and the old king’s head was raised and set in its place once more, still crowned with white and golden flowers; and men laboured to wash and pare away all the foul scrawls that orcs had put upon the stone.</t>
-  </si>
-  <si>
-    <t>19 Mar 3019 [F/S/G] They slept a little in uneasy fits; for their sweat grew chill on them, and the hard stones bit them, and they shivered. Out of the north from the Black Gate through Cirith Gorgor there flowed whispering along the ground a thin cold air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 Mar 3019 [F/S/G] So the desperate journey went on, as the Ring went south and the banners of the kings rode north. For the hobbits each day, each mile, was more bitter than the one before, as their strength lessened and the land became more evil. They met no enemies by day. At times by night, as they cowered or drowsed uneasily in some hiding beside the road, they heard cries and the noise of many feet or the swift passing of some cruelly ridden steed. But far worse than all such perils was the ever-approaching threat that beat upon them as they went: the dreadful menace of the Power that waited, brooding in deep thought and sleepless malice behind the dark veil about its Throne. Nearer and nearer it drew, looming blacker, like the oncoming of a wall of night at the last end of the world. </t>
-  </si>
-  <si>
-    <t>20 Mar 3019 [A/L/G/Gand/P] Ever and anon Gandalf let blow the trumpets, and the heralds would cry: ‘The Lords of Gondor are come! Let all leave this land or yield them up!’ But Imrahil said: ‘Say not The Lords of Gondor. Say The King Elessar. For that is true, even though he has not yet sat upon the throne; and it will give the Enemy more thought, if the heralds use that name.’ And thereafter thrice a day the heralds proclaimed the coming of the King Elessar. But none answered the challenge.</t>
-  </si>
-  <si>
-    <t>21 Mar 3019 [F/S/G] Anxiously Sam had noted how his master’s left hand would often be raised as if to ward off a blow, or to screen his shrinking eyes from a dreadful Eye that sought to look in them. And sometimes his right hand would creep to his breast, clutching, and then slowly, as the will recovered mastery, it would be withdrawn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 Mar 3019 [A/L/G/Gand/P] And from that evening onward the Nazgûl came and followed every move of the army. They still flew high and out of sight of all save Legolas, and yet their presence could be felt, as a deepening of shadow and a dimming of the sun; and though the Ringwraiths did not yet stoop low upon their foes and were silent, uttering no cry, the dread of them could not be shaken off.
-</t>
-  </si>
-  <si>
-    <t>22 Mar 3019 [F/S/G] As for himself, though weary and under a shadow of fear, he still had some strength left. The lembas had a virtue without which they would long ago have lain down to die. It did not satisfy desire, and at times Sam’s mind was filled with the memories of food, and the longing for simple bread and meats. And yet this waybread of the Elves had a potency that increased as travellers relied on it alone and did not mingle it with other foods. It fed the will, and it gave strength to endure, and to master sinew and limb beyond the measure of mortal kind.</t>
-  </si>
-  <si>
-    <t>22 Mar 3019 [A/L/G/Gand/P] So time and the hopeless journey wore away.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 Mar 3019 [A/L/G/Gand/P] Aragorn looked at them, and there was pity in his eyes rather than wrath; for these were young men from Rohan, from Westfold far away, or husbandmen from Lossarnach, and to them Mordor had been from childhood a name of evil, and yet unreal, a legend that had no part in their simple life; and now they walked like men in a hideous dream made true, and they understood not this war nor why fate should lead them to such a pass. 
-‘Go!’ said Aragorn. ‘But keep what honour you may, and do not run! And there is a task which you may attempt and so be not wholly shamed. Take your way south-west till you come to Cair Andros, and if that is still held by enemies, as I think, then re-take it, if you can; and hold it to the last in defence of Gondor and Rohan!’ 
-Then some being shamed by his mercy overcame their fear and went on, and the others took new hope, hearing of a manful deed within their measure that they could turn to, and they departed. </t>
-  </si>
-  <si>
-    <t>23 Mar 3019 [F/S/G] Sam did likewise, and put aside his orc-gear; and he took out all the things in his pack. Somehow each of them had become dear to him, if only because he had borne them so far with so much toil. Hardest of all it was to part with his cooking-gear. Tears welled in his eyes at the thought of casting it away. ‘Do you remember that bit of rabbit, Mr. Frodo?’ he said. ‘And our place under the warm bank in Captain Faramir’s country, the day I saw an oliphaunt?’ ‘No, I am afraid not, Sam,’ said Frodo. ‘At least, I know that such things happened, but I cannot see them. No taste of food, no feel of water, no sound of wind, no memory of tree or grass or flower, no image of moon or star are left to me. I am naked in the dark, Sam, and there is no veil between me and the wheel of fire. I begin to see it even with my waking eyes, and all else fades.’ .... ‘There you are!’ came the answer [to Sam]. ‘It’s all quite useless. He said so himself. You are the fool, going on hoping and toiling. You could have lain down and gone to sleep together days ago, if you hadn’t been so dogged. But you’ll die just the same, or worse. You might just as well lie down now and give it up. You’ll never get to the top anyway.’</t>
-  </si>
-  <si>
-    <t>24 Mar 3019 [F/S/G]With a gasp Frodo cast himself on the ground. Sam sat by him. To his surprise he felt tired but lighter, and his head seemed clear again. No more debates disturbed his mind. He knew all the arguments of despair and would not listen to them. His will was set, and only death would break it. He felt no longer either desire or need of sleep, but rather of watchfulness. He knew that all the hazards and perils were now drawing together to a point: the next day would be a day of doom, the day of final effort or disaster, the last gasp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 Mar 3019 [A/L/G/Gand/P] At nightfall of the fifth day of the march from Morgul Vale they made their last camp, and set fires about it of such dead wood and heath as they could find. They passed the hours of night in wakefulness and they were aware of many things half-seen that walked and prowled all about them, and they heard the howling of wolves. The wind had died and all the air seemed still. They could see little, for though it was cloudless and the waxing moon was four nights old, there were smokes and fumes that rose out of the earth and the white crescent was shrouded in the mists of Mordor. </t>
-  </si>
-  <si>
-    <t>25 Mar 3019 [A/L/G/Gand/P] Aragorn said naught in answer, but he took the other’s eye and held it, and for a moment they strove thus; but soon, though Aragorn did not stir nor move hand to weapon, the other quailed and gave back as if menaced with a blow. ‘I am a herald and ambassador, and may not be assailed!’ he cried.</t>
-  </si>
-  <si>
-    <t>25 Mar 3019 [F/S/G] And far away, as Frodo put on the Ring and claimed it for his own, even in Sammath Naur the very heart of his realm, the Power in Barad-dûr was shaken, and the Tower trembled from its foundations to its proud and bitter crown. The Dark Lord was suddenly aware of him, and his Eye piercing all shadows looked across the plain to the door that he had made; and the magnitude of his own folly was revealed to him in a blinding flash, and all the devices of his enemies were at last laid bare. Then his wrath blazed in consuming flame, but his fear rose like a vast black smoke to choke him. For he knew his deadly peril and the thread upon which his doom now hung.</t>
-  </si>
-  <si>
-    <t>25 Mar 3019 [A/L/G/Gand/P] Blackness and stench and crushing pain came upon Pippin, and his mind fell away into a great darkness. ‘So it ends as I guessed it would,’ his thought said, even as it fluttered away; and it laughed a little within him ere it fled, almost gay it seemed to be casting off at last all doubt and care and fear. And then even as it winged away into forgetfulness it heard voices, and they seemed to be crying in some forgotten world far above: ‘The Eagles are coming! The Eagles are coming!’ For one moment more Pippin’s thought hovered. ‘Bilbo!’ it said. ‘But no! That came in his tale, long long ago. This is my tale, and it is ended now. Good-bye!’ And his thought fled far away and his eyes saw no more.</t>
-  </si>
-  <si>
-    <t>1 May 3019 [TOY] [All] Faramir met Aragorn in the midst of those there assembled, and he knelt, and said: ‘The last Steward of Gondor begs leave to surrender his office.’ And he held out a white rod; but Aragorn took the rod and gave it back, saying: ‘That office is not ended, and it shall be thine and thy heirs’ as long as my line shall last. Do now thy office!’ Then Faramir stood up and spoke in a clear voice: ‘Men of Gondor, hear now the Steward of this Realm! Behold! one has come to claim the kingship again at last. Here is Aragorn son of Arathorn, chieftain of the Dúnedain of Arnor, Captain of the Host of the West, bearer of the Star of the North, wielder of the Sword Reforged, victorious in battle, whose hands bring healing, the Elfstone, Elessar of the line of Valandil, Isildur’s son, Elendil’s son of Númenor. Shall he be king and enter into the City and dwell there?’ And all the host and all the people cried yea with one voice.</t>
-  </si>
-  <si>
-    <t>1 May 3019 [TOY] [All] Then Aragorn took the crown and held it up and said: Et Eärello Endorenna utúlien. Sinome maruvan ar Hildinyar tenn’ Ambar-metta! And those were the words that Elendil spoke when he came up out of the Sea on the wings of the wind: ‘Out of the Great Sea to Middle-earth I am come. In this place will I abide, and my heirs, unto the ending of the world.’</t>
-  </si>
-  <si>
-    <t>8 Apr 3019 [A/G/L/F/S/M/P/Gand, day]: At last he gasped: ‘Gandalf! I thought you were dead! But then I thought I was dead myself. Is everything sad going to come untrue? What’s happened to the world?’ 
-‘A great Shadow has departed,’ said Gandalf, and then he laughed, and the sound was like music, or like water in a parched land; and as he listened the thought came to Sam that he had not heard laughter, the pure sound of merriment, for days upon days without count. 
-It fell upon his ears like the echo of all the joys he had ever known. But he himself burst into tears. Then, as a sweet rain will pass down a wind of spring and the sun will shine out the clearer, his tears ceased, and his laughter welled up, and laughing he sprang from his bed.
-. . .
-And all the host laughed and wept, and in the midst of their merriment and tears the clear voice of the minstrel rose like silver and gold, and all men were hushed. And he sang to them, now in the elven-tongue, now in the speech of the West, until their hearts, wounded with sweet words, overflowed, and their joy was like swords, and they passed in thought out to regions where pain and delight flow together and tears are the very wine of blessedness.</t>
-  </si>
-  <si>
-    <t>8 Apr 3019 [A/G/L/F/S/M/P/Gand, night]: [The Hobbits and Gimli to sleep...]
-‘And I,’ said Legolas, ‘shall walk in the woods of this fair land, which is rest enough. In days to come, if my Elven-lord allows, some of our folk shall remove hither; and when we come it shall be blessed, for a while. For a while: a month, a life, a hundred years of Men. But Anduin is near, and Anduin leads down to the Sea. To the Sea! To the Sea, to the Sea! The white gulls are crying, The wind is blowing, and the white foam is flying. West, west away, the round sun is falling. Grey ship, grey ship, do you hear them calling, The voices of my people that have gone before me? I will leave, I will leave the woods that bore me; For our days are ending and our years failing. I will pass the wide waters lonely sailing. Long are the waves on the Last Shore falling, Sweet are the voices in the Lost Isle calling, In Eressëa, in Elvenhome that no man can discover, Where the leaves fall not: land of my people for ever!’ And so singing Legolas went away down the hill.</t>
-  </si>
-  <si>
-    <t>~9 April 3019 [TOY]
-Then the others also departed, and Frodo and Sam went to their beds and slept. And in the morning they rose again in hope and peace; and they spent many days in Ithilien.</t>
-  </si>
-  <si>
-    <t>~ April 3019 [TOY]
-The hobbits wandered here and there visiting again the places that they had passed before; and Sam hoped always in some shadow of the woods or secret glade to catch, maybe, a glimpse of the great Oliphaunt.</t>
-  </si>
-  <si>
-    <t>~25 April 3019 [TOY] But at the last when the month of May was drawing near the Captains of the West set out again; and they went aboard ship with all their men, and they sailed from Cair Andros down Anduin to Osgiliath; and there they remained for one day; and the day after they came to the green fields of the Pelennor and saw again the white towers under tall Mindolluin, the City of the Men of Gondor, last memory of Westernesse, that had passed through the darkness and fire to a new day.</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H186" sqref="H186:I186"/>
+      <selection pane="bottomLeft" activeCell="L197" sqref="L197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3983,7 +3983,7 @@
         <v>305</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>308</v>
@@ -4061,10 +4061,10 @@
         <v>313</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J170" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4099,16 +4099,16 @@
         <v>47</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J172" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="K172" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="K172" s="6" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4122,13 +4122,13 @@
         <v>219</v>
       </c>
       <c r="H173" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I173" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="I173" s="6" t="s">
+      <c r="J173" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="J173" s="19" t="s">
-        <v>360</v>
       </c>
       <c r="K173" s="6" t="s">
         <v>319</v>
@@ -4145,16 +4145,16 @@
         <v>56</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J174" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,16 +4168,16 @@
         <v>219</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I175" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J175" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="K175" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="K175" s="6" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4191,13 +4191,13 @@
         <v>219</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J176" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K176" s="6" t="s">
         <v>319</v>
@@ -4214,7 +4214,7 @@
         <v>219</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I177" s="6" t="s">
         <v>315</v>
@@ -4237,16 +4237,16 @@
         <v>219</v>
       </c>
       <c r="H178" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I178" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="I178" s="6" t="s">
+      <c r="J178" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="J178" s="19" t="s">
+      <c r="K178" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="K178" s="6" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4277,7 +4277,7 @@
         <v>408781</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E180" t="s">
         <v>61</v>
@@ -4289,7 +4289,7 @@
         <v>321</v>
       </c>
       <c r="J180" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K180" s="6" t="s">
         <v>323</v>
@@ -4310,13 +4310,13 @@
         <v>329</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4333,18 +4333,15 @@
         <v>330</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4355,10 +4352,10 @@
         <v>219</v>
       </c>
       <c r="H183" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I183" s="19" t="s">
         <v>375</v>
-      </c>
-      <c r="I183" s="19" t="s">
-        <v>376</v>
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
@@ -4377,7 +4374,7 @@
         <v>219</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>219</v>
@@ -4397,10 +4394,10 @@
         <v>219</v>
       </c>
       <c r="H185" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I185" s="19" t="s">
         <v>378</v>
-      </c>
-      <c r="I185" s="19" t="s">
-        <v>379</v>
       </c>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
@@ -4417,10 +4414,10 @@
         <v>219</v>
       </c>
       <c r="H186" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="I186" s="19" t="s">
         <v>380</v>
-      </c>
-      <c r="I186" s="19" t="s">
-        <v>381</v>
       </c>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
@@ -4439,10 +4436,10 @@
         <v>219</v>
       </c>
       <c r="H187" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I187" s="19" t="s">
         <v>382</v>
-      </c>
-      <c r="I187" s="19" t="s">
-        <v>383</v>
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
@@ -4461,10 +4458,10 @@
         <v>219</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I188" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
@@ -4473,6 +4470,9 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -4483,10 +4483,10 @@
         <v>219</v>
       </c>
       <c r="H189" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I189" s="19" t="s">
         <v>386</v>
-      </c>
-      <c r="I189" s="19" t="s">
-        <v>387</v>
       </c>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
@@ -4505,16 +4505,13 @@
         <v>219</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I190" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
-      <c r="L190" s="19" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
@@ -4525,13 +4522,10 @@
         <v>219</v>
       </c>
       <c r="I191" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="B192" s="1">
         <v>408793</v>
       </c>
@@ -4542,7 +4536,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -4553,7 +4547,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -4562,49 +4556,52 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
       <c r="D195" s="8"/>
     </row>
-    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
       <c r="D196" s="8"/>
     </row>
-    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
       <c r="D197" s="8"/>
-    </row>
-    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L197" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
       <c r="D199" s="8"/>
     </row>
-    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -4612,13 +4609,16 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
     </row>
-    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>320</v>
       </c>
@@ -4629,34 +4629,34 @@
         <v>341</v>
       </c>
       <c r="H204" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="I204" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="I204" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
       <c r="D205" s="8"/>
       <c r="H205" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
     </row>
-    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>408812</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4730,7 +4730,7 @@
         <v>408822</v>
       </c>
       <c r="H221" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4766,10 +4766,10 @@
         <v>342</v>
       </c>
       <c r="H227" t="s">
+        <v>390</v>
+      </c>
+      <c r="I227" t="s">
         <v>391</v>
-      </c>
-      <c r="I227" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="228" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75E7E2-BF75-4426-8438-7B66BFA8E0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7532CA-7C4B-44AC-ADC2-FF17F7D9A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2157,8 +2157,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L197" sqref="L197"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4470,9 +4470,6 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -4514,6 +4511,9 @@
       <c r="K190" s="6"/>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B191" s="1">
         <v>408792</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7532CA-7C4B-44AC-ADC2-FF17F7D9A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C224E9-1E34-40B0-A782-15256890C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2157,8 +2157,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4536,7 +4536,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -4556,19 +4556,19 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
       <c r="D195" s="8"/>
     </row>
-    <row r="196" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
       <c r="D196" s="8"/>
     </row>
-    <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
@@ -4577,31 +4577,31 @@
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
       <c r="D199" s="8"/>
     </row>
-    <row r="200" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -4609,19 +4609,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
-        <v>350</v>
-      </c>
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
     </row>
-    <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
-        <v>320</v>
-      </c>
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
@@ -4635,7 +4629,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
@@ -4644,19 +4638,19 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
     </row>
-    <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
@@ -4748,17 +4742,20 @@
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="B227" s="1">
         <v>408828</v>
       </c>
@@ -4772,522 +4769,525 @@
         <v>391</v>
       </c>
     </row>
-    <row r="228" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
-      <c r="I230" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="231" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
-      <c r="I231" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="232" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
-      <c r="I232" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="233" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
-      <c r="I233" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="234" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
-      <c r="I235" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="236" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
-      <c r="E237" t="s">
-        <v>219</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="238" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
-      <c r="F238" t="s">
-        <v>6</v>
-      </c>
-      <c r="I238" t="s">
-        <v>30</v>
-      </c>
-      <c r="K238" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="239" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
-      <c r="F240" t="s">
-        <v>7</v>
-      </c>
-      <c r="H240" t="s">
-        <v>19</v>
-      </c>
-      <c r="I240" t="s">
-        <v>31</v>
-      </c>
-      <c r="J240" t="s">
-        <v>43</v>
-      </c>
-      <c r="K240" t="s">
-        <v>55</v>
-      </c>
-      <c r="L240" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="241" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
-      <c r="F241" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="242" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
-      <c r="F242" t="s">
-        <v>9</v>
-      </c>
-      <c r="H242" t="s">
-        <v>20</v>
-      </c>
-      <c r="I242" t="s">
-        <v>32</v>
-      </c>
-      <c r="J242" t="s">
-        <v>44</v>
-      </c>
-      <c r="K242" t="s">
-        <v>56</v>
-      </c>
-      <c r="L242" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="243" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
-      <c r="F243" t="s">
-        <v>10</v>
-      </c>
-      <c r="H243" t="s">
-        <v>21</v>
-      </c>
-      <c r="I243" t="s">
-        <v>33</v>
-      </c>
-      <c r="J243" t="s">
-        <v>45</v>
-      </c>
-      <c r="K243" t="s">
-        <v>57</v>
-      </c>
-      <c r="L243" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="244" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
-      <c r="F244" t="s">
-        <v>11</v>
-      </c>
-      <c r="H244" t="s">
-        <v>22</v>
-      </c>
-      <c r="I244" t="s">
-        <v>34</v>
-      </c>
-      <c r="J244" t="s">
-        <v>46</v>
-      </c>
-      <c r="K244" t="s">
-        <v>58</v>
-      </c>
-      <c r="L244" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="245" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
-      <c r="F245" t="s">
-        <v>12</v>
-      </c>
-      <c r="H245" t="s">
-        <v>23</v>
-      </c>
-      <c r="I245" t="s">
-        <v>35</v>
-      </c>
-      <c r="J245" t="s">
-        <v>47</v>
-      </c>
-      <c r="K245" t="s">
-        <v>59</v>
-      </c>
-      <c r="L245" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="246" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
-      <c r="F246" t="s">
-        <v>13</v>
-      </c>
-      <c r="H246" t="s">
-        <v>24</v>
-      </c>
-      <c r="I246" t="s">
-        <v>36</v>
-      </c>
-      <c r="J246" t="s">
-        <v>48</v>
-      </c>
-      <c r="K246" t="s">
-        <v>60</v>
-      </c>
-      <c r="L246" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="247" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
-      <c r="F247" t="s">
-        <v>14</v>
-      </c>
-      <c r="H247" t="s">
-        <v>25</v>
-      </c>
-      <c r="I247" t="s">
-        <v>37</v>
-      </c>
-      <c r="J247" t="s">
-        <v>49</v>
-      </c>
-      <c r="K247" t="s">
-        <v>61</v>
-      </c>
-      <c r="L247" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="248" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
-      <c r="F248" t="s">
-        <v>15</v>
-      </c>
-      <c r="H248" t="s">
-        <v>26</v>
-      </c>
-      <c r="I248" t="s">
-        <v>38</v>
-      </c>
-      <c r="J248" t="s">
-        <v>50</v>
-      </c>
-      <c r="K248" t="s">
-        <v>62</v>
-      </c>
-      <c r="L248" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="249" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
-      <c r="F249" t="s">
-        <v>16</v>
-      </c>
-      <c r="H249" t="s">
-        <v>27</v>
-      </c>
-      <c r="I249" t="s">
-        <v>39</v>
-      </c>
-      <c r="J249" t="s">
-        <v>51</v>
-      </c>
-      <c r="K249" t="s">
-        <v>63</v>
-      </c>
-      <c r="L249" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="250" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
-      <c r="F250" t="s">
-        <v>17</v>
-      </c>
-      <c r="H250" t="s">
-        <v>28</v>
-      </c>
-      <c r="I250" t="s">
-        <v>40</v>
-      </c>
-      <c r="J250" t="s">
-        <v>52</v>
-      </c>
-      <c r="K250" t="s">
-        <v>64</v>
-      </c>
-      <c r="L250" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="251" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
-      <c r="E251" t="s">
-        <v>80</v>
-      </c>
-      <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="H251" t="s">
-        <v>29</v>
-      </c>
-      <c r="I251" t="s">
-        <v>41</v>
-      </c>
-      <c r="J251" t="s">
-        <v>53</v>
-      </c>
-      <c r="K251" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="252" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F252" t="s">
-        <v>77</v>
-      </c>
-      <c r="I252" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="253" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
-    </row>
-    <row r="260" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I259" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="260" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
-    </row>
-    <row r="261" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="261" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
-    </row>
-    <row r="262" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I261" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="262" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
-    </row>
-    <row r="263" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I262" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="263" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
-    </row>
-    <row r="265" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I264" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="265" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
-    </row>
-    <row r="267" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>219</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="267" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
-    </row>
-    <row r="268" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F267" t="s">
+        <v>6</v>
+      </c>
+      <c r="I267" t="s">
+        <v>30</v>
+      </c>
+      <c r="K267" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="268" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
-    </row>
-    <row r="270" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F269" t="s">
+        <v>7</v>
+      </c>
+      <c r="H269" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" t="s">
+        <v>31</v>
+      </c>
+      <c r="J269" t="s">
+        <v>43</v>
+      </c>
+      <c r="K269" t="s">
+        <v>55</v>
+      </c>
+      <c r="L269" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="270" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
-    </row>
-    <row r="271" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
-    </row>
-    <row r="272" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F271" t="s">
+        <v>9</v>
+      </c>
+      <c r="H271" t="s">
+        <v>20</v>
+      </c>
+      <c r="I271" t="s">
+        <v>32</v>
+      </c>
+      <c r="J271" t="s">
+        <v>44</v>
+      </c>
+      <c r="K271" t="s">
+        <v>56</v>
+      </c>
+      <c r="L271" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
-    </row>
-    <row r="273" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="H272" t="s">
+        <v>21</v>
+      </c>
+      <c r="I272" t="s">
+        <v>33</v>
+      </c>
+      <c r="J272" t="s">
+        <v>45</v>
+      </c>
+      <c r="K272" t="s">
+        <v>57</v>
+      </c>
+      <c r="L272" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>408874</v>
       </c>
-    </row>
-    <row r="274" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F273" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" t="s">
+        <v>22</v>
+      </c>
+      <c r="I273" t="s">
+        <v>34</v>
+      </c>
+      <c r="J273" t="s">
+        <v>46</v>
+      </c>
+      <c r="K273" t="s">
+        <v>58</v>
+      </c>
+      <c r="L273" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>408875</v>
       </c>
-    </row>
-    <row r="275" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F274" t="s">
+        <v>12</v>
+      </c>
+      <c r="H274" t="s">
+        <v>23</v>
+      </c>
+      <c r="I274" t="s">
+        <v>35</v>
+      </c>
+      <c r="J274" t="s">
+        <v>47</v>
+      </c>
+      <c r="K274" t="s">
+        <v>59</v>
+      </c>
+      <c r="L274" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>408876</v>
       </c>
-    </row>
-    <row r="276" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="H275" t="s">
+        <v>24</v>
+      </c>
+      <c r="I275" t="s">
+        <v>36</v>
+      </c>
+      <c r="J275" t="s">
+        <v>48</v>
+      </c>
+      <c r="K275" t="s">
+        <v>60</v>
+      </c>
+      <c r="L275" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="276" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>408877</v>
       </c>
-    </row>
-    <row r="277" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="H276" t="s">
+        <v>25</v>
+      </c>
+      <c r="I276" t="s">
+        <v>37</v>
+      </c>
+      <c r="J276" t="s">
+        <v>49</v>
+      </c>
+      <c r="K276" t="s">
+        <v>61</v>
+      </c>
+      <c r="L276" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="277" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>408878</v>
       </c>
-    </row>
-    <row r="278" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F277" t="s">
+        <v>15</v>
+      </c>
+      <c r="H277" t="s">
+        <v>26</v>
+      </c>
+      <c r="I277" t="s">
+        <v>38</v>
+      </c>
+      <c r="J277" t="s">
+        <v>50</v>
+      </c>
+      <c r="K277" t="s">
+        <v>62</v>
+      </c>
+      <c r="L277" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="278" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>408879</v>
       </c>
-    </row>
-    <row r="279" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F278" t="s">
+        <v>16</v>
+      </c>
+      <c r="H278" t="s">
+        <v>27</v>
+      </c>
+      <c r="I278" t="s">
+        <v>39</v>
+      </c>
+      <c r="J278" t="s">
+        <v>51</v>
+      </c>
+      <c r="K278" t="s">
+        <v>63</v>
+      </c>
+      <c r="L278" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="279" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>408880</v>
       </c>
-    </row>
-    <row r="280" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F279" t="s">
+        <v>17</v>
+      </c>
+      <c r="H279" t="s">
+        <v>28</v>
+      </c>
+      <c r="I279" t="s">
+        <v>40</v>
+      </c>
+      <c r="J279" t="s">
+        <v>52</v>
+      </c>
+      <c r="K279" t="s">
+        <v>64</v>
+      </c>
+      <c r="L279" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="280" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>408881</v>
       </c>
-    </row>
-    <row r="281" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>80</v>
+      </c>
+      <c r="F280" t="s">
+        <v>18</v>
+      </c>
+      <c r="H280" t="s">
+        <v>29</v>
+      </c>
+      <c r="I280" t="s">
+        <v>41</v>
+      </c>
+      <c r="J280" t="s">
+        <v>53</v>
+      </c>
+      <c r="K280" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="281" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>408882</v>
       </c>
-    </row>
-    <row r="282" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E281" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F281" t="s">
+        <v>77</v>
+      </c>
+      <c r="I281" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="282" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>408883</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>408884</v>
       </c>
@@ -5295,8 +5295,8 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E252" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
-    <hyperlink ref="F237" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
+    <hyperlink ref="E281" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="F266" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C224E9-1E34-40B0-A782-15256890C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175E886-EB69-400D-9B09-82BD82922EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2157,8 +2157,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H241" sqref="H241"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4203,7 +4203,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -4510,10 +4510,7 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -4525,7 +4522,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
@@ -4656,17 +4653,17 @@
       </c>
       <c r="D208" s="8"/>
     </row>
-    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
@@ -4674,52 +4671,55 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
@@ -4727,17 +4727,17 @@
         <v>396</v>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175E886-EB69-400D-9B09-82BD82922EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85BE44C-1B61-4098-8DD3-F1F23214F76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="422">
   <si>
     <t>Date</t>
   </si>
@@ -1677,6 +1677,78 @@
 Then the heart of Éowyn changed, or else at last she understood it. And suddenly her winter passed, and the sun shone on her. 
 ‘I stand in Minas Anor, the Tower of the Sun,’ she said; ‘and behold! the Shadow has departed! I will be a shieldmaiden no longer, nor vie with the great Riders, nor take joy only in the songs of slaying. I will be a healer, and love all things that grow and are not barren.’ And again she looked at Faramir. ‘No longer do I desire to be a queen,’ she said. 
 Then Faramir laughed merrily. ‘That is well,’ he said; ‘for I am not a king. Yet I will wed with the White Lady of Rohan, if it be her will. And if she will, then let us cross the River and in happier days let us dwell in fair Ithilien and there make a garden. All things will grow with joy there, if the White Lady comes.’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	8. Éomer and Éowyn depart for Rohan with the sons of Elrond. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	20. Elrond and Arwen come to Lórien. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	27. The escort of Arwen leaves Lórien. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	14. The sons of Elrond meet the escort and bring Arwen to Edoras. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	16. They set out for Gondor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	25. King Elessar finds the sapling of the White Tree. </t>
+  </si>
+  <si>
+    <t>Aragorn / Gandalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	1 Lithe. Arwen comes to the City. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Mid-year’s Day. Wedding of Elessar and Arwen. </t>
+  </si>
+  <si>
+    <t>1 Lithe 3019</t>
+  </si>
+  <si>
+    <t>MYD 3019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	18. Éomer returns to Minas Tirith. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	22. The funeral escort of King Théoden sets out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	7. The escort comes to Edoras. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	10. Funeral of King Théoden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	14. The guests take leave of King Éomer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	15. Treebeard releases Saruman. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	18. They come to Helm’s Deep. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	22. They come to Isengard; they take leave of the King of the West at sunset. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	28. They overtake Saruman; Saruman turns towards the Shire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	6. They halt in sight of the Mountains of Moria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	13. Celeborn and Galadriel depart, the others set out for Rivendell. </t>
+  </si>
+  <si>
+    <t>•	21. They return to Rivendell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	22. The hundred and twenty-ninth birthday of Bilbo. Saruman comes to the Shire. </t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1905,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1870,6 +1942,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2154,11 +2230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P283"/>
+  <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B311" sqref="B311:D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4552,24 +4628,36 @@
       <c r="E194" t="s">
         <v>219</v>
       </c>
+      <c r="I194" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
       <c r="D195" s="8"/>
+      <c r="I195" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
       <c r="D196" s="8"/>
+      <c r="I196" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
       <c r="D197" s="8"/>
+      <c r="I197" t="s">
+        <v>279</v>
+      </c>
       <c r="L197" s="19" t="s">
         <v>397</v>
       </c>
@@ -4585,6 +4673,9 @@
         <v>408800</v>
       </c>
       <c r="D199" s="8"/>
+      <c r="I199" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
@@ -4653,17 +4744,17 @@
       </c>
       <c r="D208" s="8"/>
     </row>
-    <row r="209" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
@@ -4671,55 +4762,52 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
@@ -4727,17 +4815,17 @@
         <v>396</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
@@ -4748,14 +4836,14 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="B227" s="1">
         <v>408828</v>
       </c>
@@ -4770,9 +4858,6 @@
       </c>
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="B228" s="1">
         <v>408829</v>
       </c>
@@ -4806,6 +4891,9 @@
       <c r="B234" s="1">
         <v>408835</v>
       </c>
+      <c r="D234" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
@@ -4837,466 +4925,1180 @@
         <v>408841</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
     </row>
-    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
-    </row>
-    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
     </row>
-    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
     </row>
-    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
-    </row>
-    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
-      <c r="I259" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="260" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
-      <c r="I260" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="261" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
-      <c r="I261" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="262" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
-      <c r="I262" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="263" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
-      <c r="I264" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="265" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
-      <c r="E266" t="s">
-        <v>219</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="267" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
-      <c r="F267" t="s">
-        <v>6</v>
-      </c>
-      <c r="I267" t="s">
-        <v>30</v>
-      </c>
-      <c r="K267" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="268" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
-      <c r="F269" t="s">
-        <v>7</v>
-      </c>
-      <c r="H269" t="s">
-        <v>19</v>
-      </c>
-      <c r="I269" t="s">
-        <v>31</v>
-      </c>
-      <c r="J269" t="s">
-        <v>43</v>
-      </c>
-      <c r="K269" t="s">
-        <v>55</v>
-      </c>
-      <c r="L269" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="270" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
-      <c r="F270" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="271" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
-      <c r="F271" t="s">
-        <v>9</v>
-      </c>
-      <c r="H271" t="s">
-        <v>20</v>
-      </c>
-      <c r="I271" t="s">
-        <v>32</v>
-      </c>
-      <c r="J271" t="s">
-        <v>44</v>
-      </c>
-      <c r="K271" t="s">
-        <v>56</v>
-      </c>
-      <c r="L271" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="272" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
-      <c r="F272" t="s">
-        <v>10</v>
-      </c>
-      <c r="H272" t="s">
-        <v>21</v>
-      </c>
-      <c r="I272" t="s">
-        <v>33</v>
-      </c>
-      <c r="J272" t="s">
-        <v>45</v>
-      </c>
-      <c r="K272" t="s">
-        <v>57</v>
-      </c>
-      <c r="L272" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="273" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>408874</v>
       </c>
-      <c r="F273" t="s">
-        <v>11</v>
-      </c>
-      <c r="H273" t="s">
-        <v>22</v>
-      </c>
-      <c r="I273" t="s">
-        <v>34</v>
-      </c>
-      <c r="J273" t="s">
-        <v>46</v>
-      </c>
-      <c r="K273" t="s">
-        <v>58</v>
-      </c>
-      <c r="L273" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="274" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>408875</v>
       </c>
-      <c r="F274" t="s">
-        <v>12</v>
-      </c>
-      <c r="H274" t="s">
-        <v>23</v>
-      </c>
-      <c r="I274" t="s">
-        <v>35</v>
-      </c>
-      <c r="J274" t="s">
-        <v>47</v>
-      </c>
-      <c r="K274" t="s">
-        <v>59</v>
-      </c>
-      <c r="L274" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="275" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>408876</v>
       </c>
-      <c r="F275" t="s">
-        <v>13</v>
-      </c>
-      <c r="H275" t="s">
-        <v>24</v>
-      </c>
-      <c r="I275" t="s">
-        <v>36</v>
-      </c>
-      <c r="J275" t="s">
-        <v>48</v>
-      </c>
-      <c r="K275" t="s">
-        <v>60</v>
-      </c>
-      <c r="L275" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="276" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>408877</v>
       </c>
-      <c r="F276" t="s">
-        <v>14</v>
-      </c>
-      <c r="H276" t="s">
-        <v>25</v>
-      </c>
-      <c r="I276" t="s">
-        <v>37</v>
-      </c>
-      <c r="J276" t="s">
-        <v>49</v>
-      </c>
-      <c r="K276" t="s">
-        <v>61</v>
-      </c>
-      <c r="L276" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="277" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>408878</v>
       </c>
-      <c r="F277" t="s">
-        <v>15</v>
-      </c>
-      <c r="H277" t="s">
-        <v>26</v>
-      </c>
-      <c r="I277" t="s">
-        <v>38</v>
-      </c>
-      <c r="J277" t="s">
-        <v>50</v>
-      </c>
-      <c r="K277" t="s">
-        <v>62</v>
-      </c>
-      <c r="L277" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="278" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>408879</v>
       </c>
-      <c r="F278" t="s">
-        <v>16</v>
-      </c>
-      <c r="H278" t="s">
-        <v>27</v>
-      </c>
-      <c r="I278" t="s">
-        <v>39</v>
-      </c>
-      <c r="J278" t="s">
-        <v>51</v>
-      </c>
-      <c r="K278" t="s">
-        <v>63</v>
-      </c>
-      <c r="L278" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="279" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>408880</v>
       </c>
-      <c r="F279" t="s">
-        <v>17</v>
-      </c>
-      <c r="H279" t="s">
-        <v>28</v>
-      </c>
-      <c r="I279" t="s">
-        <v>40</v>
-      </c>
-      <c r="J279" t="s">
-        <v>52</v>
-      </c>
-      <c r="K279" t="s">
-        <v>64</v>
-      </c>
-      <c r="L279" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="280" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>408881</v>
       </c>
-      <c r="E280" t="s">
-        <v>80</v>
-      </c>
-      <c r="F280" t="s">
-        <v>18</v>
-      </c>
-      <c r="H280" t="s">
-        <v>29</v>
-      </c>
-      <c r="I280" t="s">
-        <v>41</v>
-      </c>
-      <c r="J280" t="s">
-        <v>53</v>
-      </c>
-      <c r="K280" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="281" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>408882</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F281" t="s">
-        <v>77</v>
-      </c>
-      <c r="I281" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="282" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="B282" s="1">
         <v>408883</v>
       </c>
-    </row>
-    <row r="283" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D282" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E282" s="23"/>
+      <c r="F282" s="23"/>
+      <c r="G282" s="23"/>
+      <c r="H282" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="B283" s="1">
         <v>408884</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="1">
+        <v>408885</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="1">
+        <v>408886</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="1">
+        <v>408887</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="1">
+        <v>408888</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B288" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E288" s="23"/>
+      <c r="F288" s="23"/>
+      <c r="G288" s="23"/>
+    </row>
+    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D289" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E289" s="23"/>
+      <c r="F289" s="23"/>
+      <c r="G289" s="23"/>
+    </row>
+    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="1">
+        <v>408889</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="1">
+        <v>408890</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="1">
+        <v>408891</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="1">
+        <v>408892</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="1">
+        <v>408893</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="1">
+        <v>408894</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="1">
+        <v>408895</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="1">
+        <v>408896</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="1">
+        <v>408897</v>
+      </c>
+      <c r="F298" t="s">
+        <v>6</v>
+      </c>
+      <c r="I298" t="s">
+        <v>30</v>
+      </c>
+      <c r="K298" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="1">
+        <v>408898</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="1">
+        <v>408899</v>
+      </c>
+      <c r="F300" t="s">
+        <v>7</v>
+      </c>
+      <c r="H300" t="s">
+        <v>19</v>
+      </c>
+      <c r="I300" t="s">
+        <v>31</v>
+      </c>
+      <c r="J300" t="s">
+        <v>43</v>
+      </c>
+      <c r="K300" t="s">
+        <v>55</v>
+      </c>
+      <c r="L300" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="1">
+        <v>408900</v>
+      </c>
+      <c r="F301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="1">
+        <v>408901</v>
+      </c>
+      <c r="F302" t="s">
+        <v>9</v>
+      </c>
+      <c r="H302" t="s">
+        <v>20</v>
+      </c>
+      <c r="I302" t="s">
+        <v>32</v>
+      </c>
+      <c r="J302" t="s">
+        <v>44</v>
+      </c>
+      <c r="K302" t="s">
+        <v>56</v>
+      </c>
+      <c r="L302" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="1">
+        <v>408902</v>
+      </c>
+      <c r="F303" t="s">
+        <v>10</v>
+      </c>
+      <c r="H303" t="s">
+        <v>21</v>
+      </c>
+      <c r="I303" t="s">
+        <v>33</v>
+      </c>
+      <c r="J303" t="s">
+        <v>45</v>
+      </c>
+      <c r="K303" t="s">
+        <v>57</v>
+      </c>
+      <c r="L303" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="1">
+        <v>408903</v>
+      </c>
+      <c r="F304" t="s">
+        <v>11</v>
+      </c>
+      <c r="H304" t="s">
+        <v>22</v>
+      </c>
+      <c r="I304" t="s">
+        <v>34</v>
+      </c>
+      <c r="J304" t="s">
+        <v>46</v>
+      </c>
+      <c r="K304" t="s">
+        <v>58</v>
+      </c>
+      <c r="L304" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="1">
+        <v>408904</v>
+      </c>
+      <c r="F305" t="s">
+        <v>12</v>
+      </c>
+      <c r="H305" t="s">
+        <v>23</v>
+      </c>
+      <c r="I305" t="s">
+        <v>35</v>
+      </c>
+      <c r="J305" t="s">
+        <v>47</v>
+      </c>
+      <c r="K305" t="s">
+        <v>59</v>
+      </c>
+      <c r="L305" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="1">
+        <v>408905</v>
+      </c>
+      <c r="F306" t="s">
+        <v>13</v>
+      </c>
+      <c r="H306" t="s">
+        <v>24</v>
+      </c>
+      <c r="I306" t="s">
+        <v>36</v>
+      </c>
+      <c r="J306" t="s">
+        <v>48</v>
+      </c>
+      <c r="K306" t="s">
+        <v>60</v>
+      </c>
+      <c r="L306" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="1">
+        <v>408906</v>
+      </c>
+      <c r="D307" t="s">
+        <v>409</v>
+      </c>
+      <c r="F307" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" t="s">
+        <v>25</v>
+      </c>
+      <c r="I307" t="s">
+        <v>37</v>
+      </c>
+      <c r="J307" t="s">
+        <v>49</v>
+      </c>
+      <c r="K307" t="s">
+        <v>61</v>
+      </c>
+      <c r="L307" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="1">
+        <v>408907</v>
+      </c>
+      <c r="F308" t="s">
+        <v>15</v>
+      </c>
+      <c r="H308" t="s">
+        <v>26</v>
+      </c>
+      <c r="I308" t="s">
+        <v>38</v>
+      </c>
+      <c r="J308" t="s">
+        <v>50</v>
+      </c>
+      <c r="K308" t="s">
+        <v>62</v>
+      </c>
+      <c r="L308" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="1">
+        <v>408908</v>
+      </c>
+      <c r="F309" t="s">
+        <v>16</v>
+      </c>
+      <c r="H309" t="s">
+        <v>27</v>
+      </c>
+      <c r="I309" t="s">
+        <v>39</v>
+      </c>
+      <c r="J309" t="s">
+        <v>51</v>
+      </c>
+      <c r="K309" t="s">
+        <v>63</v>
+      </c>
+      <c r="L309" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="1">
+        <v>408909</v>
+      </c>
+      <c r="F310" t="s">
+        <v>17</v>
+      </c>
+      <c r="H310" t="s">
+        <v>28</v>
+      </c>
+      <c r="I310" t="s">
+        <v>40</v>
+      </c>
+      <c r="J310" t="s">
+        <v>52</v>
+      </c>
+      <c r="K310" t="s">
+        <v>64</v>
+      </c>
+      <c r="L310" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="1">
+        <v>408910</v>
+      </c>
+      <c r="D311" t="s">
+        <v>410</v>
+      </c>
+      <c r="F311" t="s">
+        <v>18</v>
+      </c>
+      <c r="H311" t="s">
+        <v>29</v>
+      </c>
+      <c r="I311" t="s">
+        <v>41</v>
+      </c>
+      <c r="J311" t="s">
+        <v>53</v>
+      </c>
+      <c r="K311" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="1">
+        <v>408911</v>
+      </c>
+      <c r="F312" t="s">
+        <v>77</v>
+      </c>
+      <c r="I312" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="1">
+        <v>408912</v>
+      </c>
+    </row>
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="1">
+        <v>408913</v>
+      </c>
+    </row>
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="1">
+        <v>408914</v>
+      </c>
+      <c r="E315" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="1">
+        <v>408915</v>
+      </c>
+    </row>
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="1">
+        <v>408916</v>
+      </c>
+    </row>
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="1">
+        <v>408917</v>
+      </c>
+    </row>
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="1">
+        <v>408918</v>
+      </c>
+    </row>
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="1">
+        <v>408919</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="1">
+        <v>408920</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="1">
+        <v>408921</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="1">
+        <v>408922</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="1">
+        <v>408923</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="1">
+        <v>408924</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="1">
+        <v>408925</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="1">
+        <v>408926</v>
+      </c>
+      <c r="D327" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="1">
+        <v>408927</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="1">
+        <v>408928</v>
+      </c>
+      <c r="E329" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="1">
+        <v>408929</v>
+      </c>
+      <c r="D330" t="s">
+        <v>412</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="1">
+        <v>408930</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="1">
+        <v>408931</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="1">
+        <v>408932</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="1">
+        <v>408933</v>
+      </c>
+      <c r="D334" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="1">
+        <v>408934</v>
+      </c>
+      <c r="D335" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="1">
+        <v>408935</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="1">
+        <v>408936</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="1">
+        <v>408937</v>
+      </c>
+      <c r="D338" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="1">
+        <v>408938</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="1">
+        <v>408939</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="1">
+        <v>408940</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="1">
+        <v>408941</v>
+      </c>
+      <c r="D342" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="1">
+        <v>408942</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="1">
+        <v>408943</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="1">
+        <v>408944</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="1">
+        <v>408945</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="1">
+        <v>408946</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="1">
+        <v>408947</v>
+      </c>
+      <c r="D348" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="1">
+        <v>408948</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="1">
+        <v>408949</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="1">
+        <v>408950</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="1">
+        <v>408951</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="1">
+        <v>408952</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="1">
+        <v>408953</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="1">
+        <v>408954</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="1">
+        <v>408955</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="1">
+        <v>408956</v>
+      </c>
+      <c r="D357" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="1">
+        <v>408957</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="1">
+        <v>408958</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="1">
+        <v>408959</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="1">
+        <v>408960</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="1">
+        <v>408961</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B363" s="1">
+        <v>408962</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B364" s="1">
+        <v>408963</v>
+      </c>
+      <c r="D364" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B365" s="1">
+        <v>408964</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B366" s="1">
+        <v>408965</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="1">
+        <v>408966</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="1">
+        <v>408967</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="1">
+        <v>408968</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="1">
+        <v>408969</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="1">
+        <v>408970</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="1">
+        <v>408971</v>
+      </c>
+      <c r="D372" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="1">
+        <v>408972</v>
+      </c>
+      <c r="D373" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" s="1">
+        <v>408973</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="1">
+        <v>408974</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="1">
+        <v>408975</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B377" s="1">
+        <v>408976</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="1">
+        <v>408977</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="1">
+        <v>408978</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="1">
+        <v>408979</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="1">
+        <v>408980</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="1">
+        <v>408981</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="1">
+        <v>408982</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="1">
+        <v>408983</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="1">
+        <v>408984</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="1">
+        <v>408985</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B387" s="1">
+        <v>408986</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B388" s="1">
+        <v>408987</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="1">
+        <v>408988</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="1">
+        <v>408989</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="1">
+        <v>408990</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="1">
+        <v>408991</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="1">
+        <v>408992</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="1">
+        <v>408993</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="1">
+        <v>408994</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="1">
+        <v>408995</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="1">
+        <v>408996</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="1">
+        <v>408997</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="1">
+        <v>408998</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" s="1">
+        <v>408999</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B401" s="1">
+        <v>409000</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" s="1">
+        <v>409001</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="1">
+        <v>409002</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="1">
+        <v>409003</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="1">
+        <v>409004</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="1">
+        <v>409005</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B407" s="1">
+        <v>409006</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="1">
+        <v>409007</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="1">
+        <v>409008</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B410" s="1">
+        <v>409009</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="1">
+        <v>409010</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="1">
+        <v>409011</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E281" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
-    <hyperlink ref="F266" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
+    <hyperlink ref="E330" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="F297" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85BE44C-1B61-4098-8DD3-F1F23214F76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3875B74-E5C9-4B36-8834-FFAF3CB90373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2233,8 +2233,8 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B311" sqref="B311:D311"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4836,9 +4836,6 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B226" s="1">
         <v>408827</v>
       </c>
@@ -4883,6 +4880,9 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B233" s="1">
         <v>408834</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3875B74-E5C9-4B36-8834-FFAF3CB90373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669E91F-B0F9-4602-BEDC-4DDD8FEC025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2234,24 +2234,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
+      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="10" width="38.140625" customWidth="1"/>
-    <col min="11" max="16" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="9" max="10" width="38.1796875" customWidth="1"/>
+    <col min="11" max="16" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>408442</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>408607</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>408608</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>408609</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>408610</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>408611</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>408612</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>408613</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>408614</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>408615</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>408616</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>408617</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>408618</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>408619</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>408620</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>408621</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>408622</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>408623</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>408624</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>408625</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>408626</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>408627</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>408628</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>408629</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>408630</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>408631</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>408632</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>408633</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>408634</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>408635</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>408636</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>408637</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>408638</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>408639</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>164</v>
       </c>
@@ -2895,18 +2895,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>408641</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>408642</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>408643</v>
       </c>
@@ -2920,17 +2920,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
         <v>408644</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <v>408645</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1">
         <v>408646</v>
       </c>
@@ -2944,57 +2944,57 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1">
         <v>408647</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1">
         <v>408648</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1">
         <v>408649</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1">
         <v>408650</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1">
         <v>408651</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1">
         <v>408652</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1">
         <v>408653</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1">
         <v>408654</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <v>408655</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <v>408656</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1">
         <v>408657</v>
       </c>
@@ -3008,87 +3008,87 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <v>408658</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
         <v>408659</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <v>408660</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
         <v>408661</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1">
         <v>408662</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
         <v>408663</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>408664</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>408665</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>408666</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
         <v>408667</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
         <v>408668</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <v>408669</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
         <v>408670</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>408671</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>408672</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1">
         <v>408673</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>408674</v>
       </c>
@@ -3102,112 +3102,112 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1">
         <v>408675</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1">
         <v>408676</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1">
         <v>408677</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
         <v>408678</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1">
         <v>408679</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1">
         <v>408680</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1">
         <v>408681</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1">
         <v>408682</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1">
         <v>408683</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1">
         <v>408684</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1">
         <v>408685</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1">
         <v>408686</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1">
         <v>408687</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1">
         <v>408688</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1">
         <v>408689</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1">
         <v>408690</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1">
         <v>408691</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1">
         <v>408692</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1">
         <v>408693</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1">
         <v>408694</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1">
         <v>408695</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1">
         <v>408696</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1">
         <v>408697</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1">
         <v>408698</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1">
         <v>408699</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1">
         <v>408700</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1">
         <v>408701</v>
       </c>
@@ -3282,32 +3282,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1">
         <v>408702</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1">
         <v>408703</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1">
         <v>408704</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1">
         <v>408705</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1">
         <v>408706</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1">
         <v>408707</v>
       </c>
@@ -3324,12 +3324,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="1">
         <v>408708</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1">
         <v>408709</v>
       </c>
@@ -3343,27 +3343,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1">
         <v>408710</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1">
         <v>408711</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1">
         <v>408712</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1">
         <v>408713</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1">
         <v>408714</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1">
         <v>408715</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1">
         <v>408716</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1">
         <v>408717</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1">
         <v>408718</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1">
         <v>408719</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1">
         <v>408720</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1">
         <v>408721</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1">
         <v>408722</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1">
         <v>408723</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1">
         <v>408724</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1">
         <v>408725</v>
       </c>
@@ -3540,22 +3540,22 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1">
         <v>408726</v>
       </c>
     </row>
-    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1">
         <v>408727</v>
       </c>
     </row>
-    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1">
         <v>408728</v>
       </c>
     </row>
-    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1">
         <v>408729</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1">
         <v>408730</v>
       </c>
@@ -3583,12 +3583,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1">
         <v>408731</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1">
         <v>408732</v>
       </c>
@@ -3602,107 +3602,107 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1">
         <v>408733</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1">
         <v>408734</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1">
         <v>408735</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1">
         <v>408736</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1">
         <v>408737</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1">
         <v>408738</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1">
         <v>408739</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1">
         <v>408740</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1">
         <v>408741</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1">
         <v>408742</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1">
         <v>408743</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1">
         <v>408744</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1">
         <v>408745</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1">
         <v>408746</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1">
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="11" t="s">
         <v>226</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="11" t="s">
         <v>226</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1">
         <v>408767</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1">
         <v>408768</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1">
         <v>408769</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1">
         <v>408770</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1">
         <v>408771</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1">
         <v>408774</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1">
         <v>408775</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1">
         <v>408777</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
@@ -4662,13 +4662,13 @@
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
@@ -4677,19 +4677,19 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -4697,13 +4697,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
     </row>
-    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
@@ -4726,35 +4726,35 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
     </row>
-    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="8"/>
     </row>
-    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
@@ -4762,52 +4762,52 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
@@ -4815,32 +4815,32 @@
         <v>396</v>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1">
         <v>408828</v>
       </c>
@@ -4854,40 +4854,37 @@
         <v>391</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
@@ -4895,62 +4892,65 @@
         <v>398</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B238" s="1">
         <v>408839</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
@@ -4958,37 +4958,37 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
@@ -4996,92 +4996,92 @@
         <v>400</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
@@ -5089,12 +5089,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="1">
         <v>408874</v>
       </c>
@@ -5102,47 +5102,47 @@
         <v>402</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="1">
         <v>408875</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1">
         <v>408876</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="1">
         <v>408877</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="1">
         <v>408878</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="1">
         <v>408879</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="1">
         <v>408880</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="1">
         <v>408881</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="1">
         <v>408882</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>320</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
         <v>350</v>
       </c>
@@ -5167,27 +5167,27 @@
         <v>408884</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1">
         <v>408885</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1">
         <v>408886</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="1">
         <v>408887</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="1">
         <v>408888</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="11" t="s">
         <v>226</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="F288" s="23"/>
       <c r="G288" s="23"/>
     </row>
-    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="11" t="s">
         <v>226</v>
       </c>
@@ -5215,42 +5215,42 @@
       <c r="F289" s="23"/>
       <c r="G289" s="23"/>
     </row>
-    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="1">
         <v>408889</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="1">
         <v>408890</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="1">
         <v>408891</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="1">
         <v>408892</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="1">
         <v>408893</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="1">
         <v>408894</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="1">
         <v>408895</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="1">
         <v>408896</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="1">
         <v>408897</v>
       </c>
@@ -5272,12 +5272,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="1">
         <v>408898</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="1">
         <v>408899</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="1">
         <v>408900</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="1">
         <v>408901</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="1">
         <v>408902</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="1">
         <v>408903</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
@@ -5552,17 +5552,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
@@ -5570,62 +5570,62 @@
         <v>219</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="1">
         <v>408920</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="1">
         <v>408921</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="1">
         <v>408922</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="1">
         <v>408923</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="1">
         <v>408924</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="1">
         <v>408925</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="1">
         <v>408926</v>
       </c>
@@ -5633,12 +5633,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1">
         <v>408927</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1">
         <v>408928</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="1">
         <v>408929</v>
       </c>
@@ -5657,22 +5657,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1">
         <v>408933</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1">
         <v>408934</v>
       </c>
@@ -5688,17 +5688,17 @@
         <v>414</v>
       </c>
     </row>
-    <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="1">
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
@@ -5706,22 +5706,22 @@
         <v>415</v>
       </c>
     </row>
-    <row r="339" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
@@ -5729,32 +5729,32 @@
         <v>416</v>
       </c>
     </row>
-    <row r="343" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
     </row>
-    <row r="345" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
     </row>
-    <row r="347" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
     </row>
-    <row r="348" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
@@ -5762,47 +5762,47 @@
         <v>417</v>
       </c>
     </row>
-    <row r="349" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
     </row>
-    <row r="350" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
     </row>
-    <row r="351" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
     </row>
-    <row r="352" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
     </row>
-    <row r="353" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
     </row>
-    <row r="357" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -5810,37 +5810,37 @@
         <v>418</v>
       </c>
     </row>
-    <row r="358" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
     </row>
-    <row r="360" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
     </row>
-    <row r="362" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -5848,42 +5848,42 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="373" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -5899,197 +5899,197 @@
         <v>421</v>
       </c>
     </row>
-    <row r="374" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
     </row>
-    <row r="385" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
     </row>
-    <row r="386" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
     </row>
-    <row r="387" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
     </row>
-    <row r="388" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
     </row>
-    <row r="389" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="1">
         <v>408988</v>
       </c>
     </row>
-    <row r="390" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
     </row>
-    <row r="391" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
     </row>
-    <row r="392" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
     </row>
-    <row r="393" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
     </row>
-    <row r="394" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
     </row>
-    <row r="395" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="1">
         <v>408999</v>
       </c>
     </row>
-    <row r="401" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="1">
         <v>409000</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="1">
         <v>409001</v>
       </c>
     </row>
-    <row r="403" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="1">
         <v>409002</v>
       </c>
     </row>
-    <row r="404" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="1">
         <v>409003</v>
       </c>
     </row>
-    <row r="405" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="1">
         <v>409004</v>
       </c>
     </row>
-    <row r="406" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="1">
         <v>409005</v>
       </c>
     </row>
-    <row r="407" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="1">
         <v>409006</v>
       </c>
     </row>
-    <row r="408" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="1">
         <v>409007</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="1">
         <v>409008</v>
       </c>
     </row>
-    <row r="410" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="1">
         <v>409009</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="1">
         <v>409010</v>
       </c>
     </row>
-    <row r="412" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="1">
         <v>409011</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669E91F-B0F9-4602-BEDC-4DDD8FEC025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE6FD3-3C9C-43E5-8B28-858E49A4958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2233,25 +2233,25 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A238" sqref="A238"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" customWidth="1"/>
-    <col min="9" max="10" width="38.1796875" customWidth="1"/>
-    <col min="11" max="16" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="10" width="38.140625" customWidth="1"/>
+    <col min="11" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>408442</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>408607</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>408608</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>408609</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>408610</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>408611</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>408612</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>408613</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>408614</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>408615</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>408616</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>408617</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>408618</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>408619</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>408620</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>408621</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>408622</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>408623</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>408624</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>408625</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>408626</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>408627</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>408628</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>408629</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>408630</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>408631</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>408632</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>408633</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>408634</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>408635</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>408636</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>408637</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>408638</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>408639</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>164</v>
       </c>
@@ -2895,18 +2895,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>408641</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>408642</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>408643</v>
       </c>
@@ -2920,17 +2920,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>408644</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>408645</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>408646</v>
       </c>
@@ -2944,57 +2944,57 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>408647</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>408648</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>408649</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>408650</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>408651</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>408652</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>408653</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>408654</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>408655</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>408656</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>408657</v>
       </c>
@@ -3008,87 +3008,87 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>408658</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>408659</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>408660</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>408661</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>408662</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>408663</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>408664</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>408665</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>408666</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>408667</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>408668</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>408669</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>408670</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>408671</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>408672</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>408673</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>408674</v>
       </c>
@@ -3102,112 +3102,112 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>408675</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>408676</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>408677</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>408678</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>408679</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>408680</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>408681</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>408682</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>408683</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>408684</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>408685</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>408686</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>408687</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>408688</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>408689</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>408690</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>408691</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>408692</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>408693</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>408694</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>408695</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>408696</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>408697</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>408698</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>408699</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>408700</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>408701</v>
       </c>
@@ -3282,32 +3282,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>408702</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>408703</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>408704</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>408705</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>408706</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>408707</v>
       </c>
@@ -3324,12 +3324,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>408708</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>408709</v>
       </c>
@@ -3343,27 +3343,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>408710</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>408711</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>408712</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>408713</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>408714</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>408715</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>408716</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>408717</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>408718</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>408719</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>408720</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>408721</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>408722</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>408723</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>408724</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>408725</v>
       </c>
@@ -3540,22 +3540,22 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>408726</v>
       </c>
     </row>
-    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>408727</v>
       </c>
     </row>
-    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>408728</v>
       </c>
     </row>
-    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>408729</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>408730</v>
       </c>
@@ -3583,12 +3583,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>408731</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>408732</v>
       </c>
@@ -3602,107 +3602,107 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>408733</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>408734</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>408735</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>408736</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>408737</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>408738</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>408739</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>408740</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>408741</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>408742</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>408743</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>408744</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>408745</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>408746</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>226</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>226</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>408767</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>408768</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>408769</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>408770</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>408771</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>408774</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>408775</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>408777</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
@@ -4662,13 +4662,13 @@
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
@@ -4677,19 +4677,19 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -4697,13 +4697,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
     </row>
-    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
@@ -4726,35 +4726,35 @@
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
     </row>
-    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="8"/>
     </row>
-    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
@@ -4762,52 +4762,52 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
@@ -4815,32 +4815,32 @@
         <v>396</v>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>408828</v>
       </c>
@@ -4854,37 +4854,37 @@
         <v>391</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
@@ -4892,65 +4892,62 @@
         <v>398</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
@@ -4958,37 +4955,37 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
@@ -4996,92 +4993,95 @@
         <v>400</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
@@ -5089,12 +5089,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>408874</v>
       </c>
@@ -5102,47 +5102,47 @@
         <v>402</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>408875</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>408876</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>408877</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>408878</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>408879</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>408880</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>408881</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>408882</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>320</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>350</v>
       </c>
@@ -5167,27 +5167,27 @@
         <v>408884</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>408885</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>408886</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>408887</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>408888</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>226</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="F288" s="23"/>
       <c r="G288" s="23"/>
     </row>
-    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>226</v>
       </c>
@@ -5215,42 +5215,42 @@
       <c r="F289" s="23"/>
       <c r="G289" s="23"/>
     </row>
-    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>408889</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>408890</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>408891</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>408892</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>408893</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>408894</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>408895</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>408896</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>408897</v>
       </c>
@@ -5272,12 +5272,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>408898</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>408899</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>408900</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>408901</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>408902</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>408903</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
@@ -5552,17 +5552,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
@@ -5570,62 +5570,62 @@
         <v>219</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>408920</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>408921</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>408922</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>408923</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>408924</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>408925</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>408926</v>
       </c>
@@ -5633,12 +5633,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>408927</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>408928</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>408929</v>
       </c>
@@ -5657,22 +5657,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>408933</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>408934</v>
       </c>
@@ -5688,17 +5688,17 @@
         <v>414</v>
       </c>
     </row>
-    <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
@@ -5706,22 +5706,22 @@
         <v>415</v>
       </c>
     </row>
-    <row r="339" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
@@ -5729,32 +5729,32 @@
         <v>416</v>
       </c>
     </row>
-    <row r="343" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
     </row>
-    <row r="345" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
     </row>
-    <row r="347" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
     </row>
-    <row r="348" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
@@ -5762,47 +5762,47 @@
         <v>417</v>
       </c>
     </row>
-    <row r="349" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
     </row>
-    <row r="350" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
     </row>
-    <row r="351" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
     </row>
-    <row r="352" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
     </row>
-    <row r="353" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
     </row>
-    <row r="357" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -5810,37 +5810,37 @@
         <v>418</v>
       </c>
     </row>
-    <row r="358" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
     </row>
-    <row r="360" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
     </row>
-    <row r="362" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -5848,42 +5848,42 @@
         <v>419</v>
       </c>
     </row>
-    <row r="365" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="373" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -5899,197 +5899,197 @@
         <v>421</v>
       </c>
     </row>
-    <row r="374" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
     </row>
-    <row r="385" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
     </row>
-    <row r="386" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
     </row>
-    <row r="387" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
     </row>
-    <row r="388" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
     </row>
-    <row r="389" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>408988</v>
       </c>
     </row>
-    <row r="390" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
     </row>
-    <row r="391" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
     </row>
-    <row r="392" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
     </row>
-    <row r="393" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
     </row>
-    <row r="394" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
     </row>
-    <row r="395" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>408999</v>
       </c>
     </row>
-    <row r="401" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1">
         <v>409000</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1">
         <v>409001</v>
       </c>
     </row>
-    <row r="403" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1">
         <v>409002</v>
       </c>
     </row>
-    <row r="404" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1">
         <v>409003</v>
       </c>
     </row>
-    <row r="405" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1">
         <v>409004</v>
       </c>
     </row>
-    <row r="406" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1">
         <v>409005</v>
       </c>
     </row>
-    <row r="407" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1">
         <v>409006</v>
       </c>
     </row>
-    <row r="408" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1">
         <v>409007</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1">
         <v>409008</v>
       </c>
     </row>
-    <row r="410" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1">
         <v>409009</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1">
         <v>409010</v>
       </c>
     </row>
-    <row r="412" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1">
         <v>409011</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE6FD3-3C9C-43E5-8B28-858E49A4958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6155EB8-EB3E-42F8-AA44-5AB493895353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2233,8 +2233,8 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4922,32 +4922,32 @@
         <v>408841</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
@@ -4955,37 +4955,37 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
@@ -4993,95 +4993,95 @@
         <v>400</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>408873</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6155EB8-EB3E-42F8-AA44-5AB493895353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99096955-3F26-4A9F-8420-4DDF017D4F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="427">
   <si>
     <t>Date</t>
   </si>
@@ -1697,9 +1697,6 @@
     <t xml:space="preserve">•	25. King Elessar finds the sapling of the White Tree. </t>
   </si>
   <si>
-    <t>Aragorn / Gandalf</t>
-  </si>
-  <si>
     <t xml:space="preserve">•	1 Lithe. Arwen comes to the City. </t>
   </si>
   <si>
@@ -1749,6 +1746,28 @@
   </si>
   <si>
     <t xml:space="preserve">•	22. The hundred and twenty-ninth birthday of Bilbo. Saruman comes to the Shire. </t>
+  </si>
+  <si>
+    <t>30 June 3019 [TOY] [ALL] It was the day before Midsummer when messengers came from Amon Dín to the City, and they said that there was a riding of fair folk out of the North, and they drew near now to the walls of the Pelennor. And the King said: ‘At last they have come. Let all the City be made ready!’</t>
+  </si>
+  <si>
+    <t>1 Lithe 3019 [TOY] [All] Upon the very Eve of Midsummer, when the sky was blue as sapphire and white stars opened in the East, but the West was still golden, and the air was cool and fragrant, the riders came down the North-way to the gates of Minas Tirith.</t>
+  </si>
+  <si>
+    <t>[Technical Note: The Shire Calendar's June ends at 30 days, like all months, and 1 Lithe and Mid-Year's Day occurr before July  1st begins.]</t>
+  </si>
+  <si>
+    <t>Mid-Year's Day 3019 [TOY] [All]
+and last came Master Elrond, mighty among Elves and Men, bearing the sceptre of Annúminas, and beside him upon a grey palfrey rode Arwen his daughter, Evenstar of her people. 
+And Frodo when he saw her come glimmering in the evening, with stars on her brow and a sweet fragrance about her, was moved with great wonder, and he said to Gandalf: ‘At last I understand why we have waited! This is the ending. Now not day only shall be beloved, but night too shall be beautiful and blessed and all its fear pass away!’ 
+Then the King welcomed his guests, and they alighted; and Elrond surrendered the sceptre, and laid the hand of his daughter in the hand of the King, and together they went up into the High City, and all the stars flowered in the sky. 
+And Aragorn the King Elessar wedded Arwen Undómiel in the City of the Kings upon the day of Midsummer, and the tale of their long waiting and labours was come to fulfilment.</t>
+  </si>
+  <si>
+    <t>15 July 3019 [All] ‘Then I beg leave to depart soon,’ said Frodo. ‘In seven days we will go,’ said Aragorn. ‘For we shall ride with you far on the road, even as far as the country of Rohan. In three days now Éomer will return hither to bear Théoden back to rest in the Mark, and we shall ride with him to honour the fallen.</t>
+  </si>
+  <si>
+    <t>25 June 3019 [TOY] [Aragorn / Gandalf] Then Aragorn laid his hand gently to the sapling, and lo! it seemed to hold only lightly to the earth, and it was removed without hurt; and Aragorn bore it back to the Citadel. Then the withered tree was uprooted, but with reverence; and they did not burn it, but laid it to rest in the silence of Rath Dínen. And Aragorn planted the new tree in the court by the fountain, and swiftly and gladly it began to grow; and when the month of June entered in it was laden with blossom. ‘The sign has been given,’ said Aragorn, ‘and the day is not far off.’ And he set watchmen upon the walls.</t>
   </si>
 </sst>
 </file>
@@ -2233,8 +2252,8 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B282" sqref="B282"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5008,80 +5027,77 @@
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
@@ -5089,7 +5105,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
@@ -5103,6 +5119,9 @@
       </c>
     </row>
     <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B274" s="1">
         <v>408875</v>
       </c>
@@ -5156,7 +5175,7 @@
       <c r="F282" s="23"/>
       <c r="G282" s="23"/>
       <c r="H282" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,40 +5195,52 @@
       <c r="B285" s="1">
         <v>408886</v>
       </c>
+      <c r="H285" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>408887</v>
       </c>
+      <c r="H286" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>408888</v>
       </c>
+      <c r="H287" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>226</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
       <c r="G288" s="23"/>
+      <c r="H288" s="4" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>226</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E289" s="23"/>
       <c r="F289" s="23"/>
@@ -5254,23 +5285,11 @@
       <c r="B297" s="1">
         <v>408896</v>
       </c>
-      <c r="F297" s="2" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>408897</v>
       </c>
-      <c r="F298" t="s">
-        <v>6</v>
-      </c>
-      <c r="I298" t="s">
-        <v>30</v>
-      </c>
-      <c r="K298" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
@@ -5281,21 +5300,6 @@
       <c r="B300" s="1">
         <v>408899</v>
       </c>
-      <c r="F300" t="s">
-        <v>7</v>
-      </c>
-      <c r="H300" t="s">
-        <v>19</v>
-      </c>
-      <c r="I300" t="s">
-        <v>31</v>
-      </c>
-      <c r="J300" t="s">
-        <v>43</v>
-      </c>
-      <c r="K300" t="s">
-        <v>55</v>
-      </c>
       <c r="L300" t="s">
         <v>66</v>
       </c>
@@ -5304,29 +5308,11 @@
       <c r="B301" s="1">
         <v>408900</v>
       </c>
-      <c r="F301" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>408901</v>
       </c>
-      <c r="F302" t="s">
-        <v>9</v>
-      </c>
-      <c r="H302" t="s">
-        <v>20</v>
-      </c>
-      <c r="I302" t="s">
-        <v>32</v>
-      </c>
-      <c r="J302" t="s">
-        <v>44</v>
-      </c>
-      <c r="K302" t="s">
-        <v>56</v>
-      </c>
       <c r="L302" t="s">
         <v>67</v>
       </c>
@@ -5335,21 +5321,6 @@
       <c r="B303" s="1">
         <v>408902</v>
       </c>
-      <c r="F303" t="s">
-        <v>10</v>
-      </c>
-      <c r="H303" t="s">
-        <v>21</v>
-      </c>
-      <c r="I303" t="s">
-        <v>33</v>
-      </c>
-      <c r="J303" t="s">
-        <v>45</v>
-      </c>
-      <c r="K303" t="s">
-        <v>57</v>
-      </c>
       <c r="L303" t="s">
         <v>68</v>
       </c>
@@ -5358,20 +5329,8 @@
       <c r="B304" s="1">
         <v>408903</v>
       </c>
-      <c r="F304" t="s">
-        <v>11</v>
-      </c>
       <c r="H304" t="s">
-        <v>22</v>
-      </c>
-      <c r="I304" t="s">
-        <v>34</v>
-      </c>
-      <c r="J304" t="s">
-        <v>46</v>
-      </c>
-      <c r="K304" t="s">
-        <v>58</v>
+        <v>425</v>
       </c>
       <c r="L304" t="s">
         <v>69</v>
@@ -5381,21 +5340,6 @@
       <c r="B305" s="1">
         <v>408904</v>
       </c>
-      <c r="F305" t="s">
-        <v>12</v>
-      </c>
-      <c r="H305" t="s">
-        <v>23</v>
-      </c>
-      <c r="I305" t="s">
-        <v>35</v>
-      </c>
-      <c r="J305" t="s">
-        <v>47</v>
-      </c>
-      <c r="K305" t="s">
-        <v>59</v>
-      </c>
       <c r="L305" t="s">
         <v>70</v>
       </c>
@@ -5404,21 +5348,6 @@
       <c r="B306" s="1">
         <v>408905</v>
       </c>
-      <c r="F306" t="s">
-        <v>13</v>
-      </c>
-      <c r="H306" t="s">
-        <v>24</v>
-      </c>
-      <c r="I306" t="s">
-        <v>36</v>
-      </c>
-      <c r="J306" t="s">
-        <v>48</v>
-      </c>
-      <c r="K306" t="s">
-        <v>60</v>
-      </c>
       <c r="L306" t="s">
         <v>71</v>
       </c>
@@ -5428,22 +5357,7 @@
         <v>408906</v>
       </c>
       <c r="D307" t="s">
-        <v>409</v>
-      </c>
-      <c r="F307" t="s">
-        <v>14</v>
-      </c>
-      <c r="H307" t="s">
-        <v>25</v>
-      </c>
-      <c r="I307" t="s">
-        <v>37</v>
-      </c>
-      <c r="J307" t="s">
-        <v>49</v>
-      </c>
-      <c r="K307" t="s">
-        <v>61</v>
+        <v>408</v>
       </c>
       <c r="L307" t="s">
         <v>72</v>
@@ -5453,21 +5367,6 @@
       <c r="B308" s="1">
         <v>408907</v>
       </c>
-      <c r="F308" t="s">
-        <v>15</v>
-      </c>
-      <c r="H308" t="s">
-        <v>26</v>
-      </c>
-      <c r="I308" t="s">
-        <v>38</v>
-      </c>
-      <c r="J308" t="s">
-        <v>50</v>
-      </c>
-      <c r="K308" t="s">
-        <v>62</v>
-      </c>
       <c r="L308" t="s">
         <v>73</v>
       </c>
@@ -5476,21 +5375,6 @@
       <c r="B309" s="1">
         <v>408908</v>
       </c>
-      <c r="F309" t="s">
-        <v>16</v>
-      </c>
-      <c r="H309" t="s">
-        <v>27</v>
-      </c>
-      <c r="I309" t="s">
-        <v>39</v>
-      </c>
-      <c r="J309" t="s">
-        <v>51</v>
-      </c>
-      <c r="K309" t="s">
-        <v>63</v>
-      </c>
       <c r="L309" t="s">
         <v>74</v>
       </c>
@@ -5499,21 +5383,6 @@
       <c r="B310" s="1">
         <v>408909</v>
       </c>
-      <c r="F310" t="s">
-        <v>17</v>
-      </c>
-      <c r="H310" t="s">
-        <v>28</v>
-      </c>
-      <c r="I310" t="s">
-        <v>40</v>
-      </c>
-      <c r="J310" t="s">
-        <v>52</v>
-      </c>
-      <c r="K310" t="s">
-        <v>64</v>
-      </c>
       <c r="L310" t="s">
         <v>75</v>
       </c>
@@ -5523,34 +5392,13 @@
         <v>408910</v>
       </c>
       <c r="D311" t="s">
-        <v>410</v>
-      </c>
-      <c r="F311" t="s">
-        <v>18</v>
-      </c>
-      <c r="H311" t="s">
-        <v>29</v>
-      </c>
-      <c r="I311" t="s">
-        <v>41</v>
-      </c>
-      <c r="J311" t="s">
-        <v>53</v>
-      </c>
-      <c r="K311" t="s">
-        <v>65</v>
+        <v>409</v>
       </c>
     </row>
     <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
-      <c r="F312" t="s">
-        <v>77</v>
-      </c>
-      <c r="I312" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
@@ -5566,9 +5414,6 @@
       <c r="B315" s="1">
         <v>408914</v>
       </c>
-      <c r="E315" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
@@ -5595,361 +5440,550 @@
         <v>408919</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>408920</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>408921</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>408922</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>408923</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>408924</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>408925</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>408926</v>
       </c>
       <c r="D327" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>408927</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>408928</v>
       </c>
-      <c r="E329" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="330" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>408929</v>
       </c>
       <c r="D330" t="s">
-        <v>412</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="331" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>408933</v>
       </c>
       <c r="D334" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>408934</v>
       </c>
       <c r="D335" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
       <c r="D338" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="339" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
       <c r="D342" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="343" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
-    </row>
-    <row r="344" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F343" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
-    </row>
-    <row r="345" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F344" t="s">
+        <v>6</v>
+      </c>
+      <c r="I344" t="s">
+        <v>30</v>
+      </c>
+      <c r="K344" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="345" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
-    </row>
-    <row r="347" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F346" t="s">
+        <v>7</v>
+      </c>
+      <c r="H346" t="s">
+        <v>19</v>
+      </c>
+      <c r="I346" t="s">
+        <v>31</v>
+      </c>
+      <c r="J346" t="s">
+        <v>43</v>
+      </c>
+      <c r="K346" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="347" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
-    </row>
-    <row r="348" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
       <c r="D348" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="F348" t="s">
+        <v>9</v>
+      </c>
+      <c r="H348" t="s">
+        <v>20</v>
+      </c>
+      <c r="I348" t="s">
+        <v>32</v>
+      </c>
+      <c r="J348" t="s">
+        <v>44</v>
+      </c>
+      <c r="K348" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
-    </row>
-    <row r="350" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F349" t="s">
+        <v>10</v>
+      </c>
+      <c r="H349" t="s">
+        <v>21</v>
+      </c>
+      <c r="I349" t="s">
+        <v>33</v>
+      </c>
+      <c r="J349" t="s">
+        <v>45</v>
+      </c>
+      <c r="K349" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
-    </row>
-    <row r="351" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F350" t="s">
+        <v>11</v>
+      </c>
+      <c r="H350" t="s">
+        <v>22</v>
+      </c>
+      <c r="I350" t="s">
+        <v>34</v>
+      </c>
+      <c r="J350" t="s">
+        <v>46</v>
+      </c>
+      <c r="K350" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="351" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
-    </row>
-    <row r="352" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F351" t="s">
+        <v>12</v>
+      </c>
+      <c r="H351" t="s">
+        <v>23</v>
+      </c>
+      <c r="I351" t="s">
+        <v>35</v>
+      </c>
+      <c r="J351" t="s">
+        <v>47</v>
+      </c>
+      <c r="K351" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="352" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
-    </row>
-    <row r="353" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F352" t="s">
+        <v>13</v>
+      </c>
+      <c r="H352" t="s">
+        <v>24</v>
+      </c>
+      <c r="I352" t="s">
+        <v>36</v>
+      </c>
+      <c r="J352" t="s">
+        <v>48</v>
+      </c>
+      <c r="K352" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="353" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
-    </row>
-    <row r="354" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F353" t="s">
+        <v>14</v>
+      </c>
+      <c r="H353" t="s">
+        <v>25</v>
+      </c>
+      <c r="I353" t="s">
+        <v>37</v>
+      </c>
+      <c r="J353" t="s">
+        <v>49</v>
+      </c>
+      <c r="K353" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="354" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
-    </row>
-    <row r="355" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F354" t="s">
+        <v>15</v>
+      </c>
+      <c r="H354" t="s">
+        <v>26</v>
+      </c>
+      <c r="I354" t="s">
+        <v>38</v>
+      </c>
+      <c r="J354" t="s">
+        <v>50</v>
+      </c>
+      <c r="K354" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="355" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
-    </row>
-    <row r="356" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F355" t="s">
+        <v>16</v>
+      </c>
+      <c r="H355" t="s">
+        <v>27</v>
+      </c>
+      <c r="I355" t="s">
+        <v>39</v>
+      </c>
+      <c r="J355" t="s">
+        <v>51</v>
+      </c>
+      <c r="K355" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="356" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
-    </row>
-    <row r="357" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F356" t="s">
+        <v>17</v>
+      </c>
+      <c r="H356" t="s">
+        <v>28</v>
+      </c>
+      <c r="I356" t="s">
+        <v>40</v>
+      </c>
+      <c r="J356" t="s">
+        <v>52</v>
+      </c>
+      <c r="K356" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="357" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
       <c r="D357" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="358" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="F357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H357" t="s">
+        <v>29</v>
+      </c>
+      <c r="I357" t="s">
+        <v>41</v>
+      </c>
+      <c r="J357" t="s">
+        <v>53</v>
+      </c>
+      <c r="K357" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="358" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
-    </row>
-    <row r="359" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F358" t="s">
+        <v>77</v>
+      </c>
+      <c r="I358" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="359" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
     </row>
-    <row r="360" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
-    </row>
-    <row r="362" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E361" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="362" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
       <c r="D364" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="365" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="365" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
       <c r="D372" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
       <c r="D373" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
-    </row>
-    <row r="376" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
-    </row>
-    <row r="377" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E376" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
@@ -6097,8 +6131,8 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E330" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
-    <hyperlink ref="F297" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
+    <hyperlink ref="E376" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="F343" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99096955-3F26-4A9F-8420-4DDF017D4F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E474A731-CAF5-4759-B70E-D9430E1B2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2252,8 +2252,8 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C274" sqref="C274"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F292" sqref="F292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5162,9 +5162,6 @@
       </c>
     </row>
     <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="B282" s="1">
         <v>408883</v>
       </c>
@@ -5179,9 +5176,6 @@
       </c>
     </row>
     <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="B283" s="1">
         <v>408884</v>
       </c>
@@ -5247,11 +5241,17 @@
       <c r="G289" s="23"/>
     </row>
     <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="B290" s="1">
         <v>408889</v>
       </c>
     </row>
     <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="B291" s="1">
         <v>408890</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E474A731-CAF5-4759-B70E-D9430E1B2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B93302-2575-4FB6-A9E5-8D5D29DB81AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2253,7 +2253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F292" sqref="F292"/>
+      <selection pane="bottomLeft" activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5119,9 +5119,6 @@
       </c>
     </row>
     <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B274" s="1">
         <v>408875</v>
       </c>
@@ -5241,27 +5238,30 @@
       <c r="G289" s="23"/>
     </row>
     <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="B290" s="1">
         <v>408889</v>
       </c>
     </row>
     <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="B291" s="1">
         <v>408890</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="B292" s="1">
         <v>408891</v>
       </c>
     </row>
     <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="B293" s="1">
         <v>408892</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\pdx_git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B93302-2575-4FB6-A9E5-8D5D29DB81AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76108621-DD80-437A-9FBA-51EAC8C207E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="0" windowWidth="21315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1140" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1764,10 +1764,15 @@
 And Aragorn the King Elessar wedded Arwen Undómiel in the City of the Kings upon the day of Midsummer, and the tale of their long waiting and labours was come to fulfilment.</t>
   </si>
   <si>
-    <t>15 July 3019 [All] ‘Then I beg leave to depart soon,’ said Frodo. ‘In seven days we will go,’ said Aragorn. ‘For we shall ride with you far on the road, even as far as the country of Rohan. In three days now Éomer will return hither to bear Théoden back to rest in the Mark, and we shall ride with him to honour the fallen.</t>
-  </si>
-  <si>
     <t>25 June 3019 [TOY] [Aragorn / Gandalf] Then Aragorn laid his hand gently to the sapling, and lo! it seemed to hold only lightly to the earth, and it was removed without hurt; and Aragorn bore it back to the Citadel. Then the withered tree was uprooted, but with reverence; and they did not burn it, but laid it to rest in the silence of Rath Dínen. And Aragorn planted the new tree in the court by the fountain, and swiftly and gladly it began to grow; and when the month of June entered in it was laden with blossom. ‘The sign has been given,’ said Aragorn, ‘and the day is not far off.’ And he set watchmen upon the walls.</t>
+  </si>
+  <si>
+    <t>##  15 July 3019 [TOY]
+### [All]
+'I know what you have come to say, Frodo: you wish to return to your own home. Well, dearest friend, the tree grows best in the land of its sires; but for you in all the lands of the West there will ever be a welcome. 
+. . .
+‘Then I beg leave to depart soon,’ said Frodo. 
+‘In seven days we will go,’ said Aragorn. ‘For we shall ride with you far on the road, even as far as the country of Rohan. In three days now Éomer will return hither to bear Théoden back to rest in the Mark, and we shall ride with him to honour the fallen.</t>
   </si>
 </sst>
 </file>
@@ -2252,8 +2257,8 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A291" sqref="A291"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5169,7 +5174,7 @@
       <c r="F282" s="23"/>
       <c r="G282" s="23"/>
       <c r="H282" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5243,30 +5248,24 @@
       </c>
     </row>
     <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B291" s="1">
         <v>408890</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="B292" s="1">
         <v>408891</v>
       </c>
     </row>
     <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="B293" s="1">
         <v>408892</v>
       </c>
     </row>
     <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B294" s="1">
         <v>408893</v>
       </c>
@@ -5326,17 +5325,23 @@
       </c>
     </row>
     <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="B304" s="1">
         <v>408903</v>
       </c>
-      <c r="H304" t="s">
-        <v>425</v>
+      <c r="H304" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="L304" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5344,7 +5349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5352,7 +5357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5363,7 +5368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5371,7 +5376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5387,7 +5392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5395,47 +5400,47 @@
         <v>409</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>408919</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76108621-DD80-437A-9FBA-51EAC8C207E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE88ED-8594-42F2-B7F7-7225DC48F5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1140" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="431">
   <si>
     <t>Date</t>
   </si>
@@ -1416,9 +1416,6 @@
     <t>[M/Theoden/Eowyn] ~</t>
   </si>
   <si>
-    <t>WORKING HERE FRODO SAM</t>
-  </si>
-  <si>
     <t>[A/L/G] And then wonder took [Éomer], and a great joy; and he cast his sword up in the sunlight and sang as he caught it. And all eyes followed his gaze, and behold! upon the foremost ship a great standard broke, and the wind displayed it as she turned towards the Harlond. There flowered a White Tree, and that was for Gondor; but Seven Stars were about it, and a high crown above it, the signs of Elendil that no lord had borne for years beyond count. And the stars flamed in the sunlight, for they were wrought of gems by Arwen daughter of Elrond; and the crown was bright in the morning, for it was wrought of mithril and gold. // Thus came Aragorn son of Arathorn, Elessar, Isildur’s heir, out of the Paths of the Dead, borne upon a wind from the Sea to the kingdom of Gondor; and the mirth of the Rohirrim was a torrent of laughter and a flashing of swords, and the joy and wonder of the City was a music of trumpets and a ringing of bells. But the hosts of Mordor were seized with bewilderment, and a great wizardry it seemed to them that their own ships should be filled with their foes; and a black dread fell on them, knowing that the tides of fate had turned against them and their doom was at hand.</t>
   </si>
   <si>
@@ -1767,12 +1764,41 @@
     <t>25 June 3019 [TOY] [Aragorn / Gandalf] Then Aragorn laid his hand gently to the sapling, and lo! it seemed to hold only lightly to the earth, and it was removed without hurt; and Aragorn bore it back to the Citadel. Then the withered tree was uprooted, but with reverence; and they did not burn it, but laid it to rest in the silence of Rath Dínen. And Aragorn planted the new tree in the court by the fountain, and swiftly and gladly it began to grow; and when the month of June entered in it was laden with blossom. ‘The sign has been given,’ said Aragorn, ‘and the day is not far off.’ And he set watchmen upon the walls.</t>
   </si>
   <si>
-    <t>##  15 July 3019 [TOY]
-### [All]
+    <t>15 July 3019 [TOY][All]
 'I know what you have come to say, Frodo: you wish to return to your own home. Well, dearest friend, the tree grows best in the land of its sires; but for you in all the lands of the West there will ever be a welcome. 
 . . .
 ‘Then I beg leave to depart soon,’ said Frodo. 
 ‘In seven days we will go,’ said Aragorn. ‘For we shall ride with you far on the road, even as far as the country of Rohan. In three days now Éomer will return hither to bear Théoden back to rest in the Mark, and we shall ride with him to honour the fallen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 July 3019 [TOY][All]
+Éomer of Rohan came riding to the City, and with him came an éored of the fairest knights of the Mark. He was welcomed; and when they sat all at table in Merethrond, the Great Hall of Feasts, he beheld the beauty of the ladies that he saw and was filled with great wonder. And before he went to his rest he sent for Gimli the Dwarf, and he said to him: ‘Gimli Glóin’s son, have you your axe ready?’ 
+‘Nay, lord,’ said Gimli, ‘but I can speedily fetch it, if there be need.’ 
+‘You shall judge,’ said Éomer. ‘For there are certain rash words concerning the Lady in the Golden Wood that lie still between us. And now I have seen her with my eyes.’ 
+‘Well, lord,’ said Gimli, ‘and what say you now?’ 
+‘Alas!’ said Éomer. ‘I will not say that she is the fairest lady that lives.’ 
+‘Then I must go for my axe,’ said Gimli. 
+‘But first I will plead this excuse,’ said Éomer. ‘Had I seen her in other company, I would have said all that you could wish. But now I will put Queen Arwen Evenstar first, and I am ready to do battle on my own part with any who deny me. Shall I call for my sword?’ 
+Then Gimli bowed low. ‘Nay, you are excused for my part, lord,’ he said. ‘You have chosen the Evening; but my love is given to the Morning. And my heart forebodes that soon it will pass away for ever.’</t>
+  </si>
+  <si>
+    <t>[22 July 3019] [TOY][All]
+For the other Companions steeds were furnished according to their stature; and Frodo and Samwise rode at Aragorn’s side, and Gandalf rode upon Shadowfax, and Pippin rode with the knights of Gondor; and Legolas and Gimli as ever rode together upon Arod. 
+In that riding went also Queen Arwen, and Celeborn and Galadriel with their folk, and Elrond and his sons; and the princes of Dol Amroth and of Ithilien, and many captains and knights. Never had any king of the Mark such company upon the road as went with Théoden Thengel’s son to the land of his home.
+Without haste and at peace they passed into Anórien, and they came to the Grey Wood under Amon Dîn; and there they heard a sound as of drums beating in the hills, though no living thing could be seen. Then Aragorn let the trumpets be blown; and heralds cried: 
+    ‘Behold, the King Elessar is come! The Forest of Drúadan he gives to Ghân-buri-Ghân and to his folk, to be their own for ever; and hereafter let no man enter it without their leave!’ 
+Then the drums rolled loudly, and were silent.</t>
+  </si>
+  <si>
+    <t>7 August 3019 [TOY][All]
+At length after fifteen days of journey the wain of King Théoden passed through the green fields of Rohan and came to Edoras; and there they all rested.</t>
+  </si>
+  <si>
+    <t>10 August 3019 [TOY][All]
+Then the Riders of the King’s House upon white horses rode round about the barrow and sang together a song of Théoden Thengel’s son that Gléowine his minstrel made, and he made no other song after. The slow voices of the Riders stirred the hearts even of those who did not know the speech of that people; but the words of the song brought a light to the eyes of the folk of the Mark as they heard again afar the thunder of the hooves of the North and the voice of Eorl crying above the battle upon the Field of Celebrant; and the tale of the kings rolled on, and the horn of Helm was loud in the mountains, until the Darkness came and King Théoden arose and rode through the Shadow to the fire, and died in splendour, even as the Sun, returning beyond hope, gleamed upon Mindolluin in the morning.</t>
+  </si>
+  <si>
+    <t>WORKING HERE ALL</t>
   </si>
 </sst>
 </file>
@@ -2257,8 +2283,8 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331:A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4083,7 +4109,7 @@
         <v>305</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>308</v>
@@ -4161,10 +4187,10 @@
         <v>313</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J170" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4199,16 +4225,16 @@
         <v>47</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J172" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="K172" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="K172" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4222,13 +4248,13 @@
         <v>219</v>
       </c>
       <c r="H173" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I173" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="I173" s="6" t="s">
+      <c r="J173" s="19" t="s">
         <v>358</v>
-      </c>
-      <c r="J173" s="19" t="s">
-        <v>359</v>
       </c>
       <c r="K173" s="6" t="s">
         <v>319</v>
@@ -4245,16 +4271,16 @@
         <v>56</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J174" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4268,16 +4294,16 @@
         <v>219</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I175" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J175" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="K175" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="K175" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,13 +4317,13 @@
         <v>219</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J176" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K176" s="6" t="s">
         <v>319</v>
@@ -4314,13 +4340,13 @@
         <v>219</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I177" s="6" t="s">
         <v>315</v>
       </c>
       <c r="J177" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K177" s="6" t="s">
         <v>319</v>
@@ -4337,16 +4363,16 @@
         <v>219</v>
       </c>
       <c r="H178" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I178" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="I178" s="6" t="s">
+      <c r="J178" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="J178" s="19" t="s">
+      <c r="K178" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="K178" s="6" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4360,16 +4386,16 @@
         <v>219</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I179" s="9" t="s">
         <v>315</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,22 +4403,22 @@
         <v>408781</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E180" t="s">
         <v>61</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J180" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L180" s="6"/>
     </row>
@@ -4404,19 +4430,19 @@
         <v>241</v>
       </c>
       <c r="E181" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4430,13 +4456,13 @@
         <v>219</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
@@ -4452,15 +4478,15 @@
         <v>219</v>
       </c>
       <c r="H183" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I183" s="19" t="s">
         <v>374</v>
-      </c>
-      <c r="I183" s="19" t="s">
-        <v>375</v>
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,7 +4500,7 @@
         <v>219</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>219</v>
@@ -4482,7 +4508,7 @@
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
       <c r="L184" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4494,15 +4520,15 @@
         <v>219</v>
       </c>
       <c r="H185" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I185" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="I185" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4514,15 +4540,15 @@
         <v>219</v>
       </c>
       <c r="H186" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I186" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="I186" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4536,15 +4562,15 @@
         <v>219</v>
       </c>
       <c r="H187" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I187" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="I187" s="19" t="s">
-        <v>382</v>
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4558,15 +4584,15 @@
         <v>219</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I188" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4580,15 +4606,15 @@
         <v>219</v>
       </c>
       <c r="H189" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="I189" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="I189" s="19" t="s">
-        <v>386</v>
       </c>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
       <c r="L189" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,10 +4628,10 @@
         <v>219</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I190" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
@@ -4619,7 +4645,7 @@
         <v>219</v>
       </c>
       <c r="I191" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4627,7 +4653,7 @@
         <v>408793</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E192" t="s">
         <v>219</v>
@@ -4638,7 +4664,7 @@
         <v>408794</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E193" t="s">
         <v>219</v>
@@ -4683,7 +4709,7 @@
         <v>279</v>
       </c>
       <c r="L197" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4718,7 +4744,7 @@
         <v>408803</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,13 +4758,13 @@
         <v>408805</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H204" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="I204" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="I204" s="4" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4747,7 +4773,7 @@
       </c>
       <c r="D205" s="8"/>
       <c r="H205" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4783,7 +4809,7 @@
         <v>408812</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4836,7 +4862,7 @@
         <v>408822</v>
       </c>
       <c r="H221" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,13 +4895,13 @@
         <v>408828</v>
       </c>
       <c r="D227" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H227" t="s">
+        <v>389</v>
+      </c>
+      <c r="I227" t="s">
         <v>390</v>
-      </c>
-      <c r="I227" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,7 +4939,7 @@
         <v>408835</v>
       </c>
       <c r="D234" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4976,7 +5002,7 @@
         <v>408847</v>
       </c>
       <c r="D246" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5014,7 +5040,7 @@
         <v>408854</v>
       </c>
       <c r="D253" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5107,7 +5133,7 @@
         <v>408872</v>
       </c>
       <c r="D271" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5120,7 +5146,7 @@
         <v>408874</v>
       </c>
       <c r="D273" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5168,13 +5194,13 @@
         <v>408883</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E282" s="23"/>
       <c r="F282" s="23"/>
       <c r="G282" s="23"/>
       <c r="H282" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5192,7 +5218,7 @@
         <v>408886</v>
       </c>
       <c r="H285" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5200,7 +5226,7 @@
         <v>408887</v>
       </c>
       <c r="H286" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5208,7 +5234,7 @@
         <v>408888</v>
       </c>
       <c r="H287" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5216,16 +5242,16 @@
         <v>226</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E288" s="23"/>
       <c r="F288" s="23"/>
       <c r="G288" s="23"/>
       <c r="H288" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5233,10 +5259,10 @@
         <v>226</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E289" s="23"/>
       <c r="F289" s="23"/>
@@ -5263,9 +5289,6 @@
       </c>
     </row>
     <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B294" s="1">
         <v>408893</v>
       </c>
@@ -5296,6 +5319,9 @@
       </c>
     </row>
     <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B300" s="1">
         <v>408899</v>
       </c>
@@ -5325,23 +5351,17 @@
       </c>
     </row>
     <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="B304" s="1">
         <v>408903</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L304" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="7" t="s">
-        <v>350</v>
-      </c>
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5349,7 +5369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5357,18 +5377,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
       <c r="D307" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+      <c r="H307" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="L307" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5376,7 +5399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5384,7 +5407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5392,147 +5415,162 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
       <c r="D311" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="H311" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>408920</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>408921</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>408922</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>408923</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>408924</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>408925</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>408926</v>
       </c>
       <c r="D327" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="H327" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>408927</v>
       </c>
     </row>
-    <row r="329" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>408928</v>
       </c>
     </row>
-    <row r="330" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>408929</v>
       </c>
       <c r="D330" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="331" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H330" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
-    <row r="332" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
-    <row r="333" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
-    <row r="334" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>408933</v>
       </c>
       <c r="D334" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="335" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>408934</v>
       </c>
       <c r="D335" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>408935</v>
       </c>
@@ -5547,7 +5585,7 @@
         <v>408937</v>
       </c>
       <c r="D338" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="339" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5570,7 +5608,7 @@
         <v>408941</v>
       </c>
       <c r="D342" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="343" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,7 +5671,7 @@
         <v>408947</v>
       </c>
       <c r="D348" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F348" t="s">
         <v>9</v>
@@ -5816,7 +5854,7 @@
         <v>408956</v>
       </c>
       <c r="D357" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F357" t="s">
         <v>18</v>
@@ -5878,7 +5916,7 @@
         <v>408963</v>
       </c>
       <c r="D364" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="365" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5921,7 +5959,7 @@
         <v>408971</v>
       </c>
       <c r="D372" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="373" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5929,7 +5967,7 @@
         <v>408972</v>
       </c>
       <c r="D373" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="374" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE88ED-8594-42F2-B7F7-7225DC48F5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD49B91F-9F2F-4488-BE48-B6E0B3CA16CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1140" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2283,8 +2283,8 @@
   <dimension ref="A1:P412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A331" sqref="A331:A332"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A333" sqref="A333:A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5319,9 +5319,6 @@
       </c>
     </row>
     <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B300" s="1">
         <v>408899</v>
       </c>
@@ -5361,7 +5358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5369,7 +5366,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5426,47 +5426,47 @@
         <v>427</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
@@ -5534,27 +5534,27 @@
       </c>
     </row>
     <row r="331" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="B334" s="1">
         <v>408933</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD49B91F-9F2F-4488-BE48-B6E0B3CA16CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F850CB1-447C-4699-893A-3E8519045700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2284,7 +2284,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A333" sqref="A333:A334"/>
+      <selection pane="bottomLeft" activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5367,9 +5367,6 @@
       </c>
     </row>
     <row r="306" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5432,6 +5429,9 @@
       </c>
     </row>
     <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B313" s="1">
         <v>408912</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F850CB1-447C-4699-893A-3E8519045700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A695B3F0-620E-432A-9F6C-370DF5DD2E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="345" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2280,11 +2280,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P412"/>
+  <dimension ref="A1:P495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A313" sqref="A313"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5429,9 +5429,6 @@
       </c>
     </row>
     <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B313" s="1">
         <v>408912</v>
       </c>
@@ -5462,6 +5459,9 @@
       </c>
     </row>
     <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B319" s="1">
         <v>408918</v>
       </c>
@@ -5575,12 +5575,12 @@
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
     </row>
-    <row r="338" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
@@ -5588,22 +5588,22 @@
         <v>413</v>
       </c>
     </row>
-    <row r="339" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
@@ -5611,289 +5611,103 @@
         <v>414</v>
       </c>
     </row>
-    <row r="343" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
-      <c r="F343" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="344" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
-      <c r="F344" t="s">
-        <v>6</v>
-      </c>
-      <c r="I344" t="s">
-        <v>30</v>
-      </c>
-      <c r="K344" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="345" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
-      <c r="F346" t="s">
-        <v>7</v>
-      </c>
-      <c r="H346" t="s">
-        <v>19</v>
-      </c>
-      <c r="I346" t="s">
-        <v>31</v>
-      </c>
-      <c r="J346" t="s">
-        <v>43</v>
-      </c>
-      <c r="K346" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="347" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
-      <c r="F347" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="348" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
       <c r="D348" t="s">
         <v>415</v>
       </c>
-      <c r="F348" t="s">
-        <v>9</v>
-      </c>
-      <c r="H348" t="s">
-        <v>20</v>
-      </c>
-      <c r="I348" t="s">
-        <v>32</v>
-      </c>
-      <c r="J348" t="s">
-        <v>44</v>
-      </c>
-      <c r="K348" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="349" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
-      <c r="F349" t="s">
-        <v>10</v>
-      </c>
-      <c r="H349" t="s">
-        <v>21</v>
-      </c>
-      <c r="I349" t="s">
-        <v>33</v>
-      </c>
-      <c r="J349" t="s">
-        <v>45</v>
-      </c>
-      <c r="K349" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="350" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
-      <c r="F350" t="s">
-        <v>11</v>
-      </c>
-      <c r="H350" t="s">
-        <v>22</v>
-      </c>
-      <c r="I350" t="s">
-        <v>34</v>
-      </c>
-      <c r="J350" t="s">
-        <v>46</v>
-      </c>
-      <c r="K350" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="351" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
-      <c r="F351" t="s">
-        <v>12</v>
-      </c>
-      <c r="H351" t="s">
-        <v>23</v>
-      </c>
-      <c r="I351" t="s">
-        <v>35</v>
-      </c>
-      <c r="J351" t="s">
-        <v>47</v>
-      </c>
-      <c r="K351" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="352" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
-      <c r="F352" t="s">
-        <v>13</v>
-      </c>
-      <c r="H352" t="s">
-        <v>24</v>
-      </c>
-      <c r="I352" t="s">
-        <v>36</v>
-      </c>
-      <c r="J352" t="s">
-        <v>48</v>
-      </c>
-      <c r="K352" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="353" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
-      <c r="F353" t="s">
-        <v>14</v>
-      </c>
-      <c r="H353" t="s">
-        <v>25</v>
-      </c>
-      <c r="I353" t="s">
-        <v>37</v>
-      </c>
-      <c r="J353" t="s">
-        <v>49</v>
-      </c>
-      <c r="K353" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="354" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
-      <c r="F354" t="s">
-        <v>15</v>
-      </c>
-      <c r="H354" t="s">
-        <v>26</v>
-      </c>
-      <c r="I354" t="s">
-        <v>38</v>
-      </c>
-      <c r="J354" t="s">
-        <v>50</v>
-      </c>
-      <c r="K354" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="355" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
-      <c r="F355" t="s">
-        <v>16</v>
-      </c>
-      <c r="H355" t="s">
-        <v>27</v>
-      </c>
-      <c r="I355" t="s">
-        <v>39</v>
-      </c>
-      <c r="J355" t="s">
-        <v>51</v>
-      </c>
-      <c r="K355" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="356" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
-      <c r="F356" t="s">
-        <v>17</v>
-      </c>
-      <c r="H356" t="s">
-        <v>28</v>
-      </c>
-      <c r="I356" t="s">
-        <v>40</v>
-      </c>
-      <c r="J356" t="s">
-        <v>52</v>
-      </c>
-      <c r="K356" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="357" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
       <c r="D357" t="s">
         <v>416</v>
       </c>
-      <c r="F357" t="s">
-        <v>18</v>
-      </c>
-      <c r="H357" t="s">
-        <v>29</v>
-      </c>
-      <c r="I357" t="s">
-        <v>41</v>
-      </c>
-      <c r="J357" t="s">
-        <v>53</v>
-      </c>
-      <c r="K357" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="358" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
-      <c r="F358" t="s">
-        <v>77</v>
-      </c>
-      <c r="I358" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="359" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
     </row>
-    <row r="360" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
@@ -5901,17 +5715,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -5919,42 +5733,42 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -5962,7 +5776,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="373" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -5970,143 +5784,329 @@
         <v>419</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
-      <c r="E375" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="376" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
-      <c r="E376" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="377" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F376" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="377" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
-    </row>
-    <row r="378" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F377" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="378" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
-    </row>
-    <row r="380" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F379" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="380" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
-    </row>
-    <row r="381" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F380" t="s">
+        <v>6</v>
+      </c>
+      <c r="I380" t="s">
+        <v>30</v>
+      </c>
+      <c r="K380" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="381" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
-    </row>
-    <row r="383" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F382" t="s">
+        <v>7</v>
+      </c>
+      <c r="H382" t="s">
+        <v>19</v>
+      </c>
+      <c r="I382" t="s">
+        <v>31</v>
+      </c>
+      <c r="J382" t="s">
+        <v>43</v>
+      </c>
+      <c r="K382" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="383" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
-    </row>
-    <row r="384" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
-    </row>
-    <row r="385" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F384" t="s">
+        <v>9</v>
+      </c>
+      <c r="H384" t="s">
+        <v>20</v>
+      </c>
+      <c r="I384" t="s">
+        <v>32</v>
+      </c>
+      <c r="J384" t="s">
+        <v>44</v>
+      </c>
+      <c r="K384" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="385" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
-    </row>
-    <row r="386" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F385" t="s">
+        <v>10</v>
+      </c>
+      <c r="H385" t="s">
+        <v>21</v>
+      </c>
+      <c r="I385" t="s">
+        <v>33</v>
+      </c>
+      <c r="J385" t="s">
+        <v>45</v>
+      </c>
+      <c r="K385" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="386" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
-    </row>
-    <row r="387" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F386" t="s">
+        <v>11</v>
+      </c>
+      <c r="H386" t="s">
+        <v>22</v>
+      </c>
+      <c r="I386" t="s">
+        <v>34</v>
+      </c>
+      <c r="J386" t="s">
+        <v>46</v>
+      </c>
+      <c r="K386" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="387" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
-    </row>
-    <row r="388" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F387" t="s">
+        <v>12</v>
+      </c>
+      <c r="H387" t="s">
+        <v>23</v>
+      </c>
+      <c r="I387" t="s">
+        <v>35</v>
+      </c>
+      <c r="J387" t="s">
+        <v>47</v>
+      </c>
+      <c r="K387" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="388" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
-    </row>
-    <row r="389" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F388" t="s">
+        <v>13</v>
+      </c>
+      <c r="H388" t="s">
+        <v>24</v>
+      </c>
+      <c r="I388" t="s">
+        <v>36</v>
+      </c>
+      <c r="J388" t="s">
+        <v>48</v>
+      </c>
+      <c r="K388" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="389" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>408988</v>
       </c>
-    </row>
-    <row r="390" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F389" t="s">
+        <v>14</v>
+      </c>
+      <c r="H389" t="s">
+        <v>25</v>
+      </c>
+      <c r="I389" t="s">
+        <v>37</v>
+      </c>
+      <c r="J389" t="s">
+        <v>49</v>
+      </c>
+      <c r="K389" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="390" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
-    </row>
-    <row r="391" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F390" t="s">
+        <v>15</v>
+      </c>
+      <c r="H390" t="s">
+        <v>26</v>
+      </c>
+      <c r="I390" t="s">
+        <v>38</v>
+      </c>
+      <c r="J390" t="s">
+        <v>50</v>
+      </c>
+      <c r="K390" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="391" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
-    </row>
-    <row r="392" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F391" t="s">
+        <v>16</v>
+      </c>
+      <c r="H391" t="s">
+        <v>27</v>
+      </c>
+      <c r="I391" t="s">
+        <v>39</v>
+      </c>
+      <c r="J391" t="s">
+        <v>51</v>
+      </c>
+      <c r="K391" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="392" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
-    </row>
-    <row r="393" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F392" t="s">
+        <v>17</v>
+      </c>
+      <c r="H392" t="s">
+        <v>28</v>
+      </c>
+      <c r="I392" t="s">
+        <v>40</v>
+      </c>
+      <c r="J392" t="s">
+        <v>52</v>
+      </c>
+      <c r="K392" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="393" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
-    </row>
-    <row r="394" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H393" t="s">
+        <v>29</v>
+      </c>
+      <c r="I393" t="s">
+        <v>41</v>
+      </c>
+      <c r="J393" t="s">
+        <v>53</v>
+      </c>
+      <c r="K393" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="394" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
-    </row>
-    <row r="395" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F394" t="s">
+        <v>77</v>
+      </c>
+      <c r="I394" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="395" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>408999</v>
       </c>
@@ -6171,11 +6171,426 @@
         <v>409011</v>
       </c>
     </row>
+    <row r="413" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B413" s="1">
+        <v>409012</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B414" s="1">
+        <v>409013</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B415" s="1">
+        <v>409014</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B416" s="1">
+        <v>409015</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B417" s="1">
+        <v>409016</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B418" s="1">
+        <v>409017</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B419" s="1">
+        <v>409018</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B420" s="1">
+        <v>409019</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B421" s="1">
+        <v>409020</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" s="1">
+        <v>409021</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="1">
+        <v>409022</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="1">
+        <v>409023</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="1">
+        <v>409024</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="1">
+        <v>409025</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="1">
+        <v>409026</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="1">
+        <v>409027</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B429" s="1">
+        <v>409028</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="1">
+        <v>409029</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="1">
+        <v>409030</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="1">
+        <v>409031</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B433" s="1">
+        <v>409032</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="1">
+        <v>409033</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="1">
+        <v>409034</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B436" s="1">
+        <v>409035</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="1">
+        <v>409036</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="1">
+        <v>409037</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="1">
+        <v>409038</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="1">
+        <v>409039</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="1">
+        <v>409040</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B442" s="1">
+        <v>409041</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B443" s="1">
+        <v>409042</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="1">
+        <v>409043</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B445" s="1">
+        <v>409044</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="1">
+        <v>409045</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="1">
+        <v>409046</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B448" s="1">
+        <v>409047</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B449" s="1">
+        <v>409048</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="1">
+        <v>409049</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="1">
+        <v>409050</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B452" s="1">
+        <v>409051</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B453" s="1">
+        <v>409052</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="1">
+        <v>409053</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="1">
+        <v>409054</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="1">
+        <v>409055</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B457" s="1">
+        <v>409056</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B458" s="1">
+        <v>409057</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B459" s="1">
+        <v>409058</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="1">
+        <v>409059</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="1">
+        <v>409060</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="1">
+        <v>409061</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="1">
+        <v>409062</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="1">
+        <v>409063</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="1">
+        <v>409064</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B466" s="1">
+        <v>409065</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B467" s="1">
+        <v>409066</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B468" s="1">
+        <v>409067</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="1">
+        <v>409068</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B470" s="1">
+        <v>409069</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="1">
+        <v>409070</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B472" s="1">
+        <v>409071</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="1">
+        <v>409072</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="1">
+        <v>409073</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="1">
+        <v>409074</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B476" s="1">
+        <v>409075</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="1">
+        <v>409076</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="1">
+        <v>409077</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B479" s="1">
+        <v>409078</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B480" s="1">
+        <v>409079</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B481" s="1">
+        <v>409080</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B482" s="1">
+        <v>409081</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B483" s="1">
+        <v>409082</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B484" s="1">
+        <v>409083</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B485" s="1">
+        <v>409084</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B486" s="1">
+        <v>409085</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B487" s="1">
+        <v>409086</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B488" s="1">
+        <v>409087</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B489" s="1">
+        <v>409088</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B490" s="1">
+        <v>409089</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B491" s="1">
+        <v>409090</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B492" s="1">
+        <v>409091</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B493" s="1">
+        <v>409092</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B494" s="1">
+        <v>409093</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="1">
+        <v>409094</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E376" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
-    <hyperlink ref="F343" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
+    <hyperlink ref="F377" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="F379" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A695B3F0-620E-432A-9F6C-370DF5DD2E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E4E13-8AA3-49A3-9533-9E6E39B35F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="345" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2284,7 +2284,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D334" sqref="D334"/>
+      <selection pane="bottomLeft" activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5358,7 +5358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5423,50 +5423,47 @@
         <v>427</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
@@ -5497,6 +5494,9 @@
       </c>
     </row>
     <row r="326" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B326" s="1">
         <v>408925</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E4E13-8AA3-49A3-9533-9E6E39B35F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0905600-3768-4D9E-9271-0D4BD6DF2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="438">
   <si>
     <t>Date</t>
   </si>
@@ -1799,6 +1799,44 @@
   </si>
   <si>
     <t>WORKING HERE ALL</t>
+  </si>
+  <si>
+    <t>~17 August 3019 [All]Now the guests were ready, and they drank the stirrup-cup, and with great praise and friendship they departed, and came at length to Helm’s Deep, and there they rested two days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##  22 August 3019 [TOY]
+### [All]
+But all save Legolas said that they must now take their leave and depart either south or west. ‘Come, Gimli!’ said Legolas. ‘Now by Fangorn’s leave I will visit the deep places of the Entwood and see such trees as are nowhere else to be found in Middle-earth. You shall come with me and keep your word; and thus we will journey on together to our own lands in Mirkwood and beyond.’ To this Gimli agreed, though with no great delight, it seemed.
+‘Here then at last comes the ending of the Fellowship of the Ring,’ said Aragorn. ‘Yet I hope that ere long you will return to my land with the help that you promised.’
+Then Treebeard said farewell to each of them in turn, and he bowed three times slowly and with great reverence to Celeborn and Galadriel. ‘It is long, long since we met by stock or by stone, A vanimar, vanimálion nostari!’ he said. ‘It is sad that we should meet only thus at the ending. For the world is changing: I feel it in the water, I feel it in the earth, and I smell it in the air. I do not think we shall meet again.’
+Then Aragorn took leave of Celeborn and Galadriel; and the Lady said to him: ‘Elfstone, through darkness you have come to your hope, and have now all your desire. Use well the days!’
+</t>
+  </si>
+  <si>
+    <t>##  28 August 3019 [F/S/M/P/Gand/Elves][TOY]
+You would not give a pipeful to a beggar, would you?’ 
+‘I would, if I had any,’ said Frodo. 
+‘You can have what I have got left,’ said Merry, ‘if you will wait a moment.’ He got down and searched in the bag at his saddle. Then he handed to Saruman a leather pouch. ‘Take what there is,’ he said. ‘You are welcome to it; it came from the flotsam of Isengard.’ 
+‘Mine, mine, yes and dearly bought!’ cried Saruman, clutching at the pouch. ‘This is only a repayment in token; for you took more, I’ll be bound. Still, a beggar must be grateful, if a thief returns him even a morsel of his own. Well, it will serve you right when you come home, if you find things less good in the Southfarthing than you would like. Long may your land be short of leaf!’ 
+‘Thank you!’ said Merry. ‘In that case I will have my pouch back, which is not yours and has journeyed far with me. Wrap the weed in a rag of your own.’ 
+‘One thief deserves another,’ said Saruman, and turned his back on Merry, and kicked Wormtongue, and went away towards the wood. 
+‘Well, I like that!’ said Pippin. ‘Thief indeed!</t>
+  </si>
+  <si>
+    <t>##  29 August 3019 [F/S/M/P/Gand/Elves][TOY]
+Next day they went on into northern Dunland, where no men now dwelt, though it was a green and pleasant country.</t>
+  </si>
+  <si>
+    <t>##  ~1 September 3019 [F/S/M/P/Gand/Elves]
+September came in with golden days and silver nights, and they rode at ease until they reached the Swanfleet river, and found the old ford, east of the falls where it went down suddenly into the lowlands. Far to the west in a haze lay the meres and eyots through which it wound its way to the Greyflood: there countless swans housed in a land of reeds.</t>
+  </si>
+  <si>
+    <t>##  ~5 September 3019 [F/S/M/P/Gand/Elves]
+So they passed into Eregion, and at last a fair morning dawned, shimmering above gleaming mists; and looking from their camp on a low hill the travellers saw away in the east the Sun catching three peaks that thrust up into the sky through floating clouds: Caradhras, Celebdil, and Fanuidhol.</t>
+  </si>
+  <si>
+    <t>##  6 September 3019 [F/S/M/P/Gand/Elves][TOY]
+Here now for seven days they tarried, for the time was at hand for another parting which they were loth to make.</t>
   </si>
 </sst>
 </file>
@@ -2283,8 +2321,8 @@
   <dimension ref="A1:P495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A326" sqref="A326"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G358" sqref="G358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5544,17 +5582,11 @@
       </c>
     </row>
     <row r="333" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="B334" s="1">
         <v>408933</v>
       </c>
@@ -5575,139 +5607,169 @@
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
-    </row>
-    <row r="338" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H337" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
       <c r="D338" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="339" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H338" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="339" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
       <c r="D342" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="343" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H342" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
     </row>
-    <row r="345" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
     </row>
-    <row r="347" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
     </row>
-    <row r="348" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
       <c r="D348" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="349" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H348" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="349" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
-    </row>
-    <row r="350" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H349" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="350" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
     </row>
-    <row r="351" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
     </row>
-    <row r="352" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
-    </row>
-    <row r="353" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H352" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
-    </row>
-    <row r="357" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H356" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="B357" s="1">
         <v>408956</v>
       </c>
       <c r="D357" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="358" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H357" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
     </row>
-    <row r="360" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
@@ -5715,17 +5777,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -5733,22 +5795,22 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>408967</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0905600-3768-4D9E-9271-0D4BD6DF2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED7F77-4F17-478A-8F35-818D5A3A5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="0" windowWidth="16590" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="477">
   <si>
     <t>Date</t>
   </si>
@@ -1838,6 +1838,409 @@
     <t>##  6 September 3019 [F/S/M/P/Gand/Elves][TOY]
 Here now for seven days they tarried, for the time was at hand for another parting which they were loth to make.</t>
   </si>
+  <si>
+    <t xml:space="preserve">•	5. Gandalf and the Hobbits leave Rivendell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	6. They cross the Ford of Bruinen; Frodo feels the first return of pain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	28. They reach Bree at nightfall. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	30. They leave Bree. The ‘Travellers’ come to the Brandywine Bridge at dark. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	1. They are arrested at Frogmorton. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	2. They come to Bywater and rouse the Shire-folk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	3. Battle of Bywater, and Passing of Saruman. End of the War of the Ring. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	13. Frodo is taken ill (on the anniversary of his poisoning by Shelob). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	6. The mallorn flowers in the Party Field. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	1. Samwise marries Rose. </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mid-year’s Day. Frodo resigns office of mayor, and Will Whitfoot is restored. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ß</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WORKING HERE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>September</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22. Bilbo’s hundred and thirtieth birthday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>October</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Frodo is again ill.</t>
+    </r>
+  </si>
+  <si>
+    <t>3021 S.R. 142I: The Last of the Third Age</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13. Frodo is again ill.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25. Birth of Elanor the Fair, daughter of Samwise. On this day the Fourth Age began in the reckoning of Gondor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21. Frodo and Samwise set out from Hobbiton.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22. They meet the Last Riding of the Keepers of the Rings in Woody End.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29. They come to the Grey Havens. Frodo and Bilbo depart over Sea with the Three Keepers. The end of the Third Age.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Samwise returns to Bag End.</t>
+    </r>
+  </si>
+  <si>
+    <t>~8 September 3019 [F/S/M/P/Gand/Elves]
+Often long after the hobbits were wrapped in sleep they would sit together under the stars, recalling the ages that were gone and all their joys and labours in the world, or holding council, concerning the days to come. If any wanderer had chanced to pass, little would he have seen or heard, and it would have seemed to him only that he saw grey figures, carved in stone, memorials of forgotten things now lost in unpeopled lands. For they did not move or speak with mouth, looking from mind to mind; and only their shining eyes stirred and kindled as their thoughts went to and fro.</t>
+  </si>
+  <si>
+    <t>21 September 3019 [F/S/M/P/Gand]
+First of all, before they had eaten or washed or even shed their cloaks, the hobbits went in search of Bilbo. They found him all alone in his little room. It was littered with papers and pens and pencils; but Bilbo was sitting in a chair before a small bright fire. He looked very old, but peaceful, and sleepy. He opened his eyes and looked up as they came in. ‘Hullo, hullo!’ he said. ‘So you’ve come back? And tomorrow’s my birthday, too. How clever of you! Do you know, I shall be one hundred and twenty-nine? And in one year more, if I am spared, I shall equal the Old Took. I should like to beat him; but we shall see.’</t>
+  </si>
+  <si>
+    <t>22 September 3019 [F/S/M/P/Gand][TOY]
+After the celebration of Bilbo’s birthday the four hobbits stayed in Rivendell for some days, and they sat much with their old friend, who spent most of his time now in his room, except at meals.</t>
+  </si>
+  <si>
+    <t>6 October September 3019 [F/S/M/P/Gand][TOY]
+‘Are you in pain, Frodo?’ said Gandalf quietly as he rode by Frodo’s side. ‘Well, yes I am,’ said Frodo. ‘It is my shoulder. The wound aches, and the memory of darkness is heavy on me. It was a year ago today.’</t>
+  </si>
+  <si>
+    <t>6 October September 3019 [F/S/M/P/Gand][TOY]
+The next day Gandalf and the hobbits took leave of Bilbo in his room, for it was cold out of doors; and then they said farewell to Elrond and all his household. 
+As Frodo stood upon the threshold, Elrond wished him a fair journey, and blessed him, and he said: ‘I think, Frodo, that maybe you will not need to come back, unless you come very soon. For about this time of the year, when the leaves are gold before they fall, look for Bilbo in the woods of the Shire. I shall be with him.’ 
+These words no one else heard, and Frodo kept them to himself.</t>
+  </si>
+  <si>
+    <t>~4-5 October September 3019 [F/S/M/P/Gand][TOY]
+When nearly a fortnight had passed Frodo looked out of his window and saw that there had been a frost in the night, and the cobwebs were like white nets. Then suddenly he knew that he must go, and say good-bye to Bilbo.
+. . .
+[On Rivendell] ‘Yes, something of everything, Sam, except the Sea,’ Frodo had answered; and he repeated it now to himself: ‘Except the Sea.’</t>
+  </si>
+  <si>
+    <t>~8 October 3019 [F/S/M/P/Gand]
+After that the journey went well, and the days went quickly by; for they rode at leisure, and often they lingered in the fair woodlands where the leaves were red and yellow in the autumn sun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 October 3019 [F/S/M/P/Gand]
+By the end of the next day the pain and unease had passed, and Frodo was merry again, as merry as if he did not remember the blackness of the day before. </t>
+  </si>
+  <si>
+    <t>28 October 3019 [F/S/M/P/Gand][TOY]
+‘Well, we’ve got you with us,’ said Merry, ‘so things will soon be cleared up.’ 
+‘I am with you at present,’ said Gandalf, ‘but soon I shall not be. I am not coming to the Shire. You must settle its affairs yourselves; that is what you have been trained for. Do you not yet understand? My time is over: it is no longer my task to set things to rights, nor to help folk to do so. And as for you, my dear friends, you will need no help. You are grown up now. Grown indeed very high; among the great you are, and I have no longer any fear at all for any of you. ‘But if you would know, I am turning aside soon. I am going to have a long talk with Bombadil: such a talk as I have not had in all my time. He is a moss-gatherer, and I have been a stone doomed to rolling. But my rolling days are ending, and now we shall have much to say to one another.’+H378</t>
+  </si>
+  <si>
+    <t>1 November 3019 [F/S/M/P][TOY]
+But as they came to the east end of the village they met a barrier with a large board saying NO ROAD; and behind it stood a large band of Shirriffs with staves in their hands and feathers in their caps, looking both important and rather scared. ‘What’s all this?’ said Frodo, feeling inclined to laugh. ‘This is what it is, Mr. Baggins,’ said the leader of the Shirriffs, a two-feather hobbit: ‘You’re arrested for Gate-breaking, and Tearing up of Rules, and Assaulting Gate-keepers, and Trespassing, and Sleeping in Shire-buildings without Leave, and Bribing Guards with Food.’ 
+‘And what else?’ said Frodo. 
+‘That’ll do to go on with,’ said the Shirriff-leader. 
+‘I can add some more, if you’d like it,’ said Sam. ‘Calling your Chief Names, Wishing to punch his Pimply Face, and Thinking you Shirriffs look a lot of Tom-fools.’</t>
+  </si>
+  <si>
+    <t>30/31 October 3019 [F/S/M/P][TOY]
+‘I am sorry, Mr. Merry,’ said Hob, ‘but it isn’t allowed.’ 
+‘What isn’t allowed?’ 
+‘Taking in folk off-hand like, and eating extra food, and all that,’ said Hob. 
+‘What’s the matter with the place?’ said Merry. ‘Has it been a bad year, or what? I thought it had been a fine summer and harvest.’ 
+‘Well no, the year’s been good enough,’ said Hob. ‘We grows a lot of food, but we don’t rightly know what becomes of it. It’s all these “gatherers” and “sharers”, I reckon, going round counting and measuring and taking off to storage. They do more gathering than sharing, and we never see most of the stuff again.’ 
+‘Oh come!’ said Pippin yawning. ‘This is all too tiresome for me tonight. We’ve got food in our bags. Just give us a room to lie down in. It’ll be better than many places I have seen.’</t>
+  </si>
+  <si>
+    <t>4 November 3019 [F/S/M/P]
+The clearing up certainly needed a lot of work, but it took less time than Sam had feared. The day after the battle Frodo rode to Michel Delving and released the prisoners from the Lockholes.</t>
+  </si>
+  <si>
+    <t>3 November 3019 [F/S/M/P][TOY]
+[Battle of Bywater]
+[Saruman tries to stab Frodo]
+‘No, Sam!’ said Frodo. ‘Do not kill him even now. For he has not hurt me. And in any case I do not wish him to be slain in this evil mood. He was great once, of a noble kind that we should not dare to raise our hands against. He is fallen, and his cure is beyond us; but I would still spare him, in the hope that he may find it.’
+. . . 
+Saruman rose to his feet, and stared at Frodo. There was a strange look in his eyes of mingled wonder and respect and hatred. 
+‘You have grown, Halfling,’ he said. ‘Yes, you have grown very much. You are wise, and cruel. You have robbed my revenge of sweetness, and now I must go hence in bitterness, in debt to your mercy. I hate it and you! ...'</t>
+  </si>
+  <si>
+    <t>3 November 3019 [F/S/M/P][TOY]
+Frodo looked down at the body with pity and horror, for as he looked it seemed that long years of death were suddenly revealed in it, and it shrank, and the shrivelled face became rags of skin upon a hideous skull. Lifting up the skirt of the dirty cloak that sprawled beside it, he covered it over, and turned away. 
+‘And that’s the end of that,’ said Sam. ‘A nasty end, and I wish I needn’t have seen it; but it’s a good riddance.’ 
+‘And the very last end of the War, I hope,’ said Merry. 
+‘I hope so,’ said Frodo and sighed. ‘The very last stroke. But to think that it should fall here, at the very door of Bag End! Among all my hopes and fears at least I never expected that.’ 
+‘I shan’t call it the end, till we’ve cleared up the mess,’ said Sam gloomily. ‘And that’ll take a lot of time and work.’</t>
+  </si>
+  <si>
+    <t>2 November 3019 [F/S/M/P][TOY]
+‘Good evening, Mrs. Cotton!’ he said. ‘Hullo, Rosie!’ 
+‘Hullo, Sam!’ said Rosie. ‘Where’ve you been? They said you were dead; but I’ve been expecting you since the spring. You haven’t hurried, have you?’ 
+‘Perhaps not,’ said Sam abashed. ‘But I’m hurrying now. We’re setting about the ruffians, and I’ve got to get back to Mr. Frodo. But I thought I’d have a look and see how Mrs. Cotton was keeping, and you, Rosie.’ 
+‘We’re keeping nicely, thank you,’ said Mrs. Cotton. ‘Or should be, if it weren’t for these thieving ruffians.’ 
+‘Well, be off with you!’ said Rosie. ‘If you’ve been looking after Mr. Frodo all this while, what d’you want to leave him for, as soon as things look dangerous?’ 
+This was too much for Sam. It needed a week’s answer, or none. He turned away and mounted his pony. But as he started off, Rosie ran down the steps. 
+‘I think you look fine, Sam,’ she said. ‘Go on now! But take care of yourself, and come straight back as soon as you have settled the ruffians!’</t>
+  </si>
 </sst>
 </file>
 
@@ -1846,7 +2249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1919,6 +2322,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2F5496"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF2F5496"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1993,7 +2428,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2034,6 +2469,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2318,11 +2765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P495"/>
+  <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G358" sqref="G358"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5532,9 +5979,6 @@
       </c>
     </row>
     <row r="326" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="B326" s="1">
         <v>408925</v>
       </c>
@@ -5561,6 +6005,9 @@
       </c>
     </row>
     <row r="330" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B330" s="1">
         <v>408929</v>
       </c>
@@ -5738,9 +6185,6 @@
       </c>
     </row>
     <row r="357" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -5763,6 +6207,9 @@
       <c r="B359" s="1">
         <v>408958</v>
       </c>
+      <c r="H359" s="4" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="360" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
@@ -5815,442 +6262,316 @@
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
       <c r="D372" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="373" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H372" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
       <c r="D373" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="374" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H373" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
-      <c r="F376" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="377" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
-      <c r="F377" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="378" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
-      <c r="F379" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="380" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
-      <c r="F380" t="s">
-        <v>6</v>
-      </c>
-      <c r="I380" t="s">
-        <v>30</v>
-      </c>
-      <c r="K380" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="381" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
-      <c r="F382" t="s">
-        <v>7</v>
-      </c>
-      <c r="H382" t="s">
-        <v>19</v>
-      </c>
-      <c r="I382" t="s">
-        <v>31</v>
-      </c>
-      <c r="J382" t="s">
-        <v>43</v>
-      </c>
-      <c r="K382" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="383" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
-      <c r="F383" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="384" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
-      <c r="F384" t="s">
-        <v>9</v>
-      </c>
-      <c r="H384" t="s">
-        <v>20</v>
-      </c>
-      <c r="I384" t="s">
-        <v>32</v>
-      </c>
-      <c r="J384" t="s">
-        <v>44</v>
-      </c>
-      <c r="K384" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="385" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
-      <c r="F385" t="s">
-        <v>10</v>
-      </c>
-      <c r="H385" t="s">
-        <v>21</v>
-      </c>
-      <c r="I385" t="s">
-        <v>33</v>
-      </c>
-      <c r="J385" t="s">
-        <v>45</v>
-      </c>
-      <c r="K385" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="386" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H385" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
-      <c r="F386" t="s">
-        <v>11</v>
-      </c>
-      <c r="H386" t="s">
-        <v>22</v>
-      </c>
-      <c r="I386" t="s">
-        <v>34</v>
-      </c>
-      <c r="J386" t="s">
-        <v>46</v>
-      </c>
-      <c r="K386" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="387" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>438</v>
+      </c>
+      <c r="H386" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
-      <c r="F387" t="s">
-        <v>12</v>
-      </c>
-      <c r="H387" t="s">
-        <v>23</v>
-      </c>
-      <c r="I387" t="s">
-        <v>35</v>
-      </c>
-      <c r="J387" t="s">
-        <v>47</v>
-      </c>
-      <c r="K387" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="388" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>439</v>
+      </c>
+      <c r="H387" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
-      <c r="F388" t="s">
-        <v>13</v>
-      </c>
-      <c r="H388" t="s">
-        <v>24</v>
-      </c>
-      <c r="I388" t="s">
-        <v>36</v>
-      </c>
-      <c r="J388" t="s">
-        <v>48</v>
-      </c>
-      <c r="K388" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="389" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H388" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>408988</v>
       </c>
-      <c r="F389" t="s">
-        <v>14</v>
-      </c>
-      <c r="H389" t="s">
-        <v>25</v>
-      </c>
-      <c r="I389" t="s">
-        <v>37</v>
-      </c>
-      <c r="J389" t="s">
-        <v>49</v>
-      </c>
-      <c r="K389" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="390" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
-      <c r="F390" t="s">
-        <v>15</v>
-      </c>
-      <c r="H390" t="s">
-        <v>26</v>
-      </c>
-      <c r="I390" t="s">
-        <v>38</v>
-      </c>
-      <c r="J390" t="s">
-        <v>50</v>
-      </c>
-      <c r="K390" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="391" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H390" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
-      <c r="F391" t="s">
-        <v>16</v>
-      </c>
-      <c r="H391" t="s">
-        <v>27</v>
-      </c>
-      <c r="I391" t="s">
-        <v>39</v>
-      </c>
-      <c r="J391" t="s">
-        <v>51</v>
-      </c>
-      <c r="K391" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="392" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
-      <c r="F392" t="s">
-        <v>17</v>
-      </c>
-      <c r="H392" t="s">
-        <v>28</v>
-      </c>
-      <c r="I392" t="s">
-        <v>40</v>
-      </c>
-      <c r="J392" t="s">
-        <v>52</v>
-      </c>
-      <c r="K392" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="393" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
-      <c r="F393" t="s">
-        <v>18</v>
-      </c>
-      <c r="H393" t="s">
-        <v>29</v>
-      </c>
-      <c r="I393" t="s">
-        <v>41</v>
-      </c>
-      <c r="J393" t="s">
-        <v>53</v>
-      </c>
-      <c r="K393" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="394" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
-      <c r="F394" t="s">
-        <v>77</v>
-      </c>
-      <c r="I394" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="395" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>408999</v>
       </c>
     </row>
-    <row r="401" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1">
         <v>409000</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1">
         <v>409001</v>
       </c>
     </row>
-    <row r="403" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1">
         <v>409002</v>
       </c>
     </row>
-    <row r="404" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1">
         <v>409003</v>
       </c>
     </row>
-    <row r="405" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1">
         <v>409004</v>
       </c>
     </row>
-    <row r="406" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1">
         <v>409005</v>
       </c>
     </row>
-    <row r="407" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1">
         <v>409006</v>
       </c>
     </row>
-    <row r="408" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1">
         <v>409007</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1">
         <v>409008</v>
       </c>
-    </row>
-    <row r="410" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D409" t="s">
+        <v>440</v>
+      </c>
+      <c r="H409" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1">
         <v>409009</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1">
         <v>409010</v>
       </c>
-    </row>
-    <row r="412" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D411" t="s">
+        <v>441</v>
+      </c>
+      <c r="H411" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1">
         <v>409011</v>
       </c>
     </row>
-    <row r="413" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="1">
         <v>409012</v>
       </c>
-    </row>
-    <row r="414" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D413" t="s">
+        <v>442</v>
+      </c>
+      <c r="H413" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="B414" s="1">
         <v>409013</v>
       </c>
-    </row>
-    <row r="415" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D414" t="s">
+        <v>443</v>
+      </c>
+      <c r="H414" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="1">
         <v>409014</v>
       </c>
-    </row>
-    <row r="416" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D415" t="s">
+        <v>444</v>
+      </c>
+      <c r="H415" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="I415" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="1">
         <v>409015</v>
+      </c>
+      <c r="H416" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,11 +6969,889 @@
         <v>409094</v>
       </c>
     </row>
+    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B496" s="1">
+        <v>409095</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="1">
+        <v>409096</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B498" s="1">
+        <v>409097</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="1">
+        <v>409098</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B500" s="1">
+        <v>409099</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B501" s="1">
+        <v>409100</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B502" s="1">
+        <v>409101</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B503" s="1">
+        <v>409102</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="1">
+        <v>409103</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B505" s="1">
+        <v>409104</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B506" s="1">
+        <v>409105</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B507" s="1">
+        <v>409106</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B508" s="1">
+        <v>409107</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="1">
+        <v>409108</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="1">
+        <v>409109</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="1">
+        <v>409110</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="1">
+        <v>409111</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B513" s="1">
+        <v>409112</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B514" s="1">
+        <v>409113</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B515" s="1">
+        <v>409114</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B516" s="1">
+        <v>409115</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="1">
+        <v>409116</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B518" s="1">
+        <v>409117</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B519" s="1">
+        <v>409118</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B520" s="1">
+        <v>409119</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B521" s="1">
+        <v>409120</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B522" s="1">
+        <v>409121</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="1">
+        <v>409122</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="1">
+        <v>409123</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B525" s="1">
+        <v>409124</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B526" s="1">
+        <v>409125</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B527" s="1">
+        <v>409126</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B528" s="1">
+        <v>409127</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B529" s="1">
+        <v>409128</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B530" s="1">
+        <v>409129</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B531" s="1">
+        <v>409130</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B532" s="1">
+        <v>409131</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="1">
+        <v>409132</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B534" s="1">
+        <v>409133</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B535" s="1">
+        <v>409134</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B536" s="1">
+        <v>409135</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="1">
+        <v>409136</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B538" s="1">
+        <v>409137</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B539" s="1">
+        <v>409138</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B540" s="1">
+        <v>409139</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B541" s="1">
+        <v>409140</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B542" s="1">
+        <v>409141</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B543" s="1">
+        <v>409142</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B544" s="1">
+        <v>409143</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B545" s="1">
+        <v>409144</v>
+      </c>
+    </row>
+    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B546" s="1">
+        <v>409145</v>
+      </c>
+      <c r="D546" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B547" s="1">
+        <v>409146</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="1">
+        <v>409147</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B549" s="1">
+        <v>409148</v>
+      </c>
+    </row>
+    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B550" s="1">
+        <v>409149</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="1">
+        <v>409150</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="1">
+        <v>409151</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="1">
+        <v>409152</v>
+      </c>
+    </row>
+    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="1">
+        <v>409153</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="1">
+        <v>409154</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="1">
+        <v>409155</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="1">
+        <v>409156</v>
+      </c>
+    </row>
+    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B558" s="1">
+        <v>409157</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B559" s="1">
+        <v>409158</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="1">
+        <v>409159</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="1">
+        <v>409160</v>
+      </c>
+    </row>
+    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B562" s="1">
+        <v>409161</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B563" s="1">
+        <v>409162</v>
+      </c>
+    </row>
+    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B564" s="1">
+        <v>409163</v>
+      </c>
+    </row>
+    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B565" s="1">
+        <v>409164</v>
+      </c>
+    </row>
+    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B566" s="1">
+        <v>409165</v>
+      </c>
+    </row>
+    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B567" s="1">
+        <v>409166</v>
+      </c>
+    </row>
+    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="1">
+        <v>409167</v>
+      </c>
+    </row>
+    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="1">
+        <v>409168</v>
+      </c>
+    </row>
+    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="1">
+        <v>409169</v>
+      </c>
+      <c r="D570" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B571" s="1">
+        <v>409170</v>
+      </c>
+    </row>
+    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="1">
+        <v>409171</v>
+      </c>
+    </row>
+    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B573" s="1">
+        <v>409172</v>
+      </c>
+    </row>
+    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="1">
+        <v>409173</v>
+      </c>
+    </row>
+    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B575" s="1">
+        <v>409174</v>
+      </c>
+    </row>
+    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B576" s="1">
+        <v>409175</v>
+      </c>
+    </row>
+    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B577" s="1">
+        <v>409176</v>
+      </c>
+    </row>
+    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B578" s="1">
+        <v>409177</v>
+      </c>
+    </row>
+    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B579" s="1">
+        <v>409178</v>
+      </c>
+    </row>
+    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="1">
+        <v>409179</v>
+      </c>
+    </row>
+    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B581" s="1">
+        <v>409180</v>
+      </c>
+      <c r="H581" t="s">
+        <v>80</v>
+      </c>
+      <c r="I581" s="13"/>
+    </row>
+    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B582" s="1">
+        <v>409181</v>
+      </c>
+      <c r="H582" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I582" s="13"/>
+    </row>
+    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B583" s="1">
+        <v>409182</v>
+      </c>
+      <c r="I583" s="13"/>
+    </row>
+    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="1">
+        <v>409183</v>
+      </c>
+      <c r="H584" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I584" s="13"/>
+    </row>
+    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B585" s="1">
+        <v>409184</v>
+      </c>
+      <c r="H585" t="s">
+        <v>6</v>
+      </c>
+      <c r="I585" s="13"/>
+      <c r="K585" t="s">
+        <v>30</v>
+      </c>
+      <c r="M585" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B586" s="1">
+        <v>409185</v>
+      </c>
+      <c r="I586" s="13"/>
+    </row>
+    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B587" s="1">
+        <v>409186</v>
+      </c>
+      <c r="H587" t="s">
+        <v>7</v>
+      </c>
+      <c r="I587" s="13"/>
+      <c r="J587" t="s">
+        <v>19</v>
+      </c>
+      <c r="K587" t="s">
+        <v>31</v>
+      </c>
+      <c r="L587" t="s">
+        <v>43</v>
+      </c>
+      <c r="M587" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B588" s="1">
+        <v>409187</v>
+      </c>
+      <c r="H588" t="s">
+        <v>8</v>
+      </c>
+      <c r="I588" s="13"/>
+    </row>
+    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B589" s="1">
+        <v>409188</v>
+      </c>
+      <c r="H589" t="s">
+        <v>9</v>
+      </c>
+      <c r="I589" s="13"/>
+      <c r="J589" t="s">
+        <v>20</v>
+      </c>
+      <c r="K589" t="s">
+        <v>32</v>
+      </c>
+      <c r="L589" t="s">
+        <v>44</v>
+      </c>
+      <c r="M589" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="1">
+        <v>409189</v>
+      </c>
+      <c r="H590" t="s">
+        <v>10</v>
+      </c>
+      <c r="I590" s="13"/>
+      <c r="J590" t="s">
+        <v>21</v>
+      </c>
+      <c r="K590" t="s">
+        <v>33</v>
+      </c>
+      <c r="L590" t="s">
+        <v>45</v>
+      </c>
+      <c r="M590" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B591" s="1">
+        <v>409190</v>
+      </c>
+      <c r="H591" t="s">
+        <v>11</v>
+      </c>
+      <c r="I591" s="13"/>
+      <c r="J591" t="s">
+        <v>22</v>
+      </c>
+      <c r="K591" t="s">
+        <v>34</v>
+      </c>
+      <c r="L591" t="s">
+        <v>46</v>
+      </c>
+      <c r="M591" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B592" s="1">
+        <v>409191</v>
+      </c>
+      <c r="H592" t="s">
+        <v>12</v>
+      </c>
+      <c r="I592" s="13"/>
+      <c r="J592" t="s">
+        <v>23</v>
+      </c>
+      <c r="K592" t="s">
+        <v>35</v>
+      </c>
+      <c r="L592" t="s">
+        <v>47</v>
+      </c>
+      <c r="M592" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="1">
+        <v>409192</v>
+      </c>
+      <c r="H593" t="s">
+        <v>13</v>
+      </c>
+      <c r="I593" s="13"/>
+      <c r="J593" t="s">
+        <v>24</v>
+      </c>
+      <c r="K593" t="s">
+        <v>36</v>
+      </c>
+      <c r="L593" t="s">
+        <v>48</v>
+      </c>
+      <c r="M593" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B594" s="1">
+        <v>409193</v>
+      </c>
+      <c r="H594" t="s">
+        <v>14</v>
+      </c>
+      <c r="I594" s="13"/>
+      <c r="J594" t="s">
+        <v>25</v>
+      </c>
+      <c r="K594" t="s">
+        <v>37</v>
+      </c>
+      <c r="L594" t="s">
+        <v>49</v>
+      </c>
+      <c r="M594" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B595" s="1">
+        <v>409194</v>
+      </c>
+      <c r="D595" t="s">
+        <v>447</v>
+      </c>
+      <c r="H595" t="s">
+        <v>15</v>
+      </c>
+      <c r="I595" s="13"/>
+      <c r="J595" t="s">
+        <v>26</v>
+      </c>
+      <c r="K595" t="s">
+        <v>38</v>
+      </c>
+      <c r="L595" t="s">
+        <v>50</v>
+      </c>
+      <c r="M595" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="1">
+        <v>409195</v>
+      </c>
+      <c r="H596" t="s">
+        <v>16</v>
+      </c>
+      <c r="I596" s="13"/>
+      <c r="J596" t="s">
+        <v>27</v>
+      </c>
+      <c r="K596" t="s">
+        <v>39</v>
+      </c>
+      <c r="L596" t="s">
+        <v>51</v>
+      </c>
+      <c r="M596" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B597" s="1">
+        <v>409196</v>
+      </c>
+      <c r="H597" t="s">
+        <v>17</v>
+      </c>
+      <c r="I597" s="13"/>
+      <c r="J597" t="s">
+        <v>28</v>
+      </c>
+      <c r="K597" t="s">
+        <v>40</v>
+      </c>
+      <c r="L597" t="s">
+        <v>52</v>
+      </c>
+      <c r="M597" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B598" s="1">
+        <v>409197</v>
+      </c>
+      <c r="H598" t="s">
+        <v>18</v>
+      </c>
+      <c r="I598" s="13"/>
+      <c r="J598" t="s">
+        <v>29</v>
+      </c>
+      <c r="K598" t="s">
+        <v>41</v>
+      </c>
+      <c r="L598" t="s">
+        <v>53</v>
+      </c>
+      <c r="M598" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B599" s="1">
+        <v>409198</v>
+      </c>
+      <c r="H599" t="s">
+        <v>77</v>
+      </c>
+      <c r="I599" s="13"/>
+      <c r="K599" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B600" s="1">
+        <v>409199</v>
+      </c>
+      <c r="I600" s="13"/>
+    </row>
+    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B601" s="1">
+        <v>409200</v>
+      </c>
+      <c r="I601" s="13"/>
+    </row>
+    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B602" s="1">
+        <v>409201</v>
+      </c>
+    </row>
+    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B603" s="1">
+        <v>409202</v>
+      </c>
+    </row>
+    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B604" s="1">
+        <v>409203</v>
+      </c>
+    </row>
+    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B605" s="1">
+        <v>409204</v>
+      </c>
+      <c r="H605" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="I605" s="25" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B606" s="1">
+        <v>409205</v>
+      </c>
+      <c r="H606" s="24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B607" s="1">
+        <v>409206</v>
+      </c>
+      <c r="H607" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B608" s="1">
+        <v>409207</v>
+      </c>
+      <c r="H608" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B609" s="1">
+        <v>409208</v>
+      </c>
+      <c r="H609" s="24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B610" s="1">
+        <v>409209</v>
+      </c>
+      <c r="H610" s="26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B611" s="1">
+        <v>409210</v>
+      </c>
+      <c r="H611" s="27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B612" s="1">
+        <v>409211</v>
+      </c>
+      <c r="H612" s="24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B613" s="1">
+        <v>409212</v>
+      </c>
+      <c r="H613" s="24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B614" s="1">
+        <v>409213</v>
+      </c>
+      <c r="H614" s="24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B615" s="1">
+        <v>409214</v>
+      </c>
+      <c r="H615" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H616" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H617" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H618" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H619" s="24" t="s">
+        <v>461</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F377" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
-    <hyperlink ref="F379" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
+    <hyperlink ref="H582" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="H584" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED7F77-4F17-478A-8F35-818D5A3A5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9DACFF-1040-47F8-8761-F2E96713CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="0" windowWidth="16590" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="510" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2768,25 +2768,25 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C358" sqref="C358"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H372" sqref="H372"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="10" width="38.140625" customWidth="1"/>
-    <col min="11" max="16" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="9" max="10" width="38.1796875" customWidth="1"/>
+    <col min="11" max="16" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>408442</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>408607</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>408608</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>408609</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>408610</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>408611</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>408612</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>408613</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>408614</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>408615</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>408616</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>408617</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>408618</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>408619</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>408620</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>408621</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>408622</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>408623</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>408624</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>408625</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>408626</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>408627</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>408628</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>408629</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>408630</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>408631</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>408632</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>408633</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>408634</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>408635</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>408636</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>408637</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>408638</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>408639</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>164</v>
       </c>
@@ -3430,18 +3430,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>408641</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>408642</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>408643</v>
       </c>
@@ -3455,17 +3455,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
         <v>408644</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <v>408645</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1">
         <v>408646</v>
       </c>
@@ -3479,57 +3479,57 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1">
         <v>408647</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1">
         <v>408648</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1">
         <v>408649</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1">
         <v>408650</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1">
         <v>408651</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1">
         <v>408652</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1">
         <v>408653</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1">
         <v>408654</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <v>408655</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <v>408656</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1">
         <v>408657</v>
       </c>
@@ -3543,87 +3543,87 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <v>408658</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
         <v>408659</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <v>408660</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
         <v>408661</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1">
         <v>408662</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
         <v>408663</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>408664</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>408665</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>408666</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
         <v>408667</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
         <v>408668</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <v>408669</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
         <v>408670</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>408671</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>408672</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1">
         <v>408673</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>408674</v>
       </c>
@@ -3637,112 +3637,112 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1">
         <v>408675</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1">
         <v>408676</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1">
         <v>408677</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
         <v>408678</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1">
         <v>408679</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1">
         <v>408680</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1">
         <v>408681</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1">
         <v>408682</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1">
         <v>408683</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1">
         <v>408684</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1">
         <v>408685</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1">
         <v>408686</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1">
         <v>408687</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1">
         <v>408688</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1">
         <v>408689</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1">
         <v>408690</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1">
         <v>408691</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1">
         <v>408692</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1">
         <v>408693</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1">
         <v>408694</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1">
         <v>408695</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1">
         <v>408696</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1">
         <v>408697</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1">
         <v>408698</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1">
         <v>408699</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1">
         <v>408700</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1">
         <v>408701</v>
       </c>
@@ -3817,32 +3817,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1">
         <v>408702</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1">
         <v>408703</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1">
         <v>408704</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1">
         <v>408705</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1">
         <v>408706</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1">
         <v>408707</v>
       </c>
@@ -3859,12 +3859,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="1">
         <v>408708</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1">
         <v>408709</v>
       </c>
@@ -3878,27 +3878,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1">
         <v>408710</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1">
         <v>408711</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1">
         <v>408712</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1">
         <v>408713</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1">
         <v>408714</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1">
         <v>408715</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1">
         <v>408716</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1">
         <v>408717</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1">
         <v>408718</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1">
         <v>408719</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1">
         <v>408720</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1">
         <v>408721</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1">
         <v>408722</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1">
         <v>408723</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1">
         <v>408724</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1">
         <v>408725</v>
       </c>
@@ -4075,22 +4075,22 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1">
         <v>408726</v>
       </c>
     </row>
-    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1">
         <v>408727</v>
       </c>
     </row>
-    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1">
         <v>408728</v>
       </c>
     </row>
-    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1">
         <v>408729</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1">
         <v>408730</v>
       </c>
@@ -4118,12 +4118,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1">
         <v>408731</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1">
         <v>408732</v>
       </c>
@@ -4137,107 +4137,107 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1">
         <v>408733</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1">
         <v>408734</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1">
         <v>408735</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1">
         <v>408736</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1">
         <v>408737</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1">
         <v>408738</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1">
         <v>408739</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1">
         <v>408740</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1">
         <v>408741</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1">
         <v>408742</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1">
         <v>408743</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1">
         <v>408744</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1">
         <v>408745</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1">
         <v>408746</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1">
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="11" t="s">
         <v>226</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="11" t="s">
         <v>226</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1">
         <v>408767</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1">
         <v>408768</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1">
         <v>408769</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1">
         <v>408770</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1">
         <v>408771</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1">
         <v>408774</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1">
         <v>408775</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1">
         <v>408777</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -5121,7 +5121,7 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
@@ -5197,13 +5197,13 @@
         <v>396</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
@@ -5212,19 +5212,19 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -5232,13 +5232,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
     </row>
-    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
@@ -5261,35 +5261,35 @@
         <v>393</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
     </row>
-    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="8"/>
     </row>
-    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
@@ -5297,52 +5297,52 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
@@ -5350,32 +5350,32 @@
         <v>395</v>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1">
         <v>408828</v>
       </c>
@@ -5389,37 +5389,37 @@
         <v>390</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
@@ -5427,62 +5427,62 @@
         <v>397</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
@@ -5490,37 +5490,37 @@
         <v>398</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
@@ -5528,92 +5528,92 @@
         <v>399</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
@@ -5621,12 +5621,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="1">
         <v>408874</v>
       </c>
@@ -5634,47 +5634,47 @@
         <v>401</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="1">
         <v>408875</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1">
         <v>408876</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="1">
         <v>408877</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="1">
         <v>408878</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="1">
         <v>408879</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="1">
         <v>408880</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="1">
         <v>408881</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="1">
         <v>408882</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="1">
         <v>408883</v>
       </c>
@@ -5688,17 +5688,17 @@
         <v>424</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="1">
         <v>408884</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1">
         <v>408885</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1">
         <v>408886</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="1">
         <v>408887</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="1">
         <v>408888</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="11" t="s">
         <v>226</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="11" t="s">
         <v>226</v>
       </c>
@@ -5753,57 +5753,57 @@
       <c r="F289" s="23"/>
       <c r="G289" s="23"/>
     </row>
-    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="1">
         <v>408889</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="1">
         <v>408890</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="1">
         <v>408891</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="1">
         <v>408892</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="1">
         <v>408893</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="1">
         <v>408894</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="1">
         <v>408895</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="1">
         <v>408896</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="1">
         <v>408897</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="1">
         <v>408898</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="1">
         <v>408899</v>
       </c>
@@ -5811,12 +5811,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="1">
         <v>408900</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="1">
         <v>408901</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="1">
         <v>408902</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="1">
         <v>408903</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5908,82 +5908,82 @@
         <v>427</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="1">
         <v>408920</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="1">
         <v>408921</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="1">
         <v>408922</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="1">
         <v>408923</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="1">
         <v>408924</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="1">
         <v>408925</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="1">
         <v>408926</v>
       </c>
@@ -5994,20 +5994,17 @@
         <v>428</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1">
         <v>408927</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1">
         <v>408928</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="330" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="1">
         <v>408929</v>
       </c>
@@ -6018,22 +6015,22 @@
         <v>429</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1">
         <v>408933</v>
       </c>
@@ -6041,7 +6038,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1">
         <v>408934</v>
       </c>
@@ -6049,12 +6046,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="1">
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
@@ -6062,7 +6059,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="338" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
@@ -6073,22 +6070,25 @@
         <v>432</v>
       </c>
     </row>
-    <row r="339" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
@@ -6099,32 +6099,32 @@
         <v>432</v>
       </c>
     </row>
-    <row r="343" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
     </row>
-    <row r="344" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
     </row>
-    <row r="345" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
     </row>
-    <row r="347" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
     </row>
-    <row r="348" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="349" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
@@ -6143,17 +6143,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="350" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
     </row>
-    <row r="351" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
     </row>
-    <row r="352" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
@@ -6161,22 +6161,22 @@
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -6195,15 +6195,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="7" t="s">
-        <v>349</v>
-      </c>
+    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
@@ -6211,12 +6208,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
@@ -6224,17 +6221,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -6242,42 +6239,45 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -6299,62 +6299,62 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
     </row>
-    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
@@ -6392,12 +6392,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="1">
         <v>408988</v>
       </c>
     </row>
-    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
@@ -6405,97 +6405,97 @@
         <v>468</v>
       </c>
     </row>
-    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
     </row>
-    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
     </row>
-    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
     </row>
-    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
     </row>
-    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="1">
         <v>408999</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="1">
         <v>409000</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="1">
         <v>409001</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="1">
         <v>409002</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="1">
         <v>409003</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="1">
         <v>409004</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="1">
         <v>409005</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="1">
         <v>409006</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="1">
         <v>409007</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="1">
         <v>409008</v>
       </c>
@@ -6506,12 +6506,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="1">
         <v>409009</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="1">
         <v>409010</v>
       </c>
@@ -6522,12 +6522,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="1">
         <v>409011</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="1">
         <v>409012</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="7" t="s">
         <v>430</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="1">
         <v>409014</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="1">
         <v>409015</v>
       </c>
@@ -6574,652 +6574,652 @@
         <v>473</v>
       </c>
     </row>
-    <row r="417" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="1">
         <v>409016</v>
       </c>
     </row>
-    <row r="418" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="1">
         <v>409017</v>
       </c>
     </row>
-    <row r="419" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="1">
         <v>409018</v>
       </c>
     </row>
-    <row r="420" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="1">
         <v>409019</v>
       </c>
     </row>
-    <row r="421" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="1">
         <v>409020</v>
       </c>
     </row>
-    <row r="422" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="1">
         <v>409021</v>
       </c>
     </row>
-    <row r="423" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="1">
         <v>409022</v>
       </c>
     </row>
-    <row r="424" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="1">
         <v>409023</v>
       </c>
     </row>
-    <row r="425" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="1">
         <v>409024</v>
       </c>
     </row>
-    <row r="426" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="1">
         <v>409025</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="1">
         <v>409026</v>
       </c>
     </row>
-    <row r="428" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="1">
         <v>409027</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="1">
         <v>409028</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="1">
         <v>409029</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="1">
         <v>409030</v>
       </c>
     </row>
-    <row r="432" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="1">
         <v>409031</v>
       </c>
     </row>
-    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="1">
         <v>409032</v>
       </c>
     </row>
-    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="1">
         <v>409033</v>
       </c>
     </row>
-    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="1">
         <v>409034</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="1">
         <v>409035</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="1">
         <v>409036</v>
       </c>
     </row>
-    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="1">
         <v>409037</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="1">
         <v>409038</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="1">
         <v>409039</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="1">
         <v>409040</v>
       </c>
     </row>
-    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="1">
         <v>409041</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="1">
         <v>409042</v>
       </c>
     </row>
-    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="1">
         <v>409043</v>
       </c>
     </row>
-    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="1">
         <v>409044</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="1">
         <v>409045</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="1">
         <v>409046</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="1">
         <v>409047</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="1">
         <v>409048</v>
       </c>
     </row>
-    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="1">
         <v>409049</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="1">
         <v>409050</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="1">
         <v>409051</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="1">
         <v>409052</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="1">
         <v>409053</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="1">
         <v>409054</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="1">
         <v>409055</v>
       </c>
     </row>
-    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="1">
         <v>409056</v>
       </c>
     </row>
-    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="1">
         <v>409057</v>
       </c>
     </row>
-    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="1">
         <v>409058</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="1">
         <v>409059</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="1">
         <v>409060</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="1">
         <v>409061</v>
       </c>
     </row>
-    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="1">
         <v>409062</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="1">
         <v>409063</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="1">
         <v>409064</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="1">
         <v>409065</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="1">
         <v>409066</v>
       </c>
     </row>
-    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="1">
         <v>409067</v>
       </c>
     </row>
-    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="1">
         <v>409068</v>
       </c>
     </row>
-    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="1">
         <v>409069</v>
       </c>
     </row>
-    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="1">
         <v>409070</v>
       </c>
     </row>
-    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="1">
         <v>409071</v>
       </c>
     </row>
-    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="1">
         <v>409072</v>
       </c>
     </row>
-    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="1">
         <v>409073</v>
       </c>
     </row>
-    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="1">
         <v>409074</v>
       </c>
     </row>
-    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="1">
         <v>409075</v>
       </c>
     </row>
-    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="1">
         <v>409076</v>
       </c>
     </row>
-    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="1">
         <v>409077</v>
       </c>
     </row>
-    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="1">
         <v>409078</v>
       </c>
     </row>
-    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="1">
         <v>409079</v>
       </c>
     </row>
-    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="1">
         <v>409080</v>
       </c>
     </row>
-    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="1">
         <v>409081</v>
       </c>
     </row>
-    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="1">
         <v>409082</v>
       </c>
     </row>
-    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="1">
         <v>409083</v>
       </c>
     </row>
-    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="1">
         <v>409084</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="1">
         <v>409085</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="1">
         <v>409086</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="1">
         <v>409087</v>
       </c>
     </row>
-    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="1">
         <v>409088</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="1">
         <v>409089</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="1">
         <v>409090</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="1">
         <v>409091</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="1">
         <v>409092</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="1">
         <v>409093</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="1">
         <v>409094</v>
       </c>
     </row>
-    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="1">
         <v>409095</v>
       </c>
     </row>
-    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="1">
         <v>409096</v>
       </c>
     </row>
-    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="1">
         <v>409097</v>
       </c>
     </row>
-    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="1">
         <v>409098</v>
       </c>
     </row>
-    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="1">
         <v>409099</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="1">
         <v>409100</v>
       </c>
     </row>
-    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="1">
         <v>409101</v>
       </c>
     </row>
-    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="1">
         <v>409102</v>
       </c>
     </row>
-    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="1">
         <v>409103</v>
       </c>
     </row>
-    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="1">
         <v>409104</v>
       </c>
     </row>
-    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="1">
         <v>409105</v>
       </c>
     </row>
-    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="1">
         <v>409106</v>
       </c>
     </row>
-    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="1">
         <v>409107</v>
       </c>
     </row>
-    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="1">
         <v>409108</v>
       </c>
     </row>
-    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="1">
         <v>409109</v>
       </c>
     </row>
-    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="1">
         <v>409110</v>
       </c>
     </row>
-    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="1">
         <v>409111</v>
       </c>
     </row>
-    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="1">
         <v>409112</v>
       </c>
     </row>
-    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="1">
         <v>409113</v>
       </c>
     </row>
-    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="1">
         <v>409114</v>
       </c>
     </row>
-    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="1">
         <v>409115</v>
       </c>
     </row>
-    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B517" s="1">
         <v>409116</v>
       </c>
     </row>
-    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B518" s="1">
         <v>409117</v>
       </c>
     </row>
-    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B519" s="1">
         <v>409118</v>
       </c>
     </row>
-    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B520" s="1">
         <v>409119</v>
       </c>
     </row>
-    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B521" s="1">
         <v>409120</v>
       </c>
     </row>
-    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B522" s="1">
         <v>409121</v>
       </c>
     </row>
-    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B523" s="1">
         <v>409122</v>
       </c>
     </row>
-    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B524" s="1">
         <v>409123</v>
       </c>
     </row>
-    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B525" s="1">
         <v>409124</v>
       </c>
     </row>
-    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B526" s="1">
         <v>409125</v>
       </c>
     </row>
-    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B527" s="1">
         <v>409126</v>
       </c>
     </row>
-    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B528" s="1">
         <v>409127</v>
       </c>
     </row>
-    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B529" s="1">
         <v>409128</v>
       </c>
     </row>
-    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B530" s="1">
         <v>409129</v>
       </c>
     </row>
-    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B531" s="1">
         <v>409130</v>
       </c>
     </row>
-    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B532" s="1">
         <v>409131</v>
       </c>
     </row>
-    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B533" s="1">
         <v>409132</v>
       </c>
     </row>
-    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B534" s="1">
         <v>409133</v>
       </c>
     </row>
-    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B535" s="1">
         <v>409134</v>
       </c>
     </row>
-    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B536" s="1">
         <v>409135</v>
       </c>
     </row>
-    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B537" s="1">
         <v>409136</v>
       </c>
     </row>
-    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B538" s="1">
         <v>409137</v>
       </c>
     </row>
-    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B539" s="1">
         <v>409138</v>
       </c>
     </row>
-    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B540" s="1">
         <v>409139</v>
       </c>
     </row>
-    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B541" s="1">
         <v>409140</v>
       </c>
     </row>
-    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B542" s="1">
         <v>409141</v>
       </c>
     </row>
-    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B543" s="1">
         <v>409142</v>
       </c>
     </row>
-    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B544" s="1">
         <v>409143</v>
       </c>
     </row>
-    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B545" s="1">
         <v>409144</v>
       </c>
     </row>
-    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B546" s="1">
         <v>409145</v>
       </c>
@@ -7227,122 +7227,122 @@
         <v>445</v>
       </c>
     </row>
-    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B547" s="1">
         <v>409146</v>
       </c>
     </row>
-    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B548" s="1">
         <v>409147</v>
       </c>
     </row>
-    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B549" s="1">
         <v>409148</v>
       </c>
     </row>
-    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B550" s="1">
         <v>409149</v>
       </c>
     </row>
-    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B551" s="1">
         <v>409150</v>
       </c>
     </row>
-    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B552" s="1">
         <v>409151</v>
       </c>
     </row>
-    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B553" s="1">
         <v>409152</v>
       </c>
     </row>
-    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B554" s="1">
         <v>409153</v>
       </c>
     </row>
-    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B555" s="1">
         <v>409154</v>
       </c>
     </row>
-    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B556" s="1">
         <v>409155</v>
       </c>
     </row>
-    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B557" s="1">
         <v>409156</v>
       </c>
     </row>
-    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B558" s="1">
         <v>409157</v>
       </c>
     </row>
-    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B559" s="1">
         <v>409158</v>
       </c>
     </row>
-    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B560" s="1">
         <v>409159</v>
       </c>
     </row>
-    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B561" s="1">
         <v>409160</v>
       </c>
     </row>
-    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B562" s="1">
         <v>409161</v>
       </c>
     </row>
-    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B563" s="1">
         <v>409162</v>
       </c>
     </row>
-    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B564" s="1">
         <v>409163</v>
       </c>
     </row>
-    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B565" s="1">
         <v>409164</v>
       </c>
     </row>
-    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B566" s="1">
         <v>409165</v>
       </c>
     </row>
-    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B567" s="1">
         <v>409166</v>
       </c>
     </row>
-    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B568" s="1">
         <v>409167</v>
       </c>
     </row>
-    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B569" s="1">
         <v>409168</v>
       </c>
     </row>
-    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B570" s="1">
         <v>409169</v>
       </c>
@@ -7350,57 +7350,57 @@
         <v>446</v>
       </c>
     </row>
-    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B571" s="1">
         <v>409170</v>
       </c>
     </row>
-    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B572" s="1">
         <v>409171</v>
       </c>
     </row>
-    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B573" s="1">
         <v>409172</v>
       </c>
     </row>
-    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B574" s="1">
         <v>409173</v>
       </c>
     </row>
-    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B575" s="1">
         <v>409174</v>
       </c>
     </row>
-    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B576" s="1">
         <v>409175</v>
       </c>
     </row>
-    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B577" s="1">
         <v>409176</v>
       </c>
     </row>
-    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B578" s="1">
         <v>409177</v>
       </c>
     </row>
-    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B579" s="1">
         <v>409178</v>
       </c>
     </row>
-    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B580" s="1">
         <v>409179</v>
       </c>
     </row>
-    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B581" s="1">
         <v>409180</v>
       </c>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I581" s="13"/>
     </row>
-    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B582" s="1">
         <v>409181</v>
       </c>
@@ -7418,13 +7418,13 @@
       </c>
       <c r="I582" s="13"/>
     </row>
-    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B583" s="1">
         <v>409182</v>
       </c>
       <c r="I583" s="13"/>
     </row>
-    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B584" s="1">
         <v>409183</v>
       </c>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="I584" s="13"/>
     </row>
-    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B585" s="1">
         <v>409184</v>
       </c>
@@ -7448,13 +7448,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B586" s="1">
         <v>409185</v>
       </c>
       <c r="I586" s="13"/>
     </row>
-    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B587" s="1">
         <v>409186</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B588" s="1">
         <v>409187</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="I588" s="13"/>
     </row>
-    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B589" s="1">
         <v>409188</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B590" s="1">
         <v>409189</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B591" s="1">
         <v>409190</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B592" s="1">
         <v>409191</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B593" s="1">
         <v>409192</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B594" s="1">
         <v>409193</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B595" s="1">
         <v>409194</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B596" s="1">
         <v>409195</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B597" s="1">
         <v>409196</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B598" s="1">
         <v>409197</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B599" s="1">
         <v>409198</v>
       </c>
@@ -7709,34 +7709,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B600" s="1">
         <v>409199</v>
       </c>
       <c r="I600" s="13"/>
     </row>
-    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B601" s="1">
         <v>409200</v>
       </c>
       <c r="I601" s="13"/>
     </row>
-    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B602" s="1">
         <v>409201</v>
       </c>
     </row>
-    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B603" s="1">
         <v>409202</v>
       </c>
     </row>
-    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B604" s="1">
         <v>409203</v>
       </c>
     </row>
-    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B605" s="1">
         <v>409204</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B606" s="1">
         <v>409205</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B607" s="1">
         <v>409206</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B608" s="1">
         <v>409207</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B609" s="1">
         <v>409208</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B610" s="1">
         <v>409209</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B611" s="1">
         <v>409210</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B612" s="1">
         <v>409211</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B613" s="1">
         <v>409212</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B614" s="1">
         <v>409213</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B615" s="1">
         <v>409214</v>
       </c>
@@ -7827,22 +7827,22 @@
         <v>458</v>
       </c>
     </row>
-    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H616" s="24" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H617" s="24" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H618" s="24" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H619" s="24" t="s">
         <v>461</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9DACFF-1040-47F8-8761-F2E96713CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14C5A54-F908-46D9-A65A-14DDB0E57AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="510" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2428,7 +2428,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2480,6 +2480,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2768,8 +2774,8 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H372" sqref="H372"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2781,7 +2787,7 @@
     <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="5.453125" customWidth="1"/>
     <col min="7" max="7" width="10.453125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="26.08984375" customWidth="1"/>
     <col min="9" max="10" width="38.1796875" customWidth="1"/>
     <col min="11" max="16" width="24.26953125" customWidth="1"/>
   </cols>
@@ -6259,25 +6265,22 @@
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A372" s="7" t="s">
-        <v>349</v>
-      </c>
+    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -6299,57 +6302,57 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
@@ -6358,7 +6361,7 @@
       <c r="B385" s="1">
         <v>408984</v>
       </c>
-      <c r="H385" s="4" t="s">
+      <c r="H385" s="28" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6369,7 +6372,7 @@
       <c r="D386" t="s">
         <v>438</v>
       </c>
-      <c r="H386" s="4" t="s">
+      <c r="H386" s="28" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6380,7 +6383,7 @@
       <c r="D387" t="s">
         <v>439</v>
       </c>
-      <c r="H387" s="4" t="s">
+      <c r="H387" s="28" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6388,7 +6391,7 @@
       <c r="B388" s="1">
         <v>408987</v>
       </c>
-      <c r="H388" s="4" t="s">
+      <c r="H388" s="28" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6396,12 +6399,13 @@
       <c r="B389" s="1">
         <v>408988</v>
       </c>
+      <c r="H389" s="29"/>
     </row>
     <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
-      <c r="H390" s="4" t="s">
+      <c r="H390" s="28" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6409,11 +6413,13 @@
       <c r="B391" s="1">
         <v>408990</v>
       </c>
+      <c r="H391" s="29"/>
     </row>
     <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
+      <c r="H392" s="29"/>
     </row>
     <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="1">
@@ -6574,82 +6580,85 @@
         <v>473</v>
       </c>
     </row>
-    <row r="417" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="1">
         <v>409016</v>
       </c>
     </row>
-    <row r="418" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="B418" s="1">
         <v>409017</v>
       </c>
     </row>
-    <row r="419" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="1">
         <v>409018</v>
       </c>
     </row>
-    <row r="420" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="1">
         <v>409019</v>
       </c>
     </row>
-    <row r="421" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="1">
         <v>409020</v>
       </c>
     </row>
-    <row r="422" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="1">
         <v>409021</v>
       </c>
     </row>
-    <row r="423" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="1">
         <v>409022</v>
       </c>
     </row>
-    <row r="424" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="1">
         <v>409023</v>
       </c>
     </row>
-    <row r="425" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="1">
         <v>409024</v>
       </c>
     </row>
-    <row r="426" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="1">
         <v>409025</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="1">
         <v>409026</v>
       </c>
     </row>
-    <row r="428" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="1">
         <v>409027</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="1">
         <v>409028</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="1">
         <v>409029</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="1">
         <v>409030</v>
       </c>
     </row>
-    <row r="432" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="1">
         <v>409031</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14C5A54-F908-46D9-A65A-14DDB0E57AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5078F14-D8E4-4860-8A87-865F1E55403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="345" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2775,24 +2775,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A414" sqref="A414"/>
+      <selection pane="bottomLeft" activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="26.08984375" customWidth="1"/>
-    <col min="9" max="10" width="38.1796875" customWidth="1"/>
-    <col min="11" max="16" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="10" width="38.140625" customWidth="1"/>
+    <col min="11" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>408442</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>408607</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>408608</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>408609</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>408610</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>408611</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>408612</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>408613</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>408614</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>408615</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>408616</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>408617</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>408618</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>408619</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>408620</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>408621</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>408622</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>408623</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>408624</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>408625</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>408626</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>408627</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>408628</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>408629</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>408630</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>408631</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>408632</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>408633</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>408634</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>408635</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>408636</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>408637</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>408638</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>408639</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>164</v>
       </c>
@@ -3436,18 +3436,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>408641</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>408642</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>408643</v>
       </c>
@@ -3461,17 +3461,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>408644</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>408645</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>408646</v>
       </c>
@@ -3485,57 +3485,57 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>408647</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>408648</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>408649</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>408650</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>408651</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>408652</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>408653</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>408654</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>408655</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>408656</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>408657</v>
       </c>
@@ -3549,87 +3549,87 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>408658</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>408659</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>408660</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>408661</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>408662</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>408663</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>408664</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>408665</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>408666</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>408667</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>408668</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>408669</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>408670</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>408671</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>408672</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>408673</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>408674</v>
       </c>
@@ -3643,112 +3643,112 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>408675</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>408676</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>408677</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>408678</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>408679</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>408680</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>408681</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>408682</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>408683</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>408684</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>408685</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>408686</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>408687</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>408688</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>408689</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>408690</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>408691</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>408692</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>408693</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>408694</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>408695</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>408696</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>408697</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>408698</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>408699</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>408700</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>408701</v>
       </c>
@@ -3823,32 +3823,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>408702</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>408703</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>408704</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>408705</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>408706</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>408707</v>
       </c>
@@ -3865,12 +3865,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>408708</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>408709</v>
       </c>
@@ -3884,27 +3884,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>408710</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>408711</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>408712</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>408713</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>408714</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>408715</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>408716</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>408717</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>408718</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>408719</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>408720</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>408721</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>408722</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>408723</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>408724</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>408725</v>
       </c>
@@ -4081,22 +4081,22 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>408726</v>
       </c>
     </row>
-    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>408727</v>
       </c>
     </row>
-    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>408728</v>
       </c>
     </row>
-    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>408729</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>408730</v>
       </c>
@@ -4124,12 +4124,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>408731</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>408732</v>
       </c>
@@ -4143,107 +4143,107 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>408733</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>408734</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>408735</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>408736</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>408737</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>408738</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>408739</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>408740</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>408741</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>408742</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>408743</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>408744</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>408745</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>408746</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>226</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>226</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>408767</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>408768</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>408769</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>408770</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>408771</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>408774</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>408775</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>408777</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4958,7 +4958,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
@@ -5203,13 +5203,13 @@
         <v>396</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
@@ -5218,19 +5218,19 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="8"/>
     </row>
-    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -5238,13 +5238,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="8"/>
     </row>
-    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
@@ -5267,35 +5267,35 @@
         <v>393</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="8"/>
     </row>
-    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="8"/>
     </row>
-    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
@@ -5303,52 +5303,52 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
@@ -5356,32 +5356,32 @@
         <v>395</v>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>408828</v>
       </c>
@@ -5395,37 +5395,37 @@
         <v>390</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
@@ -5433,62 +5433,62 @@
         <v>397</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
@@ -5496,37 +5496,37 @@
         <v>398</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
@@ -5534,92 +5534,92 @@
         <v>399</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
@@ -5627,12 +5627,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>408874</v>
       </c>
@@ -5640,47 +5640,47 @@
         <v>401</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>408875</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>408876</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>408877</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>408878</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>408879</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>408880</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>408881</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>408882</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>408883</v>
       </c>
@@ -5694,17 +5694,17 @@
         <v>424</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>408884</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>408885</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>408886</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>408887</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>408888</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>226</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>226</v>
       </c>
@@ -5759,57 +5759,57 @@
       <c r="F289" s="23"/>
       <c r="G289" s="23"/>
     </row>
-    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>408889</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>408890</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>408891</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>408892</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>408893</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>408894</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>408895</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>408896</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>408897</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>408898</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>408899</v>
       </c>
@@ -5817,12 +5817,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>408900</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>408901</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>408902</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>408903</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5914,82 +5914,82 @@
         <v>427</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
     </row>
-    <row r="321" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>408920</v>
       </c>
     </row>
-    <row r="322" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>408921</v>
       </c>
     </row>
-    <row r="323" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>408922</v>
       </c>
     </row>
-    <row r="324" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>408923</v>
       </c>
     </row>
-    <row r="325" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>408924</v>
       </c>
     </row>
-    <row r="326" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>408925</v>
       </c>
     </row>
-    <row r="327" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>408926</v>
       </c>
@@ -6000,17 +6000,17 @@
         <v>428</v>
       </c>
     </row>
-    <row r="328" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>408927</v>
       </c>
     </row>
-    <row r="329" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>408928</v>
       </c>
     </row>
-    <row r="330" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>408929</v>
       </c>
@@ -6021,22 +6021,22 @@
         <v>429</v>
       </c>
     </row>
-    <row r="331" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
-    <row r="332" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
-    <row r="333" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
-    <row r="334" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>408933</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="335" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>408934</v>
       </c>
@@ -6052,12 +6052,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="336" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
@@ -6076,25 +6076,22 @@
         <v>432</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="340" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
@@ -6105,32 +6102,35 @@
         <v>432</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="B347" s="1">
         <v>408946</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
@@ -6149,17 +6149,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
@@ -6167,22 +6167,22 @@
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -6201,12 +6201,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
@@ -6214,12 +6214,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
@@ -6227,17 +6227,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -6245,42 +6245,42 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -6302,62 +6302,62 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
     </row>
-    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
@@ -6395,13 +6395,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>408988</v>
       </c>
       <c r="H389" s="29"/>
     </row>
-    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
@@ -6409,99 +6409,99 @@
         <v>468</v>
       </c>
     </row>
-    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
       <c r="H391" s="29"/>
     </row>
-    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
       <c r="H392" s="29"/>
     </row>
-    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
     </row>
-    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
     </row>
-    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>408999</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1">
         <v>409000</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1">
         <v>409001</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1">
         <v>409002</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1">
         <v>409003</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1">
         <v>409004</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1">
         <v>409005</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1">
         <v>409006</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1">
         <v>409007</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1">
         <v>409008</v>
       </c>
@@ -6512,12 +6512,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1">
         <v>409009</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1">
         <v>409010</v>
       </c>
@@ -6528,12 +6528,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1">
         <v>409011</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="1">
         <v>409012</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>430</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="1">
         <v>409014</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="1">
         <v>409015</v>
       </c>
@@ -6580,12 +6580,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="1">
         <v>409016</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>349</v>
       </c>
@@ -6593,642 +6593,642 @@
         <v>409017</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="1">
         <v>409018</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="1">
         <v>409019</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="1">
         <v>409020</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="1">
         <v>409021</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="1">
         <v>409022</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="1">
         <v>409023</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="1">
         <v>409024</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="1">
         <v>409025</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="1">
         <v>409026</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="1">
         <v>409027</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="1">
         <v>409028</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="1">
         <v>409029</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="1">
         <v>409030</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="1">
         <v>409031</v>
       </c>
     </row>
-    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="1">
         <v>409032</v>
       </c>
     </row>
-    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="1">
         <v>409033</v>
       </c>
     </row>
-    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="1">
         <v>409034</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="1">
         <v>409035</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="1">
         <v>409036</v>
       </c>
     </row>
-    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="1">
         <v>409037</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="1">
         <v>409038</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="1">
         <v>409039</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="1">
         <v>409040</v>
       </c>
     </row>
-    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="1">
         <v>409041</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
         <v>409042</v>
       </c>
     </row>
-    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="1">
         <v>409043</v>
       </c>
     </row>
-    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="1">
         <v>409044</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="1">
         <v>409045</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="1">
         <v>409046</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="1">
         <v>409047</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
         <v>409048</v>
       </c>
     </row>
-    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
         <v>409049</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
         <v>409050</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>409051</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
         <v>409052</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
         <v>409053</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
         <v>409054</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
         <v>409055</v>
       </c>
     </row>
-    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
         <v>409056</v>
       </c>
     </row>
-    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <v>409057</v>
       </c>
     </row>
-    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
         <v>409058</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
         <v>409059</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
         <v>409060</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="1">
         <v>409061</v>
       </c>
     </row>
-    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="1">
         <v>409062</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="1">
         <v>409063</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="1">
         <v>409064</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="1">
         <v>409065</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="1">
         <v>409066</v>
       </c>
     </row>
-    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="1">
         <v>409067</v>
       </c>
     </row>
-    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="1">
         <v>409068</v>
       </c>
     </row>
-    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="1">
         <v>409069</v>
       </c>
     </row>
-    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="1">
         <v>409070</v>
       </c>
     </row>
-    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="1">
         <v>409071</v>
       </c>
     </row>
-    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="1">
         <v>409072</v>
       </c>
     </row>
-    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="1">
         <v>409073</v>
       </c>
     </row>
-    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="1">
         <v>409074</v>
       </c>
     </row>
-    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="1">
         <v>409075</v>
       </c>
     </row>
-    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="1">
         <v>409076</v>
       </c>
     </row>
-    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="1">
         <v>409077</v>
       </c>
     </row>
-    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="1">
         <v>409078</v>
       </c>
     </row>
-    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="1">
         <v>409079</v>
       </c>
     </row>
-    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="1">
         <v>409080</v>
       </c>
     </row>
-    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="1">
         <v>409081</v>
       </c>
     </row>
-    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="1">
         <v>409082</v>
       </c>
     </row>
-    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="1">
         <v>409083</v>
       </c>
     </row>
-    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="1">
         <v>409084</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="1">
         <v>409085</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="1">
         <v>409086</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="1">
         <v>409087</v>
       </c>
     </row>
-    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="1">
         <v>409088</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="1">
         <v>409089</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="1">
         <v>409090</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="1">
         <v>409091</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="1">
         <v>409092</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="1">
         <v>409093</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="1">
         <v>409094</v>
       </c>
     </row>
-    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="1">
         <v>409095</v>
       </c>
     </row>
-    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="1">
         <v>409096</v>
       </c>
     </row>
-    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="1">
         <v>409097</v>
       </c>
     </row>
-    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="1">
         <v>409098</v>
       </c>
     </row>
-    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="1">
         <v>409099</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="1">
         <v>409100</v>
       </c>
     </row>
-    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="1">
         <v>409101</v>
       </c>
     </row>
-    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="1">
         <v>409102</v>
       </c>
     </row>
-    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="1">
         <v>409103</v>
       </c>
     </row>
-    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="1">
         <v>409104</v>
       </c>
     </row>
-    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="1">
         <v>409105</v>
       </c>
     </row>
-    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="1">
         <v>409106</v>
       </c>
     </row>
-    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="1">
         <v>409107</v>
       </c>
     </row>
-    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="1">
         <v>409108</v>
       </c>
     </row>
-    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="1">
         <v>409109</v>
       </c>
     </row>
-    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="1">
         <v>409110</v>
       </c>
     </row>
-    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="1">
         <v>409111</v>
       </c>
     </row>
-    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="1">
         <v>409112</v>
       </c>
     </row>
-    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="1">
         <v>409113</v>
       </c>
     </row>
-    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="1">
         <v>409114</v>
       </c>
     </row>
-    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="1">
         <v>409115</v>
       </c>
     </row>
-    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="1">
         <v>409116</v>
       </c>
     </row>
-    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="1">
         <v>409117</v>
       </c>
     </row>
-    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="1">
         <v>409118</v>
       </c>
     </row>
-    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="1">
         <v>409119</v>
       </c>
     </row>
-    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="1">
         <v>409120</v>
       </c>
     </row>
-    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="1">
         <v>409121</v>
       </c>
     </row>
-    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="1">
         <v>409122</v>
       </c>
     </row>
-    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="1">
         <v>409123</v>
       </c>
     </row>
-    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="1">
         <v>409124</v>
       </c>
     </row>
-    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="1">
         <v>409125</v>
       </c>
     </row>
-    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="1">
         <v>409126</v>
       </c>
     </row>
-    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="1">
         <v>409127</v>
       </c>
     </row>
-    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="1">
         <v>409128</v>
       </c>
     </row>
-    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="1">
         <v>409129</v>
       </c>
     </row>
-    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="1">
         <v>409130</v>
       </c>
     </row>
-    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="1">
         <v>409131</v>
       </c>
     </row>
-    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="1">
         <v>409132</v>
       </c>
     </row>
-    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="1">
         <v>409133</v>
       </c>
     </row>
-    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="1">
         <v>409134</v>
       </c>
     </row>
-    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="1">
         <v>409135</v>
       </c>
     </row>
-    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="1">
         <v>409136</v>
       </c>
     </row>
-    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="1">
         <v>409137</v>
       </c>
     </row>
-    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="1">
         <v>409138</v>
       </c>
     </row>
-    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="1">
         <v>409139</v>
       </c>
     </row>
-    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="1">
         <v>409140</v>
       </c>
     </row>
-    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="1">
         <v>409141</v>
       </c>
     </row>
-    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="1">
         <v>409142</v>
       </c>
     </row>
-    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="1">
         <v>409143</v>
       </c>
     </row>
-    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="1">
         <v>409144</v>
       </c>
     </row>
-    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="1">
         <v>409145</v>
       </c>
@@ -7236,122 +7236,122 @@
         <v>445</v>
       </c>
     </row>
-    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="1">
         <v>409146</v>
       </c>
     </row>
-    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="1">
         <v>409147</v>
       </c>
     </row>
-    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="1">
         <v>409148</v>
       </c>
     </row>
-    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="1">
         <v>409149</v>
       </c>
     </row>
-    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="1">
         <v>409150</v>
       </c>
     </row>
-    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="1">
         <v>409151</v>
       </c>
     </row>
-    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="1">
         <v>409152</v>
       </c>
     </row>
-    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="1">
         <v>409153</v>
       </c>
     </row>
-    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="1">
         <v>409154</v>
       </c>
     </row>
-    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="1">
         <v>409155</v>
       </c>
     </row>
-    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="1">
         <v>409156</v>
       </c>
     </row>
-    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="1">
         <v>409157</v>
       </c>
     </row>
-    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="1">
         <v>409158</v>
       </c>
     </row>
-    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="1">
         <v>409159</v>
       </c>
     </row>
-    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="1">
         <v>409160</v>
       </c>
     </row>
-    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="1">
         <v>409161</v>
       </c>
     </row>
-    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="1">
         <v>409162</v>
       </c>
     </row>
-    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="1">
         <v>409163</v>
       </c>
     </row>
-    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="1">
         <v>409164</v>
       </c>
     </row>
-    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="1">
         <v>409165</v>
       </c>
     </row>
-    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="1">
         <v>409166</v>
       </c>
     </row>
-    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="1">
         <v>409167</v>
       </c>
     </row>
-    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="1">
         <v>409168</v>
       </c>
     </row>
-    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="1">
         <v>409169</v>
       </c>
@@ -7359,57 +7359,57 @@
         <v>446</v>
       </c>
     </row>
-    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="1">
         <v>409170</v>
       </c>
     </row>
-    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="1">
         <v>409171</v>
       </c>
     </row>
-    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="1">
         <v>409172</v>
       </c>
     </row>
-    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="1">
         <v>409173</v>
       </c>
     </row>
-    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="1">
         <v>409174</v>
       </c>
     </row>
-    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="1">
         <v>409175</v>
       </c>
     </row>
-    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="1">
         <v>409176</v>
       </c>
     </row>
-    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="1">
         <v>409177</v>
       </c>
     </row>
-    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="1">
         <v>409178</v>
       </c>
     </row>
-    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="1">
         <v>409179</v>
       </c>
     </row>
-    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="1">
         <v>409180</v>
       </c>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="I581" s="13"/>
     </row>
-    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="1">
         <v>409181</v>
       </c>
@@ -7427,13 +7427,13 @@
       </c>
       <c r="I582" s="13"/>
     </row>
-    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="1">
         <v>409182</v>
       </c>
       <c r="I583" s="13"/>
     </row>
-    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="1">
         <v>409183</v>
       </c>
@@ -7442,7 +7442,7 @@
       </c>
       <c r="I584" s="13"/>
     </row>
-    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="1">
         <v>409184</v>
       </c>
@@ -7457,13 +7457,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="1">
         <v>409185</v>
       </c>
       <c r="I586" s="13"/>
     </row>
-    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="1">
         <v>409186</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="1">
         <v>409187</v>
       </c>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="I588" s="13"/>
     </row>
-    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="1">
         <v>409188</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="1">
         <v>409189</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="1">
         <v>409190</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="1">
         <v>409191</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="1">
         <v>409192</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="1">
         <v>409193</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="1">
         <v>409194</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="1">
         <v>409195</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="1">
         <v>409196</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="1">
         <v>409197</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="1">
         <v>409198</v>
       </c>
@@ -7718,34 +7718,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="1">
         <v>409199</v>
       </c>
       <c r="I600" s="13"/>
     </row>
-    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="1">
         <v>409200</v>
       </c>
       <c r="I601" s="13"/>
     </row>
-    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="1">
         <v>409201</v>
       </c>
     </row>
-    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="1">
         <v>409202</v>
       </c>
     </row>
-    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="1">
         <v>409203</v>
       </c>
     </row>
-    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="1">
         <v>409204</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="1">
         <v>409205</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="1">
         <v>409206</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="1">
         <v>409207</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="1">
         <v>409208</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="1">
         <v>409209</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="1">
         <v>409210</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="1">
         <v>409211</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="1">
         <v>409212</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="1">
         <v>409213</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="1">
         <v>409214</v>
       </c>
@@ -7836,22 +7836,22 @@
         <v>458</v>
       </c>
     </row>
-    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H616" s="24" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H617" s="24" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H618" s="24" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H619" s="24" t="s">
         <v>461</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5078F14-D8E4-4860-8A87-865F1E55403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CFF46E-F726-44D0-85AB-BE75D3C50276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="345" windowWidth="24315" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2428,7 +2428,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2439,7 +2439,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2458,12 +2457,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2774,8 +2768,8 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A347" sqref="A347"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2780,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
     <col min="9" max="10" width="38.140625" customWidth="1"/>
     <col min="11" max="16" width="24.28515625" customWidth="1"/>
@@ -2811,7 +2805,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>186</v>
       </c>
       <c r="H1" t="s">
@@ -3019,7 +3013,7 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H12" t="s">
@@ -3124,7 +3118,7 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>125</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -3141,7 +3135,7 @@
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>126</v>
       </c>
       <c r="H19" t="s">
@@ -3158,7 +3152,7 @@
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H20" t="s">
@@ -3175,7 +3169,7 @@
       <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H21" t="s">
@@ -3192,7 +3186,7 @@
       <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>124</v>
       </c>
       <c r="H22" t="s">
@@ -3209,7 +3203,7 @@
       <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>146</v>
       </c>
       <c r="H23" t="s">
@@ -3226,7 +3220,7 @@
       <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>129</v>
       </c>
       <c r="H24" t="s">
@@ -3246,7 +3240,7 @@
       <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>131</v>
       </c>
       <c r="H25" t="s">
@@ -3260,7 +3254,7 @@
       <c r="C26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>136</v>
       </c>
       <c r="H26" t="s">
@@ -3274,7 +3268,7 @@
       <c r="C27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>137</v>
       </c>
       <c r="H27" t="s">
@@ -3288,10 +3282,10 @@
       <c r="C28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3302,10 +3296,10 @@
       <c r="C29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3322,7 +3316,7 @@
       <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>139</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -3336,7 +3330,7 @@
       <c r="B31" s="1">
         <v>408634</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>147</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -3356,7 +3350,7 @@
       <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>141</v>
       </c>
       <c r="H32" t="s">
@@ -3408,7 +3402,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B37" s="1">
@@ -3783,7 +3777,7 @@
       <c r="E95" t="s">
         <v>22</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3794,7 +3788,7 @@
       <c r="E96" t="s">
         <v>22</v>
       </c>
-      <c r="G96" s="13" t="s">
+      <c r="G96" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3805,7 +3799,7 @@
       <c r="E97" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="13" t="s">
+      <c r="G97" s="12" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3816,7 +3810,7 @@
       <c r="E98" t="s">
         <v>22</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G98" s="12" t="s">
         <v>169</v>
       </c>
       <c r="H98" s="4" t="s">
@@ -3858,7 +3852,7 @@
       <c r="E104" t="s">
         <v>22</v>
       </c>
-      <c r="G104" s="13" t="s">
+      <c r="G104" s="12" t="s">
         <v>171</v>
       </c>
       <c r="H104" t="s">
@@ -3880,7 +3874,7 @@
       <c r="E106" t="s">
         <v>22</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G106" s="12" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3911,13 +3905,13 @@
       <c r="C111" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="7" t="s">
         <v>176</v>
       </c>
       <c r="E111" t="s">
         <v>22</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="G111" s="12" t="s">
         <v>173</v>
       </c>
       <c r="H111" s="4" t="s">
@@ -3931,7 +3925,7 @@
       <c r="B112" s="1">
         <v>408715</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="G112" s="12" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3939,7 +3933,7 @@
       <c r="B113" s="1">
         <v>408716</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="G113" s="12" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3947,7 +3941,7 @@
       <c r="B114" s="1">
         <v>408717</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="G114" s="12" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3955,13 +3949,13 @@
       <c r="B115" s="1">
         <v>408718</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="H115" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I115" s="9" t="s">
+      <c r="I115" s="8" t="s">
         <v>193</v>
       </c>
       <c r="J115" t="s">
@@ -3978,7 +3972,7 @@
       <c r="B116" s="1">
         <v>408719</v>
       </c>
-      <c r="H116" s="9" t="s">
+      <c r="H116" s="8" t="s">
         <v>199</v>
       </c>
       <c r="I116" t="s">
@@ -3989,13 +3983,13 @@
       <c r="B117" s="1">
         <v>408720</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="G117" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="8" t="s">
         <v>203</v>
       </c>
       <c r="I117" t="s">
@@ -4009,10 +4003,10 @@
       <c r="B118" s="1">
         <v>408721</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" s="15" t="s">
         <v>202</v>
       </c>
       <c r="H118" t="s">
@@ -4023,13 +4017,13 @@
       <c r="B119" s="1">
         <v>408722</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="G119" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="8" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4037,10 +4031,10 @@
       <c r="B120" s="1">
         <v>408723</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="G120" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="H120" s="8" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4051,19 +4045,19 @@
       <c r="C121" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="G121" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I121" s="12" t="s">
+      <c r="I121" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J121" s="12" t="s">
+      <c r="J121" s="11" t="s">
         <v>251</v>
       </c>
       <c r="N121" t="s">
@@ -4077,7 +4071,7 @@
       <c r="C122" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I122" s="9" t="s">
+      <c r="I122" s="8" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4103,10 +4097,10 @@
       <c r="C126" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G126" s="13" t="s">
+      <c r="G126" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="H126" s="9" t="s">
+      <c r="H126" s="8" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4117,10 +4111,10 @@
       <c r="C127" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H127" s="9" t="s">
+      <c r="H127" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4136,10 +4130,10 @@
       <c r="C129" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="H129" s="8" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4250,16 +4244,16 @@
       <c r="C150" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="7" t="s">
         <v>217</v>
       </c>
       <c r="E150" t="s">
         <v>26</v>
       </c>
-      <c r="H150" s="12" t="s">
+      <c r="H150" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="I150" s="9"/>
+      <c r="I150" s="8"/>
     </row>
     <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
@@ -4268,19 +4262,19 @@
       <c r="C151" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="7" t="s">
         <v>220</v>
       </c>
       <c r="E151" t="s">
         <v>27</v>
       </c>
-      <c r="G151" s="13" t="s">
+      <c r="G151" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="H151" s="12" t="s">
+      <c r="H151" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="I151" s="9" t="s">
+      <c r="I151" s="8" t="s">
         <v>218</v>
       </c>
       <c r="J151" t="s">
@@ -4297,14 +4291,14 @@
       <c r="C152" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="8"/>
+      <c r="D152" s="7"/>
       <c r="E152" t="s">
         <v>28</v>
       </c>
-      <c r="G152" s="13" t="s">
+      <c r="G152" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H152" s="8" t="s">
         <v>270</v>
       </c>
       <c r="I152" t="s">
@@ -4318,11 +4312,11 @@
       <c r="C153" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D153" s="8"/>
+      <c r="D153" s="7"/>
       <c r="E153" t="s">
         <v>28</v>
       </c>
-      <c r="G153" s="17" t="s">
+      <c r="G153" s="12" t="s">
         <v>267</v>
       </c>
       <c r="H153" t="s">
@@ -4339,11 +4333,11 @@
       <c r="C154" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D154" s="8"/>
+      <c r="D154" s="7"/>
       <c r="E154" t="s">
         <v>28</v>
       </c>
-      <c r="G154" s="17" t="s">
+      <c r="G154" s="12" t="s">
         <v>266</v>
       </c>
       <c r="H154" t="s">
@@ -4360,14 +4354,14 @@
       <c r="C155" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D155" s="8"/>
+      <c r="D155" s="7"/>
       <c r="E155" t="s">
         <v>28</v>
       </c>
-      <c r="G155" s="13" t="s">
+      <c r="G155" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H155" s="9" t="s">
+      <c r="H155" s="8" t="s">
         <v>273</v>
       </c>
       <c r="I155" t="s">
@@ -4381,11 +4375,11 @@
       <c r="C156" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D156" s="8"/>
+      <c r="D156" s="7"/>
       <c r="E156" t="s">
         <v>28</v>
       </c>
-      <c r="G156" s="13" t="s">
+      <c r="G156" s="12" t="s">
         <v>265</v>
       </c>
       <c r="I156" t="s">
@@ -4399,8 +4393,8 @@
       <c r="C157" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D157" s="8"/>
-      <c r="G157" s="13" t="s">
+      <c r="D157" s="7"/>
+      <c r="G157" s="12" t="s">
         <v>259</v>
       </c>
       <c r="H157" t="s">
@@ -4417,13 +4411,13 @@
       <c r="C158" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G158" s="13" t="s">
+      <c r="G158" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="H158" s="18" t="s">
+      <c r="H158" s="16" t="s">
         <v>275</v>
       </c>
       <c r="I158" t="s">
@@ -4434,14 +4428,14 @@
       <c r="B159" s="1">
         <v>408762</v>
       </c>
-      <c r="D159" s="8"/>
+      <c r="D159" s="7"/>
       <c r="E159" t="s">
         <v>219</v>
       </c>
-      <c r="G159" s="17" t="s">
+      <c r="G159" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="H159" s="9" t="s">
+      <c r="H159" s="8" t="s">
         <v>284</v>
       </c>
       <c r="I159" t="s">
@@ -4452,16 +4446,16 @@
       <c r="B160" s="1">
         <v>408763</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E160" t="s">
         <v>219</v>
       </c>
-      <c r="G160" s="13" t="s">
+      <c r="G160" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="H160" s="12" t="s">
+      <c r="H160" s="11" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4469,25 +4463,25 @@
       <c r="B161" s="1">
         <v>408764</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="7" t="s">
         <v>289</v>
       </c>
       <c r="E161" t="s">
         <v>29</v>
       </c>
-      <c r="G161" s="13" t="s">
+      <c r="G161" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H161" s="6" t="s">
+      <c r="H161" t="s">
         <v>302</v>
       </c>
-      <c r="I161" s="6" t="s">
+      <c r="I161" t="s">
         <v>281</v>
       </c>
-      <c r="J161" s="6" t="s">
+      <c r="J161" t="s">
         <v>283</v>
       </c>
-      <c r="K161" s="6" t="s">
+      <c r="K161" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4495,22 +4489,22 @@
       <c r="B162" s="1">
         <v>408765</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="7" t="s">
         <v>290</v>
       </c>
       <c r="E162" t="s">
         <v>219</v>
       </c>
-      <c r="G162" s="13" t="s">
+      <c r="G162" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="H162" s="6" t="s">
+      <c r="H162" t="s">
         <v>301</v>
       </c>
-      <c r="I162" s="6" t="s">
+      <c r="I162" t="s">
         <v>296</v>
       </c>
-      <c r="J162" s="6" t="s">
+      <c r="J162" t="s">
         <v>298</v>
       </c>
       <c r="K162" t="s">
@@ -4521,68 +4515,68 @@
       <c r="B163" s="1">
         <v>408766</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E163" t="s">
         <v>219</v>
       </c>
-      <c r="G163" s="13" t="s">
+      <c r="G163" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="H163" s="6" t="s">
+      <c r="H163" t="s">
         <v>301</v>
       </c>
-      <c r="I163" s="6" t="s">
+      <c r="I163" t="s">
         <v>295</v>
       </c>
-      <c r="J163" s="6" t="s">
+      <c r="J163" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E164" s="20" t="s">
+      <c r="E164" t="s">
         <v>44</v>
       </c>
-      <c r="H164" s="6" t="s">
+      <c r="H164" t="s">
         <v>303</v>
       </c>
-      <c r="I164" s="6" t="s">
+      <c r="I164" t="s">
         <v>297</v>
       </c>
-      <c r="J164" s="6" t="s">
+      <c r="J164" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E165" t="s">
         <v>44</v>
       </c>
-      <c r="H165" s="6" t="s">
+      <c r="H165" t="s">
         <v>306</v>
       </c>
-      <c r="I165" s="19" t="s">
+      <c r="I165" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="J165" s="6" t="s">
+      <c r="J165" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4590,19 +4584,19 @@
       <c r="B166" s="1">
         <v>408767</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E166" s="20" t="s">
+      <c r="E166" t="s">
         <v>45</v>
       </c>
-      <c r="H166" s="6" t="s">
+      <c r="H166" t="s">
         <v>305</v>
       </c>
-      <c r="I166" s="6" t="s">
+      <c r="I166" t="s">
         <v>350</v>
       </c>
-      <c r="J166" s="6" t="s">
+      <c r="J166" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4610,19 +4604,19 @@
       <c r="B167" s="1">
         <v>408768</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E167" s="20" t="s">
+      <c r="E167" t="s">
         <v>46</v>
       </c>
-      <c r="H167" s="19" t="s">
+      <c r="H167" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="I167" s="6" t="s">
+      <c r="I167" t="s">
         <v>314</v>
       </c>
-      <c r="J167" s="6" t="s">
+      <c r="J167" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4630,19 +4624,19 @@
       <c r="B168" s="1">
         <v>408769</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E168" s="20" t="s">
+      <c r="E168" t="s">
         <v>46</v>
       </c>
-      <c r="H168" s="6" t="s">
+      <c r="H168" t="s">
         <v>309</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="I168" t="s">
         <v>315</v>
       </c>
-      <c r="J168" s="6" t="s">
+      <c r="J168" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4650,19 +4644,19 @@
       <c r="B169" s="1">
         <v>408770</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E169" s="20" t="s">
+      <c r="E169" t="s">
         <v>46</v>
       </c>
-      <c r="H169" s="6" t="s">
+      <c r="H169" t="s">
         <v>312</v>
       </c>
-      <c r="I169" s="6" t="s">
+      <c r="I169" t="s">
         <v>316</v>
       </c>
-      <c r="J169" s="6" t="s">
+      <c r="J169" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4670,17 +4664,16 @@
       <c r="B170" s="1">
         <v>408771</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E170" s="20"/>
-      <c r="H170" s="6" t="s">
+      <c r="H170" t="s">
         <v>313</v>
       </c>
-      <c r="I170" s="6" t="s">
+      <c r="I170" t="s">
         <v>352</v>
       </c>
-      <c r="J170" s="19" t="s">
+      <c r="J170" s="4" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4688,43 +4681,42 @@
       <c r="B171" s="1">
         <v>408772</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E171" s="20" t="s">
+      <c r="E171" t="s">
         <v>47</v>
       </c>
-      <c r="H171" s="6" t="s">
+      <c r="H171" t="s">
         <v>310</v>
       </c>
-      <c r="I171" s="6" t="s">
+      <c r="I171" t="s">
         <v>318</v>
       </c>
-      <c r="J171" s="19" t="s">
+      <c r="J171" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="K171" s="6"/>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E172" s="20" t="s">
+      <c r="E172" t="s">
         <v>47</v>
       </c>
-      <c r="H172" s="6" t="s">
+      <c r="H172" t="s">
         <v>353</v>
       </c>
-      <c r="I172" s="6" t="s">
+      <c r="I172" t="s">
         <v>315</v>
       </c>
-      <c r="J172" s="19" t="s">
+      <c r="J172" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="K172" s="6" t="s">
+      <c r="K172" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4732,22 +4724,22 @@
       <c r="B173" s="1">
         <v>408774</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="7" t="s">
         <v>234</v>
       </c>
       <c r="E173" t="s">
         <v>219</v>
       </c>
-      <c r="H173" s="6" t="s">
+      <c r="H173" t="s">
         <v>356</v>
       </c>
-      <c r="I173" s="6" t="s">
+      <c r="I173" t="s">
         <v>357</v>
       </c>
-      <c r="J173" s="19" t="s">
+      <c r="J173" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="K173" s="6" t="s">
+      <c r="K173" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4755,22 +4747,22 @@
       <c r="B174" s="1">
         <v>408775</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="7" t="s">
         <v>235</v>
       </c>
       <c r="F174" t="s">
         <v>56</v>
       </c>
-      <c r="H174" s="6" t="s">
+      <c r="H174" t="s">
         <v>362</v>
       </c>
-      <c r="I174" s="6" t="s">
+      <c r="I174" t="s">
         <v>361</v>
       </c>
-      <c r="J174" s="19" t="s">
+      <c r="J174" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="K174" s="6" t="s">
+      <c r="K174" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4778,22 +4770,22 @@
       <c r="B175" s="1">
         <v>408776</v>
       </c>
-      <c r="D175" s="21" t="s">
+      <c r="D175" s="17" t="s">
         <v>236</v>
       </c>
       <c r="E175" t="s">
         <v>219</v>
       </c>
-      <c r="H175" s="6" t="s">
+      <c r="H175" t="s">
         <v>363</v>
       </c>
-      <c r="I175" s="6" t="s">
+      <c r="I175" t="s">
         <v>315</v>
       </c>
-      <c r="J175" s="19" t="s">
+      <c r="J175" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K175" s="6" t="s">
+      <c r="K175" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4801,22 +4793,22 @@
       <c r="B176" s="1">
         <v>408777</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="7" t="s">
         <v>237</v>
       </c>
       <c r="E176" t="s">
         <v>219</v>
       </c>
-      <c r="H176" s="6" t="s">
+      <c r="H176" t="s">
         <v>367</v>
       </c>
-      <c r="I176" s="6" t="s">
+      <c r="I176" t="s">
         <v>315</v>
       </c>
-      <c r="J176" s="19" t="s">
+      <c r="J176" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="K176" s="6" t="s">
+      <c r="K176" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4824,22 +4816,22 @@
       <c r="B177" s="1">
         <v>408778</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="7" t="s">
         <v>238</v>
       </c>
       <c r="E177" t="s">
         <v>219</v>
       </c>
-      <c r="H177" s="6" t="s">
+      <c r="H177" t="s">
         <v>368</v>
       </c>
-      <c r="I177" s="6" t="s">
+      <c r="I177" t="s">
         <v>315</v>
       </c>
-      <c r="J177" s="19" t="s">
+      <c r="J177" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="K177" s="6" t="s">
+      <c r="K177" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4847,22 +4839,22 @@
       <c r="B178" s="1">
         <v>408779</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E178" t="s">
         <v>219</v>
       </c>
-      <c r="H178" s="6" t="s">
+      <c r="H178" t="s">
         <v>369</v>
       </c>
-      <c r="I178" s="6" t="s">
+      <c r="I178" t="s">
         <v>370</v>
       </c>
-      <c r="J178" s="19" t="s">
+      <c r="J178" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="K178" s="6" t="s">
+      <c r="K178" t="s">
         <v>372</v>
       </c>
     </row>
@@ -4870,22 +4862,22 @@
       <c r="B179" s="1">
         <v>408780</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="7" t="s">
         <v>240</v>
       </c>
       <c r="E179" t="s">
         <v>219</v>
       </c>
-      <c r="H179" s="12" t="s">
+      <c r="H179" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="I179" s="9" t="s">
+      <c r="I179" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="J179" s="12" t="s">
+      <c r="J179" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="K179" s="9" t="s">
+      <c r="K179" s="8" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4893,46 +4885,45 @@
       <c r="B180" s="1">
         <v>408781</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D180" s="17" t="s">
         <v>343</v>
       </c>
       <c r="E180" t="s">
         <v>61</v>
       </c>
-      <c r="H180" s="6" t="s">
+      <c r="H180" t="s">
         <v>326</v>
       </c>
-      <c r="I180" s="6" t="s">
+      <c r="I180" t="s">
         <v>320</v>
       </c>
-      <c r="J180" s="19" t="s">
+      <c r="J180" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="K180" s="6" t="s">
+      <c r="K180" t="s">
         <v>322</v>
       </c>
-      <c r="L180" s="6"/>
     </row>
     <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="7" t="s">
         <v>241</v>
       </c>
       <c r="E181" t="s">
         <v>325</v>
       </c>
-      <c r="H181" s="6" t="s">
+      <c r="H181" t="s">
         <v>328</v>
       </c>
-      <c r="I181" s="19" t="s">
+      <c r="I181" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="J181" s="6" t="s">
+      <c r="J181" t="s">
         <v>346</v>
       </c>
-      <c r="K181" s="6" t="s">
+      <c r="K181" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4940,43 +4931,39 @@
       <c r="B182" s="1">
         <v>408783</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D182" s="7" t="s">
         <v>242</v>
       </c>
       <c r="E182" t="s">
         <v>219</v>
       </c>
-      <c r="H182" s="19" t="s">
+      <c r="H182" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="I182" s="6" t="s">
+      <c r="I182" t="s">
         <v>348</v>
       </c>
-      <c r="J182" s="6" t="s">
+      <c r="J182" t="s">
         <v>345</v>
       </c>
-      <c r="K182" s="6"/>
-      <c r="L182" s="6"/>
     </row>
     <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="D183" s="7" t="s">
         <v>243</v>
       </c>
       <c r="E183" t="s">
         <v>219</v>
       </c>
-      <c r="H183" s="6" t="s">
+      <c r="H183" t="s">
         <v>373</v>
       </c>
-      <c r="I183" s="19" t="s">
+      <c r="I183" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-      <c r="L183" s="6" t="s">
+      <c r="L183" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4984,21 +4971,19 @@
       <c r="B184" s="1">
         <v>408785</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E184" t="s">
         <v>219</v>
       </c>
-      <c r="H184" s="6" t="s">
+      <c r="H184" t="s">
         <v>375</v>
       </c>
-      <c r="I184" s="6" t="s">
+      <c r="I184" t="s">
         <v>219</v>
       </c>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-      <c r="L184" s="6" t="s">
+      <c r="L184" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5006,19 +4991,17 @@
       <c r="B185" s="1">
         <v>408786</v>
       </c>
-      <c r="D185" s="8"/>
+      <c r="D185" s="7"/>
       <c r="E185" t="s">
         <v>219</v>
       </c>
-      <c r="H185" s="6" t="s">
+      <c r="H185" t="s">
         <v>376</v>
       </c>
-      <c r="I185" s="19" t="s">
+      <c r="I185" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6" t="s">
+      <c r="L185" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5026,19 +5009,17 @@
       <c r="B186" s="1">
         <v>408787</v>
       </c>
-      <c r="D186" s="8"/>
+      <c r="D186" s="7"/>
       <c r="E186" t="s">
         <v>219</v>
       </c>
-      <c r="H186" s="6" t="s">
+      <c r="H186" t="s">
         <v>378</v>
       </c>
-      <c r="I186" s="19" t="s">
+      <c r="I186" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6" t="s">
+      <c r="L186" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5046,21 +5027,19 @@
       <c r="B187" s="1">
         <v>408788</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="7" t="s">
         <v>245</v>
       </c>
       <c r="E187" t="s">
         <v>219</v>
       </c>
-      <c r="H187" s="6" t="s">
+      <c r="H187" t="s">
         <v>380</v>
       </c>
-      <c r="I187" s="19" t="s">
+      <c r="I187" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-      <c r="L187" s="6" t="s">
+      <c r="L187" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5068,21 +5047,19 @@
       <c r="B188" s="1">
         <v>408789</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="7" t="s">
         <v>246</v>
       </c>
       <c r="E188" t="s">
         <v>219</v>
       </c>
-      <c r="H188" s="6" t="s">
+      <c r="H188" t="s">
         <v>383</v>
       </c>
-      <c r="I188" s="19" t="s">
+      <c r="I188" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6" t="s">
+      <c r="L188" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5090,21 +5067,19 @@
       <c r="B189" s="1">
         <v>408790</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D189" s="7" t="s">
         <v>247</v>
       </c>
       <c r="E189" t="s">
         <v>219</v>
       </c>
-      <c r="H189" s="6" t="s">
+      <c r="H189" t="s">
         <v>384</v>
       </c>
-      <c r="I189" s="19" t="s">
+      <c r="I189" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-      <c r="L189" s="19" t="s">
+      <c r="L189" s="4" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5112,30 +5087,28 @@
       <c r="B190" s="1">
         <v>408791</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D190" s="7" t="s">
         <v>248</v>
       </c>
       <c r="E190" t="s">
         <v>219</v>
       </c>
-      <c r="H190" s="6" t="s">
+      <c r="H190" t="s">
         <v>387</v>
       </c>
-      <c r="I190" s="19" t="s">
+      <c r="I190" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6"/>
     </row>
     <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
-      <c r="D191" s="8"/>
+      <c r="D191" s="7"/>
       <c r="E191" t="s">
         <v>219</v>
       </c>
-      <c r="I191" s="19" t="s">
+      <c r="I191" s="4" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5143,7 +5116,7 @@
       <c r="B192" s="1">
         <v>408793</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="7" t="s">
         <v>337</v>
       </c>
       <c r="E192" t="s">
@@ -5154,7 +5127,7 @@
       <c r="B193" s="1">
         <v>408794</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="7" t="s">
         <v>338</v>
       </c>
       <c r="E193" t="s">
@@ -5165,11 +5138,11 @@
       <c r="B194" s="1">
         <v>408795</v>
       </c>
-      <c r="D194" s="8"/>
+      <c r="D194" s="7"/>
       <c r="E194" t="s">
         <v>219</v>
       </c>
-      <c r="I194" s="9" t="s">
+      <c r="I194" s="8" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5177,7 +5150,7 @@
       <c r="B195" s="1">
         <v>408796</v>
       </c>
-      <c r="D195" s="8"/>
+      <c r="D195" s="7"/>
       <c r="I195" t="s">
         <v>280</v>
       </c>
@@ -5186,7 +5159,7 @@
       <c r="B196" s="1">
         <v>408797</v>
       </c>
-      <c r="D196" s="8"/>
+      <c r="D196" s="7"/>
       <c r="I196" t="s">
         <v>307</v>
       </c>
@@ -5195,11 +5168,11 @@
       <c r="B197" s="1">
         <v>408798</v>
       </c>
-      <c r="D197" s="8"/>
+      <c r="D197" s="7"/>
       <c r="I197" t="s">
         <v>279</v>
       </c>
-      <c r="L197" s="19" t="s">
+      <c r="L197" s="4" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5207,13 +5180,13 @@
       <c r="B198" s="1">
         <v>408799</v>
       </c>
-      <c r="D198" s="8"/>
+      <c r="D198" s="7"/>
     </row>
     <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
-      <c r="D199" s="8"/>
+      <c r="D199" s="7"/>
       <c r="I199" t="s">
         <v>288</v>
       </c>
@@ -5222,19 +5195,19 @@
       <c r="B200" s="1">
         <v>408801</v>
       </c>
-      <c r="D200" s="8"/>
+      <c r="D200" s="7"/>
     </row>
     <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
-      <c r="D201" s="8"/>
+      <c r="D201" s="7"/>
     </row>
     <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
-      <c r="D202" s="8" t="s">
+      <c r="D202" s="7" t="s">
         <v>339</v>
       </c>
     </row>
@@ -5242,13 +5215,13 @@
       <c r="B203" s="1">
         <v>408804</v>
       </c>
-      <c r="D203" s="8"/>
+      <c r="D203" s="7"/>
     </row>
     <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D204" s="7" t="s">
         <v>340</v>
       </c>
       <c r="H204" s="4" t="s">
@@ -5262,7 +5235,7 @@
       <c r="B205" s="1">
         <v>408806</v>
       </c>
-      <c r="D205" s="8"/>
+      <c r="D205" s="7"/>
       <c r="H205" s="4" t="s">
         <v>393</v>
       </c>
@@ -5271,19 +5244,19 @@
       <c r="B206" s="1">
         <v>408807</v>
       </c>
-      <c r="D206" s="8"/>
+      <c r="D206" s="7"/>
     </row>
     <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
-      <c r="D207" s="8"/>
+      <c r="D207" s="7"/>
     </row>
     <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
-      <c r="D208" s="8"/>
+      <c r="D208" s="7"/>
     </row>
     <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
@@ -5684,12 +5657,12 @@
       <c r="B282" s="1">
         <v>408883</v>
       </c>
-      <c r="D282" s="23" t="s">
+      <c r="D282" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="E282" s="23"/>
-      <c r="F282" s="23"/>
-      <c r="G282" s="23"/>
+      <c r="E282" s="19"/>
+      <c r="F282" s="19"/>
+      <c r="G282" s="19"/>
       <c r="H282" t="s">
         <v>424</v>
       </c>
@@ -5729,35 +5702,35 @@
       </c>
     </row>
     <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="11" t="s">
+      <c r="A288" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B288" s="22" t="s">
+      <c r="B288" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="D288" s="23" t="s">
+      <c r="D288" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="E288" s="23"/>
-      <c r="F288" s="23"/>
-      <c r="G288" s="23"/>
+      <c r="E288" s="19"/>
+      <c r="F288" s="19"/>
+      <c r="G288" s="19"/>
       <c r="H288" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="11" t="s">
+      <c r="A289" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B289" s="22" t="s">
+      <c r="B289" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D289" s="23" t="s">
+      <c r="D289" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="E289" s="23"/>
-      <c r="F289" s="23"/>
-      <c r="G289" s="23"/>
+      <c r="E289" s="19"/>
+      <c r="F289" s="19"/>
+      <c r="G289" s="19"/>
     </row>
     <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
@@ -6057,7 +6030,7 @@
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
@@ -6065,7 +6038,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
@@ -6076,22 +6049,22 @@
         <v>432</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
@@ -6102,35 +6075,32 @@
         <v>432</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="7" t="s">
-        <v>287</v>
-      </c>
+    <row r="347" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
@@ -6141,7 +6111,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
@@ -6149,17 +6119,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
@@ -6167,22 +6137,22 @@
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
@@ -6190,7 +6160,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -6201,12 +6171,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
@@ -6214,12 +6184,15 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
@@ -6227,17 +6200,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -6245,22 +6218,22 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
@@ -6361,7 +6334,7 @@
       <c r="B385" s="1">
         <v>408984</v>
       </c>
-      <c r="H385" s="28" t="s">
+      <c r="H385" s="24" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6372,7 +6345,7 @@
       <c r="D386" t="s">
         <v>438</v>
       </c>
-      <c r="H386" s="28" t="s">
+      <c r="H386" s="24" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6383,7 +6356,7 @@
       <c r="D387" t="s">
         <v>439</v>
       </c>
-      <c r="H387" s="28" t="s">
+      <c r="H387" s="24" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6391,7 +6364,7 @@
       <c r="B388" s="1">
         <v>408987</v>
       </c>
-      <c r="H388" s="28" t="s">
+      <c r="H388" s="24" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6399,13 +6372,13 @@
       <c r="B389" s="1">
         <v>408988</v>
       </c>
-      <c r="H389" s="29"/>
+      <c r="H389" s="25"/>
     </row>
     <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
-      <c r="H390" s="28" t="s">
+      <c r="H390" s="24" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6413,13 +6386,13 @@
       <c r="B391" s="1">
         <v>408990</v>
       </c>
-      <c r="H391" s="29"/>
+      <c r="H391" s="25"/>
     </row>
     <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
-      <c r="H392" s="29"/>
+      <c r="H392" s="25"/>
     </row>
     <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
@@ -6508,7 +6481,7 @@
       <c r="D409" t="s">
         <v>440</v>
       </c>
-      <c r="H409" s="12" t="s">
+      <c r="H409" s="11" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6545,7 +6518,7 @@
       </c>
     </row>
     <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="7" t="s">
+      <c r="A414" s="6" t="s">
         <v>430</v>
       </c>
       <c r="B414" s="1">
@@ -6586,7 +6559,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="7" t="s">
+      <c r="A418" s="6" t="s">
         <v>349</v>
       </c>
       <c r="B418" s="1">
@@ -7416,7 +7389,7 @@
       <c r="H581" t="s">
         <v>80</v>
       </c>
-      <c r="I581" s="13"/>
+      <c r="I581" s="12"/>
     </row>
     <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="1">
@@ -7425,13 +7398,13 @@
       <c r="H582" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I582" s="13"/>
+      <c r="I582" s="12"/>
     </row>
     <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="1">
         <v>409182</v>
       </c>
-      <c r="I583" s="13"/>
+      <c r="I583" s="12"/>
     </row>
     <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="1">
@@ -7440,7 +7413,7 @@
       <c r="H584" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I584" s="13"/>
+      <c r="I584" s="12"/>
     </row>
     <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="1">
@@ -7449,7 +7422,7 @@
       <c r="H585" t="s">
         <v>6</v>
       </c>
-      <c r="I585" s="13"/>
+      <c r="I585" s="12"/>
       <c r="K585" t="s">
         <v>30</v>
       </c>
@@ -7461,7 +7434,7 @@
       <c r="B586" s="1">
         <v>409185</v>
       </c>
-      <c r="I586" s="13"/>
+      <c r="I586" s="12"/>
     </row>
     <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="1">
@@ -7470,7 +7443,7 @@
       <c r="H587" t="s">
         <v>7</v>
       </c>
-      <c r="I587" s="13"/>
+      <c r="I587" s="12"/>
       <c r="J587" t="s">
         <v>19</v>
       </c>
@@ -7491,7 +7464,7 @@
       <c r="H588" t="s">
         <v>8</v>
       </c>
-      <c r="I588" s="13"/>
+      <c r="I588" s="12"/>
     </row>
     <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="1">
@@ -7500,7 +7473,7 @@
       <c r="H589" t="s">
         <v>9</v>
       </c>
-      <c r="I589" s="13"/>
+      <c r="I589" s="12"/>
       <c r="J589" t="s">
         <v>20</v>
       </c>
@@ -7521,7 +7494,7 @@
       <c r="H590" t="s">
         <v>10</v>
       </c>
-      <c r="I590" s="13"/>
+      <c r="I590" s="12"/>
       <c r="J590" t="s">
         <v>21</v>
       </c>
@@ -7542,7 +7515,7 @@
       <c r="H591" t="s">
         <v>11</v>
       </c>
-      <c r="I591" s="13"/>
+      <c r="I591" s="12"/>
       <c r="J591" t="s">
         <v>22</v>
       </c>
@@ -7563,7 +7536,7 @@
       <c r="H592" t="s">
         <v>12</v>
       </c>
-      <c r="I592" s="13"/>
+      <c r="I592" s="12"/>
       <c r="J592" t="s">
         <v>23</v>
       </c>
@@ -7584,7 +7557,7 @@
       <c r="H593" t="s">
         <v>13</v>
       </c>
-      <c r="I593" s="13"/>
+      <c r="I593" s="12"/>
       <c r="J593" t="s">
         <v>24</v>
       </c>
@@ -7605,7 +7578,7 @@
       <c r="H594" t="s">
         <v>14</v>
       </c>
-      <c r="I594" s="13"/>
+      <c r="I594" s="12"/>
       <c r="J594" t="s">
         <v>25</v>
       </c>
@@ -7629,7 +7602,7 @@
       <c r="H595" t="s">
         <v>15</v>
       </c>
-      <c r="I595" s="13"/>
+      <c r="I595" s="12"/>
       <c r="J595" t="s">
         <v>26</v>
       </c>
@@ -7650,7 +7623,7 @@
       <c r="H596" t="s">
         <v>16</v>
       </c>
-      <c r="I596" s="13"/>
+      <c r="I596" s="12"/>
       <c r="J596" t="s">
         <v>27</v>
       </c>
@@ -7671,7 +7644,7 @@
       <c r="H597" t="s">
         <v>17</v>
       </c>
-      <c r="I597" s="13"/>
+      <c r="I597" s="12"/>
       <c r="J597" t="s">
         <v>28</v>
       </c>
@@ -7692,7 +7665,7 @@
       <c r="H598" t="s">
         <v>18</v>
       </c>
-      <c r="I598" s="13"/>
+      <c r="I598" s="12"/>
       <c r="J598" t="s">
         <v>29</v>
       </c>
@@ -7713,7 +7686,7 @@
       <c r="H599" t="s">
         <v>77</v>
       </c>
-      <c r="I599" s="13"/>
+      <c r="I599" s="12"/>
       <c r="K599" t="s">
         <v>42</v>
       </c>
@@ -7722,13 +7695,13 @@
       <c r="B600" s="1">
         <v>409199</v>
       </c>
-      <c r="I600" s="13"/>
+      <c r="I600" s="12"/>
     </row>
     <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="1">
         <v>409200</v>
       </c>
-      <c r="I601" s="13"/>
+      <c r="I601" s="12"/>
     </row>
     <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="1">
@@ -7749,10 +7722,10 @@
       <c r="B605" s="1">
         <v>409204</v>
       </c>
-      <c r="H605" s="24" t="s">
+      <c r="H605" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="I605" s="25" t="s">
+      <c r="I605" s="21" t="s">
         <v>449</v>
       </c>
     </row>
@@ -7760,7 +7733,7 @@
       <c r="B606" s="1">
         <v>409205</v>
       </c>
-      <c r="H606" s="24" t="s">
+      <c r="H606" s="20" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7768,7 +7741,7 @@
       <c r="B607" s="1">
         <v>409206</v>
       </c>
-      <c r="H607" s="24" t="s">
+      <c r="H607" s="20" t="s">
         <v>451</v>
       </c>
     </row>
@@ -7776,7 +7749,7 @@
       <c r="B608" s="1">
         <v>409207</v>
       </c>
-      <c r="H608" s="24" t="s">
+      <c r="H608" s="20" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7784,7 +7757,7 @@
       <c r="B609" s="1">
         <v>409208</v>
       </c>
-      <c r="H609" s="24" t="s">
+      <c r="H609" s="20" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7792,7 +7765,7 @@
       <c r="B610" s="1">
         <v>409209</v>
       </c>
-      <c r="H610" s="26" t="s">
+      <c r="H610" s="22" t="s">
         <v>454</v>
       </c>
     </row>
@@ -7800,7 +7773,7 @@
       <c r="B611" s="1">
         <v>409210</v>
       </c>
-      <c r="H611" s="27" t="s">
+      <c r="H611" s="23" t="s">
         <v>455</v>
       </c>
     </row>
@@ -7808,7 +7781,7 @@
       <c r="B612" s="1">
         <v>409211</v>
       </c>
-      <c r="H612" s="24" t="s">
+      <c r="H612" s="20" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7816,7 +7789,7 @@
       <c r="B613" s="1">
         <v>409212</v>
       </c>
-      <c r="H613" s="24" t="s">
+      <c r="H613" s="20" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7824,7 +7797,7 @@
       <c r="B614" s="1">
         <v>409213</v>
       </c>
-      <c r="H614" s="24" t="s">
+      <c r="H614" s="20" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7832,27 +7805,27 @@
       <c r="B615" s="1">
         <v>409214</v>
       </c>
-      <c r="H615" s="24" t="s">
+      <c r="H615" s="20" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H616" s="24" t="s">
+      <c r="H616" s="20" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H617" s="24" t="s">
+      <c r="H617" s="20" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H618" s="24" t="s">
+      <c r="H618" s="20" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H619" s="24" t="s">
+      <c r="H619" s="20" t="s">
         <v>461</v>
       </c>
     </row>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CFF46E-F726-44D0-85AB-BE75D3C50276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383BBE0C-5AD3-4BD8-B803-A1AF190E8334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2768,8 +2768,8 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D415" sqref="D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6185,9 +6185,6 @@
       </c>
     </row>
     <row r="360" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="B360" s="1">
         <v>408959</v>
       </c>
@@ -6229,6 +6226,9 @@
       </c>
     </row>
     <row r="367" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B367" s="1">
         <v>408966</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383BBE0C-5AD3-4BD8-B803-A1AF190E8334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE508129-3945-453D-8BEC-F52A4A40AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="478">
   <si>
     <t>Date</t>
   </si>
@@ -2240,6 +2240,9 @@
 ‘Well, be off with you!’ said Rosie. ‘If you’ve been looking after Mr. Frodo all this while, what d’you want to leave him for, as soon as things look dangerous?’ 
 This was too much for Sam. It needed a week’s answer, or none. He turned away and mounted his pony. But as he started off, Rosie ran down the steps. 
 ‘I think you look fine, Sam,’ she said. ‘Go on now! But take care of yourself, and come straight back as soon as you have settled the ruffians!’</t>
+  </si>
+  <si>
+    <t>[At some point before Spring, Samwise spreads Galadriel's magic dust]</t>
   </si>
 </sst>
 </file>
@@ -2768,8 +2771,8 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D415" sqref="D415"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H418" sqref="H418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6226,14 +6229,14 @@
       </c>
     </row>
     <row r="367" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B368" s="1">
         <v>408967</v>
       </c>
@@ -6553,85 +6556,88 @@
         <v>473</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="1">
         <v>409016</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>349</v>
       </c>
       <c r="B418" s="1">
         <v>409017</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H418" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="1">
         <v>409018</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="1">
         <v>409019</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="1">
         <v>409020</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="1">
         <v>409021</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="1">
         <v>409022</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="1">
         <v>409023</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="1">
         <v>409024</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="1">
         <v>409025</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="1">
         <v>409026</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="1">
         <v>409027</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="1">
         <v>409028</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="1">
         <v>409029</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="1">
         <v>409030</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="1">
         <v>409031</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE508129-3945-453D-8BEC-F52A4A40AB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196C027-E0AE-4023-8BA8-887A683C79E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2771,8 +2771,8 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H418" sqref="H418"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H377" sqref="H377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6140,22 +6140,22 @@
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -6174,12 +6174,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
@@ -6187,12 +6187,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -6218,45 +6218,42 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="6" t="s">
-        <v>287</v>
-      </c>
+    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -6267,7 +6264,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -6278,57 +6275,60 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>408983</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196C027-E0AE-4023-8BA8-887A683C79E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327A890B-BF19-478B-8B78-8DBD19A56AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2772,7 +2772,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H377" sqref="H377"/>
+      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6238,22 +6238,22 @@
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -6275,65 +6275,62 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="6" t="s">
-        <v>287</v>
-      </c>
+    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
     </row>
-    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
@@ -6341,7 +6338,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
@@ -6352,7 +6349,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
@@ -6363,7 +6360,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
@@ -6371,13 +6368,16 @@
         <v>469</v>
       </c>
     </row>
-    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B389" s="1">
         <v>408988</v>
       </c>
       <c r="H389" s="25"/>
     </row>
-    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
@@ -6385,54 +6385,54 @@
         <v>468</v>
       </c>
     </row>
-    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
       <c r="H391" s="25"/>
     </row>
-    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
       <c r="H392" s="25"/>
     </row>
-    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
     </row>
-    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
     </row>
-    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>408999</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327A890B-BF19-478B-8B78-8DBD19A56AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473607F7-EA8D-46AF-9303-6AD068881281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2772,7 +2772,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
+      <selection pane="bottomLeft" activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6369,15 +6369,15 @@
       </c>
     </row>
     <row r="389" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="B389" s="1">
         <v>408988</v>
       </c>
       <c r="H389" s="25"/>
     </row>
     <row r="390" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B390" s="1">
         <v>408989</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473607F7-EA8D-46AF-9303-6AD068881281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41AD210-0FB2-4669-B53C-C77A079B2E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2771,25 +2771,25 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A390" sqref="A390"/>
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H416" sqref="H416"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="10" width="38.140625" customWidth="1"/>
-    <col min="11" max="16" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" customWidth="1"/>
+    <col min="9" max="10" width="38.1796875" customWidth="1"/>
+    <col min="11" max="16" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>408442</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>408607</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>408608</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>408609</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>408610</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>408611</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>408612</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>408613</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>408614</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>408615</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>408616</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>408617</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>408618</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>408619</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>408620</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>408621</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>408622</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>408623</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>408624</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>408625</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>408626</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>408627</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>408628</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>408629</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>408630</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>408631</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>408632</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>408633</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>408634</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>408635</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>408636</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>408637</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>408638</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>408639</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>164</v>
       </c>
@@ -3433,18 +3433,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>408641</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>408642</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>408643</v>
       </c>
@@ -3458,17 +3458,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
         <v>408644</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <v>408645</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1">
         <v>408646</v>
       </c>
@@ -3482,57 +3482,57 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1">
         <v>408647</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1">
         <v>408648</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1">
         <v>408649</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1">
         <v>408650</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1">
         <v>408651</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1">
         <v>408652</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1">
         <v>408653</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1">
         <v>408654</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <v>408655</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <v>408656</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1">
         <v>408657</v>
       </c>
@@ -3546,87 +3546,87 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <v>408658</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1">
         <v>408659</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <v>408660</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
         <v>408661</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1">
         <v>408662</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
         <v>408663</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>408664</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>408665</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>408666</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
         <v>408667</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
         <v>408668</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <v>408669</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
         <v>408670</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1">
         <v>408671</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1">
         <v>408672</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1">
         <v>408673</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1">
         <v>408674</v>
       </c>
@@ -3640,112 +3640,112 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1">
         <v>408675</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1">
         <v>408676</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1">
         <v>408677</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1">
         <v>408678</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1">
         <v>408679</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1">
         <v>408680</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1">
         <v>408681</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1">
         <v>408682</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1">
         <v>408683</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1">
         <v>408684</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1">
         <v>408685</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1">
         <v>408686</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1">
         <v>408687</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1">
         <v>408688</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1">
         <v>408689</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1">
         <v>408690</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1">
         <v>408691</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1">
         <v>408692</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1">
         <v>408693</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1">
         <v>408694</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1">
         <v>408695</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1">
         <v>408696</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1">
         <v>408697</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1">
         <v>408698</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1">
         <v>408699</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1">
         <v>408700</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1">
         <v>408701</v>
       </c>
@@ -3820,32 +3820,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1">
         <v>408702</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1">
         <v>408703</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1">
         <v>408704</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1">
         <v>408705</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1">
         <v>408706</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1">
         <v>408707</v>
       </c>
@@ -3862,12 +3862,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="1">
         <v>408708</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1">
         <v>408709</v>
       </c>
@@ -3881,27 +3881,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1">
         <v>408710</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1">
         <v>408711</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1">
         <v>408712</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1">
         <v>408713</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1">
         <v>408714</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1">
         <v>408715</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1">
         <v>408716</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1">
         <v>408717</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1">
         <v>408718</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1">
         <v>408719</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1">
         <v>408720</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1">
         <v>408721</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1">
         <v>408722</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1">
         <v>408723</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1">
         <v>408724</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1">
         <v>408725</v>
       </c>
@@ -4078,22 +4078,22 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1">
         <v>408726</v>
       </c>
     </row>
-    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1">
         <v>408727</v>
       </c>
     </row>
-    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1">
         <v>408728</v>
       </c>
     </row>
-    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1">
         <v>408729</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1">
         <v>408730</v>
       </c>
@@ -4121,12 +4121,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1">
         <v>408731</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1">
         <v>408732</v>
       </c>
@@ -4140,107 +4140,107 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1">
         <v>408733</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1">
         <v>408734</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1">
         <v>408735</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1">
         <v>408736</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1">
         <v>408737</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1">
         <v>408738</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1">
         <v>408739</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1">
         <v>408740</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1">
         <v>408741</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1">
         <v>408742</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1">
         <v>408743</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1">
         <v>408744</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1">
         <v>408745</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1">
         <v>408746</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1">
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="I150" s="8"/>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
         <v>226</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
         <v>226</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1">
         <v>408767</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1">
         <v>408768</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1">
         <v>408769</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1">
         <v>408770</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1">
         <v>408771</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1">
         <v>408774</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1">
         <v>408775</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1">
         <v>408777</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
@@ -5179,13 +5179,13 @@
         <v>396</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="7"/>
     </row>
-    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
@@ -5194,19 +5194,19 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="7"/>
     </row>
-    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="7"/>
     </row>
-    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -5214,13 +5214,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="7"/>
     </row>
-    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
@@ -5243,35 +5243,35 @@
         <v>393</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="7"/>
     </row>
-    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="7"/>
     </row>
-    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="7"/>
     </row>
-    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
@@ -5279,52 +5279,52 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
@@ -5332,32 +5332,32 @@
         <v>395</v>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1">
         <v>408828</v>
       </c>
@@ -5371,37 +5371,37 @@
         <v>390</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
@@ -5409,62 +5409,62 @@
         <v>397</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
@@ -5472,37 +5472,37 @@
         <v>398</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
@@ -5510,92 +5510,92 @@
         <v>399</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
@@ -5603,12 +5603,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="1">
         <v>408874</v>
       </c>
@@ -5616,47 +5616,47 @@
         <v>401</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="1">
         <v>408875</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1">
         <v>408876</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="1">
         <v>408877</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="1">
         <v>408878</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="1">
         <v>408879</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="1">
         <v>408880</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="1">
         <v>408881</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="1">
         <v>408882</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="1">
         <v>408883</v>
       </c>
@@ -5670,17 +5670,17 @@
         <v>424</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="1">
         <v>408884</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1">
         <v>408885</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1">
         <v>408886</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="1">
         <v>408887</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="1">
         <v>408888</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="10" t="s">
         <v>226</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="10" t="s">
         <v>226</v>
       </c>
@@ -5735,57 +5735,57 @@
       <c r="F289" s="19"/>
       <c r="G289" s="19"/>
     </row>
-    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="1">
         <v>408889</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="1">
         <v>408890</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="1">
         <v>408891</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="1">
         <v>408892</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="1">
         <v>408893</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="1">
         <v>408894</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="1">
         <v>408895</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="1">
         <v>408896</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="1">
         <v>408897</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="1">
         <v>408898</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="1">
         <v>408899</v>
       </c>
@@ -5793,12 +5793,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="1">
         <v>408900</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="1">
         <v>408901</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="1">
         <v>408902</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="1">
         <v>408903</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5890,82 +5890,82 @@
         <v>427</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
     </row>
-    <row r="321" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="1">
         <v>408920</v>
       </c>
     </row>
-    <row r="322" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="1">
         <v>408921</v>
       </c>
     </row>
-    <row r="323" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="1">
         <v>408922</v>
       </c>
     </row>
-    <row r="324" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="1">
         <v>408923</v>
       </c>
     </row>
-    <row r="325" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="1">
         <v>408924</v>
       </c>
     </row>
-    <row r="326" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="1">
         <v>408925</v>
       </c>
     </row>
-    <row r="327" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="1">
         <v>408926</v>
       </c>
@@ -5976,17 +5976,17 @@
         <v>428</v>
       </c>
     </row>
-    <row r="328" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1">
         <v>408927</v>
       </c>
     </row>
-    <row r="329" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1">
         <v>408928</v>
       </c>
     </row>
-    <row r="330" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="1">
         <v>408929</v>
       </c>
@@ -5997,22 +5997,22 @@
         <v>429</v>
       </c>
     </row>
-    <row r="331" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
-    <row r="332" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
-    <row r="333" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
-    <row r="334" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1">
         <v>408933</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="335" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1">
         <v>408934</v>
       </c>
@@ -6028,12 +6028,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="336" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="1">
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="338" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
@@ -6052,22 +6052,22 @@
         <v>432</v>
       </c>
     </row>
-    <row r="339" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
@@ -6078,32 +6078,32 @@
         <v>432</v>
       </c>
     </row>
-    <row r="343" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
     </row>
-    <row r="344" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
     </row>
-    <row r="345" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
     </row>
-    <row r="347" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
     </row>
-    <row r="348" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="349" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
@@ -6122,17 +6122,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="350" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
     </row>
-    <row r="351" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
     </row>
-    <row r="352" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
@@ -6140,22 +6140,22 @@
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -6174,12 +6174,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
@@ -6187,12 +6187,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
@@ -6200,17 +6200,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -6218,42 +6218,42 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -6275,62 +6275,62 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
@@ -6368,16 +6368,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="1">
         <v>408988</v>
       </c>
       <c r="H389" s="25"/>
     </row>
-    <row r="390" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="6" t="s">
-        <v>287</v>
-      </c>
+    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
@@ -6385,99 +6382,102 @@
         <v>468</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
       <c r="H391" s="25"/>
     </row>
-    <row r="392" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
       <c r="H392" s="25"/>
     </row>
-    <row r="393" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="1">
         <v>408999</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="1">
         <v>409000</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="1">
         <v>409001</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B403" s="1">
         <v>409002</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="1">
         <v>409003</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="1">
         <v>409004</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="1">
         <v>409005</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="1">
         <v>409006</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="1">
         <v>409007</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="1">
         <v>409008</v>
       </c>
@@ -6488,12 +6488,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="1">
         <v>409009</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="1">
         <v>409010</v>
       </c>
@@ -6504,12 +6504,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="1">
         <v>409011</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="1">
         <v>409012</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="6" t="s">
         <v>430</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="1">
         <v>409014</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="1">
         <v>409015</v>
       </c>
@@ -6556,12 +6556,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="1">
         <v>409016</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6" t="s">
         <v>349</v>
       </c>
@@ -6572,642 +6572,642 @@
         <v>477</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="1">
         <v>409018</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="1">
         <v>409019</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="1">
         <v>409020</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="1">
         <v>409021</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="1">
         <v>409022</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="1">
         <v>409023</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="1">
         <v>409024</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="1">
         <v>409025</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="1">
         <v>409026</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="1">
         <v>409027</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="1">
         <v>409028</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="1">
         <v>409029</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="1">
         <v>409030</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="1">
         <v>409031</v>
       </c>
     </row>
-    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="1">
         <v>409032</v>
       </c>
     </row>
-    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="1">
         <v>409033</v>
       </c>
     </row>
-    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="1">
         <v>409034</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="1">
         <v>409035</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="1">
         <v>409036</v>
       </c>
     </row>
-    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="1">
         <v>409037</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="1">
         <v>409038</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="1">
         <v>409039</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="1">
         <v>409040</v>
       </c>
     </row>
-    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="1">
         <v>409041</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="1">
         <v>409042</v>
       </c>
     </row>
-    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="1">
         <v>409043</v>
       </c>
     </row>
-    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="1">
         <v>409044</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="1">
         <v>409045</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="1">
         <v>409046</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="1">
         <v>409047</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="1">
         <v>409048</v>
       </c>
     </row>
-    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="1">
         <v>409049</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="1">
         <v>409050</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="1">
         <v>409051</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="1">
         <v>409052</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="1">
         <v>409053</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="1">
         <v>409054</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="1">
         <v>409055</v>
       </c>
     </row>
-    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="1">
         <v>409056</v>
       </c>
     </row>
-    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="1">
         <v>409057</v>
       </c>
     </row>
-    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="1">
         <v>409058</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="1">
         <v>409059</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="1">
         <v>409060</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="1">
         <v>409061</v>
       </c>
     </row>
-    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="1">
         <v>409062</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="1">
         <v>409063</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="1">
         <v>409064</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="1">
         <v>409065</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="1">
         <v>409066</v>
       </c>
     </row>
-    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="1">
         <v>409067</v>
       </c>
     </row>
-    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="1">
         <v>409068</v>
       </c>
     </row>
-    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="1">
         <v>409069</v>
       </c>
     </row>
-    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="1">
         <v>409070</v>
       </c>
     </row>
-    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="1">
         <v>409071</v>
       </c>
     </row>
-    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="1">
         <v>409072</v>
       </c>
     </row>
-    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="1">
         <v>409073</v>
       </c>
     </row>
-    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="1">
         <v>409074</v>
       </c>
     </row>
-    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="1">
         <v>409075</v>
       </c>
     </row>
-    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="1">
         <v>409076</v>
       </c>
     </row>
-    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="1">
         <v>409077</v>
       </c>
     </row>
-    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="1">
         <v>409078</v>
       </c>
     </row>
-    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="1">
         <v>409079</v>
       </c>
     </row>
-    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="1">
         <v>409080</v>
       </c>
     </row>
-    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="1">
         <v>409081</v>
       </c>
     </row>
-    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="1">
         <v>409082</v>
       </c>
     </row>
-    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="1">
         <v>409083</v>
       </c>
     </row>
-    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="1">
         <v>409084</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="1">
         <v>409085</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="1">
         <v>409086</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="1">
         <v>409087</v>
       </c>
     </row>
-    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="1">
         <v>409088</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="1">
         <v>409089</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="1">
         <v>409090</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="1">
         <v>409091</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="1">
         <v>409092</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="1">
         <v>409093</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="1">
         <v>409094</v>
       </c>
     </row>
-    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="1">
         <v>409095</v>
       </c>
     </row>
-    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="1">
         <v>409096</v>
       </c>
     </row>
-    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="1">
         <v>409097</v>
       </c>
     </row>
-    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="1">
         <v>409098</v>
       </c>
     </row>
-    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="1">
         <v>409099</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="1">
         <v>409100</v>
       </c>
     </row>
-    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="1">
         <v>409101</v>
       </c>
     </row>
-    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="1">
         <v>409102</v>
       </c>
     </row>
-    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="1">
         <v>409103</v>
       </c>
     </row>
-    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="1">
         <v>409104</v>
       </c>
     </row>
-    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="1">
         <v>409105</v>
       </c>
     </row>
-    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="1">
         <v>409106</v>
       </c>
     </row>
-    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="1">
         <v>409107</v>
       </c>
     </row>
-    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="1">
         <v>409108</v>
       </c>
     </row>
-    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="1">
         <v>409109</v>
       </c>
     </row>
-    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="1">
         <v>409110</v>
       </c>
     </row>
-    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="1">
         <v>409111</v>
       </c>
     </row>
-    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="1">
         <v>409112</v>
       </c>
     </row>
-    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="1">
         <v>409113</v>
       </c>
     </row>
-    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="1">
         <v>409114</v>
       </c>
     </row>
-    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="1">
         <v>409115</v>
       </c>
     </row>
-    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B517" s="1">
         <v>409116</v>
       </c>
     </row>
-    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B518" s="1">
         <v>409117</v>
       </c>
     </row>
-    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B519" s="1">
         <v>409118</v>
       </c>
     </row>
-    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B520" s="1">
         <v>409119</v>
       </c>
     </row>
-    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B521" s="1">
         <v>409120</v>
       </c>
     </row>
-    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B522" s="1">
         <v>409121</v>
       </c>
     </row>
-    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B523" s="1">
         <v>409122</v>
       </c>
     </row>
-    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B524" s="1">
         <v>409123</v>
       </c>
     </row>
-    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B525" s="1">
         <v>409124</v>
       </c>
     </row>
-    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B526" s="1">
         <v>409125</v>
       </c>
     </row>
-    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B527" s="1">
         <v>409126</v>
       </c>
     </row>
-    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B528" s="1">
         <v>409127</v>
       </c>
     </row>
-    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B529" s="1">
         <v>409128</v>
       </c>
     </row>
-    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B530" s="1">
         <v>409129</v>
       </c>
     </row>
-    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B531" s="1">
         <v>409130</v>
       </c>
     </row>
-    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B532" s="1">
         <v>409131</v>
       </c>
     </row>
-    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B533" s="1">
         <v>409132</v>
       </c>
     </row>
-    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B534" s="1">
         <v>409133</v>
       </c>
     </row>
-    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B535" s="1">
         <v>409134</v>
       </c>
     </row>
-    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B536" s="1">
         <v>409135</v>
       </c>
     </row>
-    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B537" s="1">
         <v>409136</v>
       </c>
     </row>
-    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B538" s="1">
         <v>409137</v>
       </c>
     </row>
-    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B539" s="1">
         <v>409138</v>
       </c>
     </row>
-    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B540" s="1">
         <v>409139</v>
       </c>
     </row>
-    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B541" s="1">
         <v>409140</v>
       </c>
     </row>
-    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B542" s="1">
         <v>409141</v>
       </c>
     </row>
-    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B543" s="1">
         <v>409142</v>
       </c>
     </row>
-    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B544" s="1">
         <v>409143</v>
       </c>
     </row>
-    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B545" s="1">
         <v>409144</v>
       </c>
     </row>
-    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B546" s="1">
         <v>409145</v>
       </c>
@@ -7215,122 +7215,122 @@
         <v>445</v>
       </c>
     </row>
-    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B547" s="1">
         <v>409146</v>
       </c>
     </row>
-    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B548" s="1">
         <v>409147</v>
       </c>
     </row>
-    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B549" s="1">
         <v>409148</v>
       </c>
     </row>
-    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B550" s="1">
         <v>409149</v>
       </c>
     </row>
-    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B551" s="1">
         <v>409150</v>
       </c>
     </row>
-    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B552" s="1">
         <v>409151</v>
       </c>
     </row>
-    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B553" s="1">
         <v>409152</v>
       </c>
     </row>
-    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B554" s="1">
         <v>409153</v>
       </c>
     </row>
-    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B555" s="1">
         <v>409154</v>
       </c>
     </row>
-    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B556" s="1">
         <v>409155</v>
       </c>
     </row>
-    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B557" s="1">
         <v>409156</v>
       </c>
     </row>
-    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B558" s="1">
         <v>409157</v>
       </c>
     </row>
-    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B559" s="1">
         <v>409158</v>
       </c>
     </row>
-    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B560" s="1">
         <v>409159</v>
       </c>
     </row>
-    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B561" s="1">
         <v>409160</v>
       </c>
     </row>
-    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B562" s="1">
         <v>409161</v>
       </c>
     </row>
-    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B563" s="1">
         <v>409162</v>
       </c>
     </row>
-    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B564" s="1">
         <v>409163</v>
       </c>
     </row>
-    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B565" s="1">
         <v>409164</v>
       </c>
     </row>
-    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B566" s="1">
         <v>409165</v>
       </c>
     </row>
-    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B567" s="1">
         <v>409166</v>
       </c>
     </row>
-    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B568" s="1">
         <v>409167</v>
       </c>
     </row>
-    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B569" s="1">
         <v>409168</v>
       </c>
     </row>
-    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B570" s="1">
         <v>409169</v>
       </c>
@@ -7338,57 +7338,57 @@
         <v>446</v>
       </c>
     </row>
-    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B571" s="1">
         <v>409170</v>
       </c>
     </row>
-    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B572" s="1">
         <v>409171</v>
       </c>
     </row>
-    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B573" s="1">
         <v>409172</v>
       </c>
     </row>
-    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B574" s="1">
         <v>409173</v>
       </c>
     </row>
-    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B575" s="1">
         <v>409174</v>
       </c>
     </row>
-    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B576" s="1">
         <v>409175</v>
       </c>
     </row>
-    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B577" s="1">
         <v>409176</v>
       </c>
     </row>
-    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B578" s="1">
         <v>409177</v>
       </c>
     </row>
-    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B579" s="1">
         <v>409178</v>
       </c>
     </row>
-    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B580" s="1">
         <v>409179</v>
       </c>
     </row>
-    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B581" s="1">
         <v>409180</v>
       </c>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="I581" s="12"/>
     </row>
-    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B582" s="1">
         <v>409181</v>
       </c>
@@ -7406,13 +7406,13 @@
       </c>
       <c r="I582" s="12"/>
     </row>
-    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B583" s="1">
         <v>409182</v>
       </c>
       <c r="I583" s="12"/>
     </row>
-    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B584" s="1">
         <v>409183</v>
       </c>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="I584" s="12"/>
     </row>
-    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B585" s="1">
         <v>409184</v>
       </c>
@@ -7436,13 +7436,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B586" s="1">
         <v>409185</v>
       </c>
       <c r="I586" s="12"/>
     </row>
-    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B587" s="1">
         <v>409186</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B588" s="1">
         <v>409187</v>
       </c>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="I588" s="12"/>
     </row>
-    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B589" s="1">
         <v>409188</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B590" s="1">
         <v>409189</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B591" s="1">
         <v>409190</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B592" s="1">
         <v>409191</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B593" s="1">
         <v>409192</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B594" s="1">
         <v>409193</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B595" s="1">
         <v>409194</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B596" s="1">
         <v>409195</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B597" s="1">
         <v>409196</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B598" s="1">
         <v>409197</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B599" s="1">
         <v>409198</v>
       </c>
@@ -7697,34 +7697,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B600" s="1">
         <v>409199</v>
       </c>
       <c r="I600" s="12"/>
     </row>
-    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B601" s="1">
         <v>409200</v>
       </c>
       <c r="I601" s="12"/>
     </row>
-    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B602" s="1">
         <v>409201</v>
       </c>
     </row>
-    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B603" s="1">
         <v>409202</v>
       </c>
     </row>
-    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B604" s="1">
         <v>409203</v>
       </c>
     </row>
-    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B605" s="1">
         <v>409204</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B606" s="1">
         <v>409205</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B607" s="1">
         <v>409206</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B608" s="1">
         <v>409207</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B609" s="1">
         <v>409208</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B610" s="1">
         <v>409209</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B611" s="1">
         <v>409210</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B612" s="1">
         <v>409211</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B613" s="1">
         <v>409212</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B614" s="1">
         <v>409213</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B615" s="1">
         <v>409214</v>
       </c>
@@ -7815,22 +7815,22 @@
         <v>458</v>
       </c>
     </row>
-    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H616" s="20" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H617" s="20" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H618" s="20" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H619" s="20" t="s">
         <v>461</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41AD210-0FB2-4669-B53C-C77A079B2E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A73DDD-BA3F-4284-B726-C5A014EBC319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="479">
   <si>
     <t>Date</t>
   </si>
@@ -2243,6 +2243,10 @@
   </si>
   <si>
     <t>[At some point before Spring, Samwise spreads Galadriel's magic dust]</t>
+  </si>
+  <si>
+    <t>5 November 3019 [F/S/M/P]
+[Lobelia] had never in her life been popular before. But she was crushed by the news of Lotho’s murder, and she would not return to Bag End. She gave it back to Frodo, and went to her own people, the Bracegirdles of Hardbottle. When the poor creature died next spring - she was after all more than a hundred years old - Frodo was surprised and much moved: she had left all that remained of her money and of Lotho’s for him to use in helping hobbits made homeless by the troubles. So that feud was ended.</t>
   </si>
 </sst>
 </file>
@@ -2772,24 +2776,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H416" sqref="H416"/>
+      <selection pane="bottomLeft" activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" customWidth="1"/>
-    <col min="9" max="10" width="38.1796875" customWidth="1"/>
-    <col min="11" max="16" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="10" width="38.140625" customWidth="1"/>
+    <col min="11" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>408442</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>408607</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>408608</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>408609</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>408610</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>408611</v>
       </c>
@@ -2952,7 +2956,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>408612</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>408613</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>408614</v>
       </c>
@@ -3003,7 +3007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>408615</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>408616</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>408617</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>408618</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>408619</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>408620</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>408621</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>408622</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>408623</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>408624</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>408625</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>408626</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>408627</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>408628</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>408629</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>408630</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>408631</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>408632</v>
       </c>
@@ -3306,7 +3310,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>408633</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>408634</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>408635</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>408636</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>408637</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>408638</v>
       </c>
@@ -3387,7 +3391,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>408639</v>
       </c>
@@ -3404,7 +3408,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>164</v>
       </c>
@@ -3433,18 +3437,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>408641</v>
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>408642</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>408643</v>
       </c>
@@ -3458,17 +3462,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>408644</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>408645</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>408646</v>
       </c>
@@ -3482,57 +3486,57 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>408647</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>408648</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>408649</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>408650</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>408651</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>408652</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>408653</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>408654</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>408655</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>408656</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>408657</v>
       </c>
@@ -3546,87 +3550,87 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>408658</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>408659</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>408660</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>408661</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>408662</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>408663</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>408664</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>408665</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>408666</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>408667</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>408668</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>408669</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>408670</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>408671</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>408672</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>408673</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>408674</v>
       </c>
@@ -3640,112 +3644,112 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>408675</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>408676</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>408677</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>408678</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>408679</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>408680</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>408681</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>408682</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>408683</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>408684</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>408685</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>408686</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>408687</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>408688</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>408689</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>408690</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>408691</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>408692</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>408693</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>408694</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>408695</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>408696</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>408697</v>
       </c>
@@ -3773,7 +3777,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>408698</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>408699</v>
       </c>
@@ -3795,7 +3799,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>408700</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>408701</v>
       </c>
@@ -3820,32 +3824,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>408702</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>408703</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>408704</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>408705</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>408706</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>408707</v>
       </c>
@@ -3862,12 +3866,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>408708</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>408709</v>
       </c>
@@ -3881,27 +3885,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>408710</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>408711</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>408712</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>408713</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>408714</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>408715</v>
       </c>
@@ -3932,7 +3936,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>408716</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>408717</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>408718</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>408719</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>408720</v>
       </c>
@@ -4002,7 +4006,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>408721</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>408722</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>408723</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>408724</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>408725</v>
       </c>
@@ -4078,22 +4082,22 @@
         <v>253</v>
       </c>
     </row>
-    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>408726</v>
       </c>
     </row>
-    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>408727</v>
       </c>
     </row>
-    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>408728</v>
       </c>
     </row>
-    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>408729</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>408730</v>
       </c>
@@ -4121,12 +4125,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>408731</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>408732</v>
       </c>
@@ -4140,107 +4144,107 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>408733</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>408734</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>408735</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>408736</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>408737</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>408738</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>408739</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>408740</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>408741</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>408742</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>408743</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>408744</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>408745</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>408746</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
@@ -4258,7 +4262,7 @@
       </c>
       <c r="I150" s="8"/>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
@@ -4371,7 +4375,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
@@ -4427,7 +4431,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
@@ -4462,7 +4466,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
@@ -4537,7 +4541,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>226</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>226</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>408767</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>408768</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>408769</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>408770</v>
       </c>
@@ -4663,7 +4667,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>408771</v>
       </c>
@@ -4680,7 +4684,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>408772</v>
       </c>
@@ -4700,7 +4704,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>408773</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>408774</v>
       </c>
@@ -4746,7 +4750,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>408775</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>408776</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>408777</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408778</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>408779</v>
       </c>
@@ -4861,7 +4865,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>408780</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408781</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408782</v>
       </c>
@@ -4930,7 +4934,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408783</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408784</v>
       </c>
@@ -4970,7 +4974,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408785</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408786</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408787</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408788</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408789</v>
       </c>
@@ -5066,7 +5070,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408790</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408791</v>
       </c>
@@ -5103,7 +5107,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408792</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408793</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408794</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408795</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408796</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408797</v>
       </c>
@@ -5167,7 +5171,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408798</v>
       </c>
@@ -5179,13 +5183,13 @@
         <v>396</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408799</v>
       </c>
       <c r="D198" s="7"/>
     </row>
-    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408800</v>
       </c>
@@ -5194,19 +5198,19 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408801</v>
       </c>
       <c r="D200" s="7"/>
     </row>
-    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408802</v>
       </c>
       <c r="D201" s="7"/>
     </row>
-    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408803</v>
       </c>
@@ -5214,13 +5218,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408804</v>
       </c>
       <c r="D203" s="7"/>
     </row>
-    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>408805</v>
       </c>
@@ -5234,7 +5238,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408806</v>
       </c>
@@ -5243,35 +5247,35 @@
         <v>393</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408807</v>
       </c>
       <c r="D206" s="7"/>
     </row>
-    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408808</v>
       </c>
       <c r="D207" s="7"/>
     </row>
-    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408809</v>
       </c>
       <c r="D208" s="7"/>
     </row>
-    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408811</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408812</v>
       </c>
@@ -5279,52 +5283,52 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408813</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408814</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408815</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408816</v>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408817</v>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408818</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408819</v>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408820</v>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408822</v>
       </c>
@@ -5332,32 +5336,32 @@
         <v>395</v>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>408827</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>408828</v>
       </c>
@@ -5371,37 +5375,37 @@
         <v>390</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>408829</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>408830</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>408831</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>408832</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>408833</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>408834</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>408835</v>
       </c>
@@ -5409,62 +5413,62 @@
         <v>397</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>408836</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>408837</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>408838</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>408839</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>408840</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>408841</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>408842</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>408843</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>408844</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>408845</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>408846</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>408847</v>
       </c>
@@ -5472,37 +5476,37 @@
         <v>398</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>408848</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>408849</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>408850</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>408851</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>408852</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>408853</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>408854</v>
       </c>
@@ -5510,92 +5514,92 @@
         <v>399</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>408855</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>408856</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>408857</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>408858</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>408859</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>408860</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>408861</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>408862</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>408863</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>408864</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>408865</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>408866</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>408867</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>408868</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>408869</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>408870</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>408871</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>408872</v>
       </c>
@@ -5603,12 +5607,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>408873</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>408874</v>
       </c>
@@ -5616,47 +5620,47 @@
         <v>401</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>408875</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>408876</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>408877</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>408878</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>408879</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>408880</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>408881</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>408882</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>408883</v>
       </c>
@@ -5670,17 +5674,17 @@
         <v>424</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>408884</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>408885</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>408886</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>408887</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>408888</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>226</v>
       </c>
@@ -5721,7 +5725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>226</v>
       </c>
@@ -5735,57 +5739,57 @@
       <c r="F289" s="19"/>
       <c r="G289" s="19"/>
     </row>
-    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>408889</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>408890</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>408891</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>408892</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>408893</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>408894</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>408895</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>408896</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>408897</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>408898</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>408899</v>
       </c>
@@ -5793,12 +5797,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>408900</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>408901</v>
       </c>
@@ -5806,7 +5810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>408902</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>408903</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>408904</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>408905</v>
       </c>
@@ -5841,7 +5845,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>408906</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>408907</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>408908</v>
       </c>
@@ -5871,7 +5875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>408909</v>
       </c>
@@ -5879,7 +5883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>408910</v>
       </c>
@@ -5890,82 +5894,82 @@
         <v>427</v>
       </c>
     </row>
-    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>408911</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>408912</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>408913</v>
       </c>
     </row>
-    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>408914</v>
       </c>
     </row>
-    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>408915</v>
       </c>
     </row>
-    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>408916</v>
       </c>
     </row>
-    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>408917</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>408918</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>408919</v>
       </c>
     </row>
-    <row r="321" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>408920</v>
       </c>
     </row>
-    <row r="322" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>408921</v>
       </c>
     </row>
-    <row r="323" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>408922</v>
       </c>
     </row>
-    <row r="324" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>408923</v>
       </c>
     </row>
-    <row r="325" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>408924</v>
       </c>
     </row>
-    <row r="326" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>408925</v>
       </c>
     </row>
-    <row r="327" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>408926</v>
       </c>
@@ -5976,17 +5980,17 @@
         <v>428</v>
       </c>
     </row>
-    <row r="328" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>408927</v>
       </c>
     </row>
-    <row r="329" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>408928</v>
       </c>
     </row>
-    <row r="330" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>408929</v>
       </c>
@@ -5997,22 +6001,22 @@
         <v>429</v>
       </c>
     </row>
-    <row r="331" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>408930</v>
       </c>
     </row>
-    <row r="332" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>408931</v>
       </c>
     </row>
-    <row r="333" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>408932</v>
       </c>
     </row>
-    <row r="334" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>408933</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="335" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>408934</v>
       </c>
@@ -6028,12 +6032,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="336" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>408935</v>
       </c>
     </row>
-    <row r="337" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>408936</v>
       </c>
@@ -6041,7 +6045,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="338" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>408937</v>
       </c>
@@ -6052,22 +6056,22 @@
         <v>432</v>
       </c>
     </row>
-    <row r="339" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>408938</v>
       </c>
     </row>
-    <row r="340" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>408939</v>
       </c>
     </row>
-    <row r="341" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>408940</v>
       </c>
     </row>
-    <row r="342" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>408941</v>
       </c>
@@ -6078,32 +6082,32 @@
         <v>432</v>
       </c>
     </row>
-    <row r="343" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>408942</v>
       </c>
     </row>
-    <row r="344" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>408943</v>
       </c>
     </row>
-    <row r="345" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>408944</v>
       </c>
     </row>
-    <row r="346" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>408945</v>
       </c>
     </row>
-    <row r="347" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>408946</v>
       </c>
     </row>
-    <row r="348" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>408947</v>
       </c>
@@ -6114,7 +6118,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="349" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>408948</v>
       </c>
@@ -6122,17 +6126,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="350" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>408949</v>
       </c>
     </row>
-    <row r="351" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>408950</v>
       </c>
     </row>
-    <row r="352" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>408951</v>
       </c>
@@ -6140,22 +6144,22 @@
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>408952</v>
       </c>
     </row>
-    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>408953</v>
       </c>
     </row>
-    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>408954</v>
       </c>
     </row>
-    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>408955</v>
       </c>
@@ -6163,7 +6167,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>408956</v>
       </c>
@@ -6174,12 +6178,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>408957</v>
       </c>
     </row>
-    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>408958</v>
       </c>
@@ -6187,12 +6191,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>408959</v>
       </c>
     </row>
-    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>408960</v>
       </c>
@@ -6200,17 +6204,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>408961</v>
       </c>
     </row>
-    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>408962</v>
       </c>
     </row>
-    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>408963</v>
       </c>
@@ -6218,42 +6222,42 @@
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>408964</v>
       </c>
     </row>
-    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>408965</v>
       </c>
     </row>
-    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>408966</v>
       </c>
     </row>
-    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>408967</v>
       </c>
     </row>
-    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>408968</v>
       </c>
     </row>
-    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>408969</v>
       </c>
     </row>
-    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>408970</v>
       </c>
     </row>
-    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>408971</v>
       </c>
@@ -6264,7 +6268,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>408972</v>
       </c>
@@ -6275,62 +6279,62 @@
         <v>464</v>
       </c>
     </row>
-    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>408973</v>
       </c>
     </row>
-    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>408974</v>
       </c>
     </row>
-    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1">
         <v>408975</v>
       </c>
     </row>
-    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1">
         <v>408976</v>
       </c>
     </row>
-    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1">
         <v>408977</v>
       </c>
     </row>
-    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1">
         <v>408978</v>
       </c>
     </row>
-    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1">
         <v>408979</v>
       </c>
     </row>
-    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1">
         <v>408980</v>
       </c>
     </row>
-    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1">
         <v>408981</v>
       </c>
     </row>
-    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1">
         <v>408982</v>
       </c>
     </row>
-    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1">
         <v>408983</v>
       </c>
     </row>
-    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1">
         <v>408984</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1">
         <v>408985</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1">
         <v>408986</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1">
         <v>408987</v>
       </c>
@@ -6368,13 +6372,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1">
         <v>408988</v>
       </c>
       <c r="H389" s="25"/>
     </row>
-    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1">
         <v>408989</v>
       </c>
@@ -6382,102 +6386,99 @@
         <v>468</v>
       </c>
     </row>
-    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1">
         <v>408990</v>
       </c>
       <c r="H391" s="25"/>
     </row>
-    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1">
         <v>408991</v>
       </c>
       <c r="H392" s="25"/>
     </row>
-    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1">
         <v>408992</v>
       </c>
     </row>
-    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1">
         <v>408993</v>
       </c>
     </row>
-    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1">
         <v>408994</v>
       </c>
     </row>
-    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1">
         <v>408995</v>
       </c>
     </row>
-    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1">
         <v>408996</v>
       </c>
     </row>
-    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1">
         <v>408997</v>
       </c>
     </row>
-    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1">
         <v>408998</v>
       </c>
     </row>
-    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1">
         <v>408999</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1">
         <v>409000</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1">
         <v>409001</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="6" t="s">
-        <v>287</v>
-      </c>
+    <row r="403" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1">
         <v>409002</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1">
         <v>409003</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1">
         <v>409004</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1">
         <v>409005</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1">
         <v>409006</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1">
         <v>409007</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1">
         <v>409008</v>
       </c>
@@ -6488,12 +6489,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1">
         <v>409009</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1">
         <v>409010</v>
       </c>
@@ -6504,12 +6505,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1">
         <v>409011</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="1">
         <v>409012</v>
       </c>
@@ -6520,10 +6521,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="6" t="s">
-        <v>430</v>
-      </c>
+    <row r="414" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="1">
         <v>409013</v>
       </c>
@@ -6534,7 +6532,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="1">
         <v>409014</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="1">
         <v>409015</v>
       </c>
@@ -6556,658 +6554,667 @@
         <v>473</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B417" s="1">
         <v>409016</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="6" t="s">
-        <v>349</v>
-      </c>
+      <c r="H417" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="1">
         <v>409017</v>
       </c>
-      <c r="H418" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="419" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="1">
         <v>409018</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="1">
         <v>409019</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="1">
         <v>409020</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H421" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="1">
         <v>409021</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="1">
         <v>409022</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="1">
         <v>409023</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="1">
         <v>409024</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="1">
         <v>409025</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="1">
         <v>409026</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="1">
         <v>409027</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="1">
         <v>409028</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="B430" s="1">
         <v>409029</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="B431" s="1">
         <v>409030</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="1">
         <v>409031</v>
       </c>
     </row>
-    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="1">
         <v>409032</v>
       </c>
     </row>
-    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="1">
         <v>409033</v>
       </c>
     </row>
-    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="1">
         <v>409034</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="1">
         <v>409035</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="1">
         <v>409036</v>
       </c>
     </row>
-    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="1">
         <v>409037</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="1">
         <v>409038</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="1">
         <v>409039</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="1">
         <v>409040</v>
       </c>
     </row>
-    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="1">
         <v>409041</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="1">
         <v>409042</v>
       </c>
     </row>
-    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="1">
         <v>409043</v>
       </c>
     </row>
-    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="1">
         <v>409044</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="1">
         <v>409045</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="1">
         <v>409046</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="1">
         <v>409047</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
         <v>409048</v>
       </c>
     </row>
-    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
         <v>409049</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
         <v>409050</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>409051</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
         <v>409052</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
         <v>409053</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
         <v>409054</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
         <v>409055</v>
       </c>
     </row>
-    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
         <v>409056</v>
       </c>
     </row>
-    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <v>409057</v>
       </c>
     </row>
-    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="1">
         <v>409058</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
         <v>409059</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
         <v>409060</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="1">
         <v>409061</v>
       </c>
     </row>
-    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="1">
         <v>409062</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="1">
         <v>409063</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="1">
         <v>409064</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="1">
         <v>409065</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="1">
         <v>409066</v>
       </c>
     </row>
-    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="1">
         <v>409067</v>
       </c>
     </row>
-    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="1">
         <v>409068</v>
       </c>
     </row>
-    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="1">
         <v>409069</v>
       </c>
     </row>
-    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="1">
         <v>409070</v>
       </c>
     </row>
-    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="1">
         <v>409071</v>
       </c>
     </row>
-    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="1">
         <v>409072</v>
       </c>
     </row>
-    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="1">
         <v>409073</v>
       </c>
     </row>
-    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="1">
         <v>409074</v>
       </c>
     </row>
-    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="1">
         <v>409075</v>
       </c>
     </row>
-    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="1">
         <v>409076</v>
       </c>
     </row>
-    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="1">
         <v>409077</v>
       </c>
     </row>
-    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="1">
         <v>409078</v>
       </c>
     </row>
-    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="1">
         <v>409079</v>
       </c>
     </row>
-    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="1">
         <v>409080</v>
       </c>
     </row>
-    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="1">
         <v>409081</v>
       </c>
     </row>
-    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="1">
         <v>409082</v>
       </c>
     </row>
-    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="1">
         <v>409083</v>
       </c>
     </row>
-    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="1">
         <v>409084</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="1">
         <v>409085</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="1">
         <v>409086</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="1">
         <v>409087</v>
       </c>
     </row>
-    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="1">
         <v>409088</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="1">
         <v>409089</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="1">
         <v>409090</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="1">
         <v>409091</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="1">
         <v>409092</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="1">
         <v>409093</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="1">
         <v>409094</v>
       </c>
     </row>
-    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="1">
         <v>409095</v>
       </c>
     </row>
-    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="1">
         <v>409096</v>
       </c>
     </row>
-    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="1">
         <v>409097</v>
       </c>
     </row>
-    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="1">
         <v>409098</v>
       </c>
     </row>
-    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="1">
         <v>409099</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="1">
         <v>409100</v>
       </c>
     </row>
-    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="1">
         <v>409101</v>
       </c>
     </row>
-    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="1">
         <v>409102</v>
       </c>
     </row>
-    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="1">
         <v>409103</v>
       </c>
     </row>
-    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="1">
         <v>409104</v>
       </c>
     </row>
-    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="1">
         <v>409105</v>
       </c>
     </row>
-    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="1">
         <v>409106</v>
       </c>
     </row>
-    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="1">
         <v>409107</v>
       </c>
     </row>
-    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="1">
         <v>409108</v>
       </c>
     </row>
-    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="1">
         <v>409109</v>
       </c>
     </row>
-    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="1">
         <v>409110</v>
       </c>
     </row>
-    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="1">
         <v>409111</v>
       </c>
     </row>
-    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="1">
         <v>409112</v>
       </c>
     </row>
-    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="1">
         <v>409113</v>
       </c>
     </row>
-    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="1">
         <v>409114</v>
       </c>
     </row>
-    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="1">
         <v>409115</v>
       </c>
     </row>
-    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="1">
         <v>409116</v>
       </c>
     </row>
-    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="1">
         <v>409117</v>
       </c>
     </row>
-    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="1">
         <v>409118</v>
       </c>
     </row>
-    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="1">
         <v>409119</v>
       </c>
     </row>
-    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="1">
         <v>409120</v>
       </c>
     </row>
-    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="1">
         <v>409121</v>
       </c>
     </row>
-    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="1">
         <v>409122</v>
       </c>
     </row>
-    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="1">
         <v>409123</v>
       </c>
     </row>
-    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="1">
         <v>409124</v>
       </c>
     </row>
-    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="1">
         <v>409125</v>
       </c>
     </row>
-    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="1">
         <v>409126</v>
       </c>
     </row>
-    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="1">
         <v>409127</v>
       </c>
     </row>
-    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="1">
         <v>409128</v>
       </c>
     </row>
-    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="1">
         <v>409129</v>
       </c>
     </row>
-    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="1">
         <v>409130</v>
       </c>
     </row>
-    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="1">
         <v>409131</v>
       </c>
     </row>
-    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="1">
         <v>409132</v>
       </c>
     </row>
-    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="1">
         <v>409133</v>
       </c>
     </row>
-    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="1">
         <v>409134</v>
       </c>
     </row>
-    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="1">
         <v>409135</v>
       </c>
     </row>
-    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="1">
         <v>409136</v>
       </c>
     </row>
-    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="1">
         <v>409137</v>
       </c>
     </row>
-    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="1">
         <v>409138</v>
       </c>
     </row>
-    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="1">
         <v>409139</v>
       </c>
     </row>
-    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="1">
         <v>409140</v>
       </c>
     </row>
-    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="1">
         <v>409141</v>
       </c>
     </row>
-    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="1">
         <v>409142</v>
       </c>
     </row>
-    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="1">
         <v>409143</v>
       </c>
     </row>
-    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="1">
         <v>409144</v>
       </c>
     </row>
-    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="1">
         <v>409145</v>
       </c>
@@ -7215,122 +7222,122 @@
         <v>445</v>
       </c>
     </row>
-    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="1">
         <v>409146</v>
       </c>
     </row>
-    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="1">
         <v>409147</v>
       </c>
     </row>
-    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="1">
         <v>409148</v>
       </c>
     </row>
-    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="1">
         <v>409149</v>
       </c>
     </row>
-    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="1">
         <v>409150</v>
       </c>
     </row>
-    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="1">
         <v>409151</v>
       </c>
     </row>
-    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="1">
         <v>409152</v>
       </c>
     </row>
-    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="1">
         <v>409153</v>
       </c>
     </row>
-    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="1">
         <v>409154</v>
       </c>
     </row>
-    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="1">
         <v>409155</v>
       </c>
     </row>
-    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="1">
         <v>409156</v>
       </c>
     </row>
-    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="1">
         <v>409157</v>
       </c>
     </row>
-    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="1">
         <v>409158</v>
       </c>
     </row>
-    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="1">
         <v>409159</v>
       </c>
     </row>
-    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="1">
         <v>409160</v>
       </c>
     </row>
-    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="1">
         <v>409161</v>
       </c>
     </row>
-    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="1">
         <v>409162</v>
       </c>
     </row>
-    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="1">
         <v>409163</v>
       </c>
     </row>
-    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="1">
         <v>409164</v>
       </c>
     </row>
-    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="1">
         <v>409165</v>
       </c>
     </row>
-    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="1">
         <v>409166</v>
       </c>
     </row>
-    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="1">
         <v>409167</v>
       </c>
     </row>
-    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="1">
         <v>409168</v>
       </c>
     </row>
-    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="1">
         <v>409169</v>
       </c>
@@ -7338,57 +7345,57 @@
         <v>446</v>
       </c>
     </row>
-    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="1">
         <v>409170</v>
       </c>
     </row>
-    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="1">
         <v>409171</v>
       </c>
     </row>
-    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="1">
         <v>409172</v>
       </c>
     </row>
-    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="1">
         <v>409173</v>
       </c>
     </row>
-    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="1">
         <v>409174</v>
       </c>
     </row>
-    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="1">
         <v>409175</v>
       </c>
     </row>
-    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="1">
         <v>409176</v>
       </c>
     </row>
-    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="1">
         <v>409177</v>
       </c>
     </row>
-    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="1">
         <v>409178</v>
       </c>
     </row>
-    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="1">
         <v>409179</v>
       </c>
     </row>
-    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="1">
         <v>409180</v>
       </c>
@@ -7397,7 +7404,7 @@
       </c>
       <c r="I581" s="12"/>
     </row>
-    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="1">
         <v>409181</v>
       </c>
@@ -7406,13 +7413,13 @@
       </c>
       <c r="I582" s="12"/>
     </row>
-    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="1">
         <v>409182</v>
       </c>
       <c r="I583" s="12"/>
     </row>
-    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="1">
         <v>409183</v>
       </c>
@@ -7421,7 +7428,7 @@
       </c>
       <c r="I584" s="12"/>
     </row>
-    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="1">
         <v>409184</v>
       </c>
@@ -7436,13 +7443,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="1">
         <v>409185</v>
       </c>
       <c r="I586" s="12"/>
     </row>
-    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="1">
         <v>409186</v>
       </c>
@@ -7463,7 +7470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="1">
         <v>409187</v>
       </c>
@@ -7472,7 +7479,7 @@
       </c>
       <c r="I588" s="12"/>
     </row>
-    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="1">
         <v>409188</v>
       </c>
@@ -7493,7 +7500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="1">
         <v>409189</v>
       </c>
@@ -7514,7 +7521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="1">
         <v>409190</v>
       </c>
@@ -7535,7 +7542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="1">
         <v>409191</v>
       </c>
@@ -7556,7 +7563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="1">
         <v>409192</v>
       </c>
@@ -7577,7 +7584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="1">
         <v>409193</v>
       </c>
@@ -7598,7 +7605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="1">
         <v>409194</v>
       </c>
@@ -7622,7 +7629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="1">
         <v>409195</v>
       </c>
@@ -7643,7 +7650,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="1">
         <v>409196</v>
       </c>
@@ -7664,7 +7671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="1">
         <v>409197</v>
       </c>
@@ -7685,7 +7692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="1">
         <v>409198</v>
       </c>
@@ -7697,34 +7704,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="1">
         <v>409199</v>
       </c>
       <c r="I600" s="12"/>
     </row>
-    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="1">
         <v>409200</v>
       </c>
       <c r="I601" s="12"/>
     </row>
-    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="1">
         <v>409201</v>
       </c>
     </row>
-    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="1">
         <v>409202</v>
       </c>
     </row>
-    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="1">
         <v>409203</v>
       </c>
     </row>
-    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="1">
         <v>409204</v>
       </c>
@@ -7735,7 +7742,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="1">
         <v>409205</v>
       </c>
@@ -7743,7 +7750,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="1">
         <v>409206</v>
       </c>
@@ -7751,7 +7758,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="1">
         <v>409207</v>
       </c>
@@ -7759,7 +7766,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="1">
         <v>409208</v>
       </c>
@@ -7767,7 +7774,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="1">
         <v>409209</v>
       </c>
@@ -7775,7 +7782,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="1">
         <v>409210</v>
       </c>
@@ -7783,7 +7790,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="1">
         <v>409211</v>
       </c>
@@ -7791,7 +7798,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="1">
         <v>409212</v>
       </c>
@@ -7799,7 +7806,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="1">
         <v>409213</v>
       </c>
@@ -7807,7 +7814,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="1">
         <v>409214</v>
       </c>
@@ -7815,22 +7822,22 @@
         <v>458</v>
       </c>
     </row>
-    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H616" s="20" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H617" s="20" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H618" s="20" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H619" s="20" t="s">
         <v>461</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A73DDD-BA3F-4284-B726-C5A014EBC319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9458425A-2DC0-41C5-8BF8-AE7DAE33C16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2775,8 +2775,8 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D416" sqref="D416"/>
+      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H425" sqref="H425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6555,9 +6555,6 @@
       </c>
     </row>
     <row r="417" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="B417" s="1">
         <v>409016</v>
       </c>
@@ -6624,6 +6621,9 @@
       </c>
     </row>
     <row r="429" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B429" s="1">
         <v>409028</v>
       </c>

--- a/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
+++ b/lotr_tale_years/tale_of_years_lotr_lord_of_the_rings_day_by_day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9458425A-2DC0-41C5-8BF8-AE7DAE33C16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8741C80-167F-45A4-A956-DF7F15D27B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="0" windowWidth="24315" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2775,8 +2775,8 @@
   <dimension ref="A1:P619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H425" sqref="H425"/>
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A459" sqref="A459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6621,9 +6621,6 @@
       </c>
     </row>
     <row r="429" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="B429" s="1">
         <v>409028</v>
       </c>
@@ -6729,82 +6726,85 @@
         <v>409047</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="1">
         <v>409048</v>
       </c>
     </row>
-    <row r="450" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="1">
         <v>409049</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="1">
         <v>409050</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1">
         <v>409051</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="1">
         <v>409052</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="1">
         <v>409053</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="1">
         <v>409054</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="1">
         <v>409055</v>
       </c>
     </row>
-    <row r="457" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="1">
         <v>409056</v>
       </c>
     </row>
-    <row r="458" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="1">
         <v>409057</v>
       </c>
     </row>
-    <row r="459" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="B459" s="1">
         <v>409058</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="1">
         <v>409059</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1">
         <v>409060</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="1">
         <v>409061</v>
       </c>
     </row>
-    <row r="463" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="1">
         <v>409062</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="1">
         <v>409063</v>
       </c>
